--- a/result/NCDC_weather_data/stations_imputed/56080099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/56080099999.xlsx
@@ -581,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -697,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -755,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -813,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -871,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -929,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -987,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1045,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1103,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1161,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1219,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1277,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1335,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1393,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1451,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1509,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1567,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1625,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1683,7 +1721,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1741,7 +1781,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1799,7 +1841,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1857,7 +1901,9 @@
       <c r="Q24" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1915,7 +1961,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1973,7 +2021,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2031,7 +2081,9 @@
       <c r="Q27" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2089,7 +2141,9 @@
       <c r="Q28" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0.01715310638297872</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">

--- a/result/NCDC_weather_data/stations_imputed/56080099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/56080099999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R498"/>
+  <dimension ref="A1:S498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>SNDP</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -552,7 +557,7 @@
         <v>55.40000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>20.48</v>
+        <v>-6.4</v>
       </c>
       <c r="I2" t="n">
         <v>103.62</v>
@@ -584,6 +589,9 @@
       <c r="R2" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S2" t="n">
+        <v>2.347000886430505</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -612,7 +620,7 @@
         <v>66.2</v>
       </c>
       <c r="H3" t="n">
-        <v>21.74</v>
+        <v>-5.7</v>
       </c>
       <c r="I3" t="n">
         <v>102.84</v>
@@ -644,6 +652,9 @@
       <c r="R3" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S3" t="n">
+        <v>1.498657901809384</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -672,7 +683,7 @@
         <v>61.52</v>
       </c>
       <c r="H4" t="n">
-        <v>28.94</v>
+        <v>-1.7</v>
       </c>
       <c r="I4" t="n">
         <v>102.91</v>
@@ -704,6 +715,9 @@
       <c r="R4" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S4" t="n">
+        <v>2.501891918243095</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -732,7 +746,7 @@
         <v>57.38</v>
       </c>
       <c r="H5" t="n">
-        <v>25.16</v>
+        <v>-3.8</v>
       </c>
       <c r="I5" t="n">
         <v>102.85</v>
@@ -764,6 +778,9 @@
       <c r="R5" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S5" t="n">
+        <v>2.599314530561127</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -792,7 +809,7 @@
         <v>68.36</v>
       </c>
       <c r="H6" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="I6" t="n">
         <v>102.71</v>
@@ -824,6 +841,9 @@
       <c r="R6" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S6" t="n">
+        <v>1.606732105126197</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -852,7 +872,7 @@
         <v>67.46000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>29.12</v>
+        <v>-1.6</v>
       </c>
       <c r="I7" t="n">
         <v>102.96</v>
@@ -884,6 +904,9 @@
       <c r="R7" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S7" t="n">
+        <v>1.92503944909704</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -912,7 +935,7 @@
         <v>70.52</v>
       </c>
       <c r="H8" t="n">
-        <v>41.9</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
         <v>102.87</v>
@@ -944,6 +967,9 @@
       <c r="R8" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S8" t="n">
+        <v>2.793484514021628</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -972,7 +998,7 @@
         <v>69.98</v>
       </c>
       <c r="H9" t="n">
-        <v>35.78</v>
+        <v>2.1</v>
       </c>
       <c r="I9" t="n">
         <v>102.65</v>
@@ -1004,6 +1030,9 @@
       <c r="R9" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S9" t="n">
+        <v>2.251684041244955</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1032,7 +1061,7 @@
         <v>72.5</v>
       </c>
       <c r="H10" t="n">
-        <v>36.5</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="n">
         <v>102.27</v>
@@ -1064,6 +1093,9 @@
       <c r="R10" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S10" t="n">
+        <v>2.076551419977329</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1092,7 +1124,7 @@
         <v>59.18</v>
       </c>
       <c r="H11" t="n">
-        <v>38.12</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
         <v>103.11</v>
@@ -1124,6 +1156,9 @@
       <c r="R11" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S11" t="n">
+        <v>4.029574130160047</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1152,7 +1187,7 @@
         <v>62.06</v>
       </c>
       <c r="H12" t="n">
-        <v>28.94</v>
+        <v>-1.7</v>
       </c>
       <c r="I12" t="n">
         <v>102.86</v>
@@ -1184,6 +1219,9 @@
       <c r="R12" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S12" t="n">
+        <v>2.440293297499641</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1212,7 +1250,7 @@
         <v>53.78</v>
       </c>
       <c r="H13" t="n">
-        <v>20.48</v>
+        <v>-6.4</v>
       </c>
       <c r="I13" t="n">
         <v>103.47</v>
@@ -1244,6 +1282,9 @@
       <c r="R13" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S13" t="n">
+        <v>2.538522321300407</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1272,7 +1313,7 @@
         <v>58.1</v>
       </c>
       <c r="H14" t="n">
-        <v>26.24</v>
+        <v>-3.2</v>
       </c>
       <c r="I14" t="n">
         <v>102.66</v>
@@ -1304,6 +1345,9 @@
       <c r="R14" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S14" t="n">
+        <v>2.627226276477129</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1332,7 +1376,7 @@
         <v>64.75999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>21.92</v>
+        <v>-5.6</v>
       </c>
       <c r="I15" t="n">
         <v>102.56</v>
@@ -1364,6 +1408,9 @@
       <c r="R15" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S15" t="n">
+        <v>1.611353877606547</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1392,7 +1439,7 @@
         <v>62.6</v>
       </c>
       <c r="H16" t="n">
-        <v>18.86</v>
+        <v>-7.3</v>
       </c>
       <c r="I16" t="n">
         <v>103.03</v>
@@ -1424,6 +1471,9 @@
       <c r="R16" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S16" t="n">
+        <v>1.561112572597786</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1452,7 +1502,7 @@
         <v>57.02</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5</v>
+        <v>-17.5</v>
       </c>
       <c r="I17" t="n">
         <v>103.67</v>
@@ -1484,6 +1534,9 @@
       <c r="R17" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.8906989944971904</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1512,7 +1565,7 @@
         <v>58.64</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.100000000000001</v>
+        <v>-19.5</v>
       </c>
       <c r="I18" t="n">
         <v>103.6</v>
@@ -1544,6 +1597,9 @@
       <c r="R18" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S18" t="n">
+        <v>0.6959349160333813</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1572,7 +1628,7 @@
         <v>56.66</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.440000000000005</v>
+        <v>-20.8</v>
       </c>
       <c r="I19" t="n">
         <v>103.52</v>
@@ -1604,6 +1660,9 @@
       <c r="R19" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.6833906634436665</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1632,7 +1691,7 @@
         <v>64.22</v>
       </c>
       <c r="H20" t="n">
-        <v>5.359999999999999</v>
+        <v>-14.8</v>
       </c>
       <c r="I20" t="n">
         <v>102.24</v>
@@ -1664,6 +1723,9 @@
       <c r="R20" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S20" t="n">
+        <v>0.7977330496921096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1692,7 +1754,7 @@
         <v>70.34</v>
       </c>
       <c r="H21" t="n">
-        <v>31.46</v>
+        <v>-0.3</v>
       </c>
       <c r="I21" t="n">
         <v>101.81</v>
@@ -1724,6 +1786,9 @@
       <c r="R21" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S21" t="n">
+        <v>1.864606831043889</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1752,7 +1817,7 @@
         <v>67.46000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>30.92</v>
+        <v>-0.6</v>
       </c>
       <c r="I22" t="n">
         <v>101.68</v>
@@ -1784,6 +1849,9 @@
       <c r="R22" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S22" t="n">
+        <v>2.071294161252022</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1812,7 +1880,7 @@
         <v>68.72</v>
       </c>
       <c r="H23" t="n">
-        <v>41.36</v>
+        <v>5.2</v>
       </c>
       <c r="I23" t="n">
         <v>101.98</v>
@@ -1844,6 +1912,9 @@
       <c r="R23" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S23" t="n">
+        <v>2.960739210723197</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1872,7 +1943,7 @@
         <v>67.46000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>47.12</v>
+        <v>8.4</v>
       </c>
       <c r="I24" t="n">
         <v>102.17</v>
@@ -1904,6 +1975,9 @@
       <c r="R24" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S24" t="n">
+        <v>3.900306052831441</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1932,7 +2006,7 @@
         <v>69.62</v>
       </c>
       <c r="H25" t="n">
-        <v>43.88</v>
+        <v>6.6</v>
       </c>
       <c r="I25" t="n">
         <v>102.06</v>
@@ -1964,6 +2038,9 @@
       <c r="R25" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S25" t="n">
+        <v>3.135137778822859</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1992,7 +2069,7 @@
         <v>69.80000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>55.58</v>
+        <v>13.1</v>
       </c>
       <c r="I26" t="n">
         <v>101.73</v>
@@ -2024,6 +2101,9 @@
       <c r="R26" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S26" t="n">
+        <v>4.809387187289069</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2052,7 +2132,7 @@
         <v>65.30000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>54.68</v>
+        <v>12.6</v>
       </c>
       <c r="I27" t="n">
         <v>102.23</v>
@@ -2084,6 +2164,9 @@
       <c r="R27" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S27" t="n">
+        <v>5.685742850835863</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2112,7 +2195,7 @@
         <v>53.96</v>
       </c>
       <c r="H28" t="n">
-        <v>45.68</v>
+        <v>7.6</v>
       </c>
       <c r="I28" t="n">
         <v>103</v>
@@ -2144,6 +2227,9 @@
       <c r="R28" t="n">
         <v>0.01715310638297872</v>
       </c>
+      <c r="S28" t="n">
+        <v>6.921289472150082</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2172,7 +2258,7 @@
         <v>41</v>
       </c>
       <c r="H29" t="n">
-        <v>28.22</v>
+        <v>-2.1</v>
       </c>
       <c r="I29" t="n">
         <v>103.45</v>
@@ -2204,6 +2290,9 @@
       <c r="R29" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S29" t="n">
+        <v>6.719319434719975</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2232,7 +2321,7 @@
         <v>47.84</v>
       </c>
       <c r="H30" t="n">
-        <v>18.32</v>
+        <v>-7.6</v>
       </c>
       <c r="I30" t="n">
         <v>102.96</v>
@@ -2264,6 +2353,9 @@
       <c r="R30" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S30" t="n">
+        <v>3.109187587132368</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2292,7 +2384,7 @@
         <v>46.22</v>
       </c>
       <c r="H31" t="n">
-        <v>18.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I31" t="n">
         <v>103.18</v>
@@ -2324,6 +2416,9 @@
       <c r="R31" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S31" t="n">
+        <v>3.403040896342859</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2352,7 +2447,7 @@
         <v>49.46</v>
       </c>
       <c r="H32" t="n">
-        <v>25.16</v>
+        <v>-3.8</v>
       </c>
       <c r="I32" t="n">
         <v>103.01</v>
@@ -2384,6 +2479,9 @@
       <c r="R32" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S32" t="n">
+        <v>3.826097198055095</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2412,7 +2510,7 @@
         <v>52.7</v>
       </c>
       <c r="H33" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I33" t="n">
         <v>103.18</v>
@@ -2444,6 +2542,9 @@
       <c r="R33" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S33" t="n">
+        <v>4.008640192381458</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2472,7 +2573,7 @@
         <v>55.94</v>
       </c>
       <c r="H34" t="n">
-        <v>32.54</v>
+        <v>0.3</v>
       </c>
       <c r="I34" t="n">
         <v>102.84</v>
@@ -2504,6 +2605,9 @@
       <c r="R34" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S34" t="n">
+        <v>3.765518243155921</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2532,7 +2636,7 @@
         <v>57.38</v>
       </c>
       <c r="H35" t="n">
-        <v>26.6</v>
+        <v>-3</v>
       </c>
       <c r="I35" t="n">
         <v>102.88</v>
@@ -2564,6 +2668,9 @@
       <c r="R35" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S35" t="n">
+        <v>2.75924509001495</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2592,7 +2699,7 @@
         <v>61.7</v>
       </c>
       <c r="H36" t="n">
-        <v>43.7</v>
+        <v>6.5</v>
       </c>
       <c r="I36" t="n">
         <v>102.77</v>
@@ -2624,6 +2731,9 @@
       <c r="R36" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S36" t="n">
+        <v>4.447661807209253</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2652,7 +2762,7 @@
         <v>55.58</v>
       </c>
       <c r="H37" t="n">
-        <v>44.24</v>
+        <v>6.8</v>
       </c>
       <c r="I37" t="n">
         <v>102.51</v>
@@ -2684,6 +2794,9 @@
       <c r="R37" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S37" t="n">
+        <v>6.058644024120242</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2712,7 +2825,7 @@
         <v>51.8</v>
       </c>
       <c r="H38" t="n">
-        <v>39.02</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
         <v>102.67</v>
@@ -2744,6 +2857,9 @@
       <c r="R38" t="n">
         <v>0.03048</v>
       </c>
+      <c r="S38" t="n">
+        <v>5.954450996846479</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2772,7 +2888,7 @@
         <v>52.16</v>
       </c>
       <c r="H39" t="n">
-        <v>35.24</v>
+        <v>1.8</v>
       </c>
       <c r="I39" t="n">
         <v>102.72</v>
@@ -2804,6 +2920,9 @@
       <c r="R39" t="n">
         <v>0.03048</v>
       </c>
+      <c r="S39" t="n">
+        <v>5.040526684009405</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2832,7 +2951,7 @@
         <v>44.42</v>
       </c>
       <c r="H40" t="n">
-        <v>35.6</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
         <v>103.23</v>
@@ -2864,6 +2983,9 @@
       <c r="R40" t="n">
         <v>0.03048</v>
       </c>
+      <c r="S40" t="n">
+        <v>7.561064371968398</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2892,7 +3014,7 @@
         <v>60.08</v>
       </c>
       <c r="H41" t="n">
-        <v>38.12</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
         <v>102.67</v>
@@ -2924,6 +3046,9 @@
       <c r="R41" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S41" t="n">
+        <v>3.863285986907147</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2952,7 +3077,7 @@
         <v>62.78</v>
       </c>
       <c r="H42" t="n">
-        <v>48.02</v>
+        <v>8.9</v>
       </c>
       <c r="I42" t="n">
         <v>102.26</v>
@@ -2984,6 +3109,9 @@
       <c r="R42" t="n">
         <v>0.02709333333333333</v>
       </c>
+      <c r="S42" t="n">
+        <v>4.984422913129302</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3012,7 +3140,7 @@
         <v>66.92</v>
       </c>
       <c r="H43" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I43" t="n">
         <v>102.35</v>
@@ -3044,6 +3172,9 @@
       <c r="R43" t="n">
         <v>0.03386666666666667</v>
       </c>
+      <c r="S43" t="n">
+        <v>4.450126687204125</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3072,7 +3203,7 @@
         <v>62.6</v>
       </c>
       <c r="H44" t="n">
-        <v>33.8</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>102.37</v>
@@ -3104,6 +3235,9 @@
       <c r="R44" t="n">
         <v>0.04064</v>
       </c>
+      <c r="S44" t="n">
+        <v>2.897296099992669</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3132,7 +3266,7 @@
         <v>60.08</v>
       </c>
       <c r="H45" t="n">
-        <v>23.18</v>
+        <v>-4.9</v>
       </c>
       <c r="I45" t="n">
         <v>102.59</v>
@@ -3164,6 +3298,9 @@
       <c r="R45" t="n">
         <v>0.039878</v>
       </c>
+      <c r="S45" t="n">
+        <v>2.107093551723835</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3192,7 +3329,7 @@
         <v>64.03999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>28.04</v>
+        <v>-2.2</v>
       </c>
       <c r="I46" t="n">
         <v>102.7</v>
@@ -3224,6 +3361,9 @@
       <c r="R46" t="n">
         <v>0.039116</v>
       </c>
+      <c r="S46" t="n">
+        <v>2.1481121399288</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3252,7 +3392,7 @@
         <v>68.53999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>34.34</v>
+        <v>1.3</v>
       </c>
       <c r="I47" t="n">
         <v>102.2</v>
@@ -3284,6 +3424,9 @@
       <c r="R47" t="n">
         <v>0.038354</v>
       </c>
+      <c r="S47" t="n">
+        <v>2.265435528075987</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3312,7 +3455,7 @@
         <v>74.66</v>
       </c>
       <c r="H48" t="n">
-        <v>56.12</v>
+        <v>13.4</v>
       </c>
       <c r="I48" t="n">
         <v>101.44</v>
@@ -3344,6 +3487,9 @@
       <c r="R48" t="n">
         <v>0.037592</v>
       </c>
+      <c r="S48" t="n">
+        <v>3.976372167632434</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3372,7 +3518,7 @@
         <v>73.58000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>63.31999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="I49" t="n">
         <v>101.52</v>
@@ -3404,6 +3550,9 @@
       <c r="R49" t="n">
         <v>0.03683</v>
       </c>
+      <c r="S49" t="n">
+        <v>5.38280609148416</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3432,7 +3581,7 @@
         <v>57.02</v>
       </c>
       <c r="H50" t="n">
-        <v>45.68</v>
+        <v>7.6</v>
       </c>
       <c r="I50" t="n">
         <v>102.85</v>
@@ -3464,6 +3613,9 @@
       <c r="R50" t="n">
         <v>0.036068</v>
       </c>
+      <c r="S50" t="n">
+        <v>5.973412007967848</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3492,7 +3644,7 @@
         <v>52.16</v>
       </c>
       <c r="H51" t="n">
-        <v>30.92</v>
+        <v>-0.6</v>
       </c>
       <c r="I51" t="n">
         <v>103.47</v>
@@ -3524,6 +3676,9 @@
       <c r="R51" t="n">
         <v>0.035306</v>
       </c>
+      <c r="S51" t="n">
+        <v>4.238465727379784</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3552,7 +3707,7 @@
         <v>53.24</v>
       </c>
       <c r="H52" t="n">
-        <v>28.4</v>
+        <v>-2</v>
       </c>
       <c r="I52" t="n">
         <v>103.29</v>
@@ -3584,6 +3739,9 @@
       <c r="R52" t="n">
         <v>0.03454400000000001</v>
       </c>
+      <c r="S52" t="n">
+        <v>3.627516796953214</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3612,7 +3770,7 @@
         <v>56.48</v>
       </c>
       <c r="H53" t="n">
-        <v>31.64</v>
+        <v>-0.2</v>
       </c>
       <c r="I53" t="n">
         <v>103.41</v>
@@ -3644,6 +3802,9 @@
       <c r="R53" t="n">
         <v>0.03378200000000001</v>
       </c>
+      <c r="S53" t="n">
+        <v>3.538670584933588</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3672,7 +3833,7 @@
         <v>59.36</v>
       </c>
       <c r="H54" t="n">
-        <v>41.72</v>
+        <v>5.4</v>
       </c>
       <c r="I54" t="n">
         <v>103.17</v>
@@ -3704,6 +3865,9 @@
       <c r="R54" t="n">
         <v>0.03302</v>
       </c>
+      <c r="S54" t="n">
+        <v>4.596254060800888</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3732,7 +3896,7 @@
         <v>57.56</v>
       </c>
       <c r="H55" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="I55" t="n">
         <v>103.34</v>
@@ -3764,6 +3928,9 @@
       <c r="R55" t="n">
         <v>0.032258</v>
       </c>
+      <c r="S55" t="n">
+        <v>2.635664975218844</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3792,7 +3959,7 @@
         <v>62.96</v>
       </c>
       <c r="H56" t="n">
-        <v>24.26</v>
+        <v>-4.3</v>
       </c>
       <c r="I56" t="n">
         <v>103.14</v>
@@ -3824,6 +3991,9 @@
       <c r="R56" t="n">
         <v>0.031496</v>
       </c>
+      <c r="S56" t="n">
+        <v>1.929671183300713</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3852,7 +4022,7 @@
         <v>67.09999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>40.82</v>
+        <v>4.9</v>
       </c>
       <c r="I57" t="n">
         <v>103.03</v>
@@ -3884,6 +4054,9 @@
       <c r="R57" t="n">
         <v>0.030734</v>
       </c>
+      <c r="S57" t="n">
+        <v>3.115598700780255</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3912,7 +4085,7 @@
         <v>77.53999999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>48.74</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I58" t="n">
         <v>102.39</v>
@@ -3944,6 +4117,9 @@
       <c r="R58" t="n">
         <v>0.029972</v>
       </c>
+      <c r="S58" t="n">
+        <v>2.684305797708046</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3972,7 +4148,7 @@
         <v>82.94</v>
       </c>
       <c r="H59" t="n">
-        <v>57.38</v>
+        <v>14.1</v>
       </c>
       <c r="I59" t="n">
         <v>101.51</v>
@@ -4004,6 +4180,9 @@
       <c r="R59" t="n">
         <v>0.02921</v>
       </c>
+      <c r="S59" t="n">
+        <v>2.953124163490657</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4032,7 +4211,7 @@
         <v>69.25999999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>50.54000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="I60" t="n">
         <v>102.61</v>
@@ -4064,6 +4243,9 @@
       <c r="R60" t="n">
         <v>0.028448</v>
       </c>
+      <c r="S60" t="n">
+        <v>4.093057991182879</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4092,7 +4274,7 @@
         <v>71.06</v>
       </c>
       <c r="H61" t="n">
-        <v>31.46</v>
+        <v>-0.3</v>
       </c>
       <c r="I61" t="n">
         <v>102.58</v>
@@ -4124,6 +4306,9 @@
       <c r="R61" t="n">
         <v>0.027686</v>
       </c>
+      <c r="S61" t="n">
+        <v>1.807003555709961</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4152,7 +4337,7 @@
         <v>79.16</v>
       </c>
       <c r="H62" t="n">
-        <v>42.8</v>
+        <v>6</v>
       </c>
       <c r="I62" t="n">
         <v>102.16</v>
@@ -4184,6 +4369,9 @@
       <c r="R62" t="n">
         <v>0.026924</v>
       </c>
+      <c r="S62" t="n">
+        <v>2.003747456571345</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4212,7 +4400,7 @@
         <v>83.84</v>
       </c>
       <c r="H63" t="n">
-        <v>52.52</v>
+        <v>11.4</v>
       </c>
       <c r="I63" t="n">
         <v>102.03</v>
@@ -4244,6 +4432,9 @@
       <c r="R63" t="n">
         <v>0.026162</v>
       </c>
+      <c r="S63" t="n">
+        <v>2.386199636176187</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4272,7 +4463,7 @@
         <v>88.52</v>
       </c>
       <c r="H64" t="n">
-        <v>47.3</v>
+        <v>8.5</v>
       </c>
       <c r="I64" t="n">
         <v>101.83</v>
@@ -4304,6 +4495,9 @@
       <c r="R64" t="n">
         <v>0.0254</v>
       </c>
+      <c r="S64" t="n">
+        <v>1.632602757211248</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4332,7 +4526,7 @@
         <v>88.7</v>
       </c>
       <c r="H65" t="n">
-        <v>66.56</v>
+        <v>19.2</v>
       </c>
       <c r="I65" t="n">
         <v>101.65</v>
@@ -4364,6 +4558,9 @@
       <c r="R65" t="n">
         <v>0.024638</v>
       </c>
+      <c r="S65" t="n">
+        <v>3.249795961662743</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4392,7 +4589,7 @@
         <v>83.30000000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>21.38</v>
+        <v>-5.9</v>
       </c>
       <c r="I66" t="n">
         <v>102.6</v>
@@ -4424,6 +4621,9 @@
       <c r="R66" t="n">
         <v>0.023876</v>
       </c>
+      <c r="S66" t="n">
+        <v>0.7134687120136913</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4452,7 +4652,7 @@
         <v>91.94</v>
       </c>
       <c r="H67" t="n">
-        <v>35.24</v>
+        <v>1.8</v>
       </c>
       <c r="I67" t="n">
         <v>101.72</v>
@@ -4484,6 +4684,9 @@
       <c r="R67" t="n">
         <v>0.023114</v>
       </c>
+      <c r="S67" t="n">
+        <v>0.8973592562528023</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4512,7 +4715,7 @@
         <v>111.02</v>
       </c>
       <c r="H68" t="n">
-        <v>51.44</v>
+        <v>10.8</v>
       </c>
       <c r="I68" t="n">
         <v>100.95</v>
@@ -4544,6 +4747,9 @@
       <c r="R68" t="n">
         <v>0.022352</v>
       </c>
+      <c r="S68" t="n">
+        <v>0.8370624530143604</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4572,7 +4778,7 @@
         <v>94.63999999999999</v>
       </c>
       <c r="H69" t="n">
-        <v>78.98</v>
+        <v>26.1</v>
       </c>
       <c r="I69" t="n">
         <v>101.66</v>
@@ -4604,6 +4810,9 @@
       <c r="R69" t="n">
         <v>0.02159</v>
       </c>
+      <c r="S69" t="n">
+        <v>3.936346119893105</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4632,7 +4841,7 @@
         <v>101.66</v>
       </c>
       <c r="H70" t="n">
-        <v>56.3</v>
+        <v>13.5</v>
       </c>
       <c r="I70" t="n">
         <v>101.37</v>
@@ -4664,6 +4873,9 @@
       <c r="R70" t="n">
         <v>0.020828</v>
       </c>
+      <c r="S70" t="n">
+        <v>1.38959794539728</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4692,7 +4904,7 @@
         <v>108.32</v>
       </c>
       <c r="H71" t="n">
-        <v>59.18</v>
+        <v>15.1</v>
       </c>
       <c r="I71" t="n">
         <v>101.03</v>
@@ -4724,6 +4936,9 @@
       <c r="R71" t="n">
         <v>0.020066</v>
       </c>
+      <c r="S71" t="n">
+        <v>1.217284107232009</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4752,7 +4967,7 @@
         <v>97.88000000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>30.92</v>
+        <v>-0.6</v>
       </c>
       <c r="I72" t="n">
         <v>101.25</v>
@@ -4784,6 +4999,9 @@
       <c r="R72" t="n">
         <v>0.019304</v>
       </c>
+      <c r="S72" t="n">
+        <v>0.6036291305889493</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4812,7 +5030,7 @@
         <v>109.76</v>
       </c>
       <c r="H73" t="n">
-        <v>34.88</v>
+        <v>1.6</v>
       </c>
       <c r="I73" t="n">
         <v>101.41</v>
@@ -4844,6 +5062,9 @@
       <c r="R73" t="n">
         <v>0.018542</v>
       </c>
+      <c r="S73" t="n">
+        <v>0.4631724098281341</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4872,7 +5093,7 @@
         <v>109.4</v>
       </c>
       <c r="H74" t="n">
-        <v>43.52</v>
+        <v>6.4</v>
       </c>
       <c r="I74" t="n">
         <v>101.31</v>
@@ -4904,6 +5125,9 @@
       <c r="R74" t="n">
         <v>0.01778</v>
       </c>
+      <c r="S74" t="n">
+        <v>0.6570160236693896</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4932,7 +5156,7 @@
         <v>110.12</v>
       </c>
       <c r="H75" t="n">
-        <v>63.14</v>
+        <v>17.3</v>
       </c>
       <c r="I75" t="n">
         <v>100.85</v>
@@ -4964,6 +5188,9 @@
       <c r="R75" t="n">
         <v>0.017018</v>
       </c>
+      <c r="S75" t="n">
+        <v>1.316167018305969</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4992,7 +5219,7 @@
         <v>108.68</v>
       </c>
       <c r="H76" t="n">
-        <v>73.58000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="I76" t="n">
         <v>100.93</v>
@@ -5024,6 +5251,9 @@
       <c r="R76" t="n">
         <v>0.016256</v>
       </c>
+      <c r="S76" t="n">
+        <v>1.980585629776046</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5052,7 +5282,7 @@
         <v>120.02</v>
       </c>
       <c r="H77" t="n">
-        <v>46.04</v>
+        <v>7.8</v>
       </c>
       <c r="I77" t="n">
         <v>100.58</v>
@@ -5084,6 +5314,9 @@
       <c r="R77" t="n">
         <v>0.015494</v>
       </c>
+      <c r="S77" t="n">
+        <v>0.5064566860924581</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5112,7 +5345,7 @@
         <v>115.7</v>
       </c>
       <c r="H78" t="n">
-        <v>43.52</v>
+        <v>6.4</v>
       </c>
       <c r="I78" t="n">
         <v>100.16</v>
@@ -5144,6 +5377,9 @@
       <c r="R78" t="n">
         <v>0.014732</v>
       </c>
+      <c r="S78" t="n">
+        <v>0.5305259296004257</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5172,7 +5408,7 @@
         <v>114.8</v>
       </c>
       <c r="H79" t="n">
-        <v>67.28</v>
+        <v>19.6</v>
       </c>
       <c r="I79" t="n">
         <v>100.21</v>
@@ -5204,6 +5440,9 @@
       <c r="R79" t="n">
         <v>0.01397</v>
       </c>
+      <c r="S79" t="n">
+        <v>1.296955828681375</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5232,7 +5471,7 @@
         <v>104.9</v>
       </c>
       <c r="H80" t="n">
-        <v>79.16</v>
+        <v>26.2</v>
       </c>
       <c r="I80" t="n">
         <v>100.72</v>
@@ -5264,6 +5503,9 @@
       <c r="R80" t="n">
         <v>0.013208</v>
       </c>
+      <c r="S80" t="n">
+        <v>2.722224113692164</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5292,7 +5534,7 @@
         <v>97.34</v>
       </c>
       <c r="H81" t="n">
-        <v>77.72</v>
+        <v>25.4</v>
       </c>
       <c r="I81" t="n">
         <v>101.18</v>
@@ -5324,6 +5566,9 @@
       <c r="R81" t="n">
         <v>0.012446</v>
       </c>
+      <c r="S81" t="n">
+        <v>3.414084789063942</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5352,7 +5597,7 @@
         <v>102.56</v>
       </c>
       <c r="H82" t="n">
-        <v>64.40000000000001</v>
+        <v>18</v>
       </c>
       <c r="I82" t="n">
         <v>101.5</v>
@@ -5384,6 +5629,9 @@
       <c r="R82" t="n">
         <v>0.011684</v>
       </c>
+      <c r="S82" t="n">
+        <v>1.794443485998614</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5412,7 +5660,7 @@
         <v>111.74</v>
       </c>
       <c r="H83" t="n">
-        <v>57.56</v>
+        <v>14.2</v>
       </c>
       <c r="I83" t="n">
         <v>100.52</v>
@@ -5444,6 +5692,9 @@
       <c r="R83" t="n">
         <v>0.010922</v>
       </c>
+      <c r="S83" t="n">
+        <v>1.020992964678045</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5472,7 +5723,7 @@
         <v>105.26</v>
       </c>
       <c r="H84" t="n">
-        <v>72.86</v>
+        <v>22.7</v>
       </c>
       <c r="I84" t="n">
         <v>100.26</v>
@@ -5504,6 +5755,9 @@
       <c r="R84" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S84" t="n">
+        <v>2.179172926231852</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5532,7 +5786,7 @@
         <v>88.34</v>
       </c>
       <c r="H85" t="n">
-        <v>77.72</v>
+        <v>25.4</v>
       </c>
       <c r="I85" t="n">
         <v>101.71</v>
@@ -5564,6 +5818,9 @@
       <c r="R85" t="n">
         <v>0.01524</v>
       </c>
+      <c r="S85" t="n">
+        <v>4.808003132141842</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5592,7 +5849,7 @@
         <v>86</v>
       </c>
       <c r="H86" t="n">
-        <v>76.64</v>
+        <v>24.8</v>
       </c>
       <c r="I86" t="n">
         <v>102.33</v>
@@ -5624,6 +5881,9 @@
       <c r="R86" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S86" t="n">
+        <v>5.086446094211207</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5652,7 +5912,7 @@
         <v>91.76000000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>53.06</v>
+        <v>11.7</v>
       </c>
       <c r="I87" t="n">
         <v>101.66</v>
@@ -5684,6 +5944,9 @@
       <c r="R87" t="n">
         <v>0.01778</v>
       </c>
+      <c r="S87" t="n">
+        <v>1.784310161360838</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5712,7 +5975,7 @@
         <v>103.82</v>
       </c>
       <c r="H88" t="n">
-        <v>60.62</v>
+        <v>15.9</v>
       </c>
       <c r="I88" t="n">
         <v>100.83</v>
@@ -5744,6 +6007,9 @@
       <c r="R88" t="n">
         <v>0.01524</v>
       </c>
+      <c r="S88" t="n">
+        <v>1.501383751664771</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5772,7 +6038,7 @@
         <v>102.2</v>
       </c>
       <c r="H89" t="n">
-        <v>70.52</v>
+        <v>21.4</v>
       </c>
       <c r="I89" t="n">
         <v>101.34</v>
@@ -5804,6 +6070,9 @@
       <c r="R89" t="n">
         <v>0.0127</v>
       </c>
+      <c r="S89" t="n">
+        <v>2.245271310901963</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5832,7 +6101,7 @@
         <v>87.08000000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>75.56</v>
+        <v>24.2</v>
       </c>
       <c r="I90" t="n">
         <v>102.7</v>
@@ -5864,6 +6133,9 @@
       <c r="R90" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S90" t="n">
+        <v>4.701941276340137</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5892,7 +6164,7 @@
         <v>85.81999999999999</v>
       </c>
       <c r="H91" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I91" t="n">
         <v>103.49</v>
@@ -5924,6 +6196,9 @@
       <c r="R91" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S91" t="n">
+        <v>4.195508109119038</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5952,7 +6227,7 @@
         <v>87.62</v>
       </c>
       <c r="H92" t="n">
-        <v>69.80000000000001</v>
+        <v>21</v>
       </c>
       <c r="I92" t="n">
         <v>103.39</v>
@@ -5984,6 +6259,9 @@
       <c r="R92" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S92" t="n">
+        <v>3.789741978856031</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6012,7 +6290,7 @@
         <v>88.52</v>
       </c>
       <c r="H93" t="n">
-        <v>58.82</v>
+        <v>14.9</v>
       </c>
       <c r="I93" t="n">
         <v>102.69</v>
@@ -6044,6 +6322,9 @@
       <c r="R93" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S93" t="n">
+        <v>2.491937895191975</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6072,7 +6353,7 @@
         <v>98.60000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>68.53999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="I94" t="n">
         <v>102.06</v>
@@ -6104,6 +6385,9 @@
       <c r="R94" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S94" t="n">
+        <v>2.391861679443934</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6132,7 +6416,7 @@
         <v>98.78</v>
       </c>
       <c r="H95" t="n">
-        <v>68.53999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="I95" t="n">
         <v>102.53</v>
@@ -6164,6 +6448,9 @@
       <c r="R95" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S95" t="n">
+        <v>2.376093773059174</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6192,7 +6479,7 @@
         <v>98.60000000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>72.31999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="I96" t="n">
         <v>102.57</v>
@@ -6224,6 +6511,9 @@
       <c r="R96" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S96" t="n">
+        <v>2.720690197664962</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6252,7 +6542,7 @@
         <v>99.31999999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>60.98</v>
+        <v>16.1</v>
       </c>
       <c r="I97" t="n">
         <v>102.72</v>
@@ -6284,6 +6574,9 @@
       <c r="R97" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S97" t="n">
+        <v>1.789216505514557</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6312,7 +6605,7 @@
         <v>108.86</v>
       </c>
       <c r="H98" t="n">
-        <v>52.52</v>
+        <v>11.4</v>
       </c>
       <c r="I98" t="n">
         <v>101.8</v>
@@ -6344,6 +6637,9 @@
       <c r="R98" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S98" t="n">
+        <v>0.9383501302219025</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6372,7 +6668,7 @@
         <v>107.24</v>
       </c>
       <c r="H99" t="n">
-        <v>50.90000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I99" t="n">
         <v>101.52</v>
@@ -6404,6 +6700,9 @@
       <c r="R99" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S99" t="n">
+        <v>0.9351556619247939</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6432,7 +6731,7 @@
         <v>110.48</v>
       </c>
       <c r="H100" t="n">
-        <v>50.18</v>
+        <v>10.1</v>
       </c>
       <c r="I100" t="n">
         <v>101.09</v>
@@ -6464,6 +6763,9 @@
       <c r="R100" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S100" t="n">
+        <v>0.8137968989106076</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6492,7 +6794,7 @@
         <v>118.22</v>
       </c>
       <c r="H101" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I101" t="n">
         <v>100.7</v>
@@ -6524,6 +6826,9 @@
       <c r="R101" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S101" t="n">
+        <v>0.5263012160815673</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6552,7 +6857,7 @@
         <v>108.68</v>
       </c>
       <c r="H102" t="n">
-        <v>66.92</v>
+        <v>19.4</v>
       </c>
       <c r="I102" t="n">
         <v>101.09</v>
@@ -6584,6 +6889,9 @@
       <c r="R102" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S102" t="n">
+        <v>1.578154764517355</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6612,7 +6920,7 @@
         <v>107.96</v>
       </c>
       <c r="H103" t="n">
-        <v>68.72</v>
+        <v>20.4</v>
       </c>
       <c r="I103" t="n">
         <v>101.1</v>
@@ -6644,6 +6952,9 @@
       <c r="R103" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S103" t="n">
+        <v>1.721680110578359</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6672,7 +6983,7 @@
         <v>112.64</v>
       </c>
       <c r="H104" t="n">
-        <v>66.92</v>
+        <v>19.4</v>
       </c>
       <c r="I104" t="n">
         <v>100.66</v>
@@ -6704,6 +7015,9 @@
       <c r="R104" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S104" t="n">
+        <v>1.377693595972084</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6732,7 +7046,7 @@
         <v>103.1</v>
       </c>
       <c r="H105" t="n">
-        <v>85.46000000000001</v>
+        <v>29.7</v>
       </c>
       <c r="I105" t="n">
         <v>101.09</v>
@@ -6764,6 +7078,9 @@
       <c r="R105" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S105" t="n">
+        <v>3.560734383384111</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6792,7 +7109,7 @@
         <v>99.31999999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>89.59999999999999</v>
+        <v>32</v>
       </c>
       <c r="I106" t="n">
         <v>101.45</v>
@@ -6824,6 +7141,9 @@
       <c r="R106" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S106" t="n">
+        <v>4.656783122460773</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6852,7 +7172,7 @@
         <v>106.34</v>
       </c>
       <c r="H107" t="n">
-        <v>86.72</v>
+        <v>30.4</v>
       </c>
       <c r="I107" t="n">
         <v>101.16</v>
@@ -6884,6 +7204,9 @@
       <c r="R107" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S107" t="n">
+        <v>3.304373451789331</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6912,7 +7235,7 @@
         <v>94.63999999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>67.81999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I108" t="n">
         <v>102.23</v>
@@ -6944,6 +7267,9 @@
       <c r="R108" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S108" t="n">
+        <v>2.703631475505545</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6972,7 +7298,7 @@
         <v>91.40000000000001</v>
       </c>
       <c r="H109" t="n">
-        <v>59.90000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="I109" t="n">
         <v>102.18</v>
@@ -7004,6 +7330,9 @@
       <c r="R109" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S109" t="n">
+        <v>2.316813467974449</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7032,7 +7361,7 @@
         <v>112.1</v>
       </c>
       <c r="H110" t="n">
-        <v>37.58</v>
+        <v>3.1</v>
       </c>
       <c r="I110" t="n">
         <v>101.18</v>
@@ -7064,6 +7393,9 @@
       <c r="R110" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S110" t="n">
+        <v>0.4756731799471082</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7092,7 +7424,7 @@
         <v>105.26</v>
       </c>
       <c r="H111" t="n">
-        <v>78.62</v>
+        <v>25.9</v>
       </c>
       <c r="I111" t="n">
         <v>100.85</v>
@@ -7124,6 +7456,9 @@
       <c r="R111" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S111" t="n">
+        <v>2.640414631835974</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7152,7 +7487,7 @@
         <v>114.98</v>
       </c>
       <c r="H112" t="n">
-        <v>96.98</v>
+        <v>36.1</v>
       </c>
       <c r="I112" t="n">
         <v>101.13</v>
@@ -7184,6 +7519,9 @@
       <c r="R112" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S112" t="n">
+        <v>3.38402551493036</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7212,7 +7550,7 @@
         <v>119.66</v>
       </c>
       <c r="H113" t="n">
-        <v>95.72</v>
+        <v>35.4</v>
       </c>
       <c r="I113" t="n">
         <v>100.62</v>
@@ -7244,6 +7582,9 @@
       <c r="R113" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S113" t="n">
+        <v>2.789237940606138</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7272,7 +7613,7 @@
         <v>101.84</v>
       </c>
       <c r="H114" t="n">
-        <v>89.06</v>
+        <v>31.7</v>
       </c>
       <c r="I114" t="n">
         <v>101.58</v>
@@ -7304,6 +7645,9 @@
       <c r="R114" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S114" t="n">
+        <v>4.177509217814665</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7332,7 +7676,7 @@
         <v>111.02</v>
       </c>
       <c r="H115" t="n">
-        <v>91.40000000000001</v>
+        <v>33</v>
       </c>
       <c r="I115" t="n">
         <v>101.09</v>
@@ -7364,6 +7708,9 @@
       <c r="R115" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S115" t="n">
+        <v>3.256339909693969</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7392,7 +7739,7 @@
         <v>117.5</v>
       </c>
       <c r="H116" t="n">
-        <v>84.56</v>
+        <v>29.2</v>
       </c>
       <c r="I116" t="n">
         <v>101.23</v>
@@ -7424,6 +7771,9 @@
       <c r="R116" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S116" t="n">
+        <v>2.108362547212768</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7452,7 +7802,7 @@
         <v>93.38</v>
       </c>
       <c r="H117" t="n">
-        <v>91.03999999999999</v>
+        <v>32.8</v>
       </c>
       <c r="I117" t="n">
         <v>102.06</v>
@@ -7484,6 +7834,9 @@
       <c r="R117" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S117" t="n">
+        <v>6.07902111858545</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7512,7 +7865,7 @@
         <v>86.36</v>
       </c>
       <c r="H118" t="n">
-        <v>74.84</v>
+        <v>23.8</v>
       </c>
       <c r="I118" t="n">
         <v>103.16</v>
@@ -7544,6 +7897,9 @@
       <c r="R118" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S118" t="n">
+        <v>4.722474920872644</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7572,7 +7928,7 @@
         <v>89.78</v>
       </c>
       <c r="H119" t="n">
-        <v>72.86</v>
+        <v>22.7</v>
       </c>
       <c r="I119" t="n">
         <v>102.93</v>
@@ -7604,6 +7960,9 @@
       <c r="R119" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S119" t="n">
+        <v>3.865018344952492</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7632,7 +7991,7 @@
         <v>95.90000000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>65.48</v>
+        <v>18.6</v>
       </c>
       <c r="I120" t="n">
         <v>102.87</v>
@@ -7664,6 +8023,9 @@
       <c r="R120" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S120" t="n">
+        <v>2.378182339756026</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7692,7 +8054,7 @@
         <v>111.56</v>
       </c>
       <c r="H121" t="n">
-        <v>59.54000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="I121" t="n">
         <v>102.01</v>
@@ -7724,6 +8086,9 @@
       <c r="R121" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S121" t="n">
+        <v>1.102832358382607</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7752,7 +8117,7 @@
         <v>117.68</v>
       </c>
       <c r="H122" t="n">
-        <v>72.31999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="I122" t="n">
         <v>101.07</v>
@@ -7784,6 +8149,9 @@
       <c r="R122" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S122" t="n">
+        <v>1.400002654746366</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7812,7 +8180,7 @@
         <v>134.24</v>
       </c>
       <c r="H123" t="n">
-        <v>69.44</v>
+        <v>20.8</v>
       </c>
       <c r="I123" t="n">
         <v>100.46</v>
@@ -7844,6 +8212,9 @@
       <c r="R123" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S123" t="n">
+        <v>0.7529663321531801</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7872,7 +8243,7 @@
         <v>141.26</v>
       </c>
       <c r="H124" t="n">
-        <v>95.90000000000001</v>
+        <v>35.5</v>
       </c>
       <c r="I124" t="n">
         <v>100.1</v>
@@ -7904,6 +8275,9 @@
       <c r="R124" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S124" t="n">
+        <v>1.44220881047053</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7932,7 +8306,7 @@
         <v>109.58</v>
       </c>
       <c r="H125" t="n">
-        <v>84.74000000000001</v>
+        <v>29.3</v>
       </c>
       <c r="I125" t="n">
         <v>101.33</v>
@@ -7964,6 +8338,9 @@
       <c r="R125" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S125" t="n">
+        <v>2.770548795173798</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7992,7 +8369,7 @@
         <v>132.98</v>
       </c>
       <c r="H126" t="n">
-        <v>76.64</v>
+        <v>24.8</v>
       </c>
       <c r="I126" t="n">
         <v>100.88</v>
@@ -8024,6 +8401,9 @@
       <c r="R126" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S126" t="n">
+        <v>0.9970954789138299</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -8052,7 +8432,7 @@
         <v>113.36</v>
       </c>
       <c r="H127" t="n">
-        <v>96.26000000000001</v>
+        <v>35.7</v>
       </c>
       <c r="I127" t="n">
         <v>100.92</v>
@@ -8084,6 +8464,9 @@
       <c r="R127" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S127" t="n">
+        <v>3.495602209763689</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8112,7 +8495,7 @@
         <v>117.14</v>
       </c>
       <c r="H128" t="n">
-        <v>92.12</v>
+        <v>33.4</v>
       </c>
       <c r="I128" t="n">
         <v>100.85</v>
@@ -8144,6 +8527,9 @@
       <c r="R128" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S128" t="n">
+        <v>2.710485791142216</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8172,7 +8558,7 @@
         <v>100.22</v>
       </c>
       <c r="H129" t="n">
-        <v>93.38</v>
+        <v>34.1</v>
       </c>
       <c r="I129" t="n">
         <v>101.36</v>
@@ -8204,6 +8590,9 @@
       <c r="R129" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S129" t="n">
+        <v>5.071347022510071</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8232,7 +8621,7 @@
         <v>100.58</v>
       </c>
       <c r="H130" t="n">
-        <v>91.22</v>
+        <v>32.9</v>
       </c>
       <c r="I130" t="n">
         <v>101.86</v>
@@ -8264,6 +8653,9 @@
       <c r="R130" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S130" t="n">
+        <v>4.679625359071244</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8292,7 +8684,7 @@
         <v>96.62</v>
       </c>
       <c r="H131" t="n">
-        <v>89.78</v>
+        <v>32.1</v>
       </c>
       <c r="I131" t="n">
         <v>102.28</v>
@@ -8324,6 +8716,9 @@
       <c r="R131" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S131" t="n">
+        <v>5.173886439047931</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8352,7 +8747,7 @@
         <v>128.84</v>
       </c>
       <c r="H132" t="n">
-        <v>88.7</v>
+        <v>31.5</v>
       </c>
       <c r="I132" t="n">
         <v>100.76</v>
@@ -8384,6 +8779,9 @@
       <c r="R132" t="n">
         <v>0.01032126984126984</v>
       </c>
+      <c r="S132" t="n">
+        <v>1.673432183615243</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8412,7 +8810,7 @@
         <v>115.16</v>
       </c>
       <c r="H133" t="n">
-        <v>97.7</v>
+        <v>36.5</v>
       </c>
       <c r="I133" t="n">
         <v>101.11</v>
@@ -8444,6 +8842,9 @@
       <c r="R133" t="n">
         <v>0.01048253968253968</v>
       </c>
+      <c r="S133" t="n">
+        <v>3.438467924811065</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8472,7 +8873,7 @@
         <v>132.8</v>
       </c>
       <c r="H134" t="n">
-        <v>86.53999999999999</v>
+        <v>30.3</v>
       </c>
       <c r="I134" t="n">
         <v>101.14</v>
@@ -8504,6 +8905,9 @@
       <c r="R134" t="n">
         <v>0.01064380952380952</v>
       </c>
+      <c r="S134" t="n">
+        <v>1.383612200930755</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8532,7 +8936,7 @@
         <v>115.34</v>
       </c>
       <c r="H135" t="n">
-        <v>104.9</v>
+        <v>40.5</v>
       </c>
       <c r="I135" t="n">
         <v>101.31</v>
@@ -8564,6 +8968,9 @@
       <c r="R135" t="n">
         <v>0.01080507936507936</v>
       </c>
+      <c r="S135" t="n">
+        <v>4.243715674708226</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8592,7 +8999,7 @@
         <v>114.08</v>
       </c>
       <c r="H136" t="n">
-        <v>101.12</v>
+        <v>38.4</v>
       </c>
       <c r="I136" t="n">
         <v>101.11</v>
@@ -8624,6 +9031,9 @@
       <c r="R136" t="n">
         <v>0.01096634920634921</v>
       </c>
+      <c r="S136" t="n">
+        <v>3.954401993451571</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8652,7 +9062,7 @@
         <v>128.84</v>
       </c>
       <c r="H137" t="n">
-        <v>97.52</v>
+        <v>36.4</v>
       </c>
       <c r="I137" t="n">
         <v>100.38</v>
@@ -8684,6 +9094,9 @@
       <c r="R137" t="n">
         <v>0.01112761904761905</v>
       </c>
+      <c r="S137" t="n">
+        <v>2.200708208036792</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8712,7 +9125,7 @@
         <v>127.4</v>
       </c>
       <c r="H138" t="n">
-        <v>114.44</v>
+        <v>45.8</v>
       </c>
       <c r="I138" t="n">
         <v>100.79</v>
@@ -8744,6 +9157,9 @@
       <c r="R138" t="n">
         <v>0.01128888888888889</v>
       </c>
+      <c r="S138" t="n">
+        <v>3.792845786807011</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8772,7 +9188,7 @@
         <v>107.6</v>
       </c>
       <c r="H139" t="n">
-        <v>99.86000000000001</v>
+        <v>37.7</v>
       </c>
       <c r="I139" t="n">
         <v>100.99</v>
@@ -8804,6 +9220,9 @@
       <c r="R139" t="n">
         <v>0.01145015873015873</v>
       </c>
+      <c r="S139" t="n">
+        <v>4.753651939941803</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8832,7 +9251,7 @@
         <v>118.58</v>
       </c>
       <c r="H140" t="n">
-        <v>107.78</v>
+        <v>42.1</v>
       </c>
       <c r="I140" t="n">
         <v>100.63</v>
@@ -8864,6 +9283,9 @@
       <c r="R140" t="n">
         <v>0.01161142857142857</v>
       </c>
+      <c r="S140" t="n">
+        <v>4.149633985908825</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8892,7 +9314,7 @@
         <v>114.08</v>
       </c>
       <c r="H141" t="n">
-        <v>106.52</v>
+        <v>41.4</v>
       </c>
       <c r="I141" t="n">
         <v>101.21</v>
@@ -8924,6 +9346,9 @@
       <c r="R141" t="n">
         <v>0.01177269841269841</v>
       </c>
+      <c r="S141" t="n">
+        <v>4.643874947953218</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8952,7 +9377,7 @@
         <v>124.16</v>
       </c>
       <c r="H142" t="n">
-        <v>103.64</v>
+        <v>39.8</v>
       </c>
       <c r="I142" t="n">
         <v>101.03</v>
@@ -8984,6 +9409,9 @@
       <c r="R142" t="n">
         <v>0.01193396825396825</v>
       </c>
+      <c r="S142" t="n">
+        <v>3.065957719035645</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -9012,7 +9440,7 @@
         <v>120.2</v>
       </c>
       <c r="H143" t="n">
-        <v>98.42</v>
+        <v>36.9</v>
       </c>
       <c r="I143" t="n">
         <v>100.62</v>
@@ -9044,6 +9472,9 @@
       <c r="R143" t="n">
         <v>0.0120952380952381</v>
       </c>
+      <c r="S143" t="n">
+        <v>2.976372625833021</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -9072,7 +9503,7 @@
         <v>125.96</v>
       </c>
       <c r="H144" t="n">
-        <v>102.2</v>
+        <v>39</v>
       </c>
       <c r="I144" t="n">
         <v>100.01</v>
@@ -9104,6 +9535,9 @@
       <c r="R144" t="n">
         <v>0.01225650793650794</v>
       </c>
+      <c r="S144" t="n">
+        <v>2.774124524785228</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9132,7 +9566,7 @@
         <v>143.78</v>
       </c>
       <c r="H145" t="n">
-        <v>104.72</v>
+        <v>40.4</v>
       </c>
       <c r="I145" t="n">
         <v>99.78</v>
@@ -9164,6 +9598,9 @@
       <c r="R145" t="n">
         <v>0.01241777777777778</v>
       </c>
+      <c r="S145" t="n">
+        <v>1.749942366285022</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9192,7 +9629,7 @@
         <v>131</v>
       </c>
       <c r="H146" t="n">
-        <v>107.78</v>
+        <v>42.1</v>
       </c>
       <c r="I146" t="n">
         <v>100.83</v>
@@ -9224,6 +9661,9 @@
       <c r="R146" t="n">
         <v>0.01257904761904762</v>
       </c>
+      <c r="S146" t="n">
+        <v>2.798057120607201</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9252,7 +9692,7 @@
         <v>123.62</v>
       </c>
       <c r="H147" t="n">
-        <v>109.76</v>
+        <v>43.2</v>
       </c>
       <c r="I147" t="n">
         <v>100.94</v>
@@ -9284,6 +9724,9 @@
       <c r="R147" t="n">
         <v>0.01274031746031746</v>
       </c>
+      <c r="S147" t="n">
+        <v>3.734764201059156</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9312,7 +9755,7 @@
         <v>111.92</v>
       </c>
       <c r="H148" t="n">
-        <v>104.9</v>
+        <v>40.5</v>
       </c>
       <c r="I148" t="n">
         <v>101.2</v>
@@ -9344,6 +9787,9 @@
       <c r="R148" t="n">
         <v>0.0129015873015873</v>
       </c>
+      <c r="S148" t="n">
+        <v>4.762706674403918</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9372,7 +9818,7 @@
         <v>120.02</v>
       </c>
       <c r="H149" t="n">
-        <v>98.78</v>
+        <v>37.1</v>
       </c>
       <c r="I149" t="n">
         <v>100.93</v>
@@ -9404,6 +9850,9 @@
       <c r="R149" t="n">
         <v>0.01306285714285714</v>
       </c>
+      <c r="S149" t="n">
+        <v>3.02678253441518</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9432,7 +9881,7 @@
         <v>115.16</v>
       </c>
       <c r="H150" t="n">
-        <v>108.14</v>
+        <v>42.3</v>
       </c>
       <c r="I150" t="n">
         <v>101.09</v>
@@ -9464,6 +9913,9 @@
       <c r="R150" t="n">
         <v>0.01322412698412698</v>
       </c>
+      <c r="S150" t="n">
+        <v>4.696766106856264</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9492,7 +9944,7 @@
         <v>126.32</v>
       </c>
       <c r="H151" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I151" t="n">
         <v>101.02</v>
@@ -9524,6 +9976,9 @@
       <c r="R151" t="n">
         <v>0.01338539682539682</v>
       </c>
+      <c r="S151" t="n">
+        <v>2.713415879582006</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9552,7 +10007,7 @@
         <v>116.96</v>
       </c>
       <c r="H152" t="n">
-        <v>90.68000000000001</v>
+        <v>32.6</v>
       </c>
       <c r="I152" t="n">
         <v>101.42</v>
@@ -9584,6 +10039,9 @@
       <c r="R152" t="n">
         <v>0.01354666666666667</v>
       </c>
+      <c r="S152" t="n">
+        <v>2.606640893857247</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9612,7 +10070,7 @@
         <v>124.52</v>
       </c>
       <c r="H153" t="n">
-        <v>87.80000000000001</v>
+        <v>31</v>
       </c>
       <c r="I153" t="n">
         <v>100.51</v>
@@ -9644,6 +10102,9 @@
       <c r="R153" t="n">
         <v>0.01370793650793651</v>
       </c>
+      <c r="S153" t="n">
+        <v>1.86269436289053</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9672,7 +10133,7 @@
         <v>132.62</v>
       </c>
       <c r="H154" t="n">
-        <v>91.40000000000001</v>
+        <v>33</v>
       </c>
       <c r="I154" t="n">
         <v>100.08</v>
@@ -9704,6 +10165,9 @@
       <c r="R154" t="n">
         <v>0.01386920634920635</v>
       </c>
+      <c r="S154" t="n">
+        <v>1.621936778820974</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9732,7 +10196,7 @@
         <v>124.52</v>
       </c>
       <c r="H155" t="n">
-        <v>102.92</v>
+        <v>39.4</v>
       </c>
       <c r="I155" t="n">
         <v>99.78999999999999</v>
@@ -9764,6 +10228,9 @@
       <c r="R155" t="n">
         <v>0.01403047619047619</v>
       </c>
+      <c r="S155" t="n">
+        <v>2.966663996456722</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9792,7 +10259,7 @@
         <v>149.18</v>
       </c>
       <c r="H156" t="n">
-        <v>89.59999999999999</v>
+        <v>32</v>
       </c>
       <c r="I156" t="n">
         <v>99.67999999999999</v>
@@ -9824,6 +10291,9 @@
       <c r="R156" t="n">
         <v>0.01419174603174603</v>
       </c>
+      <c r="S156" t="n">
+        <v>0.9462125241780684</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9852,7 +10322,7 @@
         <v>138.02</v>
       </c>
       <c r="H157" t="n">
-        <v>108.68</v>
+        <v>42.6</v>
       </c>
       <c r="I157" t="n">
         <v>99.84999999999999</v>
@@ -9884,6 +10354,9 @@
       <c r="R157" t="n">
         <v>0.01435301587301587</v>
       </c>
+      <c r="S157" t="n">
+        <v>2.325313148156298</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9912,7 +10385,7 @@
         <v>138.56</v>
       </c>
       <c r="H158" t="n">
-        <v>132.08</v>
+        <v>55.6</v>
       </c>
       <c r="I158" t="n">
         <v>99.66</v>
@@ -9944,6 +10417,9 @@
       <c r="R158" t="n">
         <v>0.01451428571428571</v>
       </c>
+      <c r="S158" t="n">
+        <v>4.399821629097675</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9972,7 +10448,7 @@
         <v>130.64</v>
       </c>
       <c r="H159" t="n">
-        <v>118.58</v>
+        <v>48.1</v>
       </c>
       <c r="I159" t="n">
         <v>100.58</v>
@@ -10004,6 +10480,9 @@
       <c r="R159" t="n">
         <v>0.01467555555555556</v>
       </c>
+      <c r="S159" t="n">
+        <v>3.857291988737714</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -10032,7 +10511,7 @@
         <v>138.2</v>
       </c>
       <c r="H160" t="n">
-        <v>124.16</v>
+        <v>51.2</v>
       </c>
       <c r="I160" t="n">
         <v>99.77000000000001</v>
@@ -10064,6 +10543,9 @@
       <c r="R160" t="n">
         <v>0.0148368253968254</v>
       </c>
+      <c r="S160" t="n">
+        <v>3.587324100309323</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -10092,7 +10574,7 @@
         <v>126.32</v>
       </c>
       <c r="H161" t="n">
-        <v>115.88</v>
+        <v>46.6</v>
       </c>
       <c r="I161" t="n">
         <v>100.76</v>
@@ -10124,6 +10606,9 @@
       <c r="R161" t="n">
         <v>0.01499809523809524</v>
       </c>
+      <c r="S161" t="n">
+        <v>4.087803953077416</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -10152,7 +10637,7 @@
         <v>122.18</v>
       </c>
       <c r="H162" t="n">
-        <v>110.3</v>
+        <v>43.5</v>
       </c>
       <c r="I162" t="n">
         <v>100.86</v>
@@ -10184,6 +10669,9 @@
       <c r="R162" t="n">
         <v>0.01515936507936508</v>
       </c>
+      <c r="S162" t="n">
+        <v>3.973009067661179</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -10212,7 +10700,7 @@
         <v>128.66</v>
       </c>
       <c r="H163" t="n">
-        <v>109.04</v>
+        <v>42.8</v>
       </c>
       <c r="I163" t="n">
         <v>100.89</v>
@@ -10244,6 +10732,9 @@
       <c r="R163" t="n">
         <v>0.01532063492063492</v>
       </c>
+      <c r="S163" t="n">
+        <v>3.120516129844062</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -10272,7 +10763,7 @@
         <v>139.46</v>
       </c>
       <c r="H164" t="n">
-        <v>108.32</v>
+        <v>42.4</v>
       </c>
       <c r="I164" t="n">
         <v>100.41</v>
@@ -10304,6 +10795,9 @@
       <c r="R164" t="n">
         <v>0.01548190476190476</v>
       </c>
+      <c r="S164" t="n">
+        <v>2.205442766127723</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10332,7 +10826,7 @@
         <v>147.74</v>
       </c>
       <c r="H165" t="n">
-        <v>106.7</v>
+        <v>41.5</v>
       </c>
       <c r="I165" t="n">
         <v>99.88</v>
@@ -10364,6 +10858,9 @@
       <c r="R165" t="n">
         <v>0.0156431746031746</v>
       </c>
+      <c r="S165" t="n">
+        <v>1.658024759567683</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10392,7 +10889,7 @@
         <v>135.68</v>
       </c>
       <c r="H166" t="n">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="I166" t="n">
         <v>100.26</v>
@@ -10424,6 +10921,9 @@
       <c r="R166" t="n">
         <v>0.01580444444444444</v>
       </c>
+      <c r="S166" t="n">
+        <v>2.825142596984152</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10452,7 +10952,7 @@
         <v>147.74</v>
       </c>
       <c r="H167" t="n">
-        <v>102.92</v>
+        <v>39.4</v>
       </c>
       <c r="I167" t="n">
         <v>99.90000000000001</v>
@@ -10484,6 +10984,9 @@
       <c r="R167" t="n">
         <v>0.01596571428571428</v>
       </c>
+      <c r="S167" t="n">
+        <v>1.4822484856321</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10512,7 +11015,7 @@
         <v>152.96</v>
       </c>
       <c r="H168" t="n">
-        <v>116.78</v>
+        <v>47.1</v>
       </c>
       <c r="I168" t="n">
         <v>99.81</v>
@@ -10544,6 +11047,9 @@
       <c r="R168" t="n">
         <v>0.01612698412698413</v>
       </c>
+      <c r="S168" t="n">
+        <v>1.918905695349321</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10572,7 +11078,7 @@
         <v>146.84</v>
       </c>
       <c r="H169" t="n">
-        <v>128.3</v>
+        <v>53.5</v>
       </c>
       <c r="I169" t="n">
         <v>99.83</v>
@@ -10604,6 +11110,9 @@
       <c r="R169" t="n">
         <v>0.01628825396825397</v>
       </c>
+      <c r="S169" t="n">
+        <v>3.129782235024561</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10632,7 +11141,7 @@
         <v>140.54</v>
       </c>
       <c r="H170" t="n">
-        <v>134.78</v>
+        <v>57.1</v>
       </c>
       <c r="I170" t="n">
         <v>99.69</v>
@@ -10664,6 +11173,9 @@
       <c r="R170" t="n">
         <v>0.01644952380952381</v>
       </c>
+      <c r="S170" t="n">
+        <v>4.460607081997</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10692,7 +11204,7 @@
         <v>133.34</v>
       </c>
       <c r="H171" t="n">
-        <v>122.18</v>
+        <v>50.1</v>
       </c>
       <c r="I171" t="n">
         <v>100.29</v>
@@ -10724,6 +11236,9 @@
       <c r="R171" t="n">
         <v>0.01661079365079365</v>
       </c>
+      <c r="S171" t="n">
+        <v>3.927809650034105</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10752,7 +11267,7 @@
         <v>142.7</v>
       </c>
       <c r="H172" t="n">
-        <v>135.68</v>
+        <v>57.6</v>
       </c>
       <c r="I172" t="n">
         <v>100</v>
@@ -10784,6 +11299,9 @@
       <c r="R172" t="n">
         <v>0.01677206349206349</v>
       </c>
+      <c r="S172" t="n">
+        <v>4.290452175759906</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10812,7 +11330,7 @@
         <v>134.78</v>
       </c>
       <c r="H173" t="n">
-        <v>127.76</v>
+        <v>53.2</v>
       </c>
       <c r="I173" t="n">
         <v>100.23</v>
@@ -10844,6 +11362,9 @@
       <c r="R173" t="n">
         <v>0.01693333333333333</v>
       </c>
+      <c r="S173" t="n">
+        <v>4.383007822724724</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10872,7 +11393,7 @@
         <v>125.78</v>
       </c>
       <c r="H174" t="n">
-        <v>111.38</v>
+        <v>44.1</v>
       </c>
       <c r="I174" t="n">
         <v>100.62</v>
@@ -10904,6 +11425,9 @@
       <c r="R174" t="n">
         <v>0.01709460317460317</v>
       </c>
+      <c r="S174" t="n">
+        <v>3.654997665694271</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10932,7 +11456,7 @@
         <v>132.26</v>
       </c>
       <c r="H175" t="n">
-        <v>98.06</v>
+        <v>36.7</v>
       </c>
       <c r="I175" t="n">
         <v>100.53</v>
@@ -10964,6 +11488,9 @@
       <c r="R175" t="n">
         <v>0.01725587301587302</v>
       </c>
+      <c r="S175" t="n">
+        <v>2.013879228873924</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10992,7 +11519,7 @@
         <v>136.58</v>
       </c>
       <c r="H176" t="n">
-        <v>111.92</v>
+        <v>44.4</v>
       </c>
       <c r="I176" t="n">
         <v>100.37</v>
@@ -11024,6 +11551,9 @@
       <c r="R176" t="n">
         <v>0.01741714285714286</v>
       </c>
+      <c r="S176" t="n">
+        <v>2.666077140233832</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -11052,7 +11582,7 @@
         <v>125.42</v>
       </c>
       <c r="H177" t="n">
-        <v>116.24</v>
+        <v>46.8</v>
       </c>
       <c r="I177" t="n">
         <v>100.91</v>
@@ -11084,6 +11614,9 @@
       <c r="R177" t="n">
         <v>0.0175784126984127</v>
       </c>
+      <c r="S177" t="n">
+        <v>4.248682019402219</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -11112,7 +11645,7 @@
         <v>125.78</v>
       </c>
       <c r="H178" t="n">
-        <v>103.1</v>
+        <v>39.5</v>
       </c>
       <c r="I178" t="n">
         <v>101.13</v>
@@ -11144,6 +11677,9 @@
       <c r="R178" t="n">
         <v>0.01773968253968254</v>
       </c>
+      <c r="S178" t="n">
+        <v>2.866010392985798</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -11172,7 +11708,7 @@
         <v>152.96</v>
       </c>
       <c r="H179" t="n">
-        <v>113.9</v>
+        <v>45.5</v>
       </c>
       <c r="I179" t="n">
         <v>100.13</v>
@@ -11204,6 +11740,9 @@
       <c r="R179" t="n">
         <v>0.01790095238095238</v>
       </c>
+      <c r="S179" t="n">
+        <v>1.767884671899381</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -11232,7 +11771,7 @@
         <v>132.26</v>
       </c>
       <c r="H180" t="n">
-        <v>107.6</v>
+        <v>42</v>
       </c>
       <c r="I180" t="n">
         <v>100.9</v>
@@ -11264,6 +11803,9 @@
       <c r="R180" t="n">
         <v>0.01806222222222222</v>
       </c>
+      <c r="S180" t="n">
+        <v>2.678142323741638</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -11292,7 +11834,7 @@
         <v>136.58</v>
       </c>
       <c r="H181" t="n">
-        <v>103.46</v>
+        <v>39.7</v>
       </c>
       <c r="I181" t="n">
         <v>100.72</v>
@@ -11324,6 +11866,9 @@
       <c r="R181" t="n">
         <v>0.01822349206349206</v>
       </c>
+      <c r="S181" t="n">
+        <v>2.080444228709676</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -11352,7 +11897,7 @@
         <v>135.32</v>
       </c>
       <c r="H182" t="n">
-        <v>112.46</v>
+        <v>44.7</v>
       </c>
       <c r="I182" t="n">
         <v>100.42</v>
@@ -11384,6 +11929,9 @@
       <c r="R182" t="n">
         <v>0.0183847619047619</v>
       </c>
+      <c r="S182" t="n">
+        <v>2.811780357803895</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11412,7 +11960,7 @@
         <v>145.76</v>
       </c>
       <c r="H183" t="n">
-        <v>109.4</v>
+        <v>43</v>
       </c>
       <c r="I183" t="n">
         <v>100.1</v>
@@ -11444,6 +11992,9 @@
       <c r="R183" t="n">
         <v>0.01854603174603175</v>
       </c>
+      <c r="S183" t="n">
+        <v>1.8976347807112</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -11472,7 +12023,7 @@
         <v>155.48</v>
       </c>
       <c r="H184" t="n">
-        <v>111.02</v>
+        <v>43.9</v>
       </c>
       <c r="I184" t="n">
         <v>99.69</v>
@@ -11504,6 +12055,9 @@
       <c r="R184" t="n">
         <v>0.01870730158730158</v>
       </c>
+      <c r="S184" t="n">
+        <v>1.519457180162538</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -11532,7 +12086,7 @@
         <v>143.96</v>
       </c>
       <c r="H185" t="n">
-        <v>125.78</v>
+        <v>52.1</v>
       </c>
       <c r="I185" t="n">
         <v>99.95</v>
@@ -11564,6 +12118,9 @@
       <c r="R185" t="n">
         <v>0.01886857142857143</v>
       </c>
+      <c r="S185" t="n">
+        <v>3.171751220185331</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11592,7 +12149,7 @@
         <v>142.52</v>
       </c>
       <c r="H186" t="n">
-        <v>134.6</v>
+        <v>57</v>
       </c>
       <c r="I186" t="n">
         <v>100.27</v>
@@ -11624,6 +12181,9 @@
       <c r="R186" t="n">
         <v>0.01902984126984127</v>
       </c>
+      <c r="S186" t="n">
+        <v>4.191485388660693</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11652,7 +12212,7 @@
         <v>150.08</v>
       </c>
       <c r="H187" t="n">
-        <v>133.7</v>
+        <v>56.5</v>
       </c>
       <c r="I187" t="n">
         <v>100.1</v>
@@ -11684,6 +12244,9 @@
       <c r="R187" t="n">
         <v>0.01919111111111111</v>
       </c>
+      <c r="S187" t="n">
+        <v>3.303863184518743</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11712,7 +12275,7 @@
         <v>153.68</v>
       </c>
       <c r="H188" t="n">
-        <v>130.46</v>
+        <v>54.7</v>
       </c>
       <c r="I188" t="n">
         <v>99.67999999999999</v>
@@ -11744,6 +12307,9 @@
       <c r="R188" t="n">
         <v>0.01935238095238095</v>
       </c>
+      <c r="S188" t="n">
+        <v>2.744044416622035</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11772,7 +12338,7 @@
         <v>148.28</v>
       </c>
       <c r="H189" t="n">
-        <v>135.32</v>
+        <v>57.4</v>
       </c>
       <c r="I189" t="n">
         <v>99.69</v>
@@ -11804,6 +12370,9 @@
       <c r="R189" t="n">
         <v>0.01951365079365079</v>
       </c>
+      <c r="S189" t="n">
+        <v>3.626313914498446</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11832,7 +12401,7 @@
         <v>152.96</v>
       </c>
       <c r="H190" t="n">
-        <v>137.66</v>
+        <v>58.7</v>
       </c>
       <c r="I190" t="n">
         <v>99.61</v>
@@ -11864,6 +12433,9 @@
       <c r="R190" t="n">
         <v>0.01967492063492064</v>
       </c>
+      <c r="S190" t="n">
+        <v>3.387488551653822</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11892,7 +12464,7 @@
         <v>144.5</v>
       </c>
       <c r="H191" t="n">
-        <v>136.22</v>
+        <v>57.9</v>
       </c>
       <c r="I191" t="n">
         <v>99.83</v>
@@ -11924,6 +12496,9 @@
       <c r="R191" t="n">
         <v>0.01983619047619047</v>
       </c>
+      <c r="S191" t="n">
+        <v>4.132698432467307</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11952,7 +12527,7 @@
         <v>156.74</v>
       </c>
       <c r="H192" t="n">
-        <v>133.34</v>
+        <v>56.3</v>
       </c>
       <c r="I192" t="n">
         <v>99.82000000000001</v>
@@ -11984,6 +12559,9 @@
       <c r="R192" t="n">
         <v>0.01999746031746032</v>
       </c>
+      <c r="S192" t="n">
+        <v>2.728125590983257</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -12012,7 +12590,7 @@
         <v>150.8</v>
       </c>
       <c r="H193" t="n">
-        <v>134.78</v>
+        <v>57.1</v>
       </c>
       <c r="I193" t="n">
         <v>99.59</v>
@@ -12044,6 +12622,9 @@
       <c r="R193" t="n">
         <v>0.02015873015873016</v>
       </c>
+      <c r="S193" t="n">
+        <v>3.332615064218092</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -12072,7 +12653,7 @@
         <v>131.18</v>
       </c>
       <c r="H194" t="n">
-        <v>128.3</v>
+        <v>53.5</v>
       </c>
       <c r="I194" t="n">
         <v>100.76</v>
@@ -12104,6 +12685,9 @@
       <c r="R194" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S194" t="n">
+        <v>4.961307196743437</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -12132,7 +12716,7 @@
         <v>135.14</v>
       </c>
       <c r="H195" t="n">
-        <v>128.66</v>
+        <v>53.7</v>
       </c>
       <c r="I195" t="n">
         <v>100.78</v>
@@ -12164,6 +12748,9 @@
       <c r="R195" t="n">
         <v>0.02048126984126984</v>
       </c>
+      <c r="S195" t="n">
+        <v>4.442947763938829</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -12192,7 +12779,7 @@
         <v>144.5</v>
       </c>
       <c r="H196" t="n">
-        <v>138.02</v>
+        <v>58.9</v>
       </c>
       <c r="I196" t="n">
         <v>99.57000000000001</v>
@@ -12224,6 +12811,9 @@
       <c r="R196" t="n">
         <v>0.02064253968253968</v>
       </c>
+      <c r="S196" t="n">
+        <v>4.332470832822001</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -12252,7 +12842,7 @@
         <v>136.04</v>
       </c>
       <c r="H197" t="n">
-        <v>132.08</v>
+        <v>55.6</v>
       </c>
       <c r="I197" t="n">
         <v>100.28</v>
@@ -12284,6 +12874,9 @@
       <c r="R197" t="n">
         <v>0.02080380952380952</v>
       </c>
+      <c r="S197" t="n">
+        <v>4.741423311161939</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -12312,7 +12905,7 @@
         <v>139.28</v>
       </c>
       <c r="H198" t="n">
-        <v>129.38</v>
+        <v>54.1</v>
       </c>
       <c r="I198" t="n">
         <v>100.51</v>
@@ -12344,6 +12937,9 @@
       <c r="R198" t="n">
         <v>0.02096507936507936</v>
       </c>
+      <c r="S198" t="n">
+        <v>4.006325278997029</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -12372,7 +12968,7 @@
         <v>147.92</v>
       </c>
       <c r="H199" t="n">
-        <v>136.22</v>
+        <v>57.9</v>
       </c>
       <c r="I199" t="n">
         <v>100.23</v>
@@ -12404,6 +13000,9 @@
       <c r="R199" t="n">
         <v>0.0211263492063492</v>
       </c>
+      <c r="S199" t="n">
+        <v>3.751061244894475</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12432,7 +13031,7 @@
         <v>145.04</v>
       </c>
       <c r="H200" t="n">
-        <v>124.16</v>
+        <v>51.2</v>
       </c>
       <c r="I200" t="n">
         <v>100.34</v>
@@ -12464,6 +13063,9 @@
       <c r="R200" t="n">
         <v>0.02128761904761905</v>
       </c>
+      <c r="S200" t="n">
+        <v>2.941631887804443</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -12492,7 +13094,7 @@
         <v>134.96</v>
       </c>
       <c r="H201" t="n">
-        <v>125.6</v>
+        <v>52</v>
       </c>
       <c r="I201" t="n">
         <v>100.1</v>
@@ -12524,6 +13126,9 @@
       <c r="R201" t="n">
         <v>0.02144888888888889</v>
       </c>
+      <c r="S201" t="n">
+        <v>4.110051110634291</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12552,7 +13157,7 @@
         <v>126.32</v>
       </c>
       <c r="H202" t="n">
-        <v>116.42</v>
+        <v>46.9</v>
       </c>
       <c r="I202" t="n">
         <v>100.88</v>
@@ -12584,6 +13189,9 @@
       <c r="R202" t="n">
         <v>0.02161015873015873</v>
       </c>
+      <c r="S202" t="n">
+        <v>4.150919135702661</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12612,7 +13220,7 @@
         <v>116.24</v>
       </c>
       <c r="H203" t="n">
-        <v>114.08</v>
+        <v>45.6</v>
       </c>
       <c r="I203" t="n">
         <v>101.61</v>
@@ -12644,6 +13252,9 @@
       <c r="R203" t="n">
         <v>0.02177142857142857</v>
       </c>
+      <c r="S203" t="n">
+        <v>5.380088096404073</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12672,7 +13283,7 @@
         <v>123.8</v>
       </c>
       <c r="H204" t="n">
-        <v>107.78</v>
+        <v>42.1</v>
       </c>
       <c r="I204" t="n">
         <v>101.65</v>
@@ -12704,6 +13315,9 @@
       <c r="R204" t="n">
         <v>0.02193269841269841</v>
       </c>
+      <c r="S204" t="n">
+        <v>3.504820221110636</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12732,7 +13346,7 @@
         <v>109.94</v>
       </c>
       <c r="H205" t="n">
-        <v>98.60000000000001</v>
+        <v>37</v>
       </c>
       <c r="I205" t="n">
         <v>102.25</v>
@@ -12764,6 +13378,9 @@
       <c r="R205" t="n">
         <v>0.02209396825396825</v>
       </c>
+      <c r="S205" t="n">
+        <v>4.218984414882848</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12792,7 +13409,7 @@
         <v>114.44</v>
       </c>
       <c r="H206" t="n">
-        <v>99.14</v>
+        <v>37.3</v>
       </c>
       <c r="I206" t="n">
         <v>102.13</v>
@@ -12824,6 +13441,9 @@
       <c r="R206" t="n">
         <v>0.02225523809523809</v>
       </c>
+      <c r="S206" t="n">
+        <v>3.680087139566954</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12852,7 +13472,7 @@
         <v>117.86</v>
       </c>
       <c r="H207" t="n">
-        <v>94.09999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="I207" t="n">
         <v>101.92</v>
@@ -12884,6 +13504,9 @@
       <c r="R207" t="n">
         <v>0.02241650793650794</v>
       </c>
+      <c r="S207" t="n">
+        <v>2.814656646183812</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12912,7 +13535,7 @@
         <v>117.14</v>
       </c>
       <c r="H208" t="n">
-        <v>104.36</v>
+        <v>40.2</v>
       </c>
       <c r="I208" t="n">
         <v>102.05</v>
@@ -12944,6 +13567,9 @@
       <c r="R208" t="n">
         <v>0.02257777777777778</v>
       </c>
+      <c r="S208" t="n">
+        <v>3.933670136908544</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12972,7 +13598,7 @@
         <v>110.3</v>
       </c>
       <c r="H209" t="n">
-        <v>96.08</v>
+        <v>35.6</v>
       </c>
       <c r="I209" t="n">
         <v>102.4</v>
@@ -13004,6 +13630,9 @@
       <c r="R209" t="n">
         <v>0.02273904761904762</v>
       </c>
+      <c r="S209" t="n">
+        <v>3.858444716349829</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -13032,7 +13661,7 @@
         <v>115.7</v>
       </c>
       <c r="H210" t="n">
-        <v>89.59999999999999</v>
+        <v>32</v>
       </c>
       <c r="I210" t="n">
         <v>102.28</v>
@@ -13064,6 +13693,9 @@
       <c r="R210" t="n">
         <v>0.02290031746031746</v>
       </c>
+      <c r="S210" t="n">
+        <v>2.627398873859048</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -13092,7 +13724,7 @@
         <v>120.56</v>
       </c>
       <c r="H211" t="n">
-        <v>93.56</v>
+        <v>34.2</v>
       </c>
       <c r="I211" t="n">
         <v>101.46</v>
@@ -13124,6 +13756,9 @@
       <c r="R211" t="n">
         <v>0.0230615873015873</v>
       </c>
+      <c r="S211" t="n">
+        <v>2.534040581479614</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -13152,7 +13787,7 @@
         <v>125.78</v>
       </c>
       <c r="H212" t="n">
-        <v>114.98</v>
+        <v>46.1</v>
       </c>
       <c r="I212" t="n">
         <v>100.89</v>
@@ -13184,6 +13819,9 @@
       <c r="R212" t="n">
         <v>0.02322285714285714</v>
       </c>
+      <c r="S212" t="n">
+        <v>4.052824111425406</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -13212,7 +13850,7 @@
         <v>119.84</v>
       </c>
       <c r="H213" t="n">
-        <v>113.36</v>
+        <v>45.2</v>
       </c>
       <c r="I213" t="n">
         <v>101.05</v>
@@ -13244,6 +13882,9 @@
       <c r="R213" t="n">
         <v>0.02338412698412698</v>
       </c>
+      <c r="S213" t="n">
+        <v>4.681316362847424</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -13272,7 +13913,7 @@
         <v>118.4</v>
       </c>
       <c r="H214" t="n">
-        <v>115.16</v>
+        <v>46.2</v>
       </c>
       <c r="I214" t="n">
         <v>100.92</v>
@@ -13304,6 +13945,9 @@
       <c r="R214" t="n">
         <v>0.02354539682539682</v>
       </c>
+      <c r="S214" t="n">
+        <v>5.166228952172598</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -13332,7 +13976,7 @@
         <v>132.44</v>
       </c>
       <c r="H215" t="n">
-        <v>113.54</v>
+        <v>45.3</v>
       </c>
       <c r="I215" t="n">
         <v>100.88</v>
@@ -13364,6 +14008,9 @@
       <c r="R215" t="n">
         <v>0.02370666666666667</v>
       </c>
+      <c r="S215" t="n">
+        <v>3.164028460030642</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -13392,7 +14039,7 @@
         <v>124.88</v>
       </c>
       <c r="H216" t="n">
-        <v>117.68</v>
+        <v>47.6</v>
       </c>
       <c r="I216" t="n">
         <v>101.05</v>
@@ -13424,6 +14071,9 @@
       <c r="R216" t="n">
         <v>0.0238679365079365</v>
       </c>
+      <c r="S216" t="n">
+        <v>4.501619080857242</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -13452,7 +14102,7 @@
         <v>117.86</v>
       </c>
       <c r="H217" t="n">
-        <v>109.04</v>
+        <v>42.8</v>
       </c>
       <c r="I217" t="n">
         <v>101.47</v>
@@ -13484,6 +14134,9 @@
       <c r="R217" t="n">
         <v>0.02402920634920635</v>
       </c>
+      <c r="S217" t="n">
+        <v>4.408486308357808</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -13512,7 +14165,7 @@
         <v>119.84</v>
       </c>
       <c r="H218" t="n">
-        <v>106.34</v>
+        <v>41.3</v>
       </c>
       <c r="I218" t="n">
         <v>101.69</v>
@@ -13544,6 +14197,9 @@
       <c r="R218" t="n">
         <v>0.02419047619047619</v>
       </c>
+      <c r="S218" t="n">
+        <v>3.817108805865305</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -13572,7 +14228,7 @@
         <v>108.5</v>
       </c>
       <c r="H219" t="n">
-        <v>101.48</v>
+        <v>38.6</v>
       </c>
       <c r="I219" t="n">
         <v>101.77</v>
@@ -13604,6 +14260,9 @@
       <c r="R219" t="n">
         <v>0.02435174603174603</v>
       </c>
+      <c r="S219" t="n">
+        <v>4.837488491063909</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -13632,7 +14291,7 @@
         <v>112.82</v>
       </c>
       <c r="H220" t="n">
-        <v>96.8</v>
+        <v>36</v>
       </c>
       <c r="I220" t="n">
         <v>101.7</v>
@@ -13664,6 +14323,9 @@
       <c r="R220" t="n">
         <v>0.02451301587301587</v>
       </c>
+      <c r="S220" t="n">
+        <v>3.619438117956585</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13692,7 +14354,7 @@
         <v>106.52</v>
       </c>
       <c r="H221" t="n">
-        <v>102.56</v>
+        <v>39.2</v>
       </c>
       <c r="I221" t="n">
         <v>101.91</v>
@@ -13724,6 +14386,9 @@
       <c r="R221" t="n">
         <v>0.02467428571428571</v>
       </c>
+      <c r="S221" t="n">
+        <v>5.354367112616261</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13752,7 +14417,7 @@
         <v>110.84</v>
       </c>
       <c r="H222" t="n">
-        <v>97.16000000000001</v>
+        <v>36.2</v>
       </c>
       <c r="I222" t="n">
         <v>102.06</v>
@@ -13784,6 +14449,9 @@
       <c r="R222" t="n">
         <v>0.02483555555555556</v>
       </c>
+      <c r="S222" t="n">
+        <v>3.9149437559175</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13812,7 +14480,7 @@
         <v>120.74</v>
       </c>
       <c r="H223" t="n">
-        <v>97.34</v>
+        <v>36.3</v>
       </c>
       <c r="I223" t="n">
         <v>101.21</v>
@@ -13844,6 +14512,9 @@
       <c r="R223" t="n">
         <v>0.02499682539682539</v>
       </c>
+      <c r="S223" t="n">
+        <v>2.82995736429919</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13872,7 +14543,7 @@
         <v>118.76</v>
       </c>
       <c r="H224" t="n">
-        <v>108.86</v>
+        <v>42.7</v>
       </c>
       <c r="I224" t="n">
         <v>100.89</v>
@@ -13904,6 +14575,9 @@
       <c r="R224" t="n">
         <v>0.02515809523809524</v>
       </c>
+      <c r="S224" t="n">
+        <v>4.257571972749412</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13932,7 +14606,7 @@
         <v>116.6</v>
       </c>
       <c r="H225" t="n">
-        <v>107.6</v>
+        <v>42</v>
       </c>
       <c r="I225" t="n">
         <v>101.62</v>
@@ -13964,6 +14638,9 @@
       <c r="R225" t="n">
         <v>0.02531936507936508</v>
       </c>
+      <c r="S225" t="n">
+        <v>4.406507440832595</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13992,7 +14669,7 @@
         <v>112.46</v>
       </c>
       <c r="H226" t="n">
-        <v>103.82</v>
+        <v>39.9</v>
       </c>
       <c r="I226" t="n">
         <v>101.61</v>
@@ -14024,6 +14701,9 @@
       <c r="R226" t="n">
         <v>0.02548063492063492</v>
       </c>
+      <c r="S226" t="n">
+        <v>4.528434042942585</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -14052,7 +14732,7 @@
         <v>102.02</v>
       </c>
       <c r="H227" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I227" t="n">
         <v>102.4</v>
@@ -14084,6 +14764,9 @@
       <c r="R227" t="n">
         <v>0.02564190476190476</v>
       </c>
+      <c r="S227" t="n">
+        <v>4.995222986957726</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -14112,7 +14795,7 @@
         <v>115.7</v>
       </c>
       <c r="H228" t="n">
-        <v>100.04</v>
+        <v>37.8</v>
       </c>
       <c r="I228" t="n">
         <v>101.59</v>
@@ -14144,6 +14827,9 @@
       <c r="R228" t="n">
         <v>0.0258031746031746</v>
       </c>
+      <c r="S228" t="n">
+        <v>3.625551527239644</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -14172,7 +14858,7 @@
         <v>97.88000000000001</v>
       </c>
       <c r="H229" t="n">
-        <v>88.16</v>
+        <v>31.2</v>
       </c>
       <c r="I229" t="n">
         <v>102.45</v>
@@ -14204,6 +14890,9 @@
       <c r="R229" t="n">
         <v>0.02596444444444444</v>
       </c>
+      <c r="S229" t="n">
+        <v>4.691646080026338</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -14232,7 +14921,7 @@
         <v>97.16000000000001</v>
       </c>
       <c r="H230" t="n">
-        <v>71.96000000000001</v>
+        <v>22.2</v>
       </c>
       <c r="I230" t="n">
         <v>103.02</v>
@@ -14264,6 +14953,9 @@
       <c r="R230" t="n">
         <v>0.02612571428571429</v>
       </c>
+      <c r="S230" t="n">
+        <v>2.834512927218488</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -14292,7 +14984,7 @@
         <v>97.34</v>
       </c>
       <c r="H231" t="n">
-        <v>85.64</v>
+        <v>29.8</v>
       </c>
       <c r="I231" t="n">
         <v>102.25</v>
@@ -14324,6 +15016,9 @@
       <c r="R231" t="n">
         <v>0.02628698412698412</v>
       </c>
+      <c r="S231" t="n">
+        <v>4.417246409434945</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -14352,7 +15047,7 @@
         <v>115.34</v>
       </c>
       <c r="H232" t="n">
-        <v>86.18000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="I232" t="n">
         <v>101.57</v>
@@ -14384,6 +15079,9 @@
       <c r="R232" t="n">
         <v>0.02644825396825397</v>
       </c>
+      <c r="S232" t="n">
+        <v>2.385851319181536</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -14412,7 +15110,7 @@
         <v>110.66</v>
       </c>
       <c r="H233" t="n">
-        <v>85.46000000000001</v>
+        <v>29.7</v>
       </c>
       <c r="I233" t="n">
         <v>101.9</v>
@@ -14444,6 +15142,9 @@
       <c r="R233" t="n">
         <v>0.02660952380952381</v>
       </c>
+      <c r="S233" t="n">
+        <v>2.731844326811421</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -14472,7 +15173,7 @@
         <v>101.66</v>
       </c>
       <c r="H234" t="n">
-        <v>90.31999999999999</v>
+        <v>32.4</v>
       </c>
       <c r="I234" t="n">
         <v>102.42</v>
@@ -14504,6 +15205,9 @@
       <c r="R234" t="n">
         <v>0.02677079365079365</v>
       </c>
+      <c r="S234" t="n">
+        <v>4.374883870989294</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -14532,7 +15236,7 @@
         <v>101.84</v>
       </c>
       <c r="H235" t="n">
-        <v>88.52</v>
+        <v>31.4</v>
       </c>
       <c r="I235" t="n">
         <v>102.68</v>
@@ -14564,6 +15268,9 @@
       <c r="R235" t="n">
         <v>0.02693206349206349</v>
       </c>
+      <c r="S235" t="n">
+        <v>4.106836582234783</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -14592,7 +15299,7 @@
         <v>97.7</v>
       </c>
       <c r="H236" t="n">
-        <v>78.25999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="I236" t="n">
         <v>103.04</v>
@@ -14624,6 +15331,9 @@
       <c r="R236" t="n">
         <v>0.02709333333333333</v>
       </c>
+      <c r="S236" t="n">
+        <v>3.42952536909206</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -14652,7 +15362,7 @@
         <v>97.34</v>
       </c>
       <c r="H237" t="n">
-        <v>71.24000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="I237" t="n">
         <v>102.98</v>
@@ -14684,6 +15394,9 @@
       <c r="R237" t="n">
         <v>0.02725460317460317</v>
       </c>
+      <c r="S237" t="n">
+        <v>2.74775549198048</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14712,7 +15425,7 @@
         <v>98.96000000000001</v>
       </c>
       <c r="H238" t="n">
-        <v>76.46000000000001</v>
+        <v>24.7</v>
       </c>
       <c r="I238" t="n">
         <v>102.2</v>
@@ -14744,6 +15457,9 @@
       <c r="R238" t="n">
         <v>0.02741587301587301</v>
       </c>
+      <c r="S238" t="n">
+        <v>3.084628664407379</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -14772,7 +15488,7 @@
         <v>111.92</v>
       </c>
       <c r="H239" t="n">
-        <v>98.06</v>
+        <v>36.7</v>
       </c>
       <c r="I239" t="n">
         <v>101.19</v>
@@ -14804,6 +15520,9 @@
       <c r="R239" t="n">
         <v>0.02757714285714286</v>
       </c>
+      <c r="S239" t="n">
+        <v>3.878132027146425</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14832,7 +15551,7 @@
         <v>109.04</v>
       </c>
       <c r="H240" t="n">
-        <v>96.8</v>
+        <v>36</v>
       </c>
       <c r="I240" t="n">
         <v>101.96</v>
@@ -14864,6 +15583,9 @@
       <c r="R240" t="n">
         <v>0.02773841269841269</v>
       </c>
+      <c r="S240" t="n">
+        <v>4.119746572205741</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14892,7 +15614,7 @@
         <v>107.42</v>
       </c>
       <c r="H241" t="n">
-        <v>98.78</v>
+        <v>37.1</v>
       </c>
       <c r="I241" t="n">
         <v>102.7</v>
@@ -14924,6 +15646,9 @@
       <c r="R241" t="n">
         <v>0.02789968253968254</v>
       </c>
+      <c r="S241" t="n">
+        <v>4.629650127009799</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14952,7 +15677,7 @@
         <v>107.96</v>
       </c>
       <c r="H242" t="n">
-        <v>98.42</v>
+        <v>36.9</v>
       </c>
       <c r="I242" t="n">
         <v>102.64</v>
@@ -14984,6 +15709,9 @@
       <c r="R242" t="n">
         <v>0.02806095238095238</v>
       </c>
+      <c r="S242" t="n">
+        <v>4.493832064647488</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -15012,7 +15740,7 @@
         <v>113.9</v>
       </c>
       <c r="H243" t="n">
-        <v>100.94</v>
+        <v>38.3</v>
       </c>
       <c r="I243" t="n">
         <v>102.1</v>
@@ -15044,6 +15772,9 @@
       <c r="R243" t="n">
         <v>0.02822222222222222</v>
       </c>
+      <c r="S243" t="n">
+        <v>3.956948843523077</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -15072,7 +15803,7 @@
         <v>113.54</v>
       </c>
       <c r="H244" t="n">
-        <v>99.86000000000001</v>
+        <v>37.7</v>
       </c>
       <c r="I244" t="n">
         <v>101.45</v>
@@ -15104,6 +15835,9 @@
       <c r="R244" t="n">
         <v>0.02838349206349206</v>
       </c>
+      <c r="S244" t="n">
+        <v>3.87689015165282</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -15132,7 +15866,7 @@
         <v>105.08</v>
       </c>
       <c r="H245" t="n">
-        <v>98.60000000000001</v>
+        <v>37</v>
       </c>
       <c r="I245" t="n">
         <v>101.99</v>
@@ -15164,6 +15898,9 @@
       <c r="R245" t="n">
         <v>0.0285447619047619</v>
       </c>
+      <c r="S245" t="n">
+        <v>4.999422913865366</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -15192,7 +15929,7 @@
         <v>101.48</v>
       </c>
       <c r="H246" t="n">
-        <v>91.22</v>
+        <v>32.9</v>
       </c>
       <c r="I246" t="n">
         <v>101.75</v>
@@ -15224,6 +15961,9 @@
       <c r="R246" t="n">
         <v>0.02870603174603174</v>
       </c>
+      <c r="S246" t="n">
+        <v>4.529424985089782</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -15252,7 +15992,7 @@
         <v>98.60000000000001</v>
       </c>
       <c r="H247" t="n">
-        <v>81.68000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="I247" t="n">
         <v>102.94</v>
@@ -15284,6 +16024,9 @@
       <c r="R247" t="n">
         <v>0.02886730158730159</v>
       </c>
+      <c r="S247" t="n">
+        <v>3.710859978025014</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -15312,7 +16055,7 @@
         <v>98.23999999999999</v>
       </c>
       <c r="H248" t="n">
-        <v>65.66</v>
+        <v>18.7</v>
       </c>
       <c r="I248" t="n">
         <v>102.5</v>
@@ -15344,6 +16087,9 @@
       <c r="R248" t="n">
         <v>0.02902857142857142</v>
       </c>
+      <c r="S248" t="n">
+        <v>2.194145251307531</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -15372,7 +16118,7 @@
         <v>106.7</v>
       </c>
       <c r="H249" t="n">
-        <v>73.94</v>
+        <v>23.3</v>
       </c>
       <c r="I249" t="n">
         <v>101.73</v>
@@ -15404,6 +16150,9 @@
       <c r="R249" t="n">
         <v>0.02918984126984127</v>
       </c>
+      <c r="S249" t="n">
+        <v>2.148061005957463</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -15432,7 +16181,7 @@
         <v>109.76</v>
       </c>
       <c r="H250" t="n">
-        <v>85.09999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="I250" t="n">
         <v>101.85</v>
@@ -15464,6 +16213,9 @@
       <c r="R250" t="n">
         <v>0.02935111111111111</v>
       </c>
+      <c r="S250" t="n">
+        <v>2.785398213940125</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -15492,7 +16244,7 @@
         <v>92.84</v>
       </c>
       <c r="H251" t="n">
-        <v>65.12</v>
+        <v>18.4</v>
       </c>
       <c r="I251" t="n">
         <v>102.34</v>
@@ -15524,6 +16276,9 @@
       <c r="R251" t="n">
         <v>0.02951238095238095</v>
       </c>
+      <c r="S251" t="n">
+        <v>2.635668390413185</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -15552,7 +16307,7 @@
         <v>88.7</v>
       </c>
       <c r="H252" t="n">
-        <v>75.56</v>
+        <v>24.2</v>
       </c>
       <c r="I252" t="n">
         <v>102.2</v>
@@ -15584,6 +16339,9 @@
       <c r="R252" t="n">
         <v>0.02967365079365079</v>
       </c>
+      <c r="S252" t="n">
+        <v>4.412778821374232</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -15612,7 +16370,7 @@
         <v>94.46000000000001</v>
       </c>
       <c r="H253" t="n">
-        <v>84.02</v>
+        <v>28.9</v>
       </c>
       <c r="I253" t="n">
         <v>101.77</v>
@@ -15644,6 +16402,9 @@
       <c r="R253" t="n">
         <v>0.02983492063492063</v>
       </c>
+      <c r="S253" t="n">
+        <v>4.669613899775325</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -15672,7 +16433,7 @@
         <v>91.94</v>
       </c>
       <c r="H254" t="n">
-        <v>72.14</v>
+        <v>22.3</v>
       </c>
       <c r="I254" t="n">
         <v>101.9</v>
@@ -15704,6 +16465,9 @@
       <c r="R254" t="n">
         <v>0.02999619047619047</v>
       </c>
+      <c r="S254" t="n">
+        <v>3.471237490973047</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -15732,7 +16496,7 @@
         <v>91.94</v>
       </c>
       <c r="H255" t="n">
-        <v>64.58000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I255" t="n">
         <v>101.76</v>
@@ -15764,6 +16528,9 @@
       <c r="R255" t="n">
         <v>0.03015746031746031</v>
       </c>
+      <c r="S255" t="n">
+        <v>2.676793566872574</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -15792,7 +16559,7 @@
         <v>101.66</v>
       </c>
       <c r="H256" t="n">
-        <v>82.22</v>
+        <v>27.9</v>
       </c>
       <c r="I256" t="n">
         <v>101.34</v>
@@ -15824,6 +16591,9 @@
       <c r="R256" t="n">
         <v>0.03031873015873016</v>
       </c>
+      <c r="S256" t="n">
+        <v>3.378071567305236</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15852,7 +16622,7 @@
         <v>83.84</v>
       </c>
       <c r="H257" t="n">
-        <v>80.59999999999999</v>
+        <v>27</v>
       </c>
       <c r="I257" t="n">
         <v>102.3</v>
@@ -15884,6 +16654,9 @@
       <c r="R257" t="n">
         <v>0.03048</v>
       </c>
+      <c r="S257" t="n">
+        <v>6.316548705289052</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15912,7 +16685,7 @@
         <v>79.16</v>
       </c>
       <c r="H258" t="n">
-        <v>70.52</v>
+        <v>21.4</v>
       </c>
       <c r="I258" t="n">
         <v>103</v>
@@ -15944,6 +16717,9 @@
       <c r="R258" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S258" t="n">
+        <v>5.46062807161952</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15972,7 +16748,7 @@
         <v>78.98</v>
       </c>
       <c r="H259" t="n">
-        <v>74.48</v>
+        <v>23.6</v>
       </c>
       <c r="I259" t="n">
         <v>102.83</v>
@@ -16004,6 +16780,9 @@
       <c r="R259" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S259" t="n">
+        <v>6.288926942944155</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -16032,7 +16811,7 @@
         <v>87.80000000000001</v>
       </c>
       <c r="H260" t="n">
-        <v>72.31999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="I260" t="n">
         <v>102.24</v>
@@ -16064,6 +16843,9 @@
       <c r="R260" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S260" t="n">
+        <v>4.099587875399648</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -16092,7 +16874,7 @@
         <v>97.52</v>
       </c>
       <c r="H261" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I261" t="n">
         <v>101.83</v>
@@ -16124,6 +16906,9 @@
       <c r="R261" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S261" t="n">
+        <v>2.848522151920179</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -16152,7 +16937,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="H262" t="n">
-        <v>67.81999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I262" t="n">
         <v>102.31</v>
@@ -16184,6 +16969,9 @@
       <c r="R262" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S262" t="n">
+        <v>3.642538030942923</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -16212,7 +17000,7 @@
         <v>100.76</v>
       </c>
       <c r="H263" t="n">
-        <v>41.54</v>
+        <v>5.3</v>
       </c>
       <c r="I263" t="n">
         <v>101.75</v>
@@ -16244,6 +17032,9 @@
       <c r="R263" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S263" t="n">
+        <v>0.826813242298934</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -16272,7 +17063,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="H264" t="n">
-        <v>55.22</v>
+        <v>12.9</v>
       </c>
       <c r="I264" t="n">
         <v>102.1</v>
@@ -16304,6 +17095,9 @@
       <c r="R264" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S264" t="n">
+        <v>2.331977778497636</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -16332,7 +17126,7 @@
         <v>80.06</v>
       </c>
       <c r="H265" t="n">
-        <v>59.54000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="I265" t="n">
         <v>102.38</v>
@@ -16364,6 +17158,9 @@
       <c r="R265" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S265" t="n">
+        <v>3.588127230204545</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -16392,7 +17189,7 @@
         <v>81.31999999999999</v>
       </c>
       <c r="H266" t="n">
-        <v>56.48</v>
+        <v>13.6</v>
       </c>
       <c r="I266" t="n">
         <v>102.51</v>
@@ -16424,6 +17221,9 @@
       <c r="R266" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S266" t="n">
+        <v>3.052975564754478</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -16452,7 +17252,7 @@
         <v>66.2</v>
       </c>
       <c r="H267" t="n">
-        <v>51.8</v>
+        <v>11</v>
       </c>
       <c r="I267" t="n">
         <v>102.65</v>
@@ -16484,6 +17284,9 @@
       <c r="R267" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S267" t="n">
+        <v>4.912818357504264</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -16512,7 +17315,7 @@
         <v>79.34</v>
       </c>
       <c r="H268" t="n">
-        <v>29.3</v>
+        <v>-1.5</v>
       </c>
       <c r="I268" t="n">
         <v>102.76</v>
@@ -16544,6 +17347,9 @@
       <c r="R268" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S268" t="n">
+        <v>1.165476009369991</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -16572,7 +17378,7 @@
         <v>86.18000000000001</v>
       </c>
       <c r="H269" t="n">
-        <v>35.78</v>
+        <v>2.1</v>
       </c>
       <c r="I269" t="n">
         <v>102.31</v>
@@ -16604,6 +17410,9 @@
       <c r="R269" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S269" t="n">
+        <v>1.147093086073421</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -16632,7 +17441,7 @@
         <v>89.24000000000001</v>
       </c>
       <c r="H270" t="n">
-        <v>41.36</v>
+        <v>5.2</v>
       </c>
       <c r="I270" t="n">
         <v>101.4</v>
@@ -16664,6 +17473,9 @@
       <c r="R270" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S270" t="n">
+        <v>1.265641942688516</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -16692,7 +17504,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="H271" t="n">
-        <v>48.74</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I271" t="n">
         <v>101.01</v>
@@ -16724,6 +17536,9 @@
       <c r="R271" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S271" t="n">
+        <v>1.390989325492177</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -16752,7 +17567,7 @@
         <v>79.88</v>
       </c>
       <c r="H272" t="n">
-        <v>49.1</v>
+        <v>9.5</v>
       </c>
       <c r="I272" t="n">
         <v>102.55</v>
@@ -16784,6 +17599,9 @@
       <c r="R272" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S272" t="n">
+        <v>2.469207754168261</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -16812,7 +17630,7 @@
         <v>59.18</v>
       </c>
       <c r="H273" t="n">
-        <v>45.86</v>
+        <v>7.7</v>
       </c>
       <c r="I273" t="n">
         <v>102.87</v>
@@ -16844,6 +17662,9 @@
       <c r="R273" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S273" t="n">
+        <v>5.430154349491655</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -16872,7 +17693,7 @@
         <v>83.30000000000001</v>
       </c>
       <c r="H274" t="n">
-        <v>43.16</v>
+        <v>6.2</v>
       </c>
       <c r="I274" t="n">
         <v>102.73</v>
@@ -16904,6 +17725,9 @@
       <c r="R274" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S274" t="n">
+        <v>1.715837070111156</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -16932,7 +17756,7 @@
         <v>79.88</v>
       </c>
       <c r="H275" t="n">
-        <v>41.54</v>
+        <v>5.3</v>
       </c>
       <c r="I275" t="n">
         <v>102.4</v>
@@ -16964,6 +17788,9 @@
       <c r="R275" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S275" t="n">
+        <v>1.853007694736917</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -16992,7 +17819,7 @@
         <v>84.38</v>
       </c>
       <c r="H276" t="n">
-        <v>43.88</v>
+        <v>6.6</v>
       </c>
       <c r="I276" t="n">
         <v>102.18</v>
@@ -17024,6 +17851,9 @@
       <c r="R276" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S276" t="n">
+        <v>1.688925868805541</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -17052,7 +17882,7 @@
         <v>61.7</v>
       </c>
       <c r="H277" t="n">
-        <v>41.18</v>
+        <v>5.1</v>
       </c>
       <c r="I277" t="n">
         <v>102.75</v>
@@ -17084,6 +17914,9 @@
       <c r="R277" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S277" t="n">
+        <v>4.036817000365255</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -17112,7 +17945,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="H278" t="n">
-        <v>51.26</v>
+        <v>10.7</v>
       </c>
       <c r="I278" t="n">
         <v>102.59</v>
@@ -17144,6 +17977,9 @@
       <c r="R278" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S278" t="n">
+        <v>5.223221532228112</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -17172,7 +18008,7 @@
         <v>59.36</v>
       </c>
       <c r="H279" t="n">
-        <v>42.62</v>
+        <v>5.9</v>
       </c>
       <c r="I279" t="n">
         <v>103.09</v>
@@ -17204,6 +18040,9 @@
       <c r="R279" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S279" t="n">
+        <v>4.758336322537579</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -17232,7 +18071,7 @@
         <v>58.64</v>
       </c>
       <c r="H280" t="n">
-        <v>36.32</v>
+        <v>2.4</v>
       </c>
       <c r="I280" t="n">
         <v>102.8</v>
@@ -17264,6 +18103,9 @@
       <c r="R280" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S280" t="n">
+        <v>3.850480025255298</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -17292,7 +18134,7 @@
         <v>66.56</v>
       </c>
       <c r="H281" t="n">
-        <v>22.82</v>
+        <v>-5.1</v>
       </c>
       <c r="I281" t="n">
         <v>102.3</v>
@@ -17324,6 +18166,9 @@
       <c r="R281" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S281" t="n">
+        <v>1.543383062221695</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -17352,7 +18197,7 @@
         <v>73.58000000000001</v>
       </c>
       <c r="H282" t="n">
-        <v>26.24</v>
+        <v>-3.2</v>
       </c>
       <c r="I282" t="n">
         <v>102.28</v>
@@ -17384,6 +18229,9 @@
       <c r="R282" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S282" t="n">
+        <v>1.309247356245739</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -17412,7 +18260,7 @@
         <v>43.7</v>
       </c>
       <c r="H283" t="n">
-        <v>23.18</v>
+        <v>-4.9</v>
       </c>
       <c r="I283" t="n">
         <v>104.15</v>
@@ -17444,6 +18292,9 @@
       <c r="R283" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S283" t="n">
+        <v>4.728676468295444</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -17472,7 +18323,7 @@
         <v>42.62</v>
       </c>
       <c r="H284" t="n">
-        <v>-11.92</v>
+        <v>-24.4</v>
       </c>
       <c r="I284" t="n">
         <v>104.59</v>
@@ -17504,6 +18355,9 @@
       <c r="R284" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S284" t="n">
+        <v>1.005273937611028</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -17532,7 +18386,7 @@
         <v>53.42</v>
       </c>
       <c r="H285" t="n">
-        <v>1.039999999999999</v>
+        <v>-17.2</v>
       </c>
       <c r="I285" t="n">
         <v>103.58</v>
@@ -17564,6 +18418,9 @@
       <c r="R285" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S285" t="n">
+        <v>1.086628701065402</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -17592,7 +18449,7 @@
         <v>64.75999999999999</v>
       </c>
       <c r="H286" t="n">
-        <v>14.72</v>
+        <v>-9.6</v>
       </c>
       <c r="I286" t="n">
         <v>102.92</v>
@@ -17624,6 +18481,9 @@
       <c r="R286" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S286" t="n">
+        <v>1.182677822127648</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -17652,7 +18512,7 @@
         <v>59.36</v>
       </c>
       <c r="H287" t="n">
-        <v>3.379999999999999</v>
+        <v>-15.9</v>
       </c>
       <c r="I287" t="n">
         <v>103.37</v>
@@ -17684,6 +18544,9 @@
       <c r="R287" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S287" t="n">
+        <v>0.9116193248890486</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -17712,7 +18575,7 @@
         <v>53.96</v>
       </c>
       <c r="H288" t="n">
-        <v>2.119999999999997</v>
+        <v>-16.6</v>
       </c>
       <c r="I288" t="n">
         <v>103.32</v>
@@ -17744,6 +18607,9 @@
       <c r="R288" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S288" t="n">
+        <v>1.112990335385681</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -17772,7 +18638,7 @@
         <v>63.5</v>
       </c>
       <c r="H289" t="n">
-        <v>8.959999999999997</v>
+        <v>-12.8</v>
       </c>
       <c r="I289" t="n">
         <v>103.04</v>
@@ -17804,6 +18670,9 @@
       <c r="R289" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S289" t="n">
+        <v>0.9703585487596583</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -17832,7 +18701,7 @@
         <v>65.48</v>
       </c>
       <c r="H290" t="n">
-        <v>6.98</v>
+        <v>-13.9</v>
       </c>
       <c r="I290" t="n">
         <v>103.3</v>
@@ -17864,6 +18733,9 @@
       <c r="R290" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S290" t="n">
+        <v>0.8111891232069676</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -17892,7 +18764,7 @@
         <v>63.86</v>
       </c>
       <c r="H291" t="n">
-        <v>23</v>
+        <v>-5</v>
       </c>
       <c r="I291" t="n">
         <v>102.72</v>
@@ -17924,6 +18796,9 @@
       <c r="R291" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S291" t="n">
+        <v>1.756713609962262</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -17952,7 +18827,7 @@
         <v>73.03999999999999</v>
       </c>
       <c r="H292" t="n">
-        <v>39.74</v>
+        <v>4.3</v>
       </c>
       <c r="I292" t="n">
         <v>103.16</v>
@@ -17984,6 +18859,9 @@
       <c r="R292" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S292" t="n">
+        <v>2.303730019324674</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -18012,7 +18890,7 @@
         <v>49.64</v>
       </c>
       <c r="H293" t="n">
-        <v>23.36</v>
+        <v>-4.8</v>
       </c>
       <c r="I293" t="n">
         <v>103.69</v>
@@ -18044,6 +18922,9 @@
       <c r="R293" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S293" t="n">
+        <v>3.517067190690138</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -18072,7 +18953,7 @@
         <v>50.72</v>
       </c>
       <c r="H294" t="n">
-        <v>5.719999999999999</v>
+        <v>-14.6</v>
       </c>
       <c r="I294" t="n">
         <v>103.89</v>
@@ -18104,6 +18985,9 @@
       <c r="R294" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S294" t="n">
+        <v>1.540370471516121</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -18132,7 +19016,7 @@
         <v>38.48</v>
       </c>
       <c r="H295" t="n">
-        <v>-2.019999999999996</v>
+        <v>-18.9</v>
       </c>
       <c r="I295" t="n">
         <v>104</v>
@@ -18164,6 +19048,9 @@
       <c r="R295" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S295" t="n">
+        <v>2.027767280720925</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -18192,7 +19079,7 @@
         <v>52.34</v>
       </c>
       <c r="H296" t="n">
-        <v>-4.899999999999999</v>
+        <v>-20.5</v>
       </c>
       <c r="I296" t="n">
         <v>103.93</v>
@@ -18224,6 +19111,9 @@
       <c r="R296" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S296" t="n">
+        <v>0.8646956818855751</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -18252,7 +19142,7 @@
         <v>53.6</v>
       </c>
       <c r="H297" t="n">
-        <v>7.34</v>
+        <v>-13.7</v>
       </c>
       <c r="I297" t="n">
         <v>103.87</v>
@@ -18284,6 +19174,9 @@
       <c r="R297" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S297" t="n">
+        <v>1.438902722508767</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -18312,7 +19205,7 @@
         <v>71.78</v>
       </c>
       <c r="H298" t="n">
-        <v>33.98</v>
+        <v>1.1</v>
       </c>
       <c r="I298" t="n">
         <v>103.33</v>
@@ -18344,6 +19237,9 @@
       <c r="R298" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S298" t="n">
+        <v>1.93807337533217</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -18372,7 +19268,7 @@
         <v>63.68000000000001</v>
       </c>
       <c r="H299" t="n">
-        <v>25.16</v>
+        <v>-3.8</v>
       </c>
       <c r="I299" t="n">
         <v>103.48</v>
@@ -18404,6 +19300,9 @@
       <c r="R299" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S299" t="n">
+        <v>1.93859366960901</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -18432,7 +19331,7 @@
         <v>66.56</v>
       </c>
       <c r="H300" t="n">
-        <v>29.48</v>
+        <v>-1.4</v>
       </c>
       <c r="I300" t="n">
         <v>103.1</v>
@@ -18464,6 +19363,9 @@
       <c r="R300" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S300" t="n">
+        <v>2.033591484437618</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -18492,7 +19394,7 @@
         <v>62.78</v>
       </c>
       <c r="H301" t="n">
-        <v>6.98</v>
+        <v>-13.9</v>
       </c>
       <c r="I301" t="n">
         <v>103.9</v>
@@ -18524,6 +19426,9 @@
       <c r="R301" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S301" t="n">
+        <v>0.9171392886015782</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -18552,7 +19457,7 @@
         <v>60.62</v>
       </c>
       <c r="H302" t="n">
-        <v>-1.119999999999997</v>
+        <v>-18.4</v>
       </c>
       <c r="I302" t="n">
         <v>103.72</v>
@@ -18584,6 +19489,9 @@
       <c r="R302" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S302" t="n">
+        <v>0.6967362249495963</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -18612,7 +19520,7 @@
         <v>50.72</v>
       </c>
       <c r="H303" t="n">
-        <v>2.84</v>
+        <v>-16.2</v>
       </c>
       <c r="I303" t="n">
         <v>103.44</v>
@@ -18644,6 +19552,9 @@
       <c r="R303" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S303" t="n">
+        <v>1.349464154974131</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -18672,7 +19583,7 @@
         <v>96.08</v>
       </c>
       <c r="H304" t="n">
-        <v>14.9</v>
+        <v>-9.5</v>
       </c>
       <c r="I304" t="n">
         <v>102.27</v>
@@ -18704,6 +19615,9 @@
       <c r="R304" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S304" t="n">
+        <v>0.3289953731124068</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -18732,7 +19646,7 @@
         <v>81.68000000000001</v>
       </c>
       <c r="H305" t="n">
-        <v>20.3</v>
+        <v>-6.5</v>
       </c>
       <c r="I305" t="n">
         <v>101.73</v>
@@ -18764,6 +19678,9 @@
       <c r="R305" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S305" t="n">
+        <v>0.7276969213858554</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -18792,7 +19709,7 @@
         <v>80.78</v>
       </c>
       <c r="H306" t="n">
-        <v>25.52</v>
+        <v>-3.6</v>
       </c>
       <c r="I306" t="n">
         <v>100.8</v>
@@ -18824,6 +19741,9 @@
       <c r="R306" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S306" t="n">
+        <v>0.9401759758122383</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -18852,7 +19772,7 @@
         <v>48.38</v>
       </c>
       <c r="H307" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>102.83</v>
@@ -18884,6 +19804,9 @@
       <c r="R307" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S307" t="n">
+        <v>5.345813903298425</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -18912,7 +19835,7 @@
         <v>35.78</v>
       </c>
       <c r="H308" t="n">
-        <v>25.34</v>
+        <v>-3.7</v>
       </c>
       <c r="I308" t="n">
         <v>104.16</v>
@@ -18944,6 +19867,9 @@
       <c r="R308" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S308" t="n">
+        <v>7.914810318952076</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -18972,7 +19898,7 @@
         <v>44.24</v>
       </c>
       <c r="H309" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I309" t="n">
         <v>103.5</v>
@@ -19004,6 +19930,9 @@
       <c r="R309" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S309" t="n">
+        <v>6.144413173324722</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -19032,7 +19961,7 @@
         <v>44.78</v>
       </c>
       <c r="H310" t="n">
-        <v>31.1</v>
+        <v>-0.5</v>
       </c>
       <c r="I310" t="n">
         <v>103.47</v>
@@ -19064,6 +19993,9 @@
       <c r="R310" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S310" t="n">
+        <v>6.196850043083392</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -19092,7 +20024,7 @@
         <v>37.94</v>
       </c>
       <c r="H311" t="n">
-        <v>24.44</v>
+        <v>-4.2</v>
       </c>
       <c r="I311" t="n">
         <v>103.99</v>
@@ -19124,6 +20056,9 @@
       <c r="R311" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S311" t="n">
+        <v>6.773419834585097</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -19152,7 +20087,7 @@
         <v>37.58</v>
       </c>
       <c r="H312" t="n">
-        <v>16.16</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="I312" t="n">
         <v>103.98</v>
@@ -19184,6 +20119,9 @@
       <c r="R312" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S312" t="n">
+        <v>4.855854983259634</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -19212,7 +20150,7 @@
         <v>63.5</v>
       </c>
       <c r="H313" t="n">
-        <v>19.4</v>
+        <v>-7</v>
       </c>
       <c r="I313" t="n">
         <v>102.47</v>
@@ -19244,6 +20182,9 @@
       <c r="R313" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S313" t="n">
+        <v>1.533110019835495</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -19272,7 +20213,7 @@
         <v>59.54000000000001</v>
       </c>
       <c r="H314" t="n">
-        <v>27.14</v>
+        <v>-2.7</v>
       </c>
       <c r="I314" t="n">
         <v>102.45</v>
@@ -19304,6 +20245,9 @@
       <c r="R314" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S314" t="n">
+        <v>2.548021727126227</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -19332,7 +20276,7 @@
         <v>60.8</v>
       </c>
       <c r="H315" t="n">
-        <v>26.42</v>
+        <v>-3.1</v>
       </c>
       <c r="I315" t="n">
         <v>102.8</v>
@@ -19364,6 +20308,9 @@
       <c r="R315" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S315" t="n">
+        <v>2.332163810507935</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -19392,7 +20339,7 @@
         <v>49.46</v>
       </c>
       <c r="H316" t="n">
-        <v>12.38</v>
+        <v>-10.9</v>
       </c>
       <c r="I316" t="n">
         <v>104.09</v>
@@ -19424,6 +20371,9 @@
       <c r="R316" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S316" t="n">
+        <v>2.212065246089296</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -19452,7 +20402,7 @@
         <v>63.14</v>
       </c>
       <c r="H317" t="n">
-        <v>9.859999999999999</v>
+        <v>-12.3</v>
       </c>
       <c r="I317" t="n">
         <v>102.38</v>
@@ -19484,6 +20434,9 @@
       <c r="R317" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S317" t="n">
+        <v>1.027057816453932</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -19512,7 +20465,7 @@
         <v>78.62</v>
       </c>
       <c r="H318" t="n">
-        <v>23.36</v>
+        <v>-4.8</v>
       </c>
       <c r="I318" t="n">
         <v>101.5</v>
@@ -19544,6 +20497,9 @@
       <c r="R318" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S318" t="n">
+        <v>0.9390554000632984</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -19572,7 +20528,7 @@
         <v>57.92</v>
       </c>
       <c r="H319" t="n">
-        <v>18.68</v>
+        <v>-7.4</v>
       </c>
       <c r="I319" t="n">
         <v>103.1</v>
@@ -19604,6 +20560,9 @@
       <c r="R319" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S319" t="n">
+        <v>1.926932138871234</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -19632,7 +20591,7 @@
         <v>45.5</v>
       </c>
       <c r="H320" t="n">
-        <v>9.32</v>
+        <v>-12.6</v>
       </c>
       <c r="I320" t="n">
         <v>103.74</v>
@@ -19664,6 +20623,9 @@
       <c r="R320" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S320" t="n">
+        <v>2.360750480883046</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -19692,7 +20654,7 @@
         <v>59.18</v>
       </c>
       <c r="H321" t="n">
-        <v>13.28</v>
+        <v>-10.4</v>
       </c>
       <c r="I321" t="n">
         <v>103.62</v>
@@ -19724,6 +20686,9 @@
       <c r="R321" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S321" t="n">
+        <v>1.43614997415643</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -19752,7 +20717,7 @@
         <v>62.96</v>
       </c>
       <c r="H322" t="n">
-        <v>-0.9400000000000048</v>
+        <v>-18.3</v>
       </c>
       <c r="I322" t="n">
         <v>102.86</v>
@@ -19784,6 +20749,9 @@
       <c r="R322" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S322" t="n">
+        <v>0.6307234905234912</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -19812,7 +20780,7 @@
         <v>78.44</v>
       </c>
       <c r="H323" t="n">
-        <v>8.059999999999999</v>
+        <v>-13.3</v>
       </c>
       <c r="I323" t="n">
         <v>102.47</v>
@@ -19844,6 +20812,9 @@
       <c r="R323" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S323" t="n">
+        <v>0.4862719932614048</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -19872,7 +20843,7 @@
         <v>62.24</v>
       </c>
       <c r="H324" t="n">
-        <v>22.1</v>
+        <v>-5.5</v>
       </c>
       <c r="I324" t="n">
         <v>102.08</v>
@@ -19904,6 +20875,9 @@
       <c r="R324" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S324" t="n">
+        <v>1.821606089749509</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -19932,7 +20906,7 @@
         <v>71.42</v>
       </c>
       <c r="H325" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="I325" t="n">
         <v>102.38</v>
@@ -19964,6 +20938,9 @@
       <c r="R325" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S325" t="n">
+        <v>1.405148574506065</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -19992,7 +20969,7 @@
         <v>87.98</v>
       </c>
       <c r="H326" t="n">
-        <v>9.859999999999999</v>
+        <v>-12.3</v>
       </c>
       <c r="I326" t="n">
         <v>102.065</v>
@@ -20024,6 +21001,9 @@
       <c r="R326" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S326" t="n">
+        <v>0.3588748128503499</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -20052,7 +21032,7 @@
         <v>80.42</v>
       </c>
       <c r="H327" t="n">
-        <v>23.72</v>
+        <v>-4.6</v>
       </c>
       <c r="I327" t="n">
         <v>101.75</v>
@@ -20084,6 +21064,9 @@
       <c r="R327" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S327" t="n">
+        <v>0.8851342609547616</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -20112,7 +21095,7 @@
         <v>74.30000000000001</v>
       </c>
       <c r="H328" t="n">
-        <v>29.3</v>
+        <v>-1.5</v>
       </c>
       <c r="I328" t="n">
         <v>101.89</v>
@@ -20144,6 +21127,9 @@
       <c r="R328" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S328" t="n">
+        <v>1.43978036586628</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -20172,7 +21158,7 @@
         <v>71.24000000000001</v>
       </c>
       <c r="H329" t="n">
-        <v>27.86</v>
+        <v>-2.3</v>
       </c>
       <c r="I329" t="n">
         <v>102.11</v>
@@ -20204,6 +21190,9 @@
       <c r="R329" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S329" t="n">
+        <v>1.548287069176159</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -20232,7 +21221,7 @@
         <v>84.02</v>
       </c>
       <c r="H330" t="n">
-        <v>45.86</v>
+        <v>7.7</v>
       </c>
       <c r="I330" t="n">
         <v>101.51</v>
@@ -20264,6 +21253,9 @@
       <c r="R330" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S330" t="n">
+        <v>1.847533300739114</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -20292,7 +21284,7 @@
         <v>68.53999999999999</v>
       </c>
       <c r="H331" t="n">
-        <v>55.40000000000001</v>
+        <v>13</v>
       </c>
       <c r="I331" t="n">
         <v>102.08</v>
@@ -20324,6 +21316,9 @@
       <c r="R331" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S331" t="n">
+        <v>5.050497724908755</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -20352,7 +21347,7 @@
         <v>85.09999999999999</v>
       </c>
       <c r="H332" t="n">
-        <v>32.18</v>
+        <v>0.1</v>
       </c>
       <c r="I332" t="n">
         <v>101.15</v>
@@ -20384,6 +21379,9 @@
       <c r="R332" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S332" t="n">
+        <v>1.03695839209149</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -20412,7 +21410,7 @@
         <v>58.82</v>
       </c>
       <c r="H333" t="n">
-        <v>37.58</v>
+        <v>3.1</v>
       </c>
       <c r="I333" t="n">
         <v>103.42</v>
@@ -20444,6 +21442,9 @@
       <c r="R333" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S333" t="n">
+        <v>4.012392333163453</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -20472,7 +21473,7 @@
         <v>69.25999999999999</v>
       </c>
       <c r="H334" t="n">
-        <v>44.78</v>
+        <v>7.1</v>
       </c>
       <c r="I334" t="n">
         <v>102.82</v>
@@ -20504,6 +21505,9 @@
       <c r="R334" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S334" t="n">
+        <v>3.296346860415758</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -20532,7 +21536,7 @@
         <v>91.76000000000001</v>
       </c>
       <c r="H335" t="n">
-        <v>44.06</v>
+        <v>6.7</v>
       </c>
       <c r="I335" t="n">
         <v>101.99</v>
@@ -20564,6 +21568,9 @@
       <c r="R335" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S335" t="n">
+        <v>1.273926081889693</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -20592,7 +21599,7 @@
         <v>102.56</v>
       </c>
       <c r="H336" t="n">
-        <v>44.42</v>
+        <v>6.9</v>
       </c>
       <c r="I336" t="n">
         <v>101.16</v>
@@ -20624,6 +21631,9 @@
       <c r="R336" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S336" t="n">
+        <v>0.8652967619715228</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -20652,7 +21662,7 @@
         <v>71.59999999999999</v>
       </c>
       <c r="H337" t="n">
-        <v>60.62</v>
+        <v>15.9</v>
       </c>
       <c r="I337" t="n">
         <v>102.57</v>
@@ -20684,6 +21694,9 @@
       <c r="R337" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S337" t="n">
+        <v>5.328733978763278</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -20712,7 +21725,7 @@
         <v>68.72</v>
       </c>
       <c r="H338" t="n">
-        <v>51.44</v>
+        <v>10.8</v>
       </c>
       <c r="I338" t="n">
         <v>102.15</v>
@@ -20744,6 +21757,9 @@
       <c r="R338" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S338" t="n">
+        <v>4.333685286774025</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -20772,7 +21788,7 @@
         <v>79.88</v>
       </c>
       <c r="H339" t="n">
-        <v>52.34</v>
+        <v>11.3</v>
       </c>
       <c r="I339" t="n">
         <v>102.55</v>
@@ -20804,6 +21820,9 @@
       <c r="R339" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S339" t="n">
+        <v>2.784414104213721</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -20832,7 +21851,7 @@
         <v>67.81999999999999</v>
       </c>
       <c r="H340" t="n">
-        <v>63.31999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="I340" t="n">
         <v>103.43</v>
@@ -20864,6 +21883,9 @@
       <c r="R340" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S340" t="n">
+        <v>6.919008488211364</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -20892,7 +21914,7 @@
         <v>77.36</v>
       </c>
       <c r="H341" t="n">
-        <v>71.24000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="I341" t="n">
         <v>103.04</v>
@@ -20924,6 +21946,9 @@
       <c r="R341" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S341" t="n">
+        <v>6.030687299550844</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -20952,7 +21977,7 @@
         <v>74.48</v>
       </c>
       <c r="H342" t="n">
-        <v>47.84</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I342" t="n">
         <v>103.33</v>
@@ -20984,6 +22009,9 @@
       <c r="R342" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S342" t="n">
+        <v>2.952538486895566</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -21012,7 +22040,7 @@
         <v>83.84</v>
       </c>
       <c r="H343" t="n">
-        <v>40.1</v>
+        <v>4.5</v>
       </c>
       <c r="I343" t="n">
         <v>103.11</v>
@@ -21044,6 +22072,9 @@
       <c r="R343" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S343" t="n">
+        <v>1.491920389052184</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -21072,7 +22103,7 @@
         <v>79.52</v>
       </c>
       <c r="H344" t="n">
-        <v>49.64</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I344" t="n">
         <v>102.52</v>
@@ -21104,6 +22135,9 @@
       <c r="R344" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S344" t="n">
+        <v>2.557084443451088</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -21132,7 +22166,7 @@
         <v>88.16</v>
       </c>
       <c r="H345" t="n">
-        <v>52.16</v>
+        <v>11.2</v>
       </c>
       <c r="I345" t="n">
         <v>102.29</v>
@@ -21164,6 +22198,9 @@
       <c r="R345" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S345" t="n">
+        <v>1.984244408368619</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -21192,7 +22229,7 @@
         <v>87.44</v>
       </c>
       <c r="H346" t="n">
-        <v>67.81999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I346" t="n">
         <v>102.79</v>
@@ -21224,6 +22261,9 @@
       <c r="R346" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S346" t="n">
+        <v>3.565954028167919</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -21252,7 +22292,7 @@
         <v>83.84</v>
       </c>
       <c r="H347" t="n">
-        <v>60.98</v>
+        <v>16.1</v>
       </c>
       <c r="I347" t="n">
         <v>102.26</v>
@@ -21284,6 +22324,9 @@
       <c r="R347" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S347" t="n">
+        <v>3.239133513205729</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -21312,7 +22355,7 @@
         <v>88.52</v>
       </c>
       <c r="H348" t="n">
-        <v>63.14</v>
+        <v>17.3</v>
       </c>
       <c r="I348" t="n">
         <v>102.37</v>
@@ -21344,6 +22387,9 @@
       <c r="R348" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S348" t="n">
+        <v>2.904588382818942</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -21372,7 +22418,7 @@
         <v>67.28</v>
       </c>
       <c r="H349" t="n">
-        <v>55.76</v>
+        <v>13.2</v>
       </c>
       <c r="I349" t="n">
         <v>103.87</v>
@@ -21404,6 +22450,9 @@
       <c r="R349" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S349" t="n">
+        <v>5.411141540639354</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -21432,7 +22481,7 @@
         <v>71.59999999999999</v>
       </c>
       <c r="H350" t="n">
-        <v>32.36</v>
+        <v>0.2</v>
       </c>
       <c r="I350" t="n">
         <v>103.65</v>
@@ -21464,6 +22513,9 @@
       <c r="R350" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S350" t="n">
+        <v>1.830386640642205</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -21492,7 +22544,7 @@
         <v>87.25999999999999</v>
       </c>
       <c r="H351" t="n">
-        <v>26.06</v>
+        <v>-3.3</v>
       </c>
       <c r="I351" t="n">
         <v>101.93</v>
@@ -21524,6 +22576,9 @@
       <c r="R351" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S351" t="n">
+        <v>0.7413885158289473</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -21552,7 +22607,7 @@
         <v>93.02</v>
       </c>
       <c r="H352" t="n">
-        <v>44.06</v>
+        <v>6.7</v>
       </c>
       <c r="I352" t="n">
         <v>101.63</v>
@@ -21584,6 +22639,9 @@
       <c r="R352" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S352" t="n">
+        <v>1.214158588223179</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -21612,7 +22670,7 @@
         <v>95</v>
       </c>
       <c r="H353" t="n">
-        <v>65.30000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="I353" t="n">
         <v>101.93</v>
@@ -21644,6 +22702,9 @@
       <c r="R353" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S353" t="n">
+        <v>2.444344113505935</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -21672,7 +22733,7 @@
         <v>105.62</v>
       </c>
       <c r="H354" t="n">
-        <v>81.5</v>
+        <v>27.5</v>
       </c>
       <c r="I354" t="n">
         <v>100.9</v>
@@ -21704,6 +22765,9 @@
       <c r="R354" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S354" t="n">
+        <v>2.864831403641571</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -21732,7 +22796,7 @@
         <v>104.9</v>
       </c>
       <c r="H355" t="n">
-        <v>88.34</v>
+        <v>31.3</v>
       </c>
       <c r="I355" t="n">
         <v>100.31</v>
@@ -21764,6 +22828,9 @@
       <c r="R355" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S355" t="n">
+        <v>3.660239254170883</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -21792,7 +22859,7 @@
         <v>101.12</v>
       </c>
       <c r="H356" t="n">
-        <v>87.44</v>
+        <v>30.8</v>
       </c>
       <c r="I356" t="n">
         <v>100.41</v>
@@ -21824,6 +22891,9 @@
       <c r="R356" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S356" t="n">
+        <v>4.073274332313543</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -21852,7 +22922,7 @@
         <v>96.98</v>
       </c>
       <c r="H357" t="n">
-        <v>72.31999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="I357" t="n">
         <v>100.66</v>
@@ -21884,6 +22954,9 @@
       <c r="R357" t="n">
         <v>0.01693333333333333</v>
       </c>
+      <c r="S357" t="n">
+        <v>2.888471769329966</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -21912,7 +22985,7 @@
         <v>92.84</v>
       </c>
       <c r="H358" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I358" t="n">
         <v>101.08</v>
@@ -21944,6 +23017,9 @@
       <c r="R358" t="n">
         <v>0.02370666666666667</v>
       </c>
+      <c r="S358" t="n">
+        <v>2.736522209349584</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -21972,7 +23048,7 @@
         <v>85.46000000000001</v>
       </c>
       <c r="H359" t="n">
-        <v>78.08000000000001</v>
+        <v>25.6</v>
       </c>
       <c r="I359" t="n">
         <v>101.82</v>
@@ -22004,6 +23080,9 @@
       <c r="R359" t="n">
         <v>0.03048</v>
       </c>
+      <c r="S359" t="n">
+        <v>5.450404246779924</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -22032,7 +23111,7 @@
         <v>96.26000000000001</v>
       </c>
       <c r="H360" t="n">
-        <v>74.66</v>
+        <v>23.7</v>
       </c>
       <c r="I360" t="n">
         <v>101.47</v>
@@ -22064,6 +23143,9 @@
       <c r="R360" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S360" t="n">
+        <v>3.209882187957623</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -22092,7 +23174,7 @@
         <v>85.81999999999999</v>
       </c>
       <c r="H361" t="n">
-        <v>65.84</v>
+        <v>18.8</v>
       </c>
       <c r="I361" t="n">
         <v>102.07</v>
@@ -22124,6 +23206,9 @@
       <c r="R361" t="n">
         <v>0.03048</v>
       </c>
+      <c r="S361" t="n">
+        <v>3.549774872135335</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -22152,7 +23237,7 @@
         <v>87.44</v>
       </c>
       <c r="H362" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I362" t="n">
         <v>101.97</v>
@@ -22184,6 +23269,9 @@
       <c r="R362" t="n">
         <v>0.04064</v>
       </c>
+      <c r="S362" t="n">
+        <v>3.588128930223374</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -22212,7 +23300,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="H363" t="n">
-        <v>73.03999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="I363" t="n">
         <v>101.09</v>
@@ -22244,6 +23332,9 @@
       <c r="R363" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S363" t="n">
+        <v>3.296419620234847</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -22272,7 +23363,7 @@
         <v>104.72</v>
       </c>
       <c r="H364" t="n">
-        <v>56.3</v>
+        <v>13.5</v>
       </c>
       <c r="I364" t="n">
         <v>101.14</v>
@@ -22304,6 +23395,9 @@
       <c r="R364" t="n">
         <v>0.04402666666666667</v>
       </c>
+      <c r="S364" t="n">
+        <v>1.245418884408991</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -22332,7 +23426,7 @@
         <v>107.6</v>
       </c>
       <c r="H365" t="n">
-        <v>81.31999999999999</v>
+        <v>27.4</v>
       </c>
       <c r="I365" t="n">
         <v>99.62</v>
@@ -22364,6 +23458,9 @@
       <c r="R365" t="n">
         <v>0.03725333333333333</v>
       </c>
+      <c r="S365" t="n">
+        <v>2.656865493758925</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -22392,7 +23489,7 @@
         <v>74.12</v>
       </c>
       <c r="H366" t="n">
-        <v>65.48</v>
+        <v>18.6</v>
       </c>
       <c r="I366" t="n">
         <v>102.58</v>
@@ -22424,6 +23521,9 @@
       <c r="R366" t="n">
         <v>0.03048</v>
       </c>
+      <c r="S366" t="n">
+        <v>5.672582847397279</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -22452,7 +23552,7 @@
         <v>106.7</v>
       </c>
       <c r="H367" t="n">
-        <v>55.58</v>
+        <v>13.1</v>
       </c>
       <c r="I367" t="n">
         <v>101.32</v>
@@ -22484,6 +23584,9 @@
       <c r="R367" t="n">
         <v>0.02370666666666667</v>
       </c>
+      <c r="S367" t="n">
+        <v>1.131465450331599</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -22512,7 +23615,7 @@
         <v>105.8</v>
       </c>
       <c r="H368" t="n">
-        <v>85.28</v>
+        <v>29.6</v>
       </c>
       <c r="I368" t="n">
         <v>100.82</v>
@@ -22544,6 +23647,9 @@
       <c r="R368" t="n">
         <v>0.01693333333333333</v>
       </c>
+      <c r="S368" t="n">
+        <v>3.21633989567143</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -22572,7 +23678,7 @@
         <v>95.36000000000001</v>
       </c>
       <c r="H369" t="n">
-        <v>90.68000000000001</v>
+        <v>32.6</v>
       </c>
       <c r="I369" t="n">
         <v>101.82</v>
@@ -22604,6 +23710,9 @@
       <c r="R369" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S369" t="n">
+        <v>5.578583366818939</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -22632,7 +23741,7 @@
         <v>108.86</v>
       </c>
       <c r="H370" t="n">
-        <v>56.66</v>
+        <v>13.7</v>
       </c>
       <c r="I370" t="n">
         <v>101.23</v>
@@ -22664,6 +23773,9 @@
       <c r="R370" t="n">
         <v>0.01241777777777778</v>
       </c>
+      <c r="S370" t="n">
+        <v>1.091239494503848</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -22692,7 +23804,7 @@
         <v>125.96</v>
       </c>
       <c r="H371" t="n">
-        <v>86.90000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="I371" t="n">
         <v>100.85</v>
@@ -22724,6 +23836,9 @@
       <c r="R371" t="n">
         <v>0.01467555555555556</v>
       </c>
+      <c r="S371" t="n">
+        <v>1.729535783325207</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -22752,7 +23867,7 @@
         <v>133.16</v>
       </c>
       <c r="H372" t="n">
-        <v>84.02</v>
+        <v>28.9</v>
       </c>
       <c r="I372" t="n">
         <v>100.15</v>
@@ -22784,6 +23899,9 @@
       <c r="R372" t="n">
         <v>0.01693333333333333</v>
       </c>
+      <c r="S372" t="n">
+        <v>1.262386920038923</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -22812,7 +23930,7 @@
         <v>92.84</v>
       </c>
       <c r="H373" t="n">
-        <v>73.22</v>
+        <v>22.9</v>
       </c>
       <c r="I373" t="n">
         <v>101.83</v>
@@ -22844,6 +23962,9 @@
       <c r="R373" t="n">
         <v>0.01919111111111111</v>
       </c>
+      <c r="S373" t="n">
+        <v>3.478658041464012</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -22872,7 +23993,7 @@
         <v>112.46</v>
       </c>
       <c r="H374" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I374" t="n">
         <v>100.7</v>
@@ -22904,6 +24025,9 @@
       <c r="R374" t="n">
         <v>0.02144888888888889</v>
       </c>
+      <c r="S374" t="n">
+        <v>1.578087324366805</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -22932,7 +24056,7 @@
         <v>103.82</v>
       </c>
       <c r="H375" t="n">
-        <v>53.06</v>
+        <v>11.7</v>
       </c>
       <c r="I375" t="n">
         <v>101.73</v>
@@ -22964,6 +24088,9 @@
       <c r="R375" t="n">
         <v>0.02370666666666667</v>
       </c>
+      <c r="S375" t="n">
+        <v>1.142712804065504</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -22992,7 +24119,7 @@
         <v>110.66</v>
       </c>
       <c r="H376" t="n">
-        <v>86.18000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="I376" t="n">
         <v>100.69</v>
@@ -23024,6 +24151,9 @@
       <c r="R376" t="n">
         <v>0.02596444444444444</v>
       </c>
+      <c r="S376" t="n">
+        <v>2.795474640442692</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -23052,7 +24182,7 @@
         <v>122</v>
       </c>
       <c r="H377" t="n">
-        <v>90.13999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="I377" t="n">
         <v>100.13</v>
@@ -23084,6 +24214,9 @@
       <c r="R377" t="n">
         <v>0.02822222222222222</v>
       </c>
+      <c r="S377" t="n">
+        <v>2.173881916180084</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -23112,7 +24245,7 @@
         <v>115.7</v>
       </c>
       <c r="H378" t="n">
-        <v>99.68000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="I378" t="n">
         <v>100.08</v>
@@ -23144,6 +24277,9 @@
       <c r="R378" t="n">
         <v>0.03048</v>
       </c>
+      <c r="S378" t="n">
+        <v>3.586309808656733</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -23172,7 +24308,7 @@
         <v>102.02</v>
       </c>
       <c r="H379" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I379" t="n">
         <v>101.67</v>
@@ -23204,6 +24340,9 @@
       <c r="R379" t="n">
         <v>0.02935111111111111</v>
       </c>
+      <c r="S379" t="n">
+        <v>4.995222986957726</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -23232,7 +24371,7 @@
         <v>101.48</v>
       </c>
       <c r="H380" t="n">
-        <v>86.18000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="I380" t="n">
         <v>102.46</v>
@@ -23264,6 +24403,9 @@
       <c r="R380" t="n">
         <v>0.02822222222222222</v>
       </c>
+      <c r="S380" t="n">
+        <v>3.862390628477082</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -23292,7 +24434,7 @@
         <v>98.06</v>
       </c>
       <c r="H381" t="n">
-        <v>80.42</v>
+        <v>26.9</v>
       </c>
       <c r="I381" t="n">
         <v>101.85</v>
@@ -23324,6 +24466,9 @@
       <c r="R381" t="n">
         <v>0.02709333333333333</v>
       </c>
+      <c r="S381" t="n">
+        <v>3.63301022922818</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -23352,7 +24497,7 @@
         <v>98.06</v>
       </c>
       <c r="H382" t="n">
-        <v>95.36000000000001</v>
+        <v>35.2</v>
       </c>
       <c r="I382" t="n">
         <v>102.01</v>
@@ -23384,6 +24529,9 @@
       <c r="R382" t="n">
         <v>0.02596444444444444</v>
       </c>
+      <c r="S382" t="n">
+        <v>5.83540273430232</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -23412,7 +24560,7 @@
         <v>124.34</v>
       </c>
       <c r="H383" t="n">
-        <v>91.76000000000001</v>
+        <v>33.2</v>
       </c>
       <c r="I383" t="n">
         <v>101.07</v>
@@ -23444,6 +24592,9 @@
       <c r="R383" t="n">
         <v>0.02483555555555556</v>
       </c>
+      <c r="S383" t="n">
+        <v>2.122024385774826</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -23472,7 +24623,7 @@
         <v>120.56</v>
       </c>
       <c r="H384" t="n">
-        <v>95.18000000000001</v>
+        <v>35.1</v>
       </c>
       <c r="I384" t="n">
         <v>100.49</v>
@@ -23504,6 +24655,9 @@
       <c r="R384" t="n">
         <v>0.02370666666666666</v>
       </c>
+      <c r="S384" t="n">
+        <v>2.664102026256206</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -23532,7 +24686,7 @@
         <v>124.34</v>
       </c>
       <c r="H385" t="n">
-        <v>107.6</v>
+        <v>42</v>
       </c>
       <c r="I385" t="n">
         <v>100.85</v>
@@ -23564,6 +24718,9 @@
       <c r="R385" t="n">
         <v>0.02257777777777778</v>
       </c>
+      <c r="S385" t="n">
+        <v>3.426932515852662</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -23592,7 +24749,7 @@
         <v>132.8</v>
       </c>
       <c r="H386" t="n">
-        <v>120.92</v>
+        <v>49.4</v>
       </c>
       <c r="I386" t="n">
         <v>100.64</v>
@@ -23624,6 +24781,9 @@
       <c r="R386" t="n">
         <v>0.02144888888888889</v>
       </c>
+      <c r="S386" t="n">
+        <v>3.855278418515332</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -23652,7 +24812,7 @@
         <v>118.94</v>
       </c>
       <c r="H387" t="n">
-        <v>110.3</v>
+        <v>43.5</v>
       </c>
       <c r="I387" t="n">
         <v>100.78</v>
@@ -23684,6 +24844,9 @@
       <c r="R387" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S387" t="n">
+        <v>4.413668433531271</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -23712,7 +24875,7 @@
         <v>116.78</v>
       </c>
       <c r="H388" t="n">
-        <v>111.74</v>
+        <v>44.3</v>
       </c>
       <c r="I388" t="n">
         <v>101.12</v>
@@ -23744,6 +24907,9 @@
       <c r="R388" t="n">
         <v>0.01919111111111111</v>
       </c>
+      <c r="S388" t="n">
+        <v>4.940920386677106</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -23772,7 +24938,7 @@
         <v>117.68</v>
       </c>
       <c r="H389" t="n">
-        <v>114.98</v>
+        <v>46.1</v>
       </c>
       <c r="I389" t="n">
         <v>101.08</v>
@@ -23804,6 +24970,9 @@
       <c r="R389" t="n">
         <v>0.01806222222222222</v>
       </c>
+      <c r="S389" t="n">
+        <v>5.263072271929594</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -23832,7 +25001,7 @@
         <v>111.92</v>
       </c>
       <c r="H390" t="n">
-        <v>107.78</v>
+        <v>42.1</v>
       </c>
       <c r="I390" t="n">
         <v>101.57</v>
@@ -23864,6 +25033,9 @@
       <c r="R390" t="n">
         <v>0.01693333333333333</v>
       </c>
+      <c r="S390" t="n">
+        <v>5.184591081858509</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -23892,7 +25064,7 @@
         <v>115.16</v>
       </c>
       <c r="H391" t="n">
-        <v>100.22</v>
+        <v>37.9</v>
       </c>
       <c r="I391" t="n">
         <v>101.44</v>
@@ -23924,6 +25096,9 @@
       <c r="R391" t="n">
         <v>0.01580444444444444</v>
       </c>
+      <c r="S391" t="n">
+        <v>3.711650641233001</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -23952,7 +25127,7 @@
         <v>139.82</v>
       </c>
       <c r="H392" t="n">
-        <v>89.42</v>
+        <v>31.9</v>
       </c>
       <c r="I392" t="n">
         <v>101.02</v>
@@ -23984,6 +25159,9 @@
       <c r="R392" t="n">
         <v>0.01467555555555556</v>
       </c>
+      <c r="S392" t="n">
+        <v>1.229484324914341</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -24012,7 +25190,7 @@
         <v>114.98</v>
       </c>
       <c r="H393" t="n">
-        <v>101.12</v>
+        <v>38.4</v>
       </c>
       <c r="I393" t="n">
         <v>101.2</v>
@@ -24044,6 +25222,9 @@
       <c r="R393" t="n">
         <v>0.01354666666666667</v>
       </c>
+      <c r="S393" t="n">
+        <v>3.836728851491936</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -24072,7 +25253,7 @@
         <v>134.42</v>
       </c>
       <c r="H394" t="n">
-        <v>92.66</v>
+        <v>33.7</v>
       </c>
       <c r="I394" t="n">
         <v>100.86</v>
@@ -24104,6 +25285,9 @@
       <c r="R394" t="n">
         <v>0.01241777777777778</v>
       </c>
+      <c r="S394" t="n">
+        <v>1.597485922616897</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -24132,7 +25316,7 @@
         <v>131.72</v>
       </c>
       <c r="H395" t="n">
-        <v>93.92</v>
+        <v>34.4</v>
       </c>
       <c r="I395" t="n">
         <v>100.62</v>
@@ -24164,6 +25348,9 @@
       <c r="R395" t="n">
         <v>0.01128888888888889</v>
       </c>
+      <c r="S395" t="n">
+        <v>1.803002400897546</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -24192,7 +25379,7 @@
         <v>127.22</v>
       </c>
       <c r="H396" t="n">
-        <v>103.1</v>
+        <v>39.5</v>
       </c>
       <c r="I396" t="n">
         <v>100.9</v>
@@ -24224,6 +25411,9 @@
       <c r="R396" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S396" t="n">
+        <v>2.739191674573126</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -24252,7 +25442,7 @@
         <v>135.86</v>
       </c>
       <c r="H397" t="n">
-        <v>105.08</v>
+        <v>40.6</v>
       </c>
       <c r="I397" t="n">
         <v>100.71</v>
@@ -24284,6 +25474,9 @@
       <c r="R397" t="n">
         <v>0.01031630769230769</v>
       </c>
+      <c r="S397" t="n">
+        <v>2.230434672879254</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -24312,7 +25505,7 @@
         <v>127.58</v>
       </c>
       <c r="H398" t="n">
-        <v>113.36</v>
+        <v>45.2</v>
       </c>
       <c r="I398" t="n">
         <v>100.38</v>
@@ -24344,6 +25537,9 @@
       <c r="R398" t="n">
         <v>0.01047261538461539</v>
       </c>
+      <c r="S398" t="n">
+        <v>3.656769283576379</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -24372,7 +25568,7 @@
         <v>136.58</v>
       </c>
       <c r="H399" t="n">
-        <v>115.52</v>
+        <v>46.4</v>
       </c>
       <c r="I399" t="n">
         <v>100.25</v>
@@ -24404,6 +25600,9 @@
       <c r="R399" t="n">
         <v>0.01062892307692308</v>
       </c>
+      <c r="S399" t="n">
+        <v>2.955631056976206</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -24432,7 +25631,7 @@
         <v>118.94</v>
       </c>
       <c r="H400" t="n">
-        <v>109.04</v>
+        <v>42.8</v>
       </c>
       <c r="I400" t="n">
         <v>101.2</v>
@@ -24464,6 +25663,9 @@
       <c r="R400" t="n">
         <v>0.01078523076923077</v>
       </c>
+      <c r="S400" t="n">
+        <v>4.254815642865709</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -24492,7 +25694,7 @@
         <v>132.62</v>
       </c>
       <c r="H401" t="n">
-        <v>122.72</v>
+        <v>50.4</v>
       </c>
       <c r="I401" t="n">
         <v>100.11</v>
@@ -24524,6 +25726,9 @@
       <c r="R401" t="n">
         <v>0.01094153846153846</v>
       </c>
+      <c r="S401" t="n">
+        <v>4.075109347954338</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -24552,7 +25757,7 @@
         <v>128.66</v>
       </c>
       <c r="H402" t="n">
-        <v>112.46</v>
+        <v>44.7</v>
       </c>
       <c r="I402" t="n">
         <v>100.34</v>
@@ -24584,6 +25789,9 @@
       <c r="R402" t="n">
         <v>0.01109784615384615</v>
       </c>
+      <c r="S402" t="n">
+        <v>3.445522732883284</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -24612,7 +25820,7 @@
         <v>136.94</v>
       </c>
       <c r="H403" t="n">
-        <v>110.3</v>
+        <v>43.5</v>
       </c>
       <c r="I403" t="n">
         <v>100.16</v>
@@ -24644,6 +25852,9 @@
       <c r="R403" t="n">
         <v>0.01125415384615385</v>
       </c>
+      <c r="S403" t="n">
+        <v>2.516906004890658</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -24672,7 +25883,7 @@
         <v>132.62</v>
       </c>
       <c r="H404" t="n">
-        <v>114.08</v>
+        <v>45.6</v>
       </c>
       <c r="I404" t="n">
         <v>100.59</v>
@@ -24704,6 +25915,9 @@
       <c r="R404" t="n">
         <v>0.01141046153846154</v>
       </c>
+      <c r="S404" t="n">
+        <v>3.195772554834673</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -24732,7 +25946,7 @@
         <v>133.16</v>
       </c>
       <c r="H405" t="n">
-        <v>117.5</v>
+        <v>47.5</v>
       </c>
       <c r="I405" t="n">
         <v>100.61</v>
@@ -24764,6 +25978,9 @@
       <c r="R405" t="n">
         <v>0.01156676923076923</v>
       </c>
+      <c r="S405" t="n">
+        <v>3.464616830314371</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -24792,7 +26009,7 @@
         <v>149.18</v>
       </c>
       <c r="H406" t="n">
-        <v>119.84</v>
+        <v>48.8</v>
       </c>
       <c r="I406" t="n">
         <v>100.035</v>
@@ -24824,6 +26041,9 @@
       <c r="R406" t="n">
         <v>0.01172307692307692</v>
       </c>
+      <c r="S406" t="n">
+        <v>2.321783777551475</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -24852,7 +26072,7 @@
         <v>151.34</v>
       </c>
       <c r="H407" t="n">
-        <v>129.38</v>
+        <v>54.1</v>
       </c>
       <c r="I407" t="n">
         <v>99.46000000000001</v>
@@ -24884,6 +26104,9 @@
       <c r="R407" t="n">
         <v>0.01187938461538462</v>
       </c>
+      <c r="S407" t="n">
+        <v>2.842101911169935</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -24912,7 +26135,7 @@
         <v>129.56</v>
       </c>
       <c r="H408" t="n">
-        <v>124.34</v>
+        <v>51.3</v>
       </c>
       <c r="I408" t="n">
         <v>100.37</v>
@@ -24944,6 +26167,9 @@
       <c r="R408" t="n">
         <v>0.01203569230769231</v>
       </c>
+      <c r="S408" t="n">
+        <v>4.680588937738452</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -24972,7 +26198,7 @@
         <v>112.1</v>
       </c>
       <c r="H409" t="n">
-        <v>106.16</v>
+        <v>41.2</v>
       </c>
       <c r="I409" t="n">
         <v>102.02</v>
@@ -25004,6 +26230,9 @@
       <c r="R409" t="n">
         <v>0.012192</v>
       </c>
+      <c r="S409" t="n">
+        <v>4.913263890084993</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -25032,7 +26261,7 @@
         <v>134.42</v>
       </c>
       <c r="H410" t="n">
-        <v>105.26</v>
+        <v>40.7</v>
       </c>
       <c r="I410" t="n">
         <v>101.24</v>
@@ -25064,6 +26293,9 @@
       <c r="R410" t="n">
         <v>0.01234830769230769</v>
       </c>
+      <c r="S410" t="n">
+        <v>2.341382627169612</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -25092,7 +26324,7 @@
         <v>132.44</v>
       </c>
       <c r="H411" t="n">
-        <v>106.34</v>
+        <v>41.3</v>
       </c>
       <c r="I411" t="n">
         <v>100.95</v>
@@ -25124,6 +26356,9 @@
       <c r="R411" t="n">
         <v>0.01250461538461538</v>
       </c>
+      <c r="S411" t="n">
+        <v>2.566644701076963</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -25152,7 +26387,7 @@
         <v>132.98</v>
       </c>
       <c r="H412" t="n">
-        <v>111.56</v>
+        <v>44.2</v>
       </c>
       <c r="I412" t="n">
         <v>100.77</v>
@@ -25184,6 +26419,9 @@
       <c r="R412" t="n">
         <v>0.01266092307692308</v>
       </c>
+      <c r="S412" t="n">
+        <v>2.940169439687994</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -25212,7 +26450,7 @@
         <v>135.14</v>
       </c>
       <c r="H413" t="n">
-        <v>114.8</v>
+        <v>46</v>
       </c>
       <c r="I413" t="n">
         <v>100.7</v>
@@ -25244,6 +26482,9 @@
       <c r="R413" t="n">
         <v>0.01281723076923077</v>
       </c>
+      <c r="S413" t="n">
+        <v>3.023024011123894</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -25272,7 +26513,7 @@
         <v>138.56</v>
       </c>
       <c r="H414" t="n">
-        <v>112.28</v>
+        <v>44.6</v>
       </c>
       <c r="I414" t="n">
         <v>100.79</v>
@@ -25304,6 +26545,9 @@
       <c r="R414" t="n">
         <v>0.01297353846153846</v>
       </c>
+      <c r="S414" t="n">
+        <v>2.540385763011221</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -25332,7 +26576,7 @@
         <v>134.24</v>
       </c>
       <c r="H415" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I415" t="n">
         <v>100.94</v>
@@ -25364,6 +26608,9 @@
       <c r="R415" t="n">
         <v>0.01312984615384616</v>
       </c>
+      <c r="S415" t="n">
+        <v>2.126062146340953</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -25392,7 +26639,7 @@
         <v>142.7</v>
       </c>
       <c r="H416" t="n">
-        <v>113.36</v>
+        <v>45.2</v>
       </c>
       <c r="I416" t="n">
         <v>100.67</v>
@@ -25424,6 +26671,9 @@
       <c r="R416" t="n">
         <v>0.01328615384615385</v>
       </c>
+      <c r="S416" t="n">
+        <v>2.322468442371133</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -25452,7 +26702,7 @@
         <v>136.94</v>
       </c>
       <c r="H417" t="n">
-        <v>115.88</v>
+        <v>46.6</v>
       </c>
       <c r="I417" t="n">
         <v>100.68</v>
@@ -25484,6 +26734,9 @@
       <c r="R417" t="n">
         <v>0.01344246153846154</v>
       </c>
+      <c r="S417" t="n">
+        <v>2.954212867114545</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -25512,7 +26765,7 @@
         <v>136.4</v>
       </c>
       <c r="H418" t="n">
-        <v>116.24</v>
+        <v>46.8</v>
       </c>
       <c r="I418" t="n">
         <v>100.7</v>
@@ -25544,6 +26797,9 @@
       <c r="R418" t="n">
         <v>0.01359876923076923</v>
       </c>
+      <c r="S418" t="n">
+        <v>3.032921059408726</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -25572,7 +26828,7 @@
         <v>141.26</v>
       </c>
       <c r="H419" t="n">
-        <v>118.04</v>
+        <v>47.8</v>
       </c>
       <c r="I419" t="n">
         <v>100.4</v>
@@ -25604,6 +26860,9 @@
       <c r="R419" t="n">
         <v>0.01375507692307692</v>
       </c>
+      <c r="S419" t="n">
+        <v>2.765850452559672</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -25632,7 +26891,7 @@
         <v>133.7</v>
       </c>
       <c r="H420" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I420" t="n">
         <v>100.59</v>
@@ -25664,6 +26923,9 @@
       <c r="R420" t="n">
         <v>0.01391138461538462</v>
       </c>
+      <c r="S420" t="n">
+        <v>3.865889342449027</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -25692,7 +26954,7 @@
         <v>128.84</v>
       </c>
       <c r="H421" t="n">
-        <v>107.42</v>
+        <v>41.9</v>
       </c>
       <c r="I421" t="n">
         <v>100.94</v>
@@ -25724,6 +26986,9 @@
       <c r="R421" t="n">
         <v>0.01406769230769231</v>
       </c>
+      <c r="S421" t="n">
+        <v>2.959491935906326</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -25752,7 +27017,7 @@
         <v>134.78</v>
       </c>
       <c r="H422" t="n">
-        <v>109.4</v>
+        <v>43</v>
       </c>
       <c r="I422" t="n">
         <v>100.48</v>
@@ -25784,6 +27049,9 @@
       <c r="R422" t="n">
         <v>0.014224</v>
       </c>
+      <c r="S422" t="n">
+        <v>2.615474261204662</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -25812,7 +27080,7 @@
         <v>150.26</v>
       </c>
       <c r="H423" t="n">
-        <v>109.58</v>
+        <v>43.1</v>
       </c>
       <c r="I423" t="n">
         <v>100.22</v>
@@ -25844,6 +27112,9 @@
       <c r="R423" t="n">
         <v>0.01438030769230769</v>
       </c>
+      <c r="S423" t="n">
+        <v>1.681232205053601</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -25872,7 +27143,7 @@
         <v>145.58</v>
       </c>
       <c r="H424" t="n">
-        <v>123.08</v>
+        <v>50.6</v>
       </c>
       <c r="I424" t="n">
         <v>100.37</v>
@@ -25904,6 +27175,9 @@
       <c r="R424" t="n">
         <v>0.01453661538461539</v>
       </c>
+      <c r="S424" t="n">
+        <v>2.811756035345872</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -25932,7 +27206,7 @@
         <v>150.62</v>
       </c>
       <c r="H425" t="n">
-        <v>124.88</v>
+        <v>51.6</v>
       </c>
       <c r="I425" t="n">
         <v>100.1</v>
@@ -25964,6 +27238,9 @@
       <c r="R425" t="n">
         <v>0.01469292307692308</v>
       </c>
+      <c r="S425" t="n">
+        <v>2.565027370217387</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -25992,7 +27269,7 @@
         <v>140.9</v>
       </c>
       <c r="H426" t="n">
-        <v>126.68</v>
+        <v>52.6</v>
       </c>
       <c r="I426" t="n">
         <v>100.39</v>
@@ -26024,6 +27301,9 @@
       <c r="R426" t="n">
         <v>0.01484923076923077</v>
       </c>
+      <c r="S426" t="n">
+        <v>3.551115037369394</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -26052,7 +27332,7 @@
         <v>125.24</v>
       </c>
       <c r="H427" t="n">
-        <v>119.84</v>
+        <v>48.8</v>
       </c>
       <c r="I427" t="n">
         <v>100.83</v>
@@ -26084,6 +27364,9 @@
       <c r="R427" t="n">
         <v>0.01500553846153846</v>
       </c>
+      <c r="S427" t="n">
+        <v>4.729001510784736</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -26112,7 +27395,7 @@
         <v>136.76</v>
       </c>
       <c r="H428" t="n">
-        <v>123.62</v>
+        <v>50.9</v>
       </c>
       <c r="I428" t="n">
         <v>100.4</v>
@@ -26144,6 +27427,9 @@
       <c r="R428" t="n">
         <v>0.01516184615384615</v>
       </c>
+      <c r="S428" t="n">
+        <v>3.68848462301911</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -26172,7 +27458,7 @@
         <v>146.3</v>
       </c>
       <c r="H429" t="n">
-        <v>132.8</v>
+        <v>56</v>
       </c>
       <c r="I429" t="n">
         <v>100.06</v>
@@ -26204,6 +27490,9 @@
       <c r="R429" t="n">
         <v>0.01531815384615385</v>
       </c>
+      <c r="S429" t="n">
+        <v>3.586440941186482</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -26232,7 +27521,7 @@
         <v>128.12</v>
       </c>
       <c r="H430" t="n">
-        <v>109.04</v>
+        <v>42.8</v>
       </c>
       <c r="I430" t="n">
         <v>100.72</v>
@@ -26264,6 +27553,9 @@
       <c r="R430" t="n">
         <v>0.01547446153846154</v>
       </c>
+      <c r="S430" t="n">
+        <v>3.173382566848756</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -26292,7 +27584,7 @@
         <v>158</v>
       </c>
       <c r="H431" t="n">
-        <v>110.66</v>
+        <v>43.7</v>
       </c>
       <c r="I431" t="n">
         <v>100.32</v>
@@ -26324,6 +27616,9 @@
       <c r="R431" t="n">
         <v>0.01563076923076923</v>
       </c>
+      <c r="S431" t="n">
+        <v>1.405287111916873</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -26352,7 +27647,7 @@
         <v>134.96</v>
       </c>
       <c r="H432" t="n">
-        <v>123.62</v>
+        <v>50.9</v>
       </c>
       <c r="I432" t="n">
         <v>100.14</v>
@@ -26384,6 +27679,9 @@
       <c r="R432" t="n">
         <v>0.01578707692307692</v>
       </c>
+      <c r="S432" t="n">
+        <v>3.892420512642077</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -26412,7 +27710,7 @@
         <v>123.98</v>
       </c>
       <c r="H433" t="n">
-        <v>116.96</v>
+        <v>47.2</v>
       </c>
       <c r="I433" t="n">
         <v>101.44</v>
@@ -26444,6 +27742,9 @@
       <c r="R433" t="n">
         <v>0.01594338461538462</v>
       </c>
+      <c r="S433" t="n">
+        <v>4.538990102534701</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -26472,7 +27773,7 @@
         <v>132.8</v>
       </c>
       <c r="H434" t="n">
-        <v>108.14</v>
+        <v>42.3</v>
       </c>
       <c r="I434" t="n">
         <v>100.94</v>
@@ -26504,6 +27805,9 @@
       <c r="R434" t="n">
         <v>0.01609969230769231</v>
       </c>
+      <c r="S434" t="n">
+        <v>2.67650264183578</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -26532,7 +27836,7 @@
         <v>124.88</v>
       </c>
       <c r="H435" t="n">
-        <v>110.12</v>
+        <v>43.4</v>
       </c>
       <c r="I435" t="n">
         <v>101.23</v>
@@ -26564,6 +27868,9 @@
       <c r="R435" t="n">
         <v>0.016256</v>
       </c>
+      <c r="S435" t="n">
+        <v>3.625744516907222</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -26592,7 +27899,7 @@
         <v>138.02</v>
       </c>
       <c r="H436" t="n">
-        <v>107.06</v>
+        <v>41.7</v>
       </c>
       <c r="I436" t="n">
         <v>101.03</v>
@@ -26624,6 +27931,9 @@
       <c r="R436" t="n">
         <v>0.01641230769230769</v>
       </c>
+      <c r="S436" t="n">
+        <v>2.217535811892591</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -26652,7 +27962,7 @@
         <v>135.68</v>
       </c>
       <c r="H437" t="n">
-        <v>108.86</v>
+        <v>42.7</v>
       </c>
       <c r="I437" t="n">
         <v>100.84</v>
@@ -26684,6 +27994,9 @@
       <c r="R437" t="n">
         <v>0.01656861538461539</v>
       </c>
+      <c r="S437" t="n">
+        <v>2.506045762527172</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -26712,7 +28025,7 @@
         <v>131.72</v>
       </c>
       <c r="H438" t="n">
-        <v>109.76</v>
+        <v>43.2</v>
       </c>
       <c r="I438" t="n">
         <v>100.79</v>
@@ -26744,6 +28057,9 @@
       <c r="R438" t="n">
         <v>0.01672492307692308</v>
       </c>
+      <c r="S438" t="n">
+        <v>2.899914330733486</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -26772,7 +28088,7 @@
         <v>116.78</v>
       </c>
       <c r="H439" t="n">
-        <v>105.62</v>
+        <v>40.9</v>
       </c>
       <c r="I439" t="n">
         <v>101.29</v>
@@ -26804,6 +28120,9 @@
       <c r="R439" t="n">
         <v>0.01688123076923077</v>
       </c>
+      <c r="S439" t="n">
+        <v>4.132254030529029</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -26832,7 +28151,7 @@
         <v>134.96</v>
       </c>
       <c r="H440" t="n">
-        <v>105.8</v>
+        <v>41</v>
       </c>
       <c r="I440" t="n">
         <v>100.87</v>
@@ -26864,6 +28183,9 @@
       <c r="R440" t="n">
         <v>0.01703753846153847</v>
       </c>
+      <c r="S440" t="n">
+        <v>2.340726442166607</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -26892,7 +28214,7 @@
         <v>120.56</v>
       </c>
       <c r="H441" t="n">
-        <v>102.2</v>
+        <v>39</v>
       </c>
       <c r="I441" t="n">
         <v>101.26</v>
@@ -26924,6 +28246,9 @@
       <c r="R441" t="n">
         <v>0.01719384615384616</v>
       </c>
+      <c r="S441" t="n">
+        <v>3.297199947480914</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -26952,7 +28277,7 @@
         <v>121.46</v>
       </c>
       <c r="H442" t="n">
-        <v>99.14</v>
+        <v>37.3</v>
       </c>
       <c r="I442" t="n">
         <v>101.42</v>
@@ -26984,6 +28309,9 @@
       <c r="R442" t="n">
         <v>0.01735015384615385</v>
       </c>
+      <c r="S442" t="n">
+        <v>2.920400705536763</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -27012,7 +28340,7 @@
         <v>123.98</v>
       </c>
       <c r="H443" t="n">
-        <v>105.98</v>
+        <v>41.1</v>
       </c>
       <c r="I443" t="n">
         <v>101.3</v>
@@ -27044,6 +28372,9 @@
       <c r="R443" t="n">
         <v>0.01750646153846154</v>
       </c>
+      <c r="S443" t="n">
+        <v>3.30509885215189</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -27072,7 +28403,7 @@
         <v>125.96</v>
       </c>
       <c r="H444" t="n">
-        <v>100.4</v>
+        <v>38</v>
       </c>
       <c r="I444" t="n">
         <v>101.47</v>
@@ -27104,6 +28435,9 @@
       <c r="R444" t="n">
         <v>0.01766276923076923</v>
       </c>
+      <c r="S444" t="n">
+        <v>2.628018272472512</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -27132,7 +28466,7 @@
         <v>124.34</v>
       </c>
       <c r="H445" t="n">
-        <v>98.23999999999999</v>
+        <v>36.8</v>
       </c>
       <c r="I445" t="n">
         <v>101.33</v>
@@ -27164,6 +28498,9 @@
       <c r="R445" t="n">
         <v>0.01781907692307692</v>
       </c>
+      <c r="S445" t="n">
+        <v>2.591101997465235</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -27192,7 +28529,7 @@
         <v>142.52</v>
       </c>
       <c r="H446" t="n">
-        <v>109.94</v>
+        <v>43.3</v>
       </c>
       <c r="I446" t="n">
         <v>100.45</v>
@@ -27224,6 +28561,9 @@
       <c r="R446" t="n">
         <v>0.01797538461538462</v>
       </c>
+      <c r="S446" t="n">
+        <v>2.115079530476552</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -27252,7 +28592,7 @@
         <v>125.24</v>
       </c>
       <c r="H447" t="n">
-        <v>119.84</v>
+        <v>48.8</v>
       </c>
       <c r="I447" t="n">
         <v>101.08</v>
@@ -27284,6 +28624,9 @@
       <c r="R447" t="n">
         <v>0.01813169230769231</v>
       </c>
+      <c r="S447" t="n">
+        <v>4.729001510784736</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -27312,7 +28655,7 @@
         <v>122.9</v>
       </c>
       <c r="H448" t="n">
-        <v>113.9</v>
+        <v>45.5</v>
       </c>
       <c r="I448" t="n">
         <v>101.06</v>
@@ -27344,6 +28687,9 @@
       <c r="R448" t="n">
         <v>0.018288</v>
       </c>
+      <c r="S448" t="n">
+        <v>4.306613868668157</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -27372,7 +28718,7 @@
         <v>116.06</v>
       </c>
       <c r="H449" t="n">
-        <v>102.74</v>
+        <v>39.3</v>
       </c>
       <c r="I449" t="n">
         <v>101.71</v>
@@ -27404,6 +28750,9 @@
       <c r="R449" t="n">
         <v>0.01844430769230769</v>
       </c>
+      <c r="S449" t="n">
+        <v>3.885076351193705</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -27432,7 +28781,7 @@
         <v>120.38</v>
       </c>
       <c r="H450" t="n">
-        <v>98.42</v>
+        <v>36.9</v>
       </c>
       <c r="I450" t="n">
         <v>101.65</v>
@@ -27464,6 +28813,9 @@
       <c r="R450" t="n">
         <v>0.01860061538461539</v>
       </c>
+      <c r="S450" t="n">
+        <v>2.959005669902455</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -27492,7 +28844,7 @@
         <v>131</v>
       </c>
       <c r="H451" t="n">
-        <v>100.22</v>
+        <v>37.9</v>
       </c>
       <c r="I451" t="n">
         <v>101.03</v>
@@ -27524,6 +28876,9 @@
       <c r="R451" t="n">
         <v>0.01875692307692308</v>
       </c>
+      <c r="S451" t="n">
+        <v>2.234618034183049</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -27552,7 +28907,7 @@
         <v>129.74</v>
       </c>
       <c r="H452" t="n">
-        <v>113.54</v>
+        <v>45.3</v>
       </c>
       <c r="I452" t="n">
         <v>100.75</v>
@@ -27584,6 +28939,9 @@
       <c r="R452" t="n">
         <v>0.01891323076923077</v>
       </c>
+      <c r="S452" t="n">
+        <v>3.437136950777996</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -27612,7 +28970,7 @@
         <v>119.84</v>
       </c>
       <c r="H453" t="n">
-        <v>109.22</v>
+        <v>42.9</v>
       </c>
       <c r="I453" t="n">
         <v>101.44</v>
@@ -27644,6 +29002,9 @@
       <c r="R453" t="n">
         <v>0.01906953846153846</v>
       </c>
+      <c r="S453" t="n">
+        <v>4.153258841738785</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -27672,7 +29033,7 @@
         <v>118.58</v>
       </c>
       <c r="H454" t="n">
-        <v>113.36</v>
+        <v>45.2</v>
       </c>
       <c r="I454" t="n">
         <v>101.3</v>
@@ -27704,6 +29065,9 @@
       <c r="R454" t="n">
         <v>0.01922584615384616</v>
       </c>
+      <c r="S454" t="n">
+        <v>4.878257016558567</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -27732,7 +29096,7 @@
         <v>105.98</v>
       </c>
       <c r="H455" t="n">
-        <v>94.28</v>
+        <v>34.6</v>
       </c>
       <c r="I455" t="n">
         <v>102.13</v>
@@ -27764,6 +29128,9 @@
       <c r="R455" t="n">
         <v>0.01938215384615385</v>
       </c>
+      <c r="S455" t="n">
+        <v>4.242522859806599</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -27792,7 +29159,7 @@
         <v>107.06</v>
       </c>
       <c r="H456" t="n">
-        <v>85.46000000000001</v>
+        <v>29.7</v>
       </c>
       <c r="I456" t="n">
         <v>102.44</v>
@@ -27824,6 +29191,9 @@
       <c r="R456" t="n">
         <v>0.01953846153846154</v>
       </c>
+      <c r="S456" t="n">
+        <v>3.094843015606004</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -27852,7 +29222,7 @@
         <v>109.94</v>
       </c>
       <c r="H457" t="n">
-        <v>94.46000000000001</v>
+        <v>34.7</v>
       </c>
       <c r="I457" t="n">
         <v>101.73</v>
@@ -27884,6 +29254,9 @@
       <c r="R457" t="n">
         <v>0.01969476923076923</v>
       </c>
+      <c r="S457" t="n">
+        <v>3.716486158462983</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -27912,7 +29285,7 @@
         <v>98.60000000000001</v>
       </c>
       <c r="H458" t="n">
-        <v>94.09999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="I458" t="n">
         <v>102.36</v>
@@ -27944,6 +29317,9 @@
       <c r="R458" t="n">
         <v>0.01985107692307692</v>
       </c>
+      <c r="S458" t="n">
+        <v>5.502407372777456</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -27972,7 +29348,7 @@
         <v>98.60000000000001</v>
       </c>
       <c r="H459" t="n">
-        <v>75.56</v>
+        <v>24.2</v>
       </c>
       <c r="I459" t="n">
         <v>102.63</v>
@@ -28004,6 +29380,9 @@
       <c r="R459" t="n">
         <v>0.02000738461538462</v>
       </c>
+      <c r="S459" t="n">
+        <v>3.033413969482172</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -28032,7 +29411,7 @@
         <v>111.56</v>
       </c>
       <c r="H460" t="n">
-        <v>91.94</v>
+        <v>33.3</v>
       </c>
       <c r="I460" t="n">
         <v>101.46</v>
@@ -28064,6 +29443,9 @@
       <c r="R460" t="n">
         <v>0.02016369230769231</v>
       </c>
+      <c r="S460" t="n">
+        <v>3.251157555406163</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -28092,7 +29474,7 @@
         <v>95.72</v>
       </c>
       <c r="H461" t="n">
-        <v>89.06</v>
+        <v>31.7</v>
       </c>
       <c r="I461" t="n">
         <v>102.53</v>
@@ -28124,6 +29506,9 @@
       <c r="R461" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S461" t="n">
+        <v>5.230441400880967</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -28152,7 +29537,7 @@
         <v>84.56</v>
       </c>
       <c r="H462" t="n">
-        <v>78.44</v>
+        <v>25.8</v>
       </c>
       <c r="I462" t="n">
         <v>102.63</v>
@@ -28184,6 +29569,9 @@
       <c r="R462" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S462" t="n">
+        <v>5.717014319481898</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -28212,7 +29600,7 @@
         <v>103.82</v>
       </c>
       <c r="H463" t="n">
-        <v>88.34</v>
+        <v>31.3</v>
       </c>
       <c r="I463" t="n">
         <v>102.25</v>
@@ -28244,6 +29632,9 @@
       <c r="R463" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S463" t="n">
+        <v>3.803532701661114</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -28272,7 +29663,7 @@
         <v>102.56</v>
       </c>
       <c r="H464" t="n">
-        <v>93.56</v>
+        <v>34.2</v>
       </c>
       <c r="I464" t="n">
         <v>102.39</v>
@@ -28304,6 +29695,9 @@
       <c r="R464" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S464" t="n">
+        <v>4.685834522804092</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -28332,7 +29726,7 @@
         <v>106.16</v>
       </c>
       <c r="H465" t="n">
-        <v>86.36</v>
+        <v>30.2</v>
       </c>
       <c r="I465" t="n">
         <v>102.3</v>
@@ -28364,6 +29758,9 @@
       <c r="R465" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S465" t="n">
+        <v>3.287407687662821</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -28392,7 +29789,7 @@
         <v>101.12</v>
       </c>
       <c r="H466" t="n">
-        <v>60.26</v>
+        <v>15.7</v>
       </c>
       <c r="I466" t="n">
         <v>102.46</v>
@@ -28424,6 +29821,9 @@
       <c r="R466" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S466" t="n">
+        <v>1.633371233172621</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -28452,7 +29852,7 @@
         <v>94.63999999999999</v>
       </c>
       <c r="H467" t="n">
-        <v>66.38</v>
+        <v>19.1</v>
       </c>
       <c r="I467" t="n">
         <v>102.22</v>
@@ -28484,6 +29884,9 @@
       <c r="R467" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S467" t="n">
+        <v>2.572380902849375</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -28512,7 +29915,7 @@
         <v>104.36</v>
       </c>
       <c r="H468" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I468" t="n">
         <v>102.18</v>
@@ -28544,6 +29947,9 @@
       <c r="R468" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S468" t="n">
+        <v>2.291162229297687</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -28572,7 +29978,7 @@
         <v>95</v>
       </c>
       <c r="H469" t="n">
-        <v>77.72</v>
+        <v>25.4</v>
       </c>
       <c r="I469" t="n">
         <v>101.87</v>
@@ -28604,6 +30010,9 @@
       <c r="R469" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S469" t="n">
+        <v>3.725402395500962</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -28632,7 +30041,7 @@
         <v>90.68000000000001</v>
       </c>
       <c r="H470" t="n">
-        <v>42.08</v>
+        <v>5.6</v>
       </c>
       <c r="I470" t="n">
         <v>102.37</v>
@@ -28664,6 +30073,9 @@
       <c r="R470" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S470" t="n">
+        <v>1.230770202045012</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -28692,7 +30104,7 @@
         <v>83.30000000000001</v>
       </c>
       <c r="H471" t="n">
-        <v>46.04</v>
+        <v>7.8</v>
       </c>
       <c r="I471" t="n">
         <v>102.21</v>
@@ -28724,6 +30136,9 @@
       <c r="R471" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S471" t="n">
+        <v>1.914795076841667</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -28752,7 +30167,7 @@
         <v>91.22</v>
       </c>
       <c r="H472" t="n">
-        <v>51.62</v>
+        <v>10.9</v>
       </c>
       <c r="I472" t="n">
         <v>102.365</v>
@@ -28784,6 +30199,9 @@
       <c r="R472" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S472" t="n">
+        <v>1.727573624215702</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -28812,7 +30230,7 @@
         <v>95.36000000000001</v>
       </c>
       <c r="H473" t="n">
-        <v>65.12</v>
+        <v>18.4</v>
       </c>
       <c r="I473" t="n">
         <v>102.52</v>
@@ -28844,6 +30262,9 @@
       <c r="R473" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S473" t="n">
+        <v>2.396483575297693</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -28872,7 +30293,7 @@
         <v>75.02</v>
       </c>
       <c r="H474" t="n">
-        <v>31.46</v>
+        <v>-0.3</v>
       </c>
       <c r="I474" t="n">
         <v>103.68</v>
@@ -28904,6 +30325,9 @@
       <c r="R474" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S474" t="n">
+        <v>1.524420826051365</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -28932,7 +30356,7 @@
         <v>70.7</v>
       </c>
       <c r="H475" t="n">
-        <v>24.98</v>
+        <v>-3.9</v>
       </c>
       <c r="I475" t="n">
         <v>103.53</v>
@@ -28964,6 +30388,9 @@
       <c r="R475" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S475" t="n">
+        <v>1.407087737761801</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -28992,7 +30419,7 @@
         <v>79.34</v>
       </c>
       <c r="H476" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I476" t="n">
         <v>102.43</v>
@@ -29024,6 +30451,9 @@
       <c r="R476" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S476" t="n">
+        <v>2.204812423334873</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -29052,7 +30482,7 @@
         <v>83.84</v>
       </c>
       <c r="H477" t="n">
-        <v>46.58</v>
+        <v>8.1</v>
       </c>
       <c r="I477" t="n">
         <v>102.19</v>
@@ -29084,6 +30514,9 @@
       <c r="R477" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S477" t="n">
+        <v>1.912299398255871</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -29112,7 +30545,7 @@
         <v>85.64</v>
       </c>
       <c r="H478" t="n">
-        <v>28.58</v>
+        <v>-1.9</v>
       </c>
       <c r="I478" t="n">
         <v>102.58</v>
@@ -29144,6 +30577,9 @@
       <c r="R478" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S478" t="n">
+        <v>0.8768623138014084</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -29172,7 +30608,7 @@
         <v>88.34</v>
       </c>
       <c r="H479" t="n">
-        <v>33.62</v>
+        <v>0.9</v>
       </c>
       <c r="I479" t="n">
         <v>102.06</v>
@@ -29204,6 +30640,9 @@
       <c r="R479" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S479" t="n">
+        <v>0.9668252882473813</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -29232,7 +30671,7 @@
         <v>69.98</v>
       </c>
       <c r="H480" t="n">
-        <v>48.2</v>
+        <v>9</v>
       </c>
       <c r="I480" t="n">
         <v>103.46</v>
@@ -29264,6 +30703,9 @@
       <c r="R480" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S480" t="n">
+        <v>3.634287379677194</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -29292,7 +30734,7 @@
         <v>79.7</v>
       </c>
       <c r="H481" t="n">
-        <v>38.66</v>
+        <v>3.7</v>
       </c>
       <c r="I481" t="n">
         <v>102.97</v>
@@ -29324,6 +30766,9 @@
       <c r="R481" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S481" t="n">
+        <v>1.669105032342298</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -29352,7 +30797,7 @@
         <v>78.25999999999999</v>
       </c>
       <c r="H482" t="n">
-        <v>40.82</v>
+        <v>4.9</v>
       </c>
       <c r="I482" t="n">
         <v>102.97</v>
@@ -29384,6 +30829,9 @@
       <c r="R482" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S482" t="n">
+        <v>1.926974991860829</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -29412,7 +30860,7 @@
         <v>57.02</v>
       </c>
       <c r="H483" t="n">
-        <v>37.58</v>
+        <v>3.1</v>
       </c>
       <c r="I483" t="n">
         <v>103.32</v>
@@ -29444,6 +30892,9 @@
       <c r="R483" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S483" t="n">
+        <v>4.369429400984567</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -29472,7 +30923,7 @@
         <v>68.53999999999999</v>
       </c>
       <c r="H484" t="n">
-        <v>29.84</v>
+        <v>-1.2</v>
       </c>
       <c r="I484" t="n">
         <v>102.91</v>
@@ -29504,6 +30955,9 @@
       <c r="R484" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S484" t="n">
+        <v>1.88970341352394</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -29532,7 +30986,7 @@
         <v>81.31999999999999</v>
       </c>
       <c r="H485" t="n">
-        <v>16.7</v>
+        <v>-8.5</v>
       </c>
       <c r="I485" t="n">
         <v>103.32</v>
@@ -29564,6 +31018,9 @@
       <c r="R485" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S485" t="n">
+        <v>0.6327287903295377</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -29592,7 +31049,7 @@
         <v>90.68000000000001</v>
       </c>
       <c r="H486" t="n">
-        <v>16.88</v>
+        <v>-8.4</v>
       </c>
       <c r="I486" t="n">
         <v>102.16</v>
@@ -29624,6 +31081,9 @@
       <c r="R486" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S486" t="n">
+        <v>0.4400188295971987</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -29652,7 +31112,7 @@
         <v>75.02</v>
       </c>
       <c r="H487" t="n">
-        <v>38.84</v>
+        <v>3.8</v>
       </c>
       <c r="I487" t="n">
         <v>102.34</v>
@@ -29684,6 +31144,9 @@
       <c r="R487" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S487" t="n">
+        <v>2.044039104659783</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -29712,7 +31175,7 @@
         <v>94.28</v>
       </c>
       <c r="H488" t="n">
-        <v>39.74</v>
+        <v>4.3</v>
       </c>
       <c r="I488" t="n">
         <v>100.84</v>
@@ -29744,6 +31207,9 @@
       <c r="R488" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S488" t="n">
+        <v>0.9800050143177191</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -29772,7 +31238,7 @@
         <v>78.25999999999999</v>
       </c>
       <c r="H489" t="n">
-        <v>30.74</v>
+        <v>-0.7</v>
       </c>
       <c r="I489" t="n">
         <v>102.385</v>
@@ -29804,6 +31270,9 @@
       <c r="R489" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S489" t="n">
+        <v>1.292328262925173</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -29832,7 +31301,7 @@
         <v>51.26</v>
       </c>
       <c r="H490" t="n">
-        <v>15.08</v>
+        <v>-9.4</v>
       </c>
       <c r="I490" t="n">
         <v>103.93</v>
@@ -29864,6 +31333,9 @@
       <c r="R490" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S490" t="n">
+        <v>2.276788258003927</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -29892,7 +31364,7 @@
         <v>53.42</v>
       </c>
       <c r="H491" t="n">
-        <v>33.98</v>
+        <v>1.1</v>
       </c>
       <c r="I491" t="n">
         <v>102.76</v>
@@ -29924,6 +31396,9 @@
       <c r="R491" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S491" t="n">
+        <v>4.506668094554614</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -29952,7 +31427,7 @@
         <v>71.78</v>
       </c>
       <c r="H492" t="n">
-        <v>29.84</v>
+        <v>-1.2</v>
       </c>
       <c r="I492" t="n">
         <v>102.71</v>
@@ -29984,6 +31459,9 @@
       <c r="R492" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S492" t="n">
+        <v>1.640036656037075</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -30012,7 +31490,7 @@
         <v>65.84</v>
       </c>
       <c r="H493" t="n">
-        <v>17.6</v>
+        <v>-8</v>
       </c>
       <c r="I493" t="n">
         <v>103.62</v>
@@ -30044,6 +31522,9 @@
       <c r="R493" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S493" t="n">
+        <v>1.276380526940868</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -30072,7 +31553,7 @@
         <v>81.31999999999999</v>
       </c>
       <c r="H494" t="n">
-        <v>16.7</v>
+        <v>-8.5</v>
       </c>
       <c r="I494" t="n">
         <v>103.47</v>
@@ -30104,6 +31585,9 @@
       <c r="R494" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S494" t="n">
+        <v>0.6327287903295377</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -30132,7 +31616,7 @@
         <v>65.84</v>
       </c>
       <c r="H495" t="n">
-        <v>15.8</v>
+        <v>-9</v>
       </c>
       <c r="I495" t="n">
         <v>103.77</v>
@@ -30164,6 +31648,9 @@
       <c r="R495" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S495" t="n">
+        <v>1.180711030042841</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -30192,7 +31679,7 @@
         <v>57.02</v>
       </c>
       <c r="H496" t="n">
-        <v>16.88</v>
+        <v>-8.4</v>
       </c>
       <c r="I496" t="n">
         <v>103.4</v>
@@ -30224,6 +31711,9 @@
       <c r="R496" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S496" t="n">
+        <v>1.861092385893331</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -30252,7 +31742,7 @@
         <v>73.58000000000001</v>
       </c>
       <c r="H497" t="n">
-        <v>29.12</v>
+        <v>-1.6</v>
       </c>
       <c r="I497" t="n">
         <v>103.13</v>
@@ -30284,6 +31774,9 @@
       <c r="R497" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S497" t="n">
+        <v>1.473858159612636</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -30312,7 +31805,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="H498" t="n">
-        <v>15.98</v>
+        <v>-8.9</v>
       </c>
       <c r="I498" t="n">
         <v>103.13</v>
@@ -30343,6 +31836,9 @@
       </c>
       <c r="R498" t="n">
         <v>0.02032</v>
+      </c>
+      <c r="S498" t="n">
+        <v>0.7061140978558619</v>
       </c>
     </row>
   </sheetData>

--- a/result/NCDC_weather_data/stations_imputed/56080099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/56080099999.xlsx
@@ -557,7 +557,7 @@
         <v>-10.55555555555556</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.4</v>
+        <v>-21.33333333333333</v>
       </c>
       <c r="I2" t="n">
         <v>103.62</v>
@@ -590,7 +590,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S2" t="n">
-        <v>138.2271723677686</v>
+        <v>40.81777420589464</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +620,7 @@
         <v>-7.222222222222222</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.7</v>
+        <v>-20.94444444444445</v>
       </c>
       <c r="I3" t="n">
         <v>102.84</v>
@@ -653,7 +653,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S3" t="n">
-        <v>112.3633764088174</v>
+        <v>32.5370650381861</v>
       </c>
     </row>
     <row r="4">
@@ -683,7 +683,7 @@
         <v>-8.666666666666668</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.7</v>
+        <v>-18.72222222222222</v>
       </c>
       <c r="I4" t="n">
         <v>102.91</v>
@@ -716,7 +716,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S4" t="n">
-        <v>169.5353550014276</v>
+        <v>44.05858113190926</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         <v>-9.944444444444445</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.8</v>
+        <v>-19.88888888888889</v>
       </c>
       <c r="I5" t="n">
         <v>102.85</v>
@@ -779,7 +779,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S5" t="n">
-        <v>160.3577193641537</v>
+        <v>44.07487913925896</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>-6.555555555555556</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.5</v>
+        <v>-19.72222222222222</v>
       </c>
       <c r="I6" t="n">
         <v>102.71</v>
@@ -842,7 +842,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S6" t="n">
-        <v>126.0097885739866</v>
+        <v>34.35459467493346</v>
       </c>
     </row>
     <row r="7">
@@ -872,7 +872,7 @@
         <v>-6.833333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.6</v>
+        <v>-18.66666666666667</v>
       </c>
       <c r="I7" t="n">
         <v>102.96</v>
@@ -905,7 +905,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S7" t="n">
-        <v>148.1885701219297</v>
+        <v>38.41000887095268</v>
       </c>
     </row>
     <row r="8">
@@ -935,7 +935,7 @@
         <v>-5.88888888888889</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>-14.72222222222222</v>
       </c>
       <c r="I8" t="n">
         <v>102.87</v>
@@ -968,7 +968,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S8" t="n">
-        <v>228.92623764922</v>
+        <v>49.70002277550906</v>
       </c>
     </row>
     <row r="9">
@@ -998,7 +998,7 @@
         <v>-6.055555555555555</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>-16.61111111111111</v>
       </c>
       <c r="I9" t="n">
         <v>102.65</v>
@@ -1031,7 +1031,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S9" t="n">
-        <v>182.5266273092394</v>
+        <v>43.04058070148923</v>
       </c>
     </row>
     <row r="10">
@@ -1061,7 +1061,7 @@
         <v>-5.277777777777778</v>
       </c>
       <c r="H10" t="n">
-        <v>2.5</v>
+        <v>-16.38888888888889</v>
       </c>
       <c r="I10" t="n">
         <v>102.27</v>
@@ -1094,7 +1094,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S10" t="n">
-        <v>177.0123615509997</v>
+        <v>41.32783816165785</v>
       </c>
     </row>
     <row r="11">
@@ -1124,7 +1124,7 @@
         <v>-9.388888888888889</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>-15.88888888888889</v>
       </c>
       <c r="I11" t="n">
         <v>103.11</v>
@@ -1157,7 +1157,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S11" t="n">
-        <v>259.0819606380202</v>
+        <v>59.16454019643186</v>
       </c>
     </row>
     <row r="12">
@@ -1187,7 +1187,7 @@
         <v>-8.5</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.7</v>
+        <v>-18.72222222222222</v>
       </c>
       <c r="I12" t="n">
         <v>102.86</v>
@@ -1220,7 +1220,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S12" t="n">
-        <v>167.346594240326</v>
+        <v>43.48976943142045</v>
       </c>
     </row>
     <row r="13">
@@ -1250,7 +1250,7 @@
         <v>-11.05555555555556</v>
       </c>
       <c r="H13" t="n">
-        <v>-6.4</v>
+        <v>-21.33333333333333</v>
       </c>
       <c r="I13" t="n">
         <v>103.47</v>
@@ -1283,7 +1283,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S13" t="n">
-        <v>143.8296940600471</v>
+        <v>42.47217009276568</v>
       </c>
     </row>
     <row r="14">
@@ -1313,7 +1313,7 @@
         <v>-9.722222222222223</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.2</v>
+        <v>-19.55555555555556</v>
       </c>
       <c r="I14" t="n">
         <v>102.66</v>
@@ -1346,7 +1346,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S14" t="n">
-        <v>164.797031322572</v>
+        <v>44.56811685294241</v>
       </c>
     </row>
     <row r="15">
@@ -1376,7 +1376,7 @@
         <v>-7.666666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>-5.6</v>
+        <v>-20.88888888888889</v>
       </c>
       <c r="I15" t="n">
         <v>102.56</v>
@@ -1409,7 +1409,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S15" t="n">
-        <v>117.1742110891572</v>
+        <v>33.83591859364926</v>
       </c>
     </row>
     <row r="16">
@@ -1439,7 +1439,7 @@
         <v>-8.333333333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>-7.3</v>
+        <v>-21.83333333333333</v>
       </c>
       <c r="I16" t="n">
         <v>103.03</v>
@@ -1472,7 +1472,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S16" t="n">
-        <v>108.3333039040869</v>
+        <v>32.81524782373079</v>
       </c>
     </row>
     <row r="17">
@@ -1502,7 +1502,7 @@
         <v>-10.05555555555556</v>
       </c>
       <c r="H17" t="n">
-        <v>-17.5</v>
+        <v>-27.5</v>
       </c>
       <c r="I17" t="n">
         <v>103.67</v>
@@ -1535,7 +1535,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S17" t="n">
-        <v>54.49169952013889</v>
+        <v>22.57059205202949</v>
       </c>
     </row>
     <row r="18">
@@ -1565,7 +1565,7 @@
         <v>-9.555555555555555</v>
       </c>
       <c r="H18" t="n">
-        <v>-19.5</v>
+        <v>-28.61111111111111</v>
       </c>
       <c r="I18" t="n">
         <v>103.6</v>
@@ -1598,7 +1598,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1976616256004</v>
+        <v>19.57510375283085</v>
       </c>
     </row>
     <row r="19">
@@ -1628,7 +1628,7 @@
         <v>-10.16666666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>-20.8</v>
+        <v>-29.33333333333333</v>
       </c>
       <c r="I19" t="n">
         <v>103.52</v>
@@ -1661,7 +1661,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S19" t="n">
-        <v>41.45935753382417</v>
+        <v>19.19992019701354</v>
       </c>
     </row>
     <row r="20">
@@ -1691,7 +1691,7 @@
         <v>-7.833333333333335</v>
       </c>
       <c r="H20" t="n">
-        <v>-14.8</v>
+        <v>-26</v>
       </c>
       <c r="I20" t="n">
         <v>102.24</v>
@@ -1724,7 +1724,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S20" t="n">
-        <v>57.34093138496943</v>
+        <v>21.76336667908915</v>
       </c>
     </row>
     <row r="21">
@@ -1754,7 +1754,7 @@
         <v>-5.944444444444445</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.3</v>
+        <v>-17.94444444444444</v>
       </c>
       <c r="I21" t="n">
         <v>101.81</v>
@@ -1787,7 +1787,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S21" t="n">
-        <v>152.2519246147478</v>
+        <v>38.15158917421699</v>
       </c>
     </row>
     <row r="22">
@@ -1817,7 +1817,7 @@
         <v>-6.833333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.6</v>
+        <v>-18.11111111111111</v>
       </c>
       <c r="I22" t="n">
         <v>101.68</v>
@@ -1850,7 +1850,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S22" t="n">
-        <v>159.4471844209807</v>
+        <v>40.26523736742017</v>
       </c>
     </row>
     <row r="23">
@@ -1880,7 +1880,7 @@
         <v>-6.444444444444446</v>
       </c>
       <c r="H23" t="n">
-        <v>5.2</v>
+        <v>-14.88888888888889</v>
       </c>
       <c r="I23" t="n">
         <v>101.98</v>
@@ -1913,7 +1913,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S23" t="n">
-        <v>233.923224185213</v>
+        <v>51.14841006724939</v>
       </c>
     </row>
     <row r="24">
@@ -1943,7 +1943,7 @@
         <v>-6.833333333333334</v>
       </c>
       <c r="H24" t="n">
-        <v>8.4</v>
+        <v>-13.11111111111111</v>
       </c>
       <c r="I24" t="n">
         <v>102.17</v>
@@ -1976,7 +1976,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S24" t="n">
-        <v>300.2436013859906</v>
+        <v>60.93362836962757</v>
       </c>
     </row>
     <row r="25">
@@ -2006,7 +2006,7 @@
         <v>-6.166666666666668</v>
       </c>
       <c r="H25" t="n">
-        <v>6.6</v>
+        <v>-14.11111111111111</v>
       </c>
       <c r="I25" t="n">
         <v>102.06</v>
@@ -2039,7 +2039,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S25" t="n">
-        <v>252.2936927707256</v>
+        <v>53.3728821003709</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>-6.111111111111112</v>
       </c>
       <c r="H26" t="n">
-        <v>13.1</v>
+        <v>-10.5</v>
       </c>
       <c r="I26" t="n">
         <v>101.73</v>
@@ -2102,7 +2102,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S26" t="n">
-        <v>388.4414354454095</v>
+        <v>71.07687999991519</v>
       </c>
     </row>
     <row r="27">
@@ -2132,7 +2132,7 @@
         <v>-7.5</v>
       </c>
       <c r="H27" t="n">
-        <v>12.6</v>
+        <v>-10.77777777777778</v>
       </c>
       <c r="I27" t="n">
         <v>102.23</v>
@@ -2165,7 +2165,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S27" t="n">
-        <v>418.2471461696808</v>
+        <v>77.3536558289244</v>
       </c>
     </row>
     <row r="28">
@@ -2195,7 +2195,7 @@
         <v>-11</v>
       </c>
       <c r="H28" t="n">
-        <v>7.6</v>
+        <v>-13.55555555555556</v>
       </c>
       <c r="I28" t="n">
         <v>103</v>
@@ -2228,7 +2228,7 @@
         <v>0.01715310638297872</v>
       </c>
       <c r="S28" t="n">
-        <v>393.8558584258806</v>
+        <v>81.41001375639756</v>
       </c>
     </row>
     <row r="29">
@@ -2258,7 +2258,7 @@
         <v>-15</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.1</v>
+        <v>-18.94444444444445</v>
       </c>
       <c r="I29" t="n">
         <v>103.45</v>
@@ -2291,7 +2291,7 @@
         <v>0.01016</v>
       </c>
       <c r="S29" t="n">
-        <v>273.5298065852336</v>
+        <v>71.83784524468167</v>
       </c>
     </row>
     <row r="30">
@@ -2321,7 +2321,7 @@
         <v>-12.88888888888889</v>
       </c>
       <c r="H30" t="n">
-        <v>-7.6</v>
+        <v>-22</v>
       </c>
       <c r="I30" t="n">
         <v>102.96</v>
@@ -2354,7 +2354,7 @@
         <v>0.01016</v>
       </c>
       <c r="S30" t="n">
-        <v>151.9382162332914</v>
+        <v>46.41929543089216</v>
       </c>
     </row>
     <row r="31">
@@ -2384,7 +2384,7 @@
         <v>-13.38888888888889</v>
       </c>
       <c r="H31" t="n">
-        <v>-7.5</v>
+        <v>-21.94444444444445</v>
       </c>
       <c r="I31" t="n">
         <v>103.18</v>
@@ -2417,7 +2417,7 @@
         <v>0.01016</v>
       </c>
       <c r="S31" t="n">
-        <v>159.4519849125375</v>
+        <v>48.57584850641425</v>
       </c>
     </row>
     <row r="32">
@@ -2447,7 +2447,7 @@
         <v>-12.38888888888889</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.8</v>
+        <v>-19.88888888888889</v>
       </c>
       <c r="I32" t="n">
         <v>103.01</v>
@@ -2480,7 +2480,7 @@
         <v>0.01016</v>
       </c>
       <c r="S32" t="n">
-        <v>194.8556390533612</v>
+        <v>53.55675283318963</v>
       </c>
     </row>
     <row r="33">
@@ -2510,7 +2510,7 @@
         <v>-11.38888888888889</v>
       </c>
       <c r="H33" t="n">
-        <v>-1</v>
+        <v>-18.33333333333334</v>
       </c>
       <c r="I33" t="n">
         <v>103.18</v>
@@ -2543,7 +2543,7 @@
         <v>0.01016</v>
       </c>
       <c r="S33" t="n">
-        <v>221.2536876252582</v>
+        <v>56.4561293706488</v>
       </c>
     </row>
     <row r="34">
@@ -2573,7 +2573,7 @@
         <v>-10.38888888888889</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3</v>
+        <v>-17.61111111111111</v>
       </c>
       <c r="I34" t="n">
         <v>102.84</v>
@@ -2606,7 +2606,7 @@
         <v>0.01016</v>
       </c>
       <c r="S34" t="n">
-        <v>224.6175366684139</v>
+        <v>55.42546051289161</v>
       </c>
     </row>
     <row r="35">
@@ -2636,7 +2636,7 @@
         <v>-9.944444444444445</v>
       </c>
       <c r="H35" t="n">
-        <v>-3</v>
+        <v>-19.44444444444445</v>
       </c>
       <c r="I35" t="n">
         <v>102.88</v>
@@ -2669,7 +2669,7 @@
         <v>0.01016</v>
       </c>
       <c r="S35" t="n">
-        <v>170.2242051122682</v>
+        <v>45.78966365820086</v>
       </c>
     </row>
     <row r="36">
@@ -2699,7 +2699,7 @@
         <v>-8.611111111111111</v>
       </c>
       <c r="H36" t="n">
-        <v>6.5</v>
+        <v>-14.16666666666667</v>
       </c>
       <c r="I36" t="n">
         <v>102.77</v>
@@ -2732,7 +2732,7 @@
         <v>0.01016</v>
       </c>
       <c r="S36" t="n">
-        <v>302.589995344238</v>
+        <v>64.16290938219437</v>
       </c>
     </row>
     <row r="37">
@@ -2762,7 +2762,7 @@
         <v>-10.5</v>
       </c>
       <c r="H37" t="n">
-        <v>6.8</v>
+        <v>-14</v>
       </c>
       <c r="I37" t="n">
         <v>102.51</v>
@@ -2795,7 +2795,7 @@
         <v>0.01016</v>
       </c>
       <c r="S37" t="n">
-        <v>358.3483944756458</v>
+        <v>75.45596513852327</v>
       </c>
     </row>
     <row r="38">
@@ -2825,7 +2825,7 @@
         <v>-11.66666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>-15.61111111111111</v>
       </c>
       <c r="I38" t="n">
         <v>102.67</v>
@@ -2858,7 +2858,7 @@
         <v>0.03048</v>
       </c>
       <c r="S38" t="n">
-        <v>321.4800489868315</v>
+        <v>72.52530805448927</v>
       </c>
     </row>
     <row r="39">
@@ -2888,7 +2888,7 @@
         <v>-11.55555555555556</v>
       </c>
       <c r="H39" t="n">
-        <v>1.8</v>
+        <v>-16.77777777777778</v>
       </c>
       <c r="I39" t="n">
         <v>102.72</v>
@@ -2921,7 +2921,7 @@
         <v>0.03048</v>
       </c>
       <c r="S39" t="n">
-        <v>274.5566385828014</v>
+        <v>65.22807377064767</v>
       </c>
     </row>
     <row r="40">
@@ -2951,7 +2951,7 @@
         <v>-13.94444444444445</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>-16.66666666666667</v>
       </c>
       <c r="I40" t="n">
         <v>103.23</v>
@@ -2984,7 +2984,7 @@
         <v>0.03048</v>
       </c>
       <c r="S40" t="n">
-        <v>337.8130226326327</v>
+        <v>79.85650756019395</v>
       </c>
     </row>
     <row r="41">
@@ -3014,7 +3014,7 @@
         <v>-9.111111111111111</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>-15.88888888888889</v>
       </c>
       <c r="I41" t="n">
         <v>102.67</v>
@@ -3047,7 +3047,7 @@
         <v>0.02032</v>
       </c>
       <c r="S41" t="n">
-        <v>253.4999573849931</v>
+        <v>57.88982135831962</v>
       </c>
     </row>
     <row r="42">
@@ -3077,7 +3077,7 @@
         <v>-8.277777777777777</v>
       </c>
       <c r="H42" t="n">
-        <v>8.9</v>
+        <v>-12.83333333333333</v>
       </c>
       <c r="I42" t="n">
         <v>102.26</v>
@@ -3110,7 +3110,7 @@
         <v>0.02709333333333333</v>
       </c>
       <c r="S42" t="n">
-        <v>347.2590799211711</v>
+        <v>69.68014031715929</v>
       </c>
     </row>
     <row r="43">
@@ -3140,7 +3140,7 @@
         <v>-7.000000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>-12.22222222222222</v>
       </c>
       <c r="I43" t="n">
         <v>102.35</v>
@@ -3173,7 +3173,7 @@
         <v>0.03386666666666667</v>
       </c>
       <c r="S43" t="n">
-        <v>338.7335195621347</v>
+        <v>66.31224415133968</v>
       </c>
     </row>
     <row r="44">
@@ -3203,7 +3203,7 @@
         <v>-8.333333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>-17.22222222222222</v>
       </c>
       <c r="I44" t="n">
         <v>102.37</v>
@@ -3236,7 +3236,7 @@
         <v>0.04064</v>
       </c>
       <c r="S44" t="n">
-        <v>201.0576715670971</v>
+        <v>48.73711858242084</v>
       </c>
     </row>
     <row r="45">
@@ -3266,7 +3266,7 @@
         <v>-9.111111111111111</v>
       </c>
       <c r="H45" t="n">
-        <v>-4.9</v>
+        <v>-20.5</v>
       </c>
       <c r="I45" t="n">
         <v>102.59</v>
@@ -3299,7 +3299,7 @@
         <v>0.039878</v>
       </c>
       <c r="S45" t="n">
-        <v>138.2626415384309</v>
+        <v>39.16024893473919</v>
       </c>
     </row>
     <row r="46">
@@ -3329,7 +3329,7 @@
         <v>-7.888888888888889</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.2</v>
+        <v>-19</v>
       </c>
       <c r="I46" t="n">
         <v>102.7</v>
@@ -3362,7 +3362,7 @@
         <v>0.039116</v>
       </c>
       <c r="S46" t="n">
-        <v>153.808233311879</v>
+        <v>40.50204150101447</v>
       </c>
     </row>
     <row r="47">
@@ -3392,7 +3392,7 @@
         <v>-6.5</v>
       </c>
       <c r="H47" t="n">
-        <v>1.3</v>
+        <v>-17.05555555555556</v>
       </c>
       <c r="I47" t="n">
         <v>102.2</v>
@@ -3425,7 +3425,7 @@
         <v>0.038354</v>
       </c>
       <c r="S47" t="n">
-        <v>178.3282982052783</v>
+        <v>42.90141319178986</v>
       </c>
     </row>
     <row r="48">
@@ -3455,7 +3455,7 @@
         <v>-4.611111111111112</v>
       </c>
       <c r="H48" t="n">
-        <v>13.4</v>
+        <v>-10.33333333333333</v>
       </c>
       <c r="I48" t="n">
         <v>101.44</v>
@@ -3488,7 +3488,7 @@
         <v>0.037592</v>
       </c>
       <c r="S48" t="n">
-        <v>353.5115231251175</v>
+        <v>64.27394627892545</v>
       </c>
     </row>
     <row r="49">
@@ -3518,7 +3518,7 @@
         <v>-4.944444444444444</v>
       </c>
       <c r="H49" t="n">
-        <v>17.4</v>
+        <v>-8.111111111111112</v>
       </c>
       <c r="I49" t="n">
         <v>101.52</v>
@@ -3551,7 +3551,7 @@
         <v>0.03683</v>
       </c>
       <c r="S49" t="n">
-        <v>468.6520699560415</v>
+        <v>78.45539135517649</v>
       </c>
     </row>
     <row r="50">
@@ -3581,7 +3581,7 @@
         <v>-10.05555555555556</v>
       </c>
       <c r="H50" t="n">
-        <v>7.6</v>
+        <v>-13.55555555555556</v>
       </c>
       <c r="I50" t="n">
         <v>102.85</v>
@@ -3614,7 +3614,7 @@
         <v>0.036068</v>
       </c>
       <c r="S50" t="n">
-        <v>365.4448632581232</v>
+        <v>75.5374604911391</v>
       </c>
     </row>
     <row r="51">
@@ -3644,7 +3644,7 @@
         <v>-11.55555555555556</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.6</v>
+        <v>-18.11111111111111</v>
       </c>
       <c r="I51" t="n">
         <v>103.47</v>
@@ -3677,7 +3677,7 @@
         <v>0.035306</v>
       </c>
       <c r="S51" t="n">
-        <v>230.8685135125912</v>
+        <v>58.30128346891483</v>
       </c>
     </row>
     <row r="52">
@@ -3707,7 +3707,7 @@
         <v>-11.22222222222222</v>
       </c>
       <c r="H52" t="n">
-        <v>-2</v>
+        <v>-18.88888888888889</v>
       </c>
       <c r="I52" t="n">
         <v>103.29</v>
@@ -3740,7 +3740,7 @@
         <v>0.03454400000000001</v>
       </c>
       <c r="S52" t="n">
-        <v>202.8647777361317</v>
+        <v>53.13837077278865</v>
       </c>
     </row>
     <row r="53">
@@ -3770,7 +3770,7 @@
         <v>-10.22222222222222</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.2</v>
+        <v>-17.88888888888889</v>
       </c>
       <c r="I53" t="n">
         <v>103.41</v>
@@ -3803,7 +3803,7 @@
         <v>0.03378200000000001</v>
       </c>
       <c r="S53" t="n">
-        <v>213.7791667386971</v>
+        <v>53.43148218277113</v>
       </c>
     </row>
     <row r="54">
@@ -3833,7 +3833,7 @@
         <v>-9.333333333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>5.4</v>
+        <v>-14.77777777777778</v>
       </c>
       <c r="I54" t="n">
         <v>103.17</v>
@@ -3866,7 +3866,7 @@
         <v>0.03302</v>
       </c>
       <c r="S54" t="n">
-        <v>296.7273376622796</v>
+        <v>64.57281356498105</v>
       </c>
     </row>
     <row r="55">
@@ -3896,7 +3896,7 @@
         <v>-9.888888888888889</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.5</v>
+        <v>-19.72222222222222</v>
       </c>
       <c r="I55" t="n">
         <v>103.34</v>
@@ -3929,7 +3929,7 @@
         <v>0.032258</v>
       </c>
       <c r="S55" t="n">
-        <v>163.2795334307164</v>
+        <v>44.5156067096403</v>
       </c>
     </row>
     <row r="56">
@@ -3959,7 +3959,7 @@
         <v>-8.222222222222223</v>
       </c>
       <c r="H56" t="n">
-        <v>-4.3</v>
+        <v>-20.16666666666666</v>
       </c>
       <c r="I56" t="n">
         <v>103.14</v>
@@ -3992,7 +3992,7 @@
         <v>0.031496</v>
       </c>
       <c r="S56" t="n">
-        <v>134.9676447202675</v>
+        <v>37.60386265024145</v>
       </c>
     </row>
     <row r="57">
@@ -4022,7 +4022,7 @@
         <v>-6.944444444444445</v>
       </c>
       <c r="H57" t="n">
-        <v>4.9</v>
+        <v>-15.05555555555556</v>
       </c>
       <c r="I57" t="n">
         <v>103.03</v>
@@ -4055,7 +4055,7 @@
         <v>0.030734</v>
       </c>
       <c r="S57" t="n">
-        <v>238.0456443738081</v>
+        <v>52.4239805433885</v>
       </c>
     </row>
     <row r="58">
@@ -4085,7 +4085,7 @@
         <v>-3.722222222222222</v>
       </c>
       <c r="H58" t="n">
-        <v>9.300000000000001</v>
+        <v>-12.61111111111111</v>
       </c>
       <c r="I58" t="n">
         <v>102.39</v>
@@ -4118,7 +4118,7 @@
         <v>0.029972</v>
       </c>
       <c r="S58" t="n">
-        <v>252.0219769030724</v>
+        <v>50.11600620500546</v>
       </c>
     </row>
     <row r="59">
@@ -4148,7 +4148,7 @@
         <v>-2.055555555555555</v>
       </c>
       <c r="H59" t="n">
-        <v>14.1</v>
+        <v>-9.944444444444445</v>
       </c>
       <c r="I59" t="n">
         <v>101.51</v>
@@ -4181,7 +4181,7 @@
         <v>0.02921</v>
       </c>
       <c r="S59" t="n">
-        <v>305.7569874083588</v>
+        <v>54.77550102928396</v>
       </c>
     </row>
     <row r="60">
@@ -4211,7 +4211,7 @@
         <v>-6.277777777777779</v>
       </c>
       <c r="H60" t="n">
-        <v>10.3</v>
+        <v>-12.05555555555556</v>
       </c>
       <c r="I60" t="n">
         <v>102.61</v>
@@ -4244,7 +4244,7 @@
         <v>0.028448</v>
       </c>
       <c r="S60" t="n">
-        <v>326.9763316618852</v>
+        <v>63.58533773359682</v>
       </c>
     </row>
     <row r="61">
@@ -4274,7 +4274,7 @@
         <v>-5.722222222222223</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.3</v>
+        <v>-17.94444444444444</v>
       </c>
       <c r="I61" t="n">
         <v>102.58</v>
@@ -4307,7 +4307,7 @@
         <v>0.027686</v>
       </c>
       <c r="S61" t="n">
-        <v>149.6964073734869</v>
+        <v>37.51122259650104</v>
       </c>
     </row>
     <row r="62">
@@ -4337,7 +4337,7 @@
         <v>-3.222222222222223</v>
       </c>
       <c r="H62" t="n">
-        <v>6</v>
+        <v>-14.44444444444444</v>
       </c>
       <c r="I62" t="n">
         <v>102.16</v>
@@ -4370,7 +4370,7 @@
         <v>0.026924</v>
       </c>
       <c r="S62" t="n">
-        <v>193.8455863380572</v>
+        <v>41.58944135267063</v>
       </c>
     </row>
     <row r="63">
@@ -4400,7 +4400,7 @@
         <v>-1.777777777777777</v>
       </c>
       <c r="H63" t="n">
-        <v>11.4</v>
+        <v>-11.44444444444445</v>
       </c>
       <c r="I63" t="n">
         <v>102.03</v>
@@ -4433,7 +4433,7 @@
         <v>0.026162</v>
       </c>
       <c r="S63" t="n">
-        <v>250.98404366156</v>
+        <v>47.64048371785792</v>
       </c>
     </row>
     <row r="64">
@@ -4463,7 +4463,7 @@
         <v>-0.3333333333333341</v>
       </c>
       <c r="H64" t="n">
-        <v>8.5</v>
+        <v>-13.05555555555556</v>
       </c>
       <c r="I64" t="n">
         <v>101.83</v>
@@ -4496,7 +4496,7 @@
         <v>0.0254</v>
       </c>
       <c r="S64" t="n">
-        <v>185.9363034813381</v>
+        <v>37.64949155830927</v>
       </c>
     </row>
     <row r="65">
@@ -4526,7 +4526,7 @@
         <v>-0.2777777777777778</v>
       </c>
       <c r="H65" t="n">
-        <v>19.2</v>
+        <v>-7.111111111111112</v>
       </c>
       <c r="I65" t="n">
         <v>101.65</v>
@@ -4559,7 +4559,7 @@
         <v>0.024638</v>
       </c>
       <c r="S65" t="n">
-        <v>371.2222564576604</v>
+        <v>59.96716528454103</v>
       </c>
     </row>
     <row r="66">
@@ -4589,7 +4589,7 @@
         <v>-1.944444444444445</v>
       </c>
       <c r="H66" t="n">
-        <v>-5.9</v>
+        <v>-21.05555555555556</v>
       </c>
       <c r="I66" t="n">
         <v>102.6</v>
@@ -4622,7 +4622,7 @@
         <v>0.023876</v>
       </c>
       <c r="S66" t="n">
-        <v>74.33877927892752</v>
+        <v>21.64659260075659</v>
       </c>
     </row>
     <row r="67">
@@ -4652,7 +4652,7 @@
         <v>0.7222222222222207</v>
       </c>
       <c r="H67" t="n">
-        <v>1.8</v>
+        <v>-16.77777777777778</v>
       </c>
       <c r="I67" t="n">
         <v>101.72</v>
@@ -4685,7 +4685,7 @@
         <v>0.023114</v>
       </c>
       <c r="S67" t="n">
-        <v>108.0482085170896</v>
+        <v>25.6696634702335</v>
       </c>
     </row>
     <row r="68">
@@ -4715,7 +4715,7 @@
         <v>6.611111111111111</v>
       </c>
       <c r="H68" t="n">
-        <v>10.8</v>
+        <v>-11.77777777777778</v>
       </c>
       <c r="I68" t="n">
         <v>100.95</v>
@@ -4748,7 +4748,7 @@
         <v>0.022352</v>
       </c>
       <c r="S68" t="n">
-        <v>132.7597269012796</v>
+        <v>25.53343775302424</v>
       </c>
     </row>
     <row r="69">
@@ -4778,7 +4778,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H69" t="n">
-        <v>26.1</v>
+        <v>-3.277777777777777</v>
       </c>
       <c r="I69" t="n">
         <v>101.66</v>
@@ -4811,7 +4811,7 @@
         <v>0.02159</v>
       </c>
       <c r="S69" t="n">
-        <v>494.5456276328844</v>
+        <v>70.23887964474291</v>
       </c>
     </row>
     <row r="70">
@@ -4841,7 +4841,7 @@
         <v>3.722222222222224</v>
       </c>
       <c r="H70" t="n">
-        <v>13.5</v>
+        <v>-10.27777777777778</v>
       </c>
       <c r="I70" t="n">
         <v>101.37</v>
@@ -4874,7 +4874,7 @@
         <v>0.020828</v>
       </c>
       <c r="S70" t="n">
-        <v>193.8952666851557</v>
+        <v>35.17850543239015</v>
       </c>
     </row>
     <row r="71">
@@ -4904,7 +4904,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="H71" t="n">
-        <v>15.1</v>
+        <v>-9.388888888888889</v>
       </c>
       <c r="I71" t="n">
         <v>101.03</v>
@@ -4937,7 +4937,7 @@
         <v>0.020066</v>
       </c>
       <c r="S71" t="n">
-        <v>186.3056550044159</v>
+        <v>32.68671402989881</v>
       </c>
     </row>
     <row r="72">
@@ -4967,7 +4967,7 @@
         <v>2.555555555555556</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.6</v>
+        <v>-18.11111111111111</v>
       </c>
       <c r="I72" t="n">
         <v>101.25</v>
@@ -5000,7 +5000,7 @@
         <v>0.019304</v>
       </c>
       <c r="S72" t="n">
-        <v>79.67854516221867</v>
+        <v>20.12124294134156</v>
       </c>
     </row>
     <row r="73">
@@ -5030,7 +5030,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H73" t="n">
-        <v>1.6</v>
+        <v>-16.88888888888889</v>
       </c>
       <c r="I73" t="n">
         <v>101.41</v>
@@ -5063,7 +5063,7 @@
         <v>0.018542</v>
       </c>
       <c r="S73" t="n">
-        <v>72.25800821010111</v>
+        <v>17.25295298425014</v>
       </c>
     </row>
     <row r="74">
@@ -5093,7 +5093,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H74" t="n">
-        <v>6.4</v>
+        <v>-14.22222222222222</v>
       </c>
       <c r="I74" t="n">
         <v>101.31</v>
@@ -5126,7 +5126,7 @@
         <v>0.01778</v>
       </c>
       <c r="S74" t="n">
-        <v>102.012659952462</v>
+        <v>21.68204357439368</v>
       </c>
     </row>
     <row r="75">
@@ -5156,7 +5156,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>17.3</v>
+        <v>-8.166666666666666</v>
       </c>
       <c r="I75" t="n">
         <v>100.85</v>
@@ -5189,7 +5189,7 @@
         <v>0.017018</v>
       </c>
       <c r="S75" t="n">
-        <v>206.3058193192476</v>
+        <v>34.60636100515634</v>
       </c>
     </row>
     <row r="76">
@@ -5219,7 +5219,7 @@
         <v>5.88888888888889</v>
       </c>
       <c r="H76" t="n">
-        <v>23.1</v>
+        <v>-4.944444444444444</v>
       </c>
       <c r="I76" t="n">
         <v>100.93</v>
@@ -5252,7 +5252,7 @@
         <v>0.016256</v>
       </c>
       <c r="S76" t="n">
-        <v>304.5910614455783</v>
+        <v>45.68109997761122</v>
       </c>
     </row>
     <row r="77">
@@ -5282,7 +5282,7 @@
         <v>9.388888888888889</v>
       </c>
       <c r="H77" t="n">
-        <v>7.8</v>
+        <v>-13.44444444444444</v>
       </c>
       <c r="I77" t="n">
         <v>100.58</v>
@@ -5315,7 +5315,7 @@
         <v>0.015494</v>
       </c>
       <c r="S77" t="n">
-        <v>89.80101809998071</v>
+        <v>18.47668439016904</v>
       </c>
     </row>
     <row r="78">
@@ -5345,7 +5345,7 @@
         <v>8.055555555555555</v>
       </c>
       <c r="H78" t="n">
-        <v>6.4</v>
+        <v>-14.22222222222222</v>
       </c>
       <c r="I78" t="n">
         <v>100.16</v>
@@ -5378,7 +5378,7 @@
         <v>0.014732</v>
       </c>
       <c r="S78" t="n">
-        <v>89.2871295161935</v>
+        <v>18.97732530163201</v>
       </c>
     </row>
     <row r="79">
@@ -5408,7 +5408,7 @@
         <v>7.777777777777779</v>
       </c>
       <c r="H79" t="n">
-        <v>19.6</v>
+        <v>-6.888888888888888</v>
       </c>
       <c r="I79" t="n">
         <v>100.21</v>
@@ -5441,7 +5441,7 @@
         <v>0.01397</v>
       </c>
       <c r="S79" t="n">
-        <v>215.8499542736766</v>
+        <v>34.59722649515088</v>
       </c>
     </row>
     <row r="80">
@@ -5471,7 +5471,7 @@
         <v>4.722222222222222</v>
       </c>
       <c r="H80" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I80" t="n">
         <v>100.72</v>
@@ -5504,7 +5504,7 @@
         <v>0.013208</v>
       </c>
       <c r="S80" t="n">
-        <v>397.6470460458589</v>
+        <v>56.37643313700402</v>
       </c>
     </row>
     <row r="81">
@@ -5534,7 +5534,7 @@
         <v>2.388888888888888</v>
       </c>
       <c r="H81" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I81" t="n">
         <v>101.18</v>
@@ -5567,7 +5567,7 @@
         <v>0.012446</v>
       </c>
       <c r="S81" t="n">
-        <v>447.0137646072658</v>
+        <v>64.28681605160322</v>
       </c>
     </row>
     <row r="82">
@@ -5597,7 +5597,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="H82" t="n">
-        <v>18</v>
+        <v>-7.777777777777779</v>
       </c>
       <c r="I82" t="n">
         <v>101.5</v>
@@ -5630,7 +5630,7 @@
         <v>0.011684</v>
       </c>
       <c r="S82" t="n">
-        <v>253.6321678586608</v>
+        <v>41.95357098287193</v>
       </c>
     </row>
     <row r="83">
@@ -5660,7 +5660,7 @@
         <v>6.833333333333332</v>
       </c>
       <c r="H83" t="n">
-        <v>14.2</v>
+        <v>-9.888888888888889</v>
       </c>
       <c r="I83" t="n">
         <v>100.52</v>
@@ -5693,7 +5693,7 @@
         <v>0.010922</v>
       </c>
       <c r="S83" t="n">
-        <v>163.4488923649191</v>
+        <v>29.21996845648209</v>
       </c>
     </row>
     <row r="84">
@@ -5723,7 +5723,7 @@
         <v>4.833333333333335</v>
       </c>
       <c r="H84" t="n">
-        <v>22.7</v>
+        <v>-5.166666666666667</v>
       </c>
       <c r="I84" t="n">
         <v>100.26</v>
@@ -5756,7 +5756,7 @@
         <v>0.01016</v>
       </c>
       <c r="S84" t="n">
-        <v>319.9142773688772</v>
+        <v>48.33720191906709</v>
       </c>
     </row>
     <row r="85">
@@ -5786,7 +5786,7 @@
         <v>-0.3888888888888885</v>
       </c>
       <c r="H85" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I85" t="n">
         <v>101.71</v>
@@ -5819,7 +5819,7 @@
         <v>0.01524</v>
       </c>
       <c r="S85" t="n">
-        <v>545.9484765057675</v>
+        <v>78.51500795196952</v>
       </c>
     </row>
     <row r="86">
@@ -5849,7 +5849,7 @@
         <v>-1.111111111111111</v>
       </c>
       <c r="H86" t="n">
-        <v>24.8</v>
+        <v>-4</v>
       </c>
       <c r="I86" t="n">
         <v>102.33</v>
@@ -5882,7 +5882,7 @@
         <v>0.02032</v>
       </c>
       <c r="S86" t="n">
-        <v>555.2816703413476</v>
+        <v>80.72551334777008</v>
       </c>
     </row>
     <row r="87">
@@ -5912,7 +5912,7 @@
         <v>0.6666666666666683</v>
       </c>
       <c r="H87" t="n">
-        <v>11.7</v>
+        <v>-11.27777777777778</v>
       </c>
       <c r="I87" t="n">
         <v>101.66</v>
@@ -5945,7 +5945,7 @@
         <v>0.01778</v>
       </c>
       <c r="S87" t="n">
-        <v>214.2257255850642</v>
+        <v>40.39831550040661</v>
       </c>
     </row>
     <row r="88">
@@ -5975,7 +5975,7 @@
         <v>4.388888888888888</v>
       </c>
       <c r="H88" t="n">
-        <v>15.9</v>
+        <v>-8.944444444444446</v>
       </c>
       <c r="I88" t="n">
         <v>100.83</v>
@@ -6008,7 +6008,7 @@
         <v>0.01524</v>
       </c>
       <c r="S88" t="n">
-        <v>216.028335661744</v>
+        <v>37.28164906152102</v>
       </c>
     </row>
     <row r="89">
@@ -6038,7 +6038,7 @@
         <v>3.888888888888889</v>
       </c>
       <c r="H89" t="n">
-        <v>21.4</v>
+        <v>-5.88888888888889</v>
       </c>
       <c r="I89" t="n">
         <v>101.34</v>
@@ -6071,7 +6071,7 @@
         <v>0.0127</v>
       </c>
       <c r="S89" t="n">
-        <v>315.7266816036169</v>
+        <v>48.88516295917509</v>
       </c>
     </row>
     <row r="90">
@@ -6101,7 +6101,7 @@
         <v>-0.777777777777777</v>
       </c>
       <c r="H90" t="n">
-        <v>24.2</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="I90" t="n">
         <v>102.7</v>
@@ -6134,7 +6134,7 @@
         <v>0.01016</v>
       </c>
       <c r="S90" t="n">
-        <v>522.7767757804971</v>
+        <v>76.83332985025096</v>
       </c>
     </row>
     <row r="91">
@@ -6164,7 +6164,7 @@
         <v>-1.166666666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>21.5</v>
+        <v>-5.833333333333334</v>
       </c>
       <c r="I91" t="n">
         <v>103.49</v>
@@ -6197,7 +6197,7 @@
         <v>0.01016</v>
       </c>
       <c r="S91" t="n">
-        <v>456.615981858762</v>
+        <v>70.56563782150923</v>
       </c>
     </row>
     <row r="92">
@@ -6227,7 +6227,7 @@
         <v>-0.6111111111111119</v>
       </c>
       <c r="H92" t="n">
-        <v>21</v>
+        <v>-6.111111111111112</v>
       </c>
       <c r="I92" t="n">
         <v>103.39</v>
@@ -6260,7 +6260,7 @@
         <v>0.01016</v>
       </c>
       <c r="S92" t="n">
-        <v>425.1913288307087</v>
+        <v>66.33705395173889</v>
       </c>
     </row>
     <row r="93">
@@ -6290,7 +6290,7 @@
         <v>-0.3333333333333341</v>
       </c>
       <c r="H93" t="n">
-        <v>14.9</v>
+        <v>-9.500000000000002</v>
       </c>
       <c r="I93" t="n">
         <v>102.69</v>
@@ -6323,7 +6323,7 @@
         <v>0.01016</v>
       </c>
       <c r="S93" t="n">
-        <v>283.8055483432634</v>
+        <v>49.99987278011426</v>
       </c>
     </row>
     <row r="94">
@@ -6353,7 +6353,7 @@
         <v>2.777777777777778</v>
       </c>
       <c r="H94" t="n">
-        <v>20.3</v>
+        <v>-6.5</v>
       </c>
       <c r="I94" t="n">
         <v>102.06</v>
@@ -6386,7 +6386,7 @@
         <v>0.01016</v>
       </c>
       <c r="S94" t="n">
-        <v>319.1354134859636</v>
+        <v>50.46344604670318</v>
       </c>
     </row>
     <row r="95">
@@ -6416,7 +6416,7 @@
         <v>2.833333333333334</v>
       </c>
       <c r="H95" t="n">
-        <v>20.3</v>
+        <v>-6.5</v>
       </c>
       <c r="I95" t="n">
         <v>102.53</v>
@@ -6449,7 +6449,7 @@
         <v>0.01016</v>
       </c>
       <c r="S95" t="n">
-        <v>317.8804407704353</v>
+        <v>50.2650028616352</v>
       </c>
     </row>
     <row r="96">
@@ -6479,7 +6479,7 @@
         <v>2.777777777777778</v>
       </c>
       <c r="H96" t="n">
-        <v>22.4</v>
+        <v>-5.333333333333334</v>
       </c>
       <c r="I96" t="n">
         <v>102.57</v>
@@ -6512,7 +6512,7 @@
         <v>0.01016</v>
       </c>
       <c r="S96" t="n">
-        <v>363.0095329763689</v>
+        <v>55.15680856508026</v>
       </c>
     </row>
     <row r="97">
@@ -6542,7 +6542,7 @@
         <v>3</v>
       </c>
       <c r="H97" t="n">
-        <v>16.1</v>
+        <v>-8.833333333333332</v>
       </c>
       <c r="I97" t="n">
         <v>102.72</v>
@@ -6575,7 +6575,7 @@
         <v>0.01016</v>
       </c>
       <c r="S97" t="n">
-        <v>241.2867822968722</v>
+        <v>41.470591308724</v>
       </c>
     </row>
     <row r="98">
@@ -6605,7 +6605,7 @@
         <v>5.944444444444446</v>
       </c>
       <c r="H98" t="n">
-        <v>11.4</v>
+        <v>-11.44444444444445</v>
       </c>
       <c r="I98" t="n">
         <v>101.8</v>
@@ -6638,7 +6638,7 @@
         <v>0.01016</v>
       </c>
       <c r="S98" t="n">
-        <v>144.6538934347308</v>
+        <v>27.4574485069447</v>
       </c>
     </row>
     <row r="99">
@@ -6668,7 +6668,7 @@
         <v>5.444444444444443</v>
       </c>
       <c r="H99" t="n">
-        <v>10.5</v>
+        <v>-11.94444444444444</v>
       </c>
       <c r="I99" t="n">
         <v>101.52</v>
@@ -6701,7 +6701,7 @@
         <v>0.01016</v>
       </c>
       <c r="S99" t="n">
-        <v>141.0589590030426</v>
+        <v>27.30977972523655</v>
       </c>
     </row>
     <row r="100">
@@ -6731,7 +6731,7 @@
         <v>6.444444444444446</v>
       </c>
       <c r="H100" t="n">
-        <v>10.1</v>
+        <v>-12.16666666666667</v>
       </c>
       <c r="I100" t="n">
         <v>101.09</v>
@@ -6764,7 +6764,7 @@
         <v>0.01016</v>
       </c>
       <c r="S100" t="n">
-        <v>128.1638901283301</v>
+        <v>25.03426879971554</v>
       </c>
     </row>
     <row r="101">
@@ -6794,7 +6794,7 @@
         <v>8.833333333333332</v>
       </c>
       <c r="H101" t="n">
-        <v>7.5</v>
+        <v>-13.61111111111111</v>
       </c>
       <c r="I101" t="n">
         <v>100.7</v>
@@ -6827,7 +6827,7 @@
         <v>0.01016</v>
       </c>
       <c r="S101" t="n">
-        <v>91.34024801948057</v>
+        <v>18.92359700035054</v>
       </c>
     </row>
     <row r="102">
@@ -6857,7 +6857,7 @@
         <v>5.88888888888889</v>
       </c>
       <c r="H102" t="n">
-        <v>19.4</v>
+        <v>-7.000000000000001</v>
       </c>
       <c r="I102" t="n">
         <v>101.09</v>
@@ -6890,7 +6890,7 @@
         <v>0.01016</v>
       </c>
       <c r="S102" t="n">
-        <v>242.7018693981395</v>
+        <v>39.05306916673663</v>
       </c>
     </row>
     <row r="103">
@@ -6920,7 +6920,7 @@
         <v>5.666666666666669</v>
       </c>
       <c r="H103" t="n">
-        <v>20.4</v>
+        <v>-6.444444444444446</v>
       </c>
       <c r="I103" t="n">
         <v>101.1</v>
@@ -6953,7 +6953,7 @@
         <v>0.01016</v>
       </c>
       <c r="S103" t="n">
-        <v>262.2339755053264</v>
+        <v>41.38609925980896</v>
       </c>
     </row>
     <row r="104">
@@ -6983,7 +6983,7 @@
         <v>7.11111111111111</v>
       </c>
       <c r="H104" t="n">
-        <v>19.4</v>
+        <v>-7.000000000000001</v>
       </c>
       <c r="I104" t="n">
         <v>100.66</v>
@@ -7016,7 +7016,7 @@
         <v>0.01016</v>
       </c>
       <c r="S104" t="n">
-        <v>223.1161971275844</v>
+        <v>35.90154579464311</v>
       </c>
     </row>
     <row r="105">
@@ -7046,7 +7046,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>29.7</v>
+        <v>-1.277777777777778</v>
       </c>
       <c r="I105" t="n">
         <v>101.09</v>
@@ -7079,7 +7079,7 @@
         <v>0.01016</v>
       </c>
       <c r="S105" t="n">
-        <v>507.1612526268281</v>
+        <v>67.6726642479245</v>
       </c>
     </row>
     <row r="106">
@@ -7109,7 +7109,7 @@
         <v>3</v>
       </c>
       <c r="H106" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>101.45</v>
@@ -7142,7 +7142,7 @@
         <v>0.01016</v>
       </c>
       <c r="S106" t="n">
-        <v>627.995668500611</v>
+        <v>80.65005415469673</v>
       </c>
     </row>
     <row r="107">
@@ -7172,7 +7172,7 @@
         <v>5.166666666666665</v>
       </c>
       <c r="H107" t="n">
-        <v>30.4</v>
+        <v>-0.8888888888888897</v>
       </c>
       <c r="I107" t="n">
         <v>101.16</v>
@@ -7205,7 +7205,7 @@
         <v>0.01016</v>
       </c>
       <c r="S107" t="n">
-        <v>492.3623995286944</v>
+        <v>64.9288477356112</v>
       </c>
     </row>
     <row r="108">
@@ -7235,7 +7235,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H108" t="n">
-        <v>19.9</v>
+        <v>-6.722222222222223</v>
       </c>
       <c r="I108" t="n">
         <v>102.23</v>
@@ -7268,7 +7268,7 @@
         <v>0.01016</v>
       </c>
       <c r="S108" t="n">
-        <v>339.6726517987753</v>
+        <v>54.12771238604726</v>
       </c>
     </row>
     <row r="109">
@@ -7298,7 +7298,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H109" t="n">
-        <v>15.5</v>
+        <v>-9.166666666666668</v>
       </c>
       <c r="I109" t="n">
         <v>102.18</v>
@@ -7331,7 +7331,7 @@
         <v>0.01016</v>
       </c>
       <c r="S109" t="n">
-        <v>276.557331394053</v>
+        <v>48.12158781725672</v>
       </c>
     </row>
     <row r="110">
@@ -7361,7 +7361,7 @@
         <v>6.944444444444445</v>
       </c>
       <c r="H110" t="n">
-        <v>3.1</v>
+        <v>-16.05555555555556</v>
       </c>
       <c r="I110" t="n">
         <v>101.18</v>
@@ -7394,7 +7394,7 @@
         <v>0.01016</v>
       </c>
       <c r="S110" t="n">
-        <v>76.50352747057161</v>
+        <v>17.59936816627642</v>
       </c>
     </row>
     <row r="111">
@@ -7424,7 +7424,7 @@
         <v>4.833333333333335</v>
       </c>
       <c r="H111" t="n">
-        <v>25.9</v>
+        <v>-3.38888888888889</v>
       </c>
       <c r="I111" t="n">
         <v>100.85</v>
@@ -7457,7 +7457,7 @@
         <v>0.01016</v>
       </c>
       <c r="S111" t="n">
-        <v>387.6270344266122</v>
+        <v>55.24986786917313</v>
       </c>
     </row>
     <row r="112">
@@ -7487,7 +7487,7 @@
         <v>7.833333333333335</v>
       </c>
       <c r="H112" t="n">
-        <v>36.1</v>
+        <v>2.277777777777779</v>
       </c>
       <c r="I112" t="n">
         <v>101.13</v>
@@ -7520,7 +7520,7 @@
         <v>0.01016</v>
       </c>
       <c r="S112" t="n">
-        <v>564.4627607986351</v>
+        <v>67.91156987885319</v>
       </c>
     </row>
     <row r="113">
@@ -7550,7 +7550,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H113" t="n">
-        <v>35.4</v>
+        <v>1.888888888888888</v>
       </c>
       <c r="I113" t="n">
         <v>100.62</v>
@@ -7583,7 +7583,7 @@
         <v>0.01016</v>
       </c>
       <c r="S113" t="n">
-        <v>492.4666810319165</v>
+        <v>59.89771325236974</v>
       </c>
     </row>
     <row r="114">
@@ -7613,7 +7613,7 @@
         <v>3.777777777777776</v>
       </c>
       <c r="H114" t="n">
-        <v>31.7</v>
+        <v>-0.1666666666666671</v>
       </c>
       <c r="I114" t="n">
         <v>101.58</v>
@@ -7646,7 +7646,7 @@
         <v>0.01016</v>
       </c>
       <c r="S114" t="n">
-        <v>584.4119772020257</v>
+        <v>75.42317787663853</v>
       </c>
     </row>
     <row r="115">
@@ -7676,7 +7676,7 @@
         <v>6.611111111111111</v>
       </c>
       <c r="H115" t="n">
-        <v>33</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I115" t="n">
         <v>101.09</v>
@@ -7709,7 +7709,7 @@
         <v>0.01016</v>
       </c>
       <c r="S115" t="n">
-        <v>516.4618190099276</v>
+        <v>65.25662147564071</v>
       </c>
     </row>
     <row r="116">
@@ -7739,7 +7739,7 @@
         <v>8.611111111111111</v>
       </c>
       <c r="H116" t="n">
-        <v>29.2</v>
+        <v>-1.555555555555556</v>
       </c>
       <c r="I116" t="n">
         <v>101.23</v>
@@ -7772,7 +7772,7 @@
         <v>0.01016</v>
       </c>
       <c r="S116" t="n">
-        <v>362.7415478753906</v>
+        <v>48.81443350920871</v>
       </c>
     </row>
     <row r="117">
@@ -7802,7 +7802,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>32.8</v>
+        <v>0.4444444444444429</v>
       </c>
       <c r="I117" t="n">
         <v>102.06</v>
@@ -7835,7 +7835,7 @@
         <v>0.01016</v>
       </c>
       <c r="S117" t="n">
-        <v>748.8552449353937</v>
+        <v>94.92677596633266</v>
       </c>
     </row>
     <row r="118">
@@ -7865,7 +7865,7 @@
         <v>-1</v>
       </c>
       <c r="H118" t="n">
-        <v>23.8</v>
+        <v>-4.555555555555555</v>
       </c>
       <c r="I118" t="n">
         <v>103.16</v>
@@ -7898,7 +7898,7 @@
         <v>0.01016</v>
       </c>
       <c r="S118" t="n">
-        <v>518.7110850779221</v>
+        <v>76.79593583142642</v>
       </c>
     </row>
     <row r="119">
@@ -7928,7 +7928,7 @@
         <v>0.05555555555555635</v>
       </c>
       <c r="H119" t="n">
-        <v>22.7</v>
+        <v>-5.166666666666667</v>
       </c>
       <c r="I119" t="n">
         <v>102.93</v>
@@ -7961,7 +7961,7 @@
         <v>0.01016</v>
       </c>
       <c r="S119" t="n">
-        <v>449.4098432789614</v>
+        <v>67.90323494672761</v>
       </c>
     </row>
     <row r="120">
@@ -7991,7 +7991,7 @@
         <v>1.944444444444445</v>
       </c>
       <c r="H120" t="n">
-        <v>18.6</v>
+        <v>-7.444444444444444</v>
       </c>
       <c r="I120" t="n">
         <v>102.87</v>
@@ -8024,7 +8024,7 @@
         <v>0.01016</v>
       </c>
       <c r="S120" t="n">
-        <v>304.6435898407929</v>
+        <v>49.79577820124231</v>
       </c>
     </row>
     <row r="121">
@@ -8054,7 +8054,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H121" t="n">
-        <v>15.3</v>
+        <v>-9.277777777777779</v>
       </c>
       <c r="I121" t="n">
         <v>102.01</v>
@@ -8087,7 +8087,7 @@
         <v>0.01016</v>
       </c>
       <c r="S121" t="n">
-        <v>176.1404106120787</v>
+        <v>30.77559706264277</v>
       </c>
     </row>
     <row r="122">
@@ -8117,7 +8117,7 @@
         <v>8.666666666666668</v>
       </c>
       <c r="H122" t="n">
-        <v>22.4</v>
+        <v>-5.333333333333334</v>
       </c>
       <c r="I122" t="n">
         <v>101.07</v>
@@ -8150,7 +8150,7 @@
         <v>0.01016</v>
       </c>
       <c r="S122" t="n">
-        <v>241.3946228263646</v>
+        <v>36.67825715403539</v>
       </c>
     </row>
     <row r="123">
@@ -8180,7 +8180,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H123" t="n">
-        <v>20.8</v>
+        <v>-6.222222222222222</v>
       </c>
       <c r="I123" t="n">
         <v>100.46</v>
@@ -8213,7 +8213,7 @@
         <v>0.01016</v>
       </c>
       <c r="S123" t="n">
-        <v>155.94530081561</v>
+        <v>24.42328127160301</v>
       </c>
     </row>
     <row r="124">
@@ -8243,7 +8243,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H124" t="n">
-        <v>35.5</v>
+        <v>1.944444444444445</v>
       </c>
       <c r="I124" t="n">
         <v>100.1</v>
@@ -8276,7 +8276,7 @@
         <v>0.01016</v>
       </c>
       <c r="S124" t="n">
-        <v>319.7611091630028</v>
+        <v>38.83123721273015</v>
       </c>
     </row>
     <row r="125">
@@ -8306,7 +8306,7 @@
         <v>6.166666666666668</v>
       </c>
       <c r="H125" t="n">
-        <v>29.3</v>
+        <v>-1.5</v>
       </c>
       <c r="I125" t="n">
         <v>101.33</v>
@@ -8339,7 +8339,7 @@
         <v>0.01016</v>
       </c>
       <c r="S125" t="n">
-        <v>431.1987723411946</v>
+        <v>57.92815118936492</v>
       </c>
     </row>
     <row r="126">
@@ -8369,7 +8369,7 @@
         <v>13.38888888888889</v>
       </c>
       <c r="H126" t="n">
-        <v>24.8</v>
+        <v>-4</v>
       </c>
       <c r="I126" t="n">
         <v>100.88</v>
@@ -8402,7 +8402,7 @@
         <v>0.01016</v>
       </c>
       <c r="S126" t="n">
-        <v>203.8790227643216</v>
+        <v>29.63944184106457</v>
       </c>
     </row>
     <row r="127">
@@ -8432,7 +8432,7 @@
         <v>7.333333333333335</v>
       </c>
       <c r="H127" t="n">
-        <v>35.7</v>
+        <v>2.055555555555557</v>
       </c>
       <c r="I127" t="n">
         <v>100.92</v>
@@ -8465,7 +8465,7 @@
         <v>0.01016</v>
       </c>
       <c r="S127" t="n">
-        <v>571.3217590067093</v>
+        <v>69.1645514394244</v>
       </c>
     </row>
     <row r="128">
@@ -8495,7 +8495,7 @@
         <v>8.499999999999998</v>
       </c>
       <c r="H128" t="n">
-        <v>33.4</v>
+        <v>0.777777777777777</v>
       </c>
       <c r="I128" t="n">
         <v>100.85</v>
@@ -8528,7 +8528,7 @@
         <v>0.01016</v>
       </c>
       <c r="S128" t="n">
-        <v>464.301548069773</v>
+        <v>58.28934810423186</v>
       </c>
     </row>
     <row r="129">
@@ -8558,7 +8558,7 @@
         <v>3.277777777777777</v>
       </c>
       <c r="H129" t="n">
-        <v>34.1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I129" t="n">
         <v>101.36</v>
@@ -8591,7 +8591,7 @@
         <v>0.01016</v>
       </c>
       <c r="S129" t="n">
-        <v>693.0001455737749</v>
+        <v>86.03286247727689</v>
       </c>
     </row>
     <row r="130">
@@ -8621,7 +8621,7 @@
         <v>3.38888888888889</v>
       </c>
       <c r="H130" t="n">
-        <v>32.9</v>
+        <v>0.4999999999999992</v>
       </c>
       <c r="I130" t="n">
         <v>101.86</v>
@@ -8654,7 +8654,7 @@
         <v>0.01016</v>
       </c>
       <c r="S130" t="n">
-        <v>642.8376383055155</v>
+        <v>81.35596839790534</v>
       </c>
     </row>
     <row r="131">
@@ -8684,7 +8684,7 @@
         <v>2.166666666666666</v>
       </c>
       <c r="H131" t="n">
-        <v>32.1</v>
+        <v>0.05555555555555635</v>
       </c>
       <c r="I131" t="n">
         <v>102.28</v>
@@ -8717,7 +8717,7 @@
         <v>0.01016</v>
       </c>
       <c r="S131" t="n">
-        <v>670.0882962890465</v>
+        <v>85.91509175545437</v>
       </c>
     </row>
     <row r="132">
@@ -8747,7 +8747,7 @@
         <v>12.11111111111111</v>
       </c>
       <c r="H132" t="n">
-        <v>31.5</v>
+        <v>-0.2777777777777778</v>
       </c>
       <c r="I132" t="n">
         <v>100.76</v>
@@ -8780,7 +8780,7 @@
         <v>0.01032126984126984</v>
       </c>
       <c r="S132" t="n">
-        <v>327.6565725125527</v>
+        <v>42.42625512849998</v>
       </c>
     </row>
     <row r="133">
@@ -8810,7 +8810,7 @@
         <v>7.888888888888891</v>
       </c>
       <c r="H133" t="n">
-        <v>36.5</v>
+        <v>2.5</v>
       </c>
       <c r="I133" t="n">
         <v>101.11</v>
@@ -8843,7 +8843,7 @@
         <v>0.01048253968253968</v>
       </c>
       <c r="S133" t="n">
-        <v>574.8302747780158</v>
+        <v>68.73353929011849</v>
       </c>
     </row>
     <row r="134">
@@ -8873,7 +8873,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>30.3</v>
+        <v>-0.9444444444444441</v>
       </c>
       <c r="I134" t="n">
         <v>101.14</v>
@@ -8906,7 +8906,7 @@
         <v>0.01064380952380952</v>
       </c>
       <c r="S134" t="n">
-        <v>282.3900737194859</v>
+        <v>37.30180315263352</v>
       </c>
     </row>
     <row r="135">
@@ -8936,7 +8936,7 @@
         <v>7.944444444444443</v>
       </c>
       <c r="H135" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I135" t="n">
         <v>101.31</v>
@@ -8969,7 +8969,7 @@
         <v>0.01080507936507936</v>
       </c>
       <c r="S135" t="n">
-        <v>711.0367128979627</v>
+        <v>80.08108084919014</v>
       </c>
     </row>
     <row r="136">
@@ -8999,7 +8999,7 @@
         <v>7.555555555555556</v>
       </c>
       <c r="H136" t="n">
-        <v>38.4</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="I136" t="n">
         <v>101.11</v>
@@ -9032,7 +9032,7 @@
         <v>0.01096634920634921</v>
       </c>
       <c r="S136" t="n">
-        <v>652.212231525944</v>
+        <v>75.76910281002469</v>
       </c>
     </row>
     <row r="137">
@@ -9062,7 +9062,7 @@
         <v>12.11111111111111</v>
       </c>
       <c r="H137" t="n">
-        <v>36.4</v>
+        <v>2.444444444444444</v>
       </c>
       <c r="I137" t="n">
         <v>100.38</v>
@@ -9095,7 +9095,7 @@
         <v>0.01112761904761905</v>
       </c>
       <c r="S137" t="n">
-        <v>430.8967615214502</v>
+        <v>51.60250204807553</v>
       </c>
     </row>
     <row r="138">
@@ -9125,7 +9125,7 @@
         <v>11.66666666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>45.8</v>
+        <v>7.666666666666665</v>
       </c>
       <c r="I138" t="n">
         <v>100.79</v>
@@ -9158,7 +9158,7 @@
         <v>0.01128888888888889</v>
       </c>
       <c r="S138" t="n">
-        <v>731.1806553688915</v>
+        <v>76.44945684383347</v>
       </c>
     </row>
     <row r="139">
@@ -9188,7 +9188,7 @@
         <v>5.555555555555555</v>
       </c>
       <c r="H139" t="n">
-        <v>37.7</v>
+        <v>3.166666666666668</v>
       </c>
       <c r="I139" t="n">
         <v>100.99</v>
@@ -9221,7 +9221,7 @@
         <v>0.01145015873015873</v>
       </c>
       <c r="S139" t="n">
-        <v>720.5400304539356</v>
+        <v>84.59363955951495</v>
       </c>
     </row>
     <row r="140">
@@ -9251,7 +9251,7 @@
         <v>8.944444444444446</v>
       </c>
       <c r="H140" t="n">
-        <v>42.1</v>
+        <v>5.611111111111112</v>
       </c>
       <c r="I140" t="n">
         <v>100.63</v>
@@ -9284,7 +9284,7 @@
         <v>0.01161142857142857</v>
       </c>
       <c r="S140" t="n">
-        <v>723.2933136502204</v>
+        <v>79.60738919354453</v>
       </c>
     </row>
     <row r="141">
@@ -9314,7 +9314,7 @@
         <v>7.555555555555556</v>
       </c>
       <c r="H141" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I141" t="n">
         <v>101.21</v>
@@ -9347,7 +9347,7 @@
         <v>0.01177269841269841</v>
       </c>
       <c r="S141" t="n">
-        <v>765.9292221042849</v>
+        <v>85.14806839844871</v>
       </c>
     </row>
     <row r="142">
@@ -9377,7 +9377,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>39.8</v>
+        <v>4.333333333333332</v>
       </c>
       <c r="I142" t="n">
         <v>101.03</v>
@@ -9410,7 +9410,7 @@
         <v>0.01193396825396825</v>
       </c>
       <c r="S142" t="n">
-        <v>570.2169328034489</v>
+        <v>64.88180065655949</v>
       </c>
     </row>
     <row r="143">
@@ -9440,7 +9440,7 @@
         <v>9.444444444444445</v>
       </c>
       <c r="H143" t="n">
-        <v>36.9</v>
+        <v>2.722222222222221</v>
       </c>
       <c r="I143" t="n">
         <v>100.62</v>
@@ -9473,7 +9473,7 @@
         <v>0.0120952380952381</v>
       </c>
       <c r="S143" t="n">
-        <v>528.8680994055163</v>
+        <v>62.85095606274962</v>
       </c>
     </row>
     <row r="144">
@@ -9503,7 +9503,7 @@
         <v>11.22222222222222</v>
       </c>
       <c r="H144" t="n">
-        <v>39</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="I144" t="n">
         <v>100.01</v>
@@ -9536,7 +9536,7 @@
         <v>0.01225650793650794</v>
       </c>
       <c r="S144" t="n">
-        <v>526.4131757054839</v>
+        <v>60.60976243791077</v>
       </c>
     </row>
     <row r="145">
@@ -9566,7 +9566,7 @@
         <v>16.72222222222222</v>
       </c>
       <c r="H145" t="n">
-        <v>40.4</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="I145" t="n">
         <v>99.78</v>
@@ -9599,7 +9599,7 @@
         <v>0.01241777777777778</v>
       </c>
       <c r="S145" t="n">
-        <v>397.0959167195156</v>
+        <v>44.78841192931301</v>
       </c>
     </row>
     <row r="146">
@@ -9629,7 +9629,7 @@
         <v>12.77777777777778</v>
       </c>
       <c r="H146" t="n">
-        <v>42.1</v>
+        <v>5.611111111111112</v>
       </c>
       <c r="I146" t="n">
         <v>100.83</v>
@@ -9662,7 +9662,7 @@
         <v>0.01257904761904762</v>
       </c>
       <c r="S146" t="n">
-        <v>560.5264233960419</v>
+        <v>61.69287659436755</v>
       </c>
     </row>
     <row r="147">
@@ -9692,7 +9692,7 @@
         <v>10.5</v>
       </c>
       <c r="H147" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I147" t="n">
         <v>100.94</v>
@@ -9725,7 +9725,7 @@
         <v>0.01274031746031746</v>
       </c>
       <c r="S147" t="n">
-        <v>690.3755617483108</v>
+        <v>74.81312160717765</v>
       </c>
     </row>
     <row r="148">
@@ -9755,7 +9755,7 @@
         <v>6.888888888888888</v>
       </c>
       <c r="H148" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I148" t="n">
         <v>101.2</v>
@@ -9788,7 +9788,7 @@
         <v>0.0129015873015873</v>
       </c>
       <c r="S148" t="n">
-        <v>764.2242771937555</v>
+        <v>86.07137299484215</v>
       </c>
     </row>
     <row r="149">
@@ -9818,7 +9818,7 @@
         <v>9.388888888888889</v>
       </c>
       <c r="H149" t="n">
-        <v>37.1</v>
+        <v>2.833333333333334</v>
       </c>
       <c r="I149" t="n">
         <v>100.93</v>
@@ -9851,7 +9851,7 @@
         <v>0.01306285714285714</v>
       </c>
       <c r="S149" t="n">
-        <v>536.6858817776613</v>
+        <v>63.58547917068508</v>
       </c>
     </row>
     <row r="150">
@@ -9881,7 +9881,7 @@
         <v>7.888888888888891</v>
       </c>
       <c r="H150" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I150" t="n">
         <v>101.09</v>
@@ -9914,7 +9914,7 @@
         <v>0.01322412698412698</v>
       </c>
       <c r="S150" t="n">
-        <v>785.1878833276035</v>
+        <v>86.17438542651885</v>
       </c>
     </row>
     <row r="151">
@@ -9944,7 +9944,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I151" t="n">
         <v>101.02</v>
@@ -9977,7 +9977,7 @@
         <v>0.01338539682539682</v>
       </c>
       <c r="S151" t="n">
-        <v>516.9422112419279</v>
+        <v>59.69665846864679</v>
       </c>
     </row>
     <row r="152">
@@ -10007,7 +10007,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H152" t="n">
-        <v>32.6</v>
+        <v>0.3333333333333341</v>
       </c>
       <c r="I152" t="n">
         <v>101.42</v>
@@ -10040,7 +10040,7 @@
         <v>0.01354666666666667</v>
       </c>
       <c r="S152" t="n">
-        <v>445.5350808468123</v>
+        <v>56.6605987699016</v>
       </c>
     </row>
     <row r="153">
@@ -10070,7 +10070,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H153" t="n">
-        <v>31</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="I153" t="n">
         <v>100.51</v>
@@ -10103,7 +10103,7 @@
         <v>0.01370793650793651</v>
       </c>
       <c r="S153" t="n">
-        <v>347.8361303352094</v>
+        <v>45.41331346230418</v>
       </c>
     </row>
     <row r="154">
@@ -10133,7 +10133,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H154" t="n">
-        <v>33</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I154" t="n">
         <v>100.08</v>
@@ -10166,7 +10166,7 @@
         <v>0.01386920634920635</v>
       </c>
       <c r="S154" t="n">
-        <v>330.4202242489334</v>
+        <v>41.749664172744</v>
       </c>
     </row>
     <row r="155">
@@ -10196,7 +10196,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H155" t="n">
-        <v>39.4</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="I155" t="n">
         <v>99.78999999999999</v>
@@ -10229,7 +10229,7 @@
         <v>0.01403047619047619</v>
       </c>
       <c r="S155" t="n">
-        <v>553.9893957326259</v>
+        <v>63.40793834783279</v>
       </c>
     </row>
     <row r="156">
@@ -10259,7 +10259,7 @@
         <v>18.38888888888889</v>
       </c>
       <c r="H156" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>99.67999999999999</v>
@@ -10292,7 +10292,7 @@
         <v>0.01419174603174603</v>
       </c>
       <c r="S156" t="n">
-        <v>225.1711099660008</v>
+        <v>28.91749596966125</v>
       </c>
     </row>
     <row r="157">
@@ -10322,7 +10322,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H157" t="n">
-        <v>42.6</v>
+        <v>5.88888888888889</v>
       </c>
       <c r="I157" t="n">
         <v>99.84999999999999</v>
@@ -10355,7 +10355,7 @@
         <v>0.01435301587301587</v>
       </c>
       <c r="S157" t="n">
-        <v>499.9233276750131</v>
+        <v>54.63399213932345</v>
       </c>
     </row>
     <row r="158">
@@ -10385,7 +10385,7 @@
         <v>15.11111111111111</v>
       </c>
       <c r="H158" t="n">
-        <v>55.6</v>
+        <v>13.11111111111111</v>
       </c>
       <c r="I158" t="n">
         <v>99.66</v>
@@ -10418,7 +10418,7 @@
         <v>0.01451428571428571</v>
       </c>
       <c r="S158" t="n">
-        <v>950.8672589571833</v>
+        <v>87.83843683565158</v>
       </c>
     </row>
     <row r="159">
@@ -10448,7 +10448,7 @@
         <v>12.66666666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>48.1</v>
+        <v>8.944444444444446</v>
       </c>
       <c r="I159" t="n">
         <v>100.58</v>
@@ -10481,7 +10481,7 @@
         <v>0.01467555555555556</v>
       </c>
       <c r="S159" t="n">
-        <v>769.8100456394835</v>
+        <v>78.06282001166744</v>
       </c>
     </row>
     <row r="160">
@@ -10511,7 +10511,7 @@
         <v>15</v>
       </c>
       <c r="H160" t="n">
-        <v>51.2</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="I160" t="n">
         <v>99.77000000000001</v>
@@ -10544,7 +10544,7 @@
         <v>0.0148368253968254</v>
       </c>
       <c r="S160" t="n">
-        <v>772.5887297236105</v>
+        <v>75.29339012661403</v>
       </c>
     </row>
     <row r="161">
@@ -10574,7 +10574,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="H161" t="n">
-        <v>46.6</v>
+        <v>8.111111111111112</v>
       </c>
       <c r="I161" t="n">
         <v>100.76</v>
@@ -10607,7 +10607,7 @@
         <v>0.01499809523809524</v>
       </c>
       <c r="S161" t="n">
-        <v>778.7816200710301</v>
+        <v>80.5554413988483</v>
       </c>
     </row>
     <row r="162">
@@ -10637,7 +10637,7 @@
         <v>10.05555555555556</v>
       </c>
       <c r="H162" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I162" t="n">
         <v>100.86</v>
@@ -10670,7 +10670,7 @@
         <v>0.01515936507936508</v>
       </c>
       <c r="S162" t="n">
-        <v>722.4263397722035</v>
+        <v>77.95855506887574</v>
       </c>
     </row>
     <row r="163">
@@ -10700,7 +10700,7 @@
         <v>12.05555555555556</v>
       </c>
       <c r="H163" t="n">
-        <v>42.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I163" t="n">
         <v>100.89</v>
@@ -10733,7 +10733,7 @@
         <v>0.01532063492063492</v>
       </c>
       <c r="S163" t="n">
-        <v>609.8164213868787</v>
+        <v>66.45579582704634</v>
       </c>
     </row>
     <row r="164">
@@ -10763,7 +10763,7 @@
         <v>15.38888888888889</v>
       </c>
       <c r="H164" t="n">
-        <v>42.4</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="I164" t="n">
         <v>100.41</v>
@@ -10796,7 +10796,7 @@
         <v>0.01548190476190476</v>
       </c>
       <c r="S164" t="n">
-        <v>480.7530089150803</v>
+        <v>52.68788172521047</v>
       </c>
     </row>
     <row r="165">
@@ -10826,7 +10826,7 @@
         <v>17.94444444444444</v>
       </c>
       <c r="H165" t="n">
-        <v>41.5</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="I165" t="n">
         <v>99.88</v>
@@ -10859,7 +10859,7 @@
         <v>0.0156431746031746</v>
       </c>
       <c r="S165" t="n">
-        <v>389.6994811152073</v>
+        <v>43.2605827997531</v>
       </c>
     </row>
     <row r="166">
@@ -10889,7 +10889,7 @@
         <v>14.22222222222222</v>
       </c>
       <c r="H166" t="n">
-        <v>45</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="I166" t="n">
         <v>100.26</v>
@@ -10922,7 +10922,7 @@
         <v>0.01580444444444444</v>
       </c>
       <c r="S166" t="n">
-        <v>593.6061159529407</v>
+        <v>62.74379665650298</v>
       </c>
     </row>
     <row r="167">
@@ -10952,7 +10952,7 @@
         <v>17.94444444444444</v>
       </c>
       <c r="H167" t="n">
-        <v>39.4</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="I167" t="n">
         <v>99.90000000000001</v>
@@ -10985,7 +10985,7 @@
         <v>0.01596571428571428</v>
       </c>
       <c r="S167" t="n">
-        <v>348.3853075181123</v>
+        <v>39.87512084267549</v>
       </c>
     </row>
     <row r="168">
@@ -11015,7 +11015,7 @@
         <v>19.55555555555556</v>
       </c>
       <c r="H168" t="n">
-        <v>47.1</v>
+        <v>8.388888888888889</v>
       </c>
       <c r="I168" t="n">
         <v>99.81</v>
@@ -11048,7 +11048,7 @@
         <v>0.01612698412698413</v>
       </c>
       <c r="S168" t="n">
-        <v>471.3063805669973</v>
+        <v>48.42723603000955</v>
       </c>
     </row>
     <row r="169">
@@ -11078,7 +11078,7 @@
         <v>17.66666666666666</v>
       </c>
       <c r="H169" t="n">
-        <v>53.5</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="I169" t="n">
         <v>99.83</v>
@@ -11111,7 +11111,7 @@
         <v>0.01628825396825397</v>
       </c>
       <c r="S169" t="n">
-        <v>729.8650253130678</v>
+        <v>69.1390359990192</v>
       </c>
     </row>
     <row r="170">
@@ -11141,7 +11141,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H170" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I170" t="n">
         <v>99.69</v>
@@ -11174,7 +11174,7 @@
         <v>0.01644952380952381</v>
       </c>
       <c r="S170" t="n">
-        <v>982.3374103618356</v>
+        <v>89.17056733290423</v>
       </c>
     </row>
     <row r="171">
@@ -11204,7 +11204,7 @@
         <v>13.5</v>
       </c>
       <c r="H171" t="n">
-        <v>50.1</v>
+        <v>10.05555555555556</v>
       </c>
       <c r="I171" t="n">
         <v>100.29</v>
@@ -11237,7 +11237,7 @@
         <v>0.01661079365079365</v>
       </c>
       <c r="S171" t="n">
-        <v>806.0889547940093</v>
+        <v>79.65778904668875</v>
       </c>
     </row>
     <row r="172">
@@ -11267,7 +11267,7 @@
         <v>16.38888888888889</v>
       </c>
       <c r="H172" t="n">
-        <v>57.6</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="I172" t="n">
         <v>100</v>
@@ -11300,7 +11300,7 @@
         <v>0.01677206349206349</v>
       </c>
       <c r="S172" t="n">
-        <v>964.0331254465912</v>
+        <v>87.00682771180523</v>
       </c>
     </row>
     <row r="173">
@@ -11330,7 +11330,7 @@
         <v>13.94444444444445</v>
       </c>
       <c r="H173" t="n">
-        <v>53.2</v>
+        <v>11.77777777777778</v>
       </c>
       <c r="I173" t="n">
         <v>100.23</v>
@@ -11363,7 +11363,7 @@
         <v>0.01693333333333333</v>
       </c>
       <c r="S173" t="n">
-        <v>912.7012509457763</v>
+        <v>86.77509157401316</v>
       </c>
     </row>
     <row r="174">
@@ -11393,7 +11393,7 @@
         <v>11.16666666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>44.1</v>
+        <v>6.722222222222223</v>
       </c>
       <c r="I174" t="n">
         <v>100.62</v>
@@ -11426,7 +11426,7 @@
         <v>0.01709460317460317</v>
       </c>
       <c r="S174" t="n">
-        <v>692.1861933091171</v>
+        <v>74.07497622465404</v>
       </c>
     </row>
     <row r="175">
@@ -11456,7 +11456,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H175" t="n">
-        <v>36.7</v>
+        <v>2.611111111111113</v>
       </c>
       <c r="I175" t="n">
         <v>100.53</v>
@@ -11489,7 +11489,7 @@
         <v>0.01725587301587302</v>
       </c>
       <c r="S175" t="n">
-        <v>408.7489482131576</v>
+        <v>48.72497147667511</v>
       </c>
     </row>
     <row r="176">
@@ -11519,7 +11519,7 @@
         <v>14.5</v>
       </c>
       <c r="H176" t="n">
-        <v>44.4</v>
+        <v>6.888888888888888</v>
       </c>
       <c r="I176" t="n">
         <v>100.37</v>
@@ -11552,7 +11552,7 @@
         <v>0.01741714285714286</v>
       </c>
       <c r="S176" t="n">
-        <v>565.1888911644921</v>
+        <v>60.23413530752766</v>
       </c>
     </row>
     <row r="177">
@@ -11582,7 +11582,7 @@
         <v>11.05555555555556</v>
       </c>
       <c r="H177" t="n">
-        <v>46.8</v>
+        <v>8.222222222222221</v>
       </c>
       <c r="I177" t="n">
         <v>100.91</v>
@@ -11615,7 +11615,7 @@
         <v>0.0175784126984127</v>
       </c>
       <c r="S177" t="n">
-        <v>801.4104380113056</v>
+        <v>82.67508323065744</v>
       </c>
     </row>
     <row r="178">
@@ -11645,7 +11645,7 @@
         <v>11.16666666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>39.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I178" t="n">
         <v>101.13</v>
@@ -11678,7 +11678,7 @@
         <v>0.01773968253968254</v>
       </c>
       <c r="S178" t="n">
-        <v>542.7671931298974</v>
+        <v>62.03182924008309</v>
       </c>
     </row>
     <row r="179">
@@ -11708,7 +11708,7 @@
         <v>19.55555555555556</v>
       </c>
       <c r="H179" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I179" t="n">
         <v>100.13</v>
@@ -11741,7 +11741,7 @@
         <v>0.01790095238095238</v>
       </c>
       <c r="S179" t="n">
-        <v>434.2137959109508</v>
+        <v>45.58460549004126</v>
       </c>
     </row>
     <row r="180">
@@ -11771,7 +11771,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H180" t="n">
-        <v>42</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I180" t="n">
         <v>100.9</v>
@@ -11804,7 +11804,7 @@
         <v>0.01806222222222222</v>
       </c>
       <c r="S180" t="n">
-        <v>543.5717506290779</v>
+        <v>59.91206077485182</v>
       </c>
     </row>
     <row r="181">
@@ -11834,7 +11834,7 @@
         <v>14.5</v>
       </c>
       <c r="H181" t="n">
-        <v>39.7</v>
+        <v>4.277777777777779</v>
       </c>
       <c r="I181" t="n">
         <v>100.72</v>
@@ -11867,7 +11867,7 @@
         <v>0.01822349206349206</v>
       </c>
       <c r="S181" t="n">
-        <v>441.0389890859872</v>
+        <v>50.25719963832989</v>
       </c>
     </row>
     <row r="182">
@@ -11897,7 +11897,7 @@
         <v>14.11111111111111</v>
       </c>
       <c r="H182" t="n">
-        <v>44.7</v>
+        <v>7.055555555555557</v>
       </c>
       <c r="I182" t="n">
         <v>100.42</v>
@@ -11930,7 +11930,7 @@
         <v>0.0183847619047619</v>
       </c>
       <c r="S182" t="n">
-        <v>588.6855960706854</v>
+        <v>62.47991490421191</v>
       </c>
     </row>
     <row r="183">
@@ -11960,7 +11960,7 @@
         <v>17.33333333333334</v>
       </c>
       <c r="H183" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I183" t="n">
         <v>100.1</v>
@@ -11993,7 +11993,7 @@
         <v>0.01854603174603175</v>
       </c>
       <c r="S183" t="n">
-        <v>438.3315769947332</v>
+        <v>47.63367841070085</v>
       </c>
     </row>
     <row r="184">
@@ -12023,7 +12023,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H184" t="n">
-        <v>43.9</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="I184" t="n">
         <v>99.69</v>
@@ -12056,7 +12056,7 @@
         <v>0.01870730158730158</v>
       </c>
       <c r="S184" t="n">
-        <v>380.8609969106269</v>
+        <v>40.87134631355077</v>
       </c>
     </row>
     <row r="185">
@@ -12086,7 +12086,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H185" t="n">
-        <v>52.1</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I185" t="n">
         <v>99.95</v>
@@ -12119,7 +12119,7 @@
         <v>0.01886857142857143</v>
       </c>
       <c r="S185" t="n">
-        <v>720.9075421267798</v>
+        <v>69.47316934966362</v>
       </c>
     </row>
     <row r="186">
@@ -12149,7 +12149,7 @@
         <v>16.33333333333333</v>
       </c>
       <c r="H186" t="n">
-        <v>57</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="I186" t="n">
         <v>100.27</v>
@@ -12182,7 +12182,7 @@
         <v>0.01902984126984127</v>
       </c>
       <c r="S186" t="n">
-        <v>940.2384518039888</v>
+        <v>85.44779179896713</v>
       </c>
     </row>
     <row r="187">
@@ -12212,7 +12212,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="H187" t="n">
-        <v>56.5</v>
+        <v>13.61111111111111</v>
       </c>
       <c r="I187" t="n">
         <v>100.1</v>
@@ -12245,7 +12245,7 @@
         <v>0.01919111111111111</v>
       </c>
       <c r="S187" t="n">
-        <v>792.2596872706852</v>
+        <v>72.41872480635384</v>
       </c>
     </row>
     <row r="188">
@@ -12275,7 +12275,7 @@
         <v>19.77777777777778</v>
       </c>
       <c r="H188" t="n">
-        <v>54.7</v>
+        <v>12.61111111111111</v>
       </c>
       <c r="I188" t="n">
         <v>99.67999999999999</v>
@@ -12308,7 +12308,7 @@
         <v>0.01935238095238095</v>
       </c>
       <c r="S188" t="n">
-        <v>677.9366771281774</v>
+        <v>63.29844857177244</v>
       </c>
     </row>
     <row r="189">
@@ -12338,7 +12338,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H189" t="n">
-        <v>57.4</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="I189" t="n">
         <v>99.69</v>
@@ -12371,7 +12371,7 @@
         <v>0.01951365079365079</v>
       </c>
       <c r="S189" t="n">
-        <v>856.3156986140121</v>
+        <v>77.46276210357732</v>
       </c>
     </row>
     <row r="190">
@@ -12401,7 +12401,7 @@
         <v>19.55555555555556</v>
       </c>
       <c r="H190" t="n">
-        <v>58.7</v>
+        <v>14.83333333333334</v>
       </c>
       <c r="I190" t="n">
         <v>99.61</v>
@@ -12434,7 +12434,7 @@
         <v>0.01967492063492064</v>
       </c>
       <c r="S190" t="n">
-        <v>832.0080410212471</v>
+        <v>74.1568179777671</v>
       </c>
     </row>
     <row r="191">
@@ -12464,7 +12464,7 @@
         <v>16.94444444444445</v>
       </c>
       <c r="H191" t="n">
-        <v>57.9</v>
+        <v>14.38888888888889</v>
       </c>
       <c r="I191" t="n">
         <v>99.83</v>
@@ -12497,7 +12497,7 @@
         <v>0.01983619047619047</v>
       </c>
       <c r="S191" t="n">
-        <v>943.9129562729464</v>
+        <v>84.89888634769332</v>
       </c>
     </row>
     <row r="192">
@@ -12527,7 +12527,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H192" t="n">
-        <v>56.3</v>
+        <v>13.5</v>
       </c>
       <c r="I192" t="n">
         <v>99.82000000000001</v>
@@ -12560,7 +12560,7 @@
         <v>0.01999746031746032</v>
       </c>
       <c r="S192" t="n">
-        <v>690.6566904852389</v>
+        <v>63.27886224991435</v>
       </c>
     </row>
     <row r="193">
@@ -12590,7 +12590,7 @@
         <v>18.88888888888889</v>
       </c>
       <c r="H193" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I193" t="n">
         <v>99.59</v>
@@ -12623,7 +12623,7 @@
         <v>0.02015873015873016</v>
       </c>
       <c r="S193" t="n">
-        <v>804.0140489143441</v>
+        <v>72.98346589377012</v>
       </c>
     </row>
     <row r="194">
@@ -12653,7 +12653,7 @@
         <v>12.83333333333333</v>
       </c>
       <c r="H194" t="n">
-        <v>53.5</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="I194" t="n">
         <v>100.76</v>
@@ -12686,7 +12686,7 @@
         <v>0.02032</v>
       </c>
       <c r="S194" t="n">
-        <v>995.7548465637694</v>
+        <v>94.32638610575941</v>
       </c>
     </row>
     <row r="195">
@@ -12716,7 +12716,7 @@
         <v>14.05555555555556</v>
       </c>
       <c r="H195" t="n">
-        <v>53.7</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="I195" t="n">
         <v>100.78</v>
@@ -12749,7 +12749,7 @@
         <v>0.02048126984126984</v>
       </c>
       <c r="S195" t="n">
-        <v>928.5235179588698</v>
+        <v>87.7445674280663</v>
       </c>
     </row>
     <row r="196">
@@ -12779,7 +12779,7 @@
         <v>16.94444444444445</v>
       </c>
       <c r="H196" t="n">
-        <v>58.9</v>
+        <v>14.94444444444444</v>
       </c>
       <c r="I196" t="n">
         <v>99.57000000000001</v>
@@ -12812,7 +12812,7 @@
         <v>0.02064253968253968</v>
       </c>
       <c r="S196" t="n">
-        <v>989.5411965333813</v>
+        <v>87.99899057427233</v>
       </c>
     </row>
     <row r="197">
@@ -12842,7 +12842,7 @@
         <v>14.33333333333333</v>
       </c>
       <c r="H197" t="n">
-        <v>55.6</v>
+        <v>13.11111111111111</v>
       </c>
       <c r="I197" t="n">
         <v>100.28</v>
@@ -12875,7 +12875,7 @@
         <v>0.02080380952380952</v>
       </c>
       <c r="S197" t="n">
-        <v>999.8077795458331</v>
+        <v>92.35942416162661</v>
       </c>
     </row>
     <row r="198">
@@ -12905,7 +12905,7 @@
         <v>15.33333333333333</v>
       </c>
       <c r="H198" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I198" t="n">
         <v>100.51</v>
@@ -12938,7 +12938,7 @@
         <v>0.02096507936507936</v>
       </c>
       <c r="S198" t="n">
-        <v>871.8206273370922</v>
+        <v>81.98914856139355</v>
       </c>
     </row>
     <row r="199">
@@ -12968,7 +12968,7 @@
         <v>18</v>
       </c>
       <c r="H199" t="n">
-        <v>57.9</v>
+        <v>14.38888888888889</v>
       </c>
       <c r="I199" t="n">
         <v>100.23</v>
@@ -13001,7 +13001,7 @@
         <v>0.0211263492063492</v>
       </c>
       <c r="S199" t="n">
-        <v>883.0207493342363</v>
+        <v>79.42202481931433</v>
       </c>
     </row>
     <row r="200">
@@ -13031,7 +13031,7 @@
         <v>17.11111111111111</v>
       </c>
       <c r="H200" t="n">
-        <v>51.2</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="I200" t="n">
         <v>100.34</v>
@@ -13064,7 +13064,7 @@
         <v>0.02128761904761905</v>
       </c>
       <c r="S200" t="n">
-        <v>675.1364473219963</v>
+        <v>65.79608265201671</v>
       </c>
     </row>
     <row r="201">
@@ -13094,7 +13094,7 @@
         <v>14</v>
       </c>
       <c r="H201" t="n">
-        <v>52</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I201" t="n">
         <v>100.1</v>
@@ -13127,7 +13127,7 @@
         <v>0.02144888888888889</v>
       </c>
       <c r="S201" t="n">
-        <v>857.4070539132474</v>
+        <v>82.72995779837451</v>
       </c>
     </row>
     <row r="202">
@@ -13157,7 +13157,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="H202" t="n">
-        <v>46.9</v>
+        <v>8.277777777777777</v>
       </c>
       <c r="I202" t="n">
         <v>100.88</v>
@@ -13190,7 +13190,7 @@
         <v>0.02161015873015873</v>
       </c>
       <c r="S202" t="n">
-        <v>790.8059110449071</v>
+        <v>81.47248990365919</v>
       </c>
     </row>
     <row r="203">
@@ -13220,7 +13220,7 @@
         <v>8.222222222222221</v>
       </c>
       <c r="H203" t="n">
-        <v>45.6</v>
+        <v>7.555555555555556</v>
       </c>
       <c r="I203" t="n">
         <v>101.61</v>
@@ -13253,7 +13253,7 @@
         <v>0.02177142857142857</v>
       </c>
       <c r="S203" t="n">
-        <v>911.5116648849399</v>
+        <v>95.56254466038069</v>
       </c>
     </row>
     <row r="204">
@@ -13283,7 +13283,7 @@
         <v>10.55555555555556</v>
       </c>
       <c r="H204" t="n">
-        <v>42.1</v>
+        <v>5.611111111111112</v>
       </c>
       <c r="I204" t="n">
         <v>101.65</v>
@@ -13316,7 +13316,7 @@
         <v>0.02193269841269841</v>
       </c>
       <c r="S204" t="n">
-        <v>649.1926825016145</v>
+        <v>71.45169679046631</v>
       </c>
     </row>
     <row r="205">
@@ -13346,7 +13346,7 @@
         <v>6.277777777777777</v>
       </c>
       <c r="H205" t="n">
-        <v>37</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I205" t="n">
         <v>102.25</v>
@@ -13379,7 +13379,7 @@
         <v>0.02209396825396825</v>
       </c>
       <c r="S205" t="n">
-        <v>659.752146537513</v>
+        <v>78.2855304171091</v>
       </c>
     </row>
     <row r="206">
@@ -13409,7 +13409,7 @@
         <v>7.666666666666665</v>
       </c>
       <c r="H206" t="n">
-        <v>37.3</v>
+        <v>2.944444444444443</v>
       </c>
       <c r="I206" t="n">
         <v>102.13</v>
@@ -13442,7 +13442,7 @@
         <v>0.02225523809523809</v>
       </c>
       <c r="S206" t="n">
-        <v>609.7185054201891</v>
+        <v>72.01850380918987</v>
       </c>
     </row>
     <row r="207">
@@ -13472,7 +13472,7 @@
         <v>8.722222222222225</v>
       </c>
       <c r="H207" t="n">
-        <v>34.5</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="I207" t="n">
         <v>101.92</v>
@@ -13505,7 +13505,7 @@
         <v>0.02241650793650794</v>
       </c>
       <c r="S207" t="n">
-        <v>486.3725198996033</v>
+        <v>59.99916450150168</v>
       </c>
     </row>
     <row r="208">
@@ -13535,7 +13535,7 @@
         <v>8.499999999999998</v>
       </c>
       <c r="H208" t="n">
-        <v>40.2</v>
+        <v>4.555555555555557</v>
       </c>
       <c r="I208" t="n">
         <v>102.05</v>
@@ -13568,7 +13568,7 @@
         <v>0.02257777777777778</v>
       </c>
       <c r="S208" t="n">
-        <v>673.8309199521065</v>
+        <v>76.22343181250795</v>
       </c>
     </row>
     <row r="209">
@@ -13598,7 +13598,7 @@
         <v>6.388888888888889</v>
       </c>
       <c r="H209" t="n">
-        <v>35.6</v>
+        <v>2.000000000000001</v>
       </c>
       <c r="I209" t="n">
         <v>102.4</v>
@@ -13631,7 +13631,7 @@
         <v>0.02273904761904762</v>
       </c>
       <c r="S209" t="n">
-        <v>606.2312814080044</v>
+        <v>73.50503108042831</v>
       </c>
     </row>
     <row r="210">
@@ -13661,7 +13661,7 @@
         <v>8.055555555555555</v>
       </c>
       <c r="H210" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>102.28</v>
@@ -13694,7 +13694,7 @@
         <v>0.02290031746031746</v>
       </c>
       <c r="S210" t="n">
-        <v>442.1893265756894</v>
+        <v>56.78796036938514</v>
       </c>
     </row>
     <row r="211">
@@ -13724,7 +13724,7 @@
         <v>9.555555555555557</v>
       </c>
       <c r="H211" t="n">
-        <v>34.2</v>
+        <v>1.222222222222224</v>
       </c>
       <c r="I211" t="n">
         <v>101.46</v>
@@ -13757,7 +13757,7 @@
         <v>0.0230615873015873</v>
       </c>
       <c r="S211" t="n">
-        <v>452.1790779380295</v>
+        <v>56.04686908344668</v>
       </c>
     </row>
     <row r="212">
@@ -13787,7 +13787,7 @@
         <v>11.16666666666667</v>
       </c>
       <c r="H212" t="n">
-        <v>46.1</v>
+        <v>7.833333333333335</v>
       </c>
       <c r="I212" t="n">
         <v>100.89</v>
@@ -13820,7 +13820,7 @@
         <v>0.02322285714285714</v>
       </c>
       <c r="S212" t="n">
-        <v>767.5268633327801</v>
+        <v>79.92557404694345</v>
       </c>
     </row>
     <row r="213">
@@ -13850,7 +13850,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H213" t="n">
-        <v>45.2</v>
+        <v>7.333333333333335</v>
       </c>
       <c r="I213" t="n">
         <v>101.05</v>
@@ -13883,7 +13883,7 @@
         <v>0.02338412698412698</v>
       </c>
       <c r="S213" t="n">
-        <v>828.2930495306774</v>
+        <v>87.31137771458931</v>
       </c>
     </row>
     <row r="214">
@@ -13913,7 +13913,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="H214" t="n">
-        <v>46.2</v>
+        <v>7.888888888888891</v>
       </c>
       <c r="I214" t="n">
         <v>100.92</v>
@@ -13946,7 +13946,7 @@
         <v>0.02354539682539682</v>
       </c>
       <c r="S214" t="n">
-        <v>898.5470097552318</v>
+        <v>93.44342850990361</v>
       </c>
     </row>
     <row r="215">
@@ -13976,7 +13976,7 @@
         <v>13.22222222222222</v>
       </c>
       <c r="H215" t="n">
-        <v>45.3</v>
+        <v>7.388888888888888</v>
       </c>
       <c r="I215" t="n">
         <v>100.88</v>
@@ -14009,7 +14009,7 @@
         <v>0.02370666666666667</v>
       </c>
       <c r="S215" t="n">
-        <v>643.382349749344</v>
+        <v>67.72739922114475</v>
       </c>
     </row>
     <row r="216">
@@ -14039,7 +14039,7 @@
         <v>10.88888888888889</v>
       </c>
       <c r="H216" t="n">
-        <v>47.6</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="I216" t="n">
         <v>101.05</v>
@@ -14072,7 +14072,7 @@
         <v>0.0238679365079365</v>
       </c>
       <c r="S216" t="n">
-        <v>844.0225796174111</v>
+        <v>86.15244985632241</v>
       </c>
     </row>
     <row r="217">
@@ -14102,7 +14102,7 @@
         <v>8.722222222222225</v>
       </c>
       <c r="H217" t="n">
-        <v>42.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I217" t="n">
         <v>101.47</v>
@@ -14135,7 +14135,7 @@
         <v>0.02402920634920635</v>
       </c>
       <c r="S217" t="n">
-        <v>761.7862013990253</v>
+        <v>83.01696459550956</v>
       </c>
     </row>
     <row r="218">
@@ -14165,7 +14165,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H218" t="n">
-        <v>41.3</v>
+        <v>5.166666666666665</v>
       </c>
       <c r="I218" t="n">
         <v>101.69</v>
@@ -14198,7 +14198,7 @@
         <v>0.02419047619047619</v>
       </c>
       <c r="S218" t="n">
-        <v>675.3836844467127</v>
+        <v>75.19019571551404</v>
       </c>
     </row>
     <row r="219">
@@ -14228,7 +14228,7 @@
         <v>5.833333333333334</v>
       </c>
       <c r="H219" t="n">
-        <v>38.6</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="I219" t="n">
         <v>101.77</v>
@@ -14261,7 +14261,7 @@
         <v>0.02435174603174603</v>
       </c>
       <c r="S219" t="n">
-        <v>742.1638028584829</v>
+        <v>85.96142038987739</v>
       </c>
     </row>
     <row r="220">
@@ -14291,7 +14291,7 @@
         <v>7.166666666666666</v>
       </c>
       <c r="H220" t="n">
-        <v>36</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="I220" t="n">
         <v>101.7</v>
@@ -14324,7 +14324,7 @@
         <v>0.02451301587301587</v>
       </c>
       <c r="S220" t="n">
-        <v>587.5131653381618</v>
+        <v>70.79429418588568</v>
       </c>
     </row>
     <row r="221">
@@ -14354,7 +14354,7 @@
         <v>5.222222222222221</v>
       </c>
       <c r="H221" t="n">
-        <v>39.2</v>
+        <v>4.000000000000002</v>
       </c>
       <c r="I221" t="n">
         <v>101.91</v>
@@ -14387,7 +14387,7 @@
         <v>0.02467428571428571</v>
       </c>
       <c r="S221" t="n">
-        <v>799.7831359645864</v>
+        <v>91.8120029192505</v>
       </c>
     </row>
     <row r="222">
@@ -14417,7 +14417,7 @@
         <v>6.555555555555554</v>
       </c>
       <c r="H222" t="n">
-        <v>36.2</v>
+        <v>2.333333333333335</v>
       </c>
       <c r="I222" t="n">
         <v>102.06</v>
@@ -14450,7 +14450,7 @@
         <v>0.02483555555555556</v>
       </c>
       <c r="S222" t="n">
-        <v>619.4644501723291</v>
+        <v>74.41382292677611</v>
       </c>
     </row>
     <row r="223">
@@ -14480,7 +14480,7 @@
         <v>9.611111111111111</v>
       </c>
       <c r="H223" t="n">
-        <v>36.3</v>
+        <v>2.388888888888888</v>
       </c>
       <c r="I223" t="n">
         <v>101.21</v>
@@ -14513,7 +14513,7 @@
         <v>0.02499682539682539</v>
       </c>
       <c r="S223" t="n">
-        <v>506.0489252541136</v>
+        <v>60.69590911330572</v>
       </c>
     </row>
     <row r="224">
@@ -14543,7 +14543,7 @@
         <v>9.000000000000002</v>
       </c>
       <c r="H224" t="n">
-        <v>42.7</v>
+        <v>5.944444444444446</v>
       </c>
       <c r="I224" t="n">
         <v>100.89</v>
@@ -14576,7 +14576,7 @@
         <v>0.02515809523809524</v>
       </c>
       <c r="S224" t="n">
-        <v>743.707783944816</v>
+        <v>81.16121543788266</v>
       </c>
     </row>
     <row r="225">
@@ -14606,7 +14606,7 @@
         <v>8.333333333333334</v>
       </c>
       <c r="H225" t="n">
-        <v>42</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I225" t="n">
         <v>101.62</v>
@@ -14639,7 +14639,7 @@
         <v>0.02531936507936508</v>
       </c>
       <c r="S225" t="n">
-        <v>749.8683475246585</v>
+        <v>82.64991320472747</v>
       </c>
     </row>
     <row r="226">
@@ -14669,7 +14669,7 @@
         <v>7.055555555555557</v>
       </c>
       <c r="H226" t="n">
-        <v>39.9</v>
+        <v>4.388888888888888</v>
       </c>
       <c r="I226" t="n">
         <v>101.61</v>
@@ -14702,7 +14702,7 @@
         <v>0.02548063492063492</v>
       </c>
       <c r="S226" t="n">
-        <v>731.6890748773563</v>
+        <v>83.132668982406</v>
       </c>
     </row>
     <row r="227">
@@ -14732,7 +14732,7 @@
         <v>3.833333333333333</v>
       </c>
       <c r="H227" t="n">
-        <v>35</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I227" t="n">
         <v>102.4</v>
@@ -14765,7 +14765,7 @@
         <v>0.02564190476190476</v>
       </c>
       <c r="S227" t="n">
-        <v>700.6127572084309</v>
+        <v>85.74959523487084</v>
       </c>
     </row>
     <row r="228">
@@ -14795,7 +14795,7 @@
         <v>8.055555555555555</v>
       </c>
       <c r="H228" t="n">
-        <v>37.8</v>
+        <v>3.222222222222221</v>
       </c>
       <c r="I228" t="n">
         <v>101.59</v>
@@ -14828,7 +14828,7 @@
         <v>0.0258031746031746</v>
       </c>
       <c r="S228" t="n">
-        <v>610.1776948472445</v>
+        <v>71.52855113027572</v>
       </c>
     </row>
     <row r="229">
@@ -14858,7 +14858,7 @@
         <v>2.555555555555556</v>
       </c>
       <c r="H229" t="n">
-        <v>31.2</v>
+        <v>-0.4444444444444449</v>
       </c>
       <c r="I229" t="n">
         <v>102.45</v>
@@ -14891,7 +14891,7 @@
         <v>0.02596444444444444</v>
       </c>
       <c r="S229" t="n">
-        <v>619.2933957772919</v>
+        <v>80.58697927952707</v>
       </c>
     </row>
     <row r="230">
@@ -14921,7 +14921,7 @@
         <v>2.333333333333335</v>
       </c>
       <c r="H230" t="n">
-        <v>22.2</v>
+        <v>-5.444444444444445</v>
       </c>
       <c r="I230" t="n">
         <v>103.02</v>
@@ -14954,7 +14954,7 @@
         <v>0.02612571428571429</v>
       </c>
       <c r="S230" t="n">
-        <v>370.1226018066219</v>
+        <v>56.44877434811178</v>
       </c>
     </row>
     <row r="231">
@@ -14984,7 +14984,7 @@
         <v>2.388888888888888</v>
       </c>
       <c r="H231" t="n">
-        <v>29.8</v>
+        <v>-1.222222222222222</v>
       </c>
       <c r="I231" t="n">
         <v>102.25</v>
@@ -15017,7 +15017,7 @@
         <v>0.02628698412698412</v>
       </c>
       <c r="S231" t="n">
-        <v>578.3599613590209</v>
+        <v>77.0427452806605</v>
       </c>
     </row>
     <row r="232">
@@ -15047,7 +15047,7 @@
         <v>7.944444444444443</v>
       </c>
       <c r="H232" t="n">
-        <v>30.1</v>
+        <v>-1.055555555555555</v>
       </c>
       <c r="I232" t="n">
         <v>101.57</v>
@@ -15080,7 +15080,7 @@
         <v>0.02644825396825397</v>
       </c>
       <c r="S232" t="n">
-        <v>399.7505981761477</v>
+        <v>52.98192410363612</v>
       </c>
     </row>
     <row r="233">
@@ -15110,7 +15110,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H233" t="n">
-        <v>29.7</v>
+        <v>-1.277777777777778</v>
       </c>
       <c r="I233" t="n">
         <v>101.9</v>
@@ -15143,7 +15143,7 @@
         <v>0.02660952380952381</v>
       </c>
       <c r="S233" t="n">
-        <v>431.2481024093646</v>
+        <v>57.54325254689168</v>
       </c>
     </row>
     <row r="234">
@@ -15173,7 +15173,7 @@
         <v>3.722222222222224</v>
       </c>
       <c r="H234" t="n">
-        <v>32.4</v>
+        <v>0.2222222222222214</v>
       </c>
       <c r="I234" t="n">
         <v>102.42</v>
@@ -15206,7 +15206,7 @@
         <v>0.02677079365079365</v>
       </c>
       <c r="S234" t="n">
-        <v>610.4422345267208</v>
+        <v>77.88541647777038</v>
       </c>
     </row>
     <row r="235">
@@ -15236,7 +15236,7 @@
         <v>3.777777777777776</v>
       </c>
       <c r="H235" t="n">
-        <v>31.4</v>
+        <v>-0.3333333333333341</v>
       </c>
       <c r="I235" t="n">
         <v>102.68</v>
@@ -15269,7 +15269,7 @@
         <v>0.02693206349206349</v>
       </c>
       <c r="S235" t="n">
-        <v>574.5252402638552</v>
+        <v>74.51461618058219</v>
       </c>
     </row>
     <row r="236">
@@ -15299,7 +15299,7 @@
         <v>2.5</v>
       </c>
       <c r="H236" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="I236" t="n">
         <v>103.04</v>
@@ -15332,7 +15332,7 @@
         <v>0.02709333333333333</v>
       </c>
       <c r="S236" t="n">
-        <v>451.4738803969204</v>
+        <v>64.58030675096606</v>
       </c>
     </row>
     <row r="237">
@@ -15362,7 +15362,7 @@
         <v>2.388888888888888</v>
       </c>
       <c r="H237" t="n">
-        <v>21.8</v>
+        <v>-5.666666666666667</v>
       </c>
       <c r="I237" t="n">
         <v>102.98</v>
@@ -15395,7 +15395,7 @@
         <v>0.02725460317460317</v>
       </c>
       <c r="S237" t="n">
-        <v>359.7697780163361</v>
+        <v>55.2844345923689</v>
       </c>
     </row>
     <row r="238">
@@ -15425,7 +15425,7 @@
         <v>2.888888888888891</v>
       </c>
       <c r="H238" t="n">
-        <v>24.7</v>
+        <v>-4.055555555555556</v>
       </c>
       <c r="I238" t="n">
         <v>102.2</v>
@@ -15458,7 +15458,7 @@
         <v>0.02741587301587301</v>
       </c>
       <c r="S238" t="n">
-        <v>413.7730156087922</v>
+        <v>60.26237029670954</v>
       </c>
     </row>
     <row r="239">
@@ -15488,7 +15488,7 @@
         <v>6.888888888888888</v>
       </c>
       <c r="H239" t="n">
-        <v>36.7</v>
+        <v>2.611111111111113</v>
       </c>
       <c r="I239" t="n">
         <v>101.19</v>
@@ -15521,7 +15521,7 @@
         <v>0.02757714285714286</v>
       </c>
       <c r="S239" t="n">
-        <v>622.2853616486602</v>
+        <v>74.17960738304205</v>
       </c>
     </row>
     <row r="240">
@@ -15551,7 +15551,7 @@
         <v>5.999999999999999</v>
       </c>
       <c r="H240" t="n">
-        <v>36</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="I240" t="n">
         <v>101.96</v>
@@ -15584,7 +15584,7 @@
         <v>0.02773841269841269</v>
       </c>
       <c r="S240" t="n">
-        <v>636.612795428893</v>
+        <v>76.71071250999367</v>
       </c>
     </row>
     <row r="241">
@@ -15614,7 +15614,7 @@
         <v>5.499999999999999</v>
       </c>
       <c r="H241" t="n">
-        <v>37.1</v>
+        <v>2.833333333333334</v>
       </c>
       <c r="I241" t="n">
         <v>102.7</v>
@@ -15647,7 +15647,7 @@
         <v>0.02789968253968254</v>
       </c>
       <c r="S241" t="n">
-        <v>700.0401503743481</v>
+        <v>82.93936902687518</v>
       </c>
     </row>
     <row r="242">
@@ -15677,7 +15677,7 @@
         <v>5.666666666666669</v>
       </c>
       <c r="H242" t="n">
-        <v>36.9</v>
+        <v>2.722222222222221</v>
       </c>
       <c r="I242" t="n">
         <v>102.64</v>
@@ -15710,7 +15710,7 @@
         <v>0.02806095238095238</v>
       </c>
       <c r="S242" t="n">
-        <v>684.4682936889777</v>
+        <v>81.34256292135595</v>
       </c>
     </row>
     <row r="243">
@@ -15740,7 +15740,7 @@
         <v>7.5</v>
       </c>
       <c r="H243" t="n">
-        <v>38.3</v>
+        <v>3.499999999999999</v>
       </c>
       <c r="I243" t="n">
         <v>102.1</v>
@@ -15773,7 +15773,7 @@
         <v>0.02822222222222222</v>
       </c>
       <c r="S243" t="n">
-        <v>651.154588956167</v>
+        <v>75.75972004353764</v>
       </c>
     </row>
     <row r="244">
@@ -15803,7 +15803,7 @@
         <v>7.388888888888888</v>
       </c>
       <c r="H244" t="n">
-        <v>37.7</v>
+        <v>3.166666666666668</v>
       </c>
       <c r="I244" t="n">
         <v>101.45</v>
@@ -15836,7 +15836,7 @@
         <v>0.02838349206349206</v>
       </c>
       <c r="S244" t="n">
-        <v>635.0859245604125</v>
+        <v>74.56106187152284</v>
       </c>
     </row>
     <row r="245">
@@ -15866,7 +15866,7 @@
         <v>4.777777777777779</v>
       </c>
       <c r="H245" t="n">
-        <v>37</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I245" t="n">
         <v>101.99</v>
@@ -15899,7 +15899,7 @@
         <v>0.0285447619047619</v>
       </c>
       <c r="S245" t="n">
-        <v>732.114207402265</v>
+        <v>86.87194024783503</v>
       </c>
     </row>
     <row r="246">
@@ -15929,7 +15929,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="H246" t="n">
-        <v>32.9</v>
+        <v>0.4999999999999992</v>
       </c>
       <c r="I246" t="n">
         <v>101.75</v>
@@ -15962,7 +15962,7 @@
         <v>0.02870603174603174</v>
       </c>
       <c r="S246" t="n">
-        <v>630.3696380650615</v>
+        <v>79.77804860431453</v>
       </c>
     </row>
     <row r="247">
@@ -15992,7 +15992,7 @@
         <v>2.777777777777778</v>
       </c>
       <c r="H247" t="n">
-        <v>27.6</v>
+        <v>-2.444444444444444</v>
       </c>
       <c r="I247" t="n">
         <v>102.94</v>
@@ -16025,7 +16025,7 @@
         <v>0.02886730158730159</v>
       </c>
       <c r="S247" t="n">
-        <v>495.1234612157205</v>
+        <v>68.48983519035798</v>
       </c>
     </row>
     <row r="248">
@@ -16055,7 +16055,7 @@
         <v>2.666666666666665</v>
       </c>
       <c r="H248" t="n">
-        <v>18.7</v>
+        <v>-7.388888888888889</v>
       </c>
       <c r="I248" t="n">
         <v>102.5</v>
@@ -16088,7 +16088,7 @@
         <v>0.02902857142857142</v>
       </c>
       <c r="S248" t="n">
-        <v>291.1890017301004</v>
+        <v>47.50277339966076</v>
       </c>
     </row>
     <row r="249">
@@ -16118,7 +16118,7 @@
         <v>5.277777777777778</v>
       </c>
       <c r="H249" t="n">
-        <v>23.3</v>
+        <v>-4.833333333333333</v>
       </c>
       <c r="I249" t="n">
         <v>101.73</v>
@@ -16151,7 +16151,7 @@
         <v>0.02918984126984127</v>
       </c>
       <c r="S249" t="n">
-        <v>321.6451283838651</v>
+        <v>48.06056544347569</v>
       </c>
     </row>
     <row r="250">
@@ -16181,7 +16181,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H250" t="n">
-        <v>29.5</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="I250" t="n">
         <v>101.85</v>
@@ -16214,7 +16214,7 @@
         <v>0.02935111111111111</v>
       </c>
       <c r="S250" t="n">
-        <v>434.5408377972455</v>
+        <v>58.17926493910331</v>
       </c>
     </row>
     <row r="251">
@@ -16244,7 +16244,7 @@
         <v>0.9999999999999984</v>
       </c>
       <c r="H251" t="n">
-        <v>18.4</v>
+        <v>-7.555555555555556</v>
       </c>
       <c r="I251" t="n">
         <v>102.34</v>
@@ -16277,7 +16277,7 @@
         <v>0.02951238095238095</v>
       </c>
       <c r="S251" t="n">
-        <v>321.925655967785</v>
+        <v>52.82902899897375</v>
       </c>
     </row>
     <row r="252">
@@ -16307,7 +16307,7 @@
         <v>-0.2777777777777778</v>
       </c>
       <c r="H252" t="n">
-        <v>24.2</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="I252" t="n">
         <v>102.2</v>
@@ -16340,7 +16340,7 @@
         <v>0.02967365079365079</v>
       </c>
       <c r="S252" t="n">
-        <v>504.0690956120765</v>
+        <v>74.08383249745197</v>
       </c>
     </row>
     <row r="253">
@@ -16370,7 +16370,7 @@
         <v>1.500000000000002</v>
       </c>
       <c r="H253" t="n">
-        <v>28.9</v>
+        <v>-1.722222222222223</v>
       </c>
       <c r="I253" t="n">
         <v>101.77</v>
@@ -16403,7 +16403,7 @@
         <v>0.02983492063492063</v>
       </c>
       <c r="S253" t="n">
-        <v>585.0323408796835</v>
+        <v>79.13222948079873</v>
       </c>
     </row>
     <row r="254">
@@ -16433,7 +16433,7 @@
         <v>0.7222222222222207</v>
       </c>
       <c r="H254" t="n">
-        <v>22.3</v>
+        <v>-5.388888888888888</v>
       </c>
       <c r="I254" t="n">
         <v>101.9</v>
@@ -16466,7 +16466,7 @@
         <v>0.02999619047619047</v>
       </c>
       <c r="S254" t="n">
-        <v>417.9607995611215</v>
+        <v>63.62532126225054</v>
       </c>
     </row>
     <row r="255">
@@ -16496,7 +16496,7 @@
         <v>0.7222222222222207</v>
       </c>
       <c r="H255" t="n">
-        <v>18.1</v>
+        <v>-7.722222222222221</v>
       </c>
       <c r="I255" t="n">
         <v>101.76</v>
@@ -16529,7 +16529,7 @@
         <v>0.03015746031746031</v>
       </c>
       <c r="S255" t="n">
-        <v>322.3043028255926</v>
+        <v>53.20678320921593</v>
       </c>
     </row>
     <row r="256">
@@ -16559,7 +16559,7 @@
         <v>3.722222222222224</v>
       </c>
       <c r="H256" t="n">
-        <v>27.9</v>
+        <v>-2.277777777777779</v>
       </c>
       <c r="I256" t="n">
         <v>101.34</v>
@@ -16592,7 +16592,7 @@
         <v>0.03031873015873016</v>
       </c>
       <c r="S256" t="n">
-        <v>471.3536671478969</v>
+        <v>64.86289977555198</v>
       </c>
     </row>
     <row r="257">
@@ -16622,7 +16622,7 @@
         <v>-1.777777777777777</v>
       </c>
       <c r="H257" t="n">
-        <v>27</v>
+        <v>-2.777777777777778</v>
       </c>
       <c r="I257" t="n">
         <v>102.3</v>
@@ -16655,7 +16655,7 @@
         <v>0.03048</v>
       </c>
       <c r="S257" t="n">
-        <v>664.384032251014</v>
+        <v>92.87237304964961</v>
       </c>
     </row>
     <row r="258">
@@ -16685,7 +16685,7 @@
         <v>-3.222222222222223</v>
       </c>
       <c r="H258" t="n">
-        <v>21.4</v>
+        <v>-5.88888888888889</v>
       </c>
       <c r="I258" t="n">
         <v>103</v>
@@ -16718,7 +16718,7 @@
         <v>0.01016</v>
       </c>
       <c r="S258" t="n">
-        <v>528.2694916695712</v>
+        <v>81.79397463483724</v>
       </c>
     </row>
     <row r="259">
@@ -16748,7 +16748,7 @@
         <v>-3.277777777777777</v>
       </c>
       <c r="H259" t="n">
-        <v>23.6</v>
+        <v>-4.666666666666666</v>
       </c>
       <c r="I259" t="n">
         <v>102.83</v>
@@ -16781,7 +16781,7 @@
         <v>0.01016</v>
       </c>
       <c r="S259" t="n">
-        <v>606.3948169501102</v>
+        <v>90.10824253082086</v>
       </c>
     </row>
     <row r="260">
@@ -16811,7 +16811,7 @@
         <v>-0.5555555555555556</v>
       </c>
       <c r="H260" t="n">
-        <v>22.4</v>
+        <v>-5.333333333333334</v>
       </c>
       <c r="I260" t="n">
         <v>102.24</v>
@@ -16844,7 +16844,7 @@
         <v>0.01016</v>
       </c>
       <c r="S260" t="n">
-        <v>461.340710377056</v>
+        <v>70.09755649365246</v>
       </c>
     </row>
     <row r="261">
@@ -16874,7 +16874,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H261" t="n">
-        <v>22.5</v>
+        <v>-5.277777777777778</v>
       </c>
       <c r="I261" t="n">
         <v>101.83</v>
@@ -16907,7 +16907,7 @@
         <v>0.01016</v>
       </c>
       <c r="S261" t="n">
-        <v>373.9756639086302</v>
+        <v>56.71686763834269</v>
       </c>
     </row>
     <row r="262">
@@ -16937,7 +16937,7 @@
         <v>-0.8333333333333334</v>
       </c>
       <c r="H262" t="n">
-        <v>19.9</v>
+        <v>-6.722222222222223</v>
       </c>
       <c r="I262" t="n">
         <v>102.31</v>
@@ -16970,7 +16970,7 @@
         <v>0.01016</v>
       </c>
       <c r="S262" t="n">
-        <v>403.7627092256678</v>
+        <v>64.34062819436255</v>
       </c>
     </row>
     <row r="263">
@@ -17000,7 +17000,7 @@
         <v>3.444444444444446</v>
       </c>
       <c r="H263" t="n">
-        <v>5.3</v>
+        <v>-14.83333333333333</v>
       </c>
       <c r="I263" t="n">
         <v>101.75</v>
@@ -17033,7 +17033,7 @@
         <v>0.01016</v>
       </c>
       <c r="S263" t="n">
-        <v>113.8765840491198</v>
+        <v>24.8404336781081</v>
       </c>
     </row>
     <row r="264">
@@ -17063,7 +17063,7 @@
         <v>-0.8333333333333334</v>
       </c>
       <c r="H264" t="n">
-        <v>12.9</v>
+        <v>-10.61111111111111</v>
       </c>
       <c r="I264" t="n">
         <v>102.1</v>
@@ -17096,7 +17096,7 @@
         <v>0.01016</v>
       </c>
       <c r="S264" t="n">
-        <v>258.4916499709194</v>
+        <v>47.50107420844552</v>
       </c>
     </row>
     <row r="265">
@@ -17126,7 +17126,7 @@
         <v>-2.944444444444445</v>
       </c>
       <c r="H265" t="n">
-        <v>15.3</v>
+        <v>-9.277777777777779</v>
       </c>
       <c r="I265" t="n">
         <v>102.38</v>
@@ -17159,7 +17159,7 @@
         <v>0.01016</v>
       </c>
       <c r="S265" t="n">
-        <v>352.8655731600003</v>
+        <v>61.65336312725715</v>
       </c>
     </row>
     <row r="266">
@@ -17189,7 +17189,7 @@
         <v>-2.555555555555556</v>
       </c>
       <c r="H266" t="n">
-        <v>13.6</v>
+        <v>-10.22222222222222</v>
       </c>
       <c r="I266" t="n">
         <v>102.51</v>
@@ -17222,7 +17222,7 @@
         <v>0.01016</v>
       </c>
       <c r="S266" t="n">
-        <v>307.1351566573286</v>
+        <v>55.60576080342013</v>
       </c>
     </row>
     <row r="267">
@@ -17252,7 +17252,7 @@
         <v>-7.222222222222222</v>
       </c>
       <c r="H267" t="n">
-        <v>11</v>
+        <v>-11.66666666666667</v>
       </c>
       <c r="I267" t="n">
         <v>102.65</v>
@@ -17285,7 +17285,7 @@
         <v>0.01016</v>
       </c>
       <c r="S267" t="n">
-        <v>368.3434742951845</v>
+        <v>70.5320104998448</v>
       </c>
     </row>
     <row r="268">
@@ -17315,7 +17315,7 @@
         <v>-3.166666666666667</v>
       </c>
       <c r="H268" t="n">
-        <v>-1.5</v>
+        <v>-18.61111111111111</v>
       </c>
       <c r="I268" t="n">
         <v>102.76</v>
@@ -17348,7 +17348,7 @@
         <v>0.01016</v>
       </c>
       <c r="S268" t="n">
-        <v>113.1221107534576</v>
+        <v>29.24410255977119</v>
       </c>
     </row>
     <row r="269">
@@ -17378,7 +17378,7 @@
         <v>-1.055555555555555</v>
       </c>
       <c r="H269" t="n">
-        <v>2.1</v>
+        <v>-16.61111111111111</v>
       </c>
       <c r="I269" t="n">
         <v>102.31</v>
@@ -17411,7 +17411,7 @@
         <v>0.01016</v>
       </c>
       <c r="S269" t="n">
-        <v>125.6108999816969</v>
+        <v>29.61960212243099</v>
       </c>
     </row>
     <row r="270">
@@ -17441,7 +17441,7 @@
         <v>-0.1111111111111107</v>
       </c>
       <c r="H270" t="n">
-        <v>5.2</v>
+        <v>-14.88888888888889</v>
       </c>
       <c r="I270" t="n">
         <v>101.4</v>
@@ -17474,7 +17474,7 @@
         <v>0.01016</v>
       </c>
       <c r="S270" t="n">
-        <v>145.8668201651501</v>
+        <v>31.89446434401719</v>
       </c>
     </row>
     <row r="271">
@@ -17504,7 +17504,7 @@
         <v>1.388888888888889</v>
       </c>
       <c r="H271" t="n">
-        <v>9.300000000000001</v>
+        <v>-12.61111111111111</v>
       </c>
       <c r="I271" t="n">
         <v>101.01</v>
@@ -17537,7 +17537,7 @@
         <v>0.01016</v>
       </c>
       <c r="S271" t="n">
-        <v>173.2954916042736</v>
+        <v>34.46079599589622</v>
       </c>
     </row>
     <row r="272">
@@ -17567,7 +17567,7 @@
         <v>-3</v>
       </c>
       <c r="H272" t="n">
-        <v>9.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I272" t="n">
         <v>102.55</v>
@@ -17600,7 +17600,7 @@
         <v>0.01016</v>
       </c>
       <c r="S272" t="n">
-        <v>242.0354033083591</v>
+        <v>47.91445125369801</v>
       </c>
     </row>
     <row r="273">
@@ -17630,7 +17630,7 @@
         <v>-9.388888888888889</v>
       </c>
       <c r="H273" t="n">
-        <v>7.7</v>
+        <v>-13.5</v>
       </c>
       <c r="I273" t="n">
         <v>102.87</v>
@@ -17663,7 +17663,7 @@
         <v>0.01016</v>
       </c>
       <c r="S273" t="n">
-        <v>349.1324368258969</v>
+        <v>71.99977578801946</v>
       </c>
     </row>
     <row r="274">
@@ -17693,7 +17693,7 @@
         <v>-1.944444444444445</v>
       </c>
       <c r="H274" t="n">
-        <v>6.2</v>
+        <v>-14.33333333333333</v>
       </c>
       <c r="I274" t="n">
         <v>102.73</v>
@@ -17726,7 +17726,7 @@
         <v>0.01016</v>
       </c>
       <c r="S274" t="n">
-        <v>178.7790145325212</v>
+        <v>38.17686922938958</v>
       </c>
     </row>
     <row r="275">
@@ -17756,7 +17756,7 @@
         <v>-3</v>
       </c>
       <c r="H275" t="n">
-        <v>5.3</v>
+        <v>-14.83333333333333</v>
       </c>
       <c r="I275" t="n">
         <v>102.4</v>
@@ -17789,7 +17789,7 @@
         <v>0.01016</v>
       </c>
       <c r="S275" t="n">
-        <v>181.634560304633</v>
+        <v>39.62079901302096</v>
       </c>
     </row>
     <row r="276">
@@ -17819,7 +17819,7 @@
         <v>-1.61111111111111</v>
       </c>
       <c r="H276" t="n">
-        <v>6.6</v>
+        <v>-14.11111111111111</v>
       </c>
       <c r="I276" t="n">
         <v>102.18</v>
@@ -17852,7 +17852,7 @@
         <v>0.01016</v>
       </c>
       <c r="S276" t="n">
-        <v>179.3184800515302</v>
+        <v>37.93493205914403</v>
       </c>
     </row>
     <row r="277">
@@ -17882,7 +17882,7 @@
         <v>-8.611111111111111</v>
       </c>
       <c r="H277" t="n">
-        <v>5.1</v>
+        <v>-14.94444444444444</v>
       </c>
       <c r="I277" t="n">
         <v>102.75</v>
@@ -17915,7 +17915,7 @@
         <v>0.01016</v>
       </c>
       <c r="S277" t="n">
-        <v>274.6387855673115</v>
+        <v>60.19441328873648</v>
       </c>
     </row>
     <row r="278">
@@ -17945,7 +17945,7 @@
         <v>-7.777777777777779</v>
       </c>
       <c r="H278" t="n">
-        <v>10.7</v>
+        <v>-11.83333333333333</v>
       </c>
       <c r="I278" t="n">
         <v>102.59</v>
@@ -17978,7 +17978,7 @@
         <v>0.01016</v>
       </c>
       <c r="S278" t="n">
-        <v>376.9006210944793</v>
+        <v>72.64849797891252</v>
       </c>
     </row>
     <row r="279">
@@ -18008,7 +18008,7 @@
         <v>-9.333333333333334</v>
       </c>
       <c r="H279" t="n">
-        <v>5.9</v>
+        <v>-14.5</v>
       </c>
       <c r="I279" t="n">
         <v>103.09</v>
@@ -18041,7 +18041,7 @@
         <v>0.01016</v>
       </c>
       <c r="S279" t="n">
-        <v>307.1911278207873</v>
+        <v>66.06321513748252</v>
       </c>
     </row>
     <row r="280">
@@ -18071,7 +18071,7 @@
         <v>-9.555555555555555</v>
       </c>
       <c r="H280" t="n">
-        <v>2.4</v>
+        <v>-16.44444444444445</v>
       </c>
       <c r="I280" t="n">
         <v>102.8</v>
@@ -18104,7 +18104,7 @@
         <v>0.01016</v>
       </c>
       <c r="S280" t="n">
-        <v>244.5375412723278</v>
+        <v>57.23484869583906</v>
       </c>
     </row>
     <row r="281">
@@ -18134,7 +18134,7 @@
         <v>-7.111111111111112</v>
       </c>
       <c r="H281" t="n">
-        <v>-5.1</v>
+        <v>-20.61111111111111</v>
       </c>
       <c r="I281" t="n">
         <v>102.3</v>
@@ -18167,7 +18167,7 @@
         <v>0.01016</v>
       </c>
       <c r="S281" t="n">
-        <v>116.5961322376479</v>
+        <v>33.20608439640144</v>
       </c>
     </row>
     <row r="282">
@@ -18197,7 +18197,7 @@
         <v>-4.944444444444444</v>
       </c>
       <c r="H282" t="n">
-        <v>-3.2</v>
+        <v>-19.55555555555556</v>
       </c>
       <c r="I282" t="n">
         <v>102.28</v>
@@ -18230,7 +18230,7 @@
         <v>0.01016</v>
       </c>
       <c r="S282" t="n">
-        <v>113.9891486263556</v>
+        <v>30.82750735966079</v>
       </c>
     </row>
     <row r="283">
@@ -18260,7 +18260,7 @@
         <v>-14.16666666666667</v>
       </c>
       <c r="H283" t="n">
-        <v>-4.9</v>
+        <v>-20.5</v>
       </c>
       <c r="I283" t="n">
         <v>104.15</v>
@@ -18293,7 +18293,7 @@
         <v>0.01016</v>
       </c>
       <c r="S283" t="n">
-        <v>207.2289706452546</v>
+        <v>58.69364266921144</v>
       </c>
     </row>
     <row r="284">
@@ -18323,7 +18323,7 @@
         <v>-14.5</v>
       </c>
       <c r="H284" t="n">
-        <v>-24.4</v>
+        <v>-31.33333333333334</v>
       </c>
       <c r="I284" t="n">
         <v>104.59</v>
@@ -18356,7 +18356,7 @@
         <v>0.01016</v>
       </c>
       <c r="S284" t="n">
-        <v>42.78549730224955</v>
+        <v>22.52128229536443</v>
       </c>
     </row>
     <row r="285">
@@ -18386,7 +18386,7 @@
         <v>-11.16666666666667</v>
       </c>
       <c r="H285" t="n">
-        <v>-17.2</v>
+        <v>-27.33333333333334</v>
       </c>
       <c r="I285" t="n">
         <v>103.58</v>
@@ -18419,7 +18419,7 @@
         <v>0.01016</v>
       </c>
       <c r="S285" t="n">
-        <v>61.03405295900682</v>
+        <v>25.03190287794958</v>
       </c>
     </row>
     <row r="286">
@@ -18449,7 +18449,7 @@
         <v>-7.666666666666667</v>
       </c>
       <c r="H286" t="n">
-        <v>-9.6</v>
+        <v>-23.11111111111111</v>
       </c>
       <c r="I286" t="n">
         <v>102.92</v>
@@ -18482,7 +18482,7 @@
         <v>0.01016</v>
       </c>
       <c r="S286" t="n">
-        <v>86.00180426306542</v>
+        <v>27.84446779769539</v>
       </c>
     </row>
     <row r="287">
@@ -18512,7 +18512,7 @@
         <v>-9.333333333333334</v>
       </c>
       <c r="H287" t="n">
-        <v>-15.9</v>
+        <v>-26.61111111111111</v>
       </c>
       <c r="I287" t="n">
         <v>103.37</v>
@@ -18545,7 +18545,7 @@
         <v>0.01016</v>
       </c>
       <c r="S287" t="n">
-        <v>58.85279004543925</v>
+        <v>23.13716101589611</v>
       </c>
     </row>
     <row r="288">
@@ -18575,7 +18575,7 @@
         <v>-11</v>
       </c>
       <c r="H288" t="n">
-        <v>-16.6</v>
+        <v>-27</v>
       </c>
       <c r="I288" t="n">
         <v>103.32</v>
@@ -18608,7 +18608,7 @@
         <v>0.01016</v>
       </c>
       <c r="S288" t="n">
-        <v>63.33469590123379</v>
+        <v>25.47050778154512</v>
       </c>
     </row>
     <row r="289">
@@ -18638,7 +18638,7 @@
         <v>-8.055555555555555</v>
       </c>
       <c r="H289" t="n">
-        <v>-12.8</v>
+        <v>-24.88888888888889</v>
       </c>
       <c r="I289" t="n">
         <v>103.04</v>
@@ -18671,7 +18671,7 @@
         <v>0.01016</v>
       </c>
       <c r="S289" t="n">
-        <v>68.67229905930108</v>
+        <v>24.4836462900859</v>
       </c>
     </row>
     <row r="290">
@@ -18701,7 +18701,7 @@
         <v>-7.444444444444444</v>
       </c>
       <c r="H290" t="n">
-        <v>-13.9</v>
+        <v>-25.5</v>
       </c>
       <c r="I290" t="n">
         <v>103.3</v>
@@ -18734,7 +18734,7 @@
         <v>0.01016</v>
       </c>
       <c r="S290" t="n">
-        <v>59.90038781828141</v>
+        <v>22.09877862508634</v>
       </c>
     </row>
     <row r="291">
@@ -18764,7 +18764,7 @@
         <v>-7.944444444444446</v>
       </c>
       <c r="H291" t="n">
-        <v>-5</v>
+        <v>-20.55555555555556</v>
       </c>
       <c r="I291" t="n">
         <v>102.72</v>
@@ -18797,7 +18797,7 @@
         <v>0.01016</v>
       </c>
       <c r="S291" t="n">
-        <v>125.2955929295145</v>
+        <v>35.58541191613702</v>
       </c>
     </row>
     <row r="292">
@@ -18827,7 +18827,7 @@
         <v>-5.111111111111111</v>
       </c>
       <c r="H292" t="n">
-        <v>4.3</v>
+        <v>-15.38888888888889</v>
       </c>
       <c r="I292" t="n">
         <v>103.16</v>
@@ -18860,7 +18860,7 @@
         <v>0.01016</v>
       </c>
       <c r="S292" t="n">
-        <v>198.4706470167003</v>
+        <v>44.34327112897379</v>
       </c>
     </row>
     <row r="293">
@@ -18890,7 +18890,7 @@
         <v>-12.33333333333333</v>
       </c>
       <c r="H293" t="n">
-        <v>-4.8</v>
+        <v>-20.44444444444444</v>
       </c>
       <c r="I293" t="n">
         <v>103.69</v>
@@ -18923,7 +18923,7 @@
         <v>0.01016</v>
       </c>
       <c r="S293" t="n">
-        <v>179.9331218713093</v>
+        <v>50.82270923395641</v>
       </c>
     </row>
     <row r="294">
@@ -18953,7 +18953,7 @@
         <v>-12</v>
       </c>
       <c r="H294" t="n">
-        <v>-14.6</v>
+        <v>-25.88888888888889</v>
       </c>
       <c r="I294" t="n">
         <v>103.89</v>
@@ -18986,7 +18986,7 @@
         <v>0.01016</v>
       </c>
       <c r="S294" t="n">
-        <v>80.96837098941758</v>
+        <v>30.5368630008403</v>
       </c>
     </row>
     <row r="295">
@@ -19016,7 +19016,7 @@
         <v>-15.77777777777778</v>
       </c>
       <c r="H295" t="n">
-        <v>-18.9</v>
+        <v>-28.27777777777778</v>
       </c>
       <c r="I295" t="n">
         <v>104</v>
@@ -19049,7 +19049,7 @@
         <v>0.01016</v>
       </c>
       <c r="S295" t="n">
-        <v>76.90078623331837</v>
+        <v>33.37477540610204</v>
       </c>
     </row>
     <row r="296">
@@ -19079,7 +19079,7 @@
         <v>-11.5</v>
       </c>
       <c r="H296" t="n">
-        <v>-20.5</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="I296" t="n">
         <v>103.93</v>
@@ -19112,7 +19112,7 @@
         <v>0.01016</v>
       </c>
       <c r="S296" t="n">
-        <v>47.3081038402022</v>
+        <v>21.68248555919402</v>
       </c>
     </row>
     <row r="297">
@@ -19142,7 +19142,7 @@
         <v>-11.11111111111111</v>
       </c>
       <c r="H297" t="n">
-        <v>-13.7</v>
+        <v>-25.38888888888889</v>
       </c>
       <c r="I297" t="n">
         <v>103.87</v>
@@ -19175,7 +19175,7 @@
         <v>0.01016</v>
       </c>
       <c r="S297" t="n">
-        <v>81.17318516718657</v>
+        <v>29.76011787085137</v>
       </c>
     </row>
     <row r="298">
@@ -19205,7 +19205,7 @@
         <v>-5.499999999999999</v>
       </c>
       <c r="H298" t="n">
-        <v>1.1</v>
+        <v>-17.16666666666667</v>
       </c>
       <c r="I298" t="n">
         <v>103.33</v>
@@ -19238,7 +19238,7 @@
         <v>0.01016</v>
       </c>
       <c r="S298" t="n">
-        <v>162.8736837151752</v>
+        <v>39.38153189503096</v>
       </c>
     </row>
     <row r="299">
@@ -19268,7 +19268,7 @@
         <v>-8</v>
       </c>
       <c r="H299" t="n">
-        <v>-3.8</v>
+        <v>-19.88888888888889</v>
       </c>
       <c r="I299" t="n">
         <v>103.48</v>
@@ -19301,7 +19301,7 @@
         <v>0.01016</v>
       </c>
       <c r="S299" t="n">
-        <v>137.7306280066206</v>
+        <v>37.85574406543367</v>
       </c>
     </row>
     <row r="300">
@@ -19331,7 +19331,7 @@
         <v>-7.111111111111112</v>
       </c>
       <c r="H300" t="n">
-        <v>-1.4</v>
+        <v>-18.55555555555556</v>
       </c>
       <c r="I300" t="n">
         <v>103.1</v>
@@ -19364,7 +19364,7 @@
         <v>0.01016</v>
       </c>
       <c r="S300" t="n">
-        <v>153.629327313937</v>
+        <v>39.61208007813293</v>
       </c>
     </row>
     <row r="301">
@@ -19394,7 +19394,7 @@
         <v>-8.277777777777777</v>
       </c>
       <c r="H301" t="n">
-        <v>-13.9</v>
+        <v>-25.5</v>
       </c>
       <c r="I301" t="n">
         <v>103.9</v>
@@ -19427,7 +19427,7 @@
         <v>0.01016</v>
       </c>
       <c r="S301" t="n">
-        <v>63.89605197432805</v>
+        <v>23.57288089488363</v>
       </c>
     </row>
     <row r="302">
@@ -19457,7 +19457,7 @@
         <v>-8.944444444444446</v>
       </c>
       <c r="H302" t="n">
-        <v>-18.4</v>
+        <v>-28</v>
       </c>
       <c r="I302" t="n">
         <v>103.72</v>
@@ -19490,7 +19490,7 @@
         <v>0.01016</v>
       </c>
       <c r="S302" t="n">
-        <v>46.27580525079282</v>
+        <v>19.7493500237851</v>
       </c>
     </row>
     <row r="303">
@@ -19520,7 +19520,7 @@
         <v>-12</v>
       </c>
       <c r="H303" t="n">
-        <v>-16.2</v>
+        <v>-26.77777777777778</v>
       </c>
       <c r="I303" t="n">
         <v>103.44</v>
@@ -19553,7 +19553,7 @@
         <v>0.01016</v>
       </c>
       <c r="S303" t="n">
-        <v>70.93352953547759</v>
+        <v>28.15820410740092</v>
       </c>
     </row>
     <row r="304">
@@ -19583,7 +19583,7 @@
         <v>2.000000000000001</v>
       </c>
       <c r="H304" t="n">
-        <v>-9.5</v>
+        <v>-23.05555555555556</v>
       </c>
       <c r="I304" t="n">
         <v>102.27</v>
@@ -19616,7 +19616,7 @@
         <v>0.01016</v>
       </c>
       <c r="S304" t="n">
-        <v>42.26026449625575</v>
+        <v>13.64225813080878</v>
       </c>
     </row>
     <row r="305">
@@ -19646,7 +19646,7 @@
         <v>-2.444444444444444</v>
       </c>
       <c r="H305" t="n">
-        <v>-6.5</v>
+        <v>-21.38888888888889</v>
       </c>
       <c r="I305" t="n">
         <v>101.73</v>
@@ -19679,7 +19679,7 @@
         <v>0.01016</v>
       </c>
       <c r="S305" t="n">
-        <v>73.6801978081084</v>
+        <v>21.81867022603383</v>
       </c>
     </row>
     <row r="306">
@@ -19709,7 +19709,7 @@
         <v>-2.722222222222221</v>
       </c>
       <c r="H306" t="n">
-        <v>-3.6</v>
+        <v>-19.77777777777778</v>
       </c>
       <c r="I306" t="n">
         <v>100.8</v>
@@ -19742,7 +19742,7 @@
         <v>0.01016</v>
       </c>
       <c r="S306" t="n">
-        <v>93.67074219821318</v>
+        <v>25.60686435031862</v>
       </c>
     </row>
     <row r="307">
@@ -19772,7 +19772,7 @@
         <v>-12.72222222222222</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>-17.77777777777778</v>
       </c>
       <c r="I307" t="n">
         <v>102.83</v>
@@ -19805,7 +19805,7 @@
         <v>0.01016</v>
       </c>
       <c r="S307" t="n">
-        <v>264.879409413891</v>
+        <v>65.86410734061904</v>
       </c>
     </row>
     <row r="308">
@@ -19835,7 +19835,7 @@
         <v>-16.61111111111111</v>
       </c>
       <c r="H308" t="n">
-        <v>-3.7</v>
+        <v>-19.83333333333334</v>
       </c>
       <c r="I308" t="n">
         <v>104.16</v>
@@ -19868,7 +19868,7 @@
         <v>0.01016</v>
       </c>
       <c r="S308" t="n">
-        <v>277.6041034029684</v>
+        <v>76.09425876908323</v>
       </c>
     </row>
     <row r="309">
@@ -19898,7 +19898,7 @@
         <v>-14</v>
       </c>
       <c r="H309" t="n">
-        <v>-1</v>
+        <v>-18.33333333333334</v>
       </c>
       <c r="I309" t="n">
         <v>103.5</v>
@@ -19931,7 +19931,7 @@
         <v>0.01016</v>
       </c>
       <c r="S309" t="n">
-        <v>273.2023428754509</v>
+        <v>69.71159206107633</v>
       </c>
     </row>
     <row r="310">
@@ -19961,7 +19961,7 @@
         <v>-13.83333333333333</v>
       </c>
       <c r="H310" t="n">
-        <v>-0.5</v>
+        <v>-18.05555555555556</v>
       </c>
       <c r="I310" t="n">
         <v>103.47</v>
@@ -19994,7 +19994,7 @@
         <v>0.01016</v>
       </c>
       <c r="S310" t="n">
-        <v>279.5316431120345</v>
+        <v>70.40793387679453</v>
       </c>
     </row>
     <row r="311">
@@ -20024,7 +20024,7 @@
         <v>-15.94444444444444</v>
       </c>
       <c r="H311" t="n">
-        <v>-4.2</v>
+        <v>-20.11111111111111</v>
       </c>
       <c r="I311" t="n">
         <v>103.99</v>
@@ -20057,7 +20057,7 @@
         <v>0.01016</v>
       </c>
       <c r="S311" t="n">
-        <v>252.9390502595613</v>
+        <v>70.28052327930183</v>
       </c>
     </row>
     <row r="312">
@@ -20087,7 +20087,7 @@
         <v>-16.05555555555556</v>
       </c>
       <c r="H312" t="n">
-        <v>-8.800000000000001</v>
+        <v>-22.66666666666667</v>
       </c>
       <c r="I312" t="n">
         <v>103.98</v>
@@ -20120,7 +20120,7 @@
         <v>0.01016</v>
       </c>
       <c r="S312" t="n">
-        <v>179.4657156386047</v>
+        <v>56.76044028711951</v>
       </c>
     </row>
     <row r="313">
@@ -20150,7 +20150,7 @@
         <v>-8.055555555555555</v>
       </c>
       <c r="H313" t="n">
-        <v>-7</v>
+        <v>-21.66666666666667</v>
       </c>
       <c r="I313" t="n">
         <v>102.47</v>
@@ -20183,7 +20183,7 @@
         <v>0.01016</v>
       </c>
       <c r="S313" t="n">
-        <v>108.4982349127845</v>
+        <v>32.58626204125462</v>
       </c>
     </row>
     <row r="314">
@@ -20213,7 +20213,7 @@
         <v>-9.277777777777779</v>
       </c>
       <c r="H314" t="n">
-        <v>-2.7</v>
+        <v>-19.27777777777778</v>
       </c>
       <c r="I314" t="n">
         <v>102.45</v>
@@ -20246,7 +20246,7 @@
         <v>0.01016</v>
       </c>
       <c r="S314" t="n">
-        <v>165.1690640885446</v>
+        <v>44.07518624443967</v>
       </c>
     </row>
     <row r="315">
@@ -20276,7 +20276,7 @@
         <v>-8.888888888888889</v>
       </c>
       <c r="H315" t="n">
-        <v>-3.1</v>
+        <v>-19.5</v>
       </c>
       <c r="I315" t="n">
         <v>102.8</v>
@@ -20309,7 +20309,7 @@
         <v>0.01016</v>
       </c>
       <c r="S315" t="n">
-        <v>155.5222991500897</v>
+        <v>41.94714000024706</v>
       </c>
     </row>
     <row r="316">
@@ -20339,7 +20339,7 @@
         <v>-12.38888888888889</v>
       </c>
       <c r="H316" t="n">
-        <v>-10.9</v>
+        <v>-23.83333333333333</v>
       </c>
       <c r="I316" t="n">
         <v>104.09</v>
@@ -20372,7 +20372,7 @@
         <v>0.01016</v>
       </c>
       <c r="S316" t="n">
-        <v>112.6561519068481</v>
+        <v>37.91054662056877</v>
       </c>
     </row>
     <row r="317">
@@ -20402,7 +20402,7 @@
         <v>-8.166666666666666</v>
       </c>
       <c r="H317" t="n">
-        <v>-12.3</v>
+        <v>-24.61111111111111</v>
       </c>
       <c r="I317" t="n">
         <v>102.38</v>
@@ -20435,7 +20435,7 @@
         <v>0.01016</v>
       </c>
       <c r="S317" t="n">
-        <v>72.11831315245573</v>
+        <v>25.32040088453001</v>
       </c>
     </row>
     <row r="318">
@@ -20465,7 +20465,7 @@
         <v>-3.38888888888889</v>
       </c>
       <c r="H318" t="n">
-        <v>-4.8</v>
+        <v>-20.44444444444444</v>
       </c>
       <c r="I318" t="n">
         <v>101.5</v>
@@ -20498,7 +20498,7 @@
         <v>0.01016</v>
       </c>
       <c r="S318" t="n">
-        <v>89.94847407328469</v>
+        <v>25.40624592249426</v>
       </c>
     </row>
     <row r="319">
@@ -20528,7 +20528,7 @@
         <v>-9.777777777777779</v>
       </c>
       <c r="H319" t="n">
-        <v>-7.4</v>
+        <v>-21.88888888888889</v>
       </c>
       <c r="I319" t="n">
         <v>103.1</v>
@@ -20561,7 +20561,7 @@
         <v>0.01016</v>
       </c>
       <c r="S319" t="n">
-        <v>120.3700365981144</v>
+        <v>36.56533743241481</v>
       </c>
     </row>
     <row r="320">
@@ -20591,7 +20591,7 @@
         <v>-13.61111111111111</v>
       </c>
       <c r="H320" t="n">
-        <v>-12.6</v>
+        <v>-24.77777777777778</v>
       </c>
       <c r="I320" t="n">
         <v>103.74</v>
@@ -20624,7 +20624,7 @@
         <v>0.01016</v>
       </c>
       <c r="S320" t="n">
-        <v>108.5410453497048</v>
+        <v>38.46049905248017</v>
       </c>
     </row>
     <row r="321">
@@ -20654,7 +20654,7 @@
         <v>-9.388888888888889</v>
       </c>
       <c r="H321" t="n">
-        <v>-10.4</v>
+        <v>-23.55555555555556</v>
       </c>
       <c r="I321" t="n">
         <v>103.62</v>
@@ -20687,7 +20687,7 @@
         <v>0.01016</v>
       </c>
       <c r="S321" t="n">
-        <v>92.33743791677348</v>
+        <v>30.61217794290328</v>
       </c>
     </row>
     <row r="322">
@@ -20717,7 +20717,7 @@
         <v>-8.222222222222223</v>
       </c>
       <c r="H322" t="n">
-        <v>-18.3</v>
+        <v>-27.94444444444444</v>
       </c>
       <c r="I322" t="n">
         <v>102.86</v>
@@ -20750,7 +20750,7 @@
         <v>0.01016</v>
       </c>
       <c r="S322" t="n">
-        <v>44.11490658221414</v>
+        <v>18.76431964322986</v>
       </c>
     </row>
     <row r="323">
@@ -20780,7 +20780,7 @@
         <v>-3.444444444444444</v>
       </c>
       <c r="H323" t="n">
-        <v>-13.3</v>
+        <v>-25.16666666666667</v>
       </c>
       <c r="I323" t="n">
         <v>102.47</v>
@@ -20813,7 +20813,7 @@
         <v>0.01016</v>
       </c>
       <c r="S323" t="n">
-        <v>46.42367195875705</v>
+        <v>16.80939113514624</v>
       </c>
     </row>
     <row r="324">
@@ -20843,7 +20843,7 @@
         <v>-8.444444444444445</v>
       </c>
       <c r="H324" t="n">
-        <v>-5.5</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="I324" t="n">
         <v>102.08</v>
@@ -20876,7 +20876,7 @@
         <v>0.01016</v>
       </c>
       <c r="S324" t="n">
-        <v>125.4152376872851</v>
+        <v>36.11522355551137</v>
       </c>
     </row>
     <row r="325">
@@ -20906,7 +20906,7 @@
         <v>-5.611111111111112</v>
       </c>
       <c r="H325" t="n">
-        <v>-3.5</v>
+        <v>-19.72222222222222</v>
       </c>
       <c r="I325" t="n">
         <v>102.38</v>
@@ -20939,7 +20939,7 @@
         <v>0.01016</v>
       </c>
       <c r="S325" t="n">
-        <v>117.2451332465336</v>
+        <v>31.96504871467382</v>
       </c>
     </row>
     <row r="326">
@@ -20969,7 +20969,7 @@
         <v>-0.4999999999999992</v>
       </c>
       <c r="H326" t="n">
-        <v>-12.3</v>
+        <v>-24.61111111111111</v>
       </c>
       <c r="I326" t="n">
         <v>102.065</v>
@@ -21002,7 +21002,7 @@
         <v>0.01016</v>
       </c>
       <c r="S326" t="n">
-        <v>40.50688591714133</v>
+        <v>14.22177731525348</v>
       </c>
     </row>
     <row r="327">
@@ -21032,7 +21032,7 @@
         <v>-2.833333333333334</v>
       </c>
       <c r="H327" t="n">
-        <v>-4.6</v>
+        <v>-20.33333333333334</v>
       </c>
       <c r="I327" t="n">
         <v>101.75</v>
@@ -21065,7 +21065,7 @@
         <v>0.01016</v>
       </c>
       <c r="S327" t="n">
-        <v>87.61586545781606</v>
+        <v>24.61199296586183</v>
       </c>
     </row>
     <row r="328">
@@ -21095,7 +21095,7 @@
         <v>-4.722222222222222</v>
       </c>
       <c r="H328" t="n">
-        <v>-1.5</v>
+        <v>-18.61111111111111</v>
       </c>
       <c r="I328" t="n">
         <v>101.89</v>
@@ -21128,7 +21128,7 @@
         <v>0.01016</v>
       </c>
       <c r="S328" t="n">
-        <v>127.1158183843723</v>
+        <v>32.86172795965273</v>
       </c>
     </row>
     <row r="329">
@@ -21158,7 +21158,7 @@
         <v>-5.666666666666667</v>
       </c>
       <c r="H329" t="n">
-        <v>-2.3</v>
+        <v>-19.05555555555555</v>
       </c>
       <c r="I329" t="n">
         <v>102.11</v>
@@ -21191,7 +21191,7 @@
         <v>0.01016</v>
       </c>
       <c r="S329" t="n">
-        <v>128.7257627237954</v>
+        <v>33.98702387248224</v>
       </c>
     </row>
     <row r="330">
@@ -21221,7 +21221,7 @@
         <v>-1.722222222222223</v>
       </c>
       <c r="H330" t="n">
-        <v>7.7</v>
+        <v>-13.5</v>
       </c>
       <c r="I330" t="n">
         <v>101.51</v>
@@ -21254,7 +21254,7 @@
         <v>0.01016</v>
       </c>
       <c r="S330" t="n">
-        <v>194.9362536709294</v>
+        <v>40.20069485626873</v>
       </c>
     </row>
     <row r="331">
@@ -21284,7 +21284,7 @@
         <v>-6.5</v>
       </c>
       <c r="H331" t="n">
-        <v>13</v>
+        <v>-10.55555555555556</v>
       </c>
       <c r="I331" t="n">
         <v>102.08</v>
@@ -21317,7 +21317,7 @@
         <v>0.01016</v>
       </c>
       <c r="S331" t="n">
-        <v>397.5600511295585</v>
+        <v>72.90074148663602</v>
       </c>
     </row>
     <row r="332">
@@ -21347,7 +21347,7 @@
         <v>-1.388888888888889</v>
       </c>
       <c r="H332" t="n">
-        <v>0.1</v>
+        <v>-17.72222222222222</v>
       </c>
       <c r="I332" t="n">
         <v>101.15</v>
@@ -21380,7 +21380,7 @@
         <v>0.01016</v>
       </c>
       <c r="S332" t="n">
-        <v>111.4737554155159</v>
+        <v>27.64776358147016</v>
       </c>
     </row>
     <row r="333">
@@ -21410,7 +21410,7 @@
         <v>-9.500000000000002</v>
       </c>
       <c r="H333" t="n">
-        <v>3.1</v>
+        <v>-16.05555555555556</v>
       </c>
       <c r="I333" t="n">
         <v>103.42</v>
@@ -21443,7 +21443,7 @@
         <v>0.01016</v>
       </c>
       <c r="S333" t="n">
-        <v>255.8703663119544</v>
+        <v>58.86208033082284</v>
       </c>
     </row>
     <row r="334">
@@ -21473,7 +21473,7 @@
         <v>-6.277777777777779</v>
       </c>
       <c r="H334" t="n">
-        <v>7.1</v>
+        <v>-13.83333333333333</v>
       </c>
       <c r="I334" t="n">
         <v>102.82</v>
@@ -21506,7 +21506,7 @@
         <v>0.01016</v>
       </c>
       <c r="S334" t="n">
-        <v>263.3305969829245</v>
+        <v>55.06313472333517</v>
       </c>
     </row>
     <row r="335">
@@ -21536,7 +21536,7 @@
         <v>0.6666666666666683</v>
       </c>
       <c r="H335" t="n">
-        <v>6.7</v>
+        <v>-14.05555555555556</v>
       </c>
       <c r="I335" t="n">
         <v>101.99</v>
@@ -21569,7 +21569,7 @@
         <v>0.01016</v>
       </c>
       <c r="S335" t="n">
-        <v>152.9485989287978</v>
+        <v>32.28092538109693</v>
       </c>
     </row>
     <row r="336">
@@ -21599,7 +21599,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="H336" t="n">
-        <v>6.9</v>
+        <v>-13.94444444444445</v>
       </c>
       <c r="I336" t="n">
         <v>101.16</v>
@@ -21632,7 +21632,7 @@
         <v>0.01016</v>
       </c>
       <c r="S336" t="n">
-        <v>122.3037088057319</v>
+        <v>25.69311814599917</v>
       </c>
     </row>
     <row r="337">
@@ -21662,7 +21662,7 @@
         <v>-5.555555555555555</v>
       </c>
       <c r="H337" t="n">
-        <v>15.9</v>
+        <v>-8.944444444444446</v>
       </c>
       <c r="I337" t="n">
         <v>102.57</v>
@@ -21695,7 +21695,7 @@
         <v>0.01016</v>
       </c>
       <c r="S337" t="n">
-        <v>446.2232422479567</v>
+        <v>77.00813076035944</v>
       </c>
     </row>
     <row r="338">
@@ -21725,7 +21725,7 @@
         <v>-6.444444444444446</v>
       </c>
       <c r="H338" t="n">
-        <v>10.8</v>
+        <v>-11.77777777777778</v>
       </c>
       <c r="I338" t="n">
         <v>102.15</v>
@@ -21758,7 +21758,7 @@
         <v>0.01016</v>
       </c>
       <c r="S338" t="n">
-        <v>342.3974766891335</v>
+        <v>65.85268636727135</v>
       </c>
     </row>
     <row r="339">
@@ -21788,7 +21788,7 @@
         <v>-3</v>
       </c>
       <c r="H339" t="n">
-        <v>11.3</v>
+        <v>-11.5</v>
       </c>
       <c r="I339" t="n">
         <v>102.55</v>
@@ -21821,7 +21821,7 @@
         <v>0.01016</v>
       </c>
       <c r="S339" t="n">
-        <v>272.9323968601661</v>
+        <v>51.91991138916705</v>
       </c>
     </row>
     <row r="340">
@@ -21851,7 +21851,7 @@
         <v>-6.722222222222223</v>
       </c>
       <c r="H340" t="n">
-        <v>17.4</v>
+        <v>-8.111111111111112</v>
       </c>
       <c r="I340" t="n">
         <v>103.43</v>
@@ -21884,7 +21884,7 @@
         <v>0.01016</v>
       </c>
       <c r="S340" t="n">
-        <v>536.6148144421131</v>
+        <v>89.83279488766649</v>
       </c>
     </row>
     <row r="341">
@@ -21914,7 +21914,7 @@
         <v>-3.777777777777778</v>
       </c>
       <c r="H341" t="n">
-        <v>21.8</v>
+        <v>-5.666666666666667</v>
       </c>
       <c r="I341" t="n">
         <v>103.04</v>
@@ -21947,7 +21947,7 @@
         <v>0.01016</v>
       </c>
       <c r="S341" t="n">
-        <v>564.3051675930595</v>
+        <v>86.7145992638595</v>
       </c>
     </row>
     <row r="342">
@@ -21977,7 +21977,7 @@
         <v>-4.666666666666666</v>
       </c>
       <c r="H342" t="n">
-        <v>8.800000000000001</v>
+        <v>-12.88888888888889</v>
       </c>
       <c r="I342" t="n">
         <v>103.33</v>
@@ -22010,7 +22010,7 @@
         <v>0.01016</v>
       </c>
       <c r="S342" t="n">
-        <v>261.5814707903741</v>
+        <v>52.60719924224975</v>
       </c>
     </row>
     <row r="343">
@@ -22040,7 +22040,7 @@
         <v>-1.777777777777777</v>
       </c>
       <c r="H343" t="n">
-        <v>4.5</v>
+        <v>-15.27777777777778</v>
       </c>
       <c r="I343" t="n">
         <v>103.11</v>
@@ -22073,7 +22073,7 @@
         <v>0.01016</v>
       </c>
       <c r="S343" t="n">
-        <v>156.9224160412189</v>
+        <v>34.89179284711022</v>
       </c>
     </row>
     <row r="344">
@@ -22103,7 +22103,7 @@
         <v>-3.111111111111112</v>
       </c>
       <c r="H344" t="n">
-        <v>9.800000000000001</v>
+        <v>-12.33333333333333</v>
       </c>
       <c r="I344" t="n">
         <v>102.52</v>
@@ -22136,7 +22136,7 @@
         <v>0.01016</v>
       </c>
       <c r="S344" t="n">
-        <v>249.0105188049348</v>
+        <v>48.96547515589751</v>
       </c>
     </row>
     <row r="345">
@@ -22166,7 +22166,7 @@
         <v>-0.4444444444444449</v>
       </c>
       <c r="H345" t="n">
-        <v>11.2</v>
+        <v>-11.55555555555556</v>
       </c>
       <c r="I345" t="n">
         <v>102.29</v>
@@ -22199,7 +22199,7 @@
         <v>0.01016</v>
       </c>
       <c r="S345" t="n">
-        <v>224.6377911903487</v>
+        <v>42.82642397281474</v>
       </c>
     </row>
     <row r="346">
@@ -22229,7 +22229,7 @@
         <v>-0.6666666666666663</v>
       </c>
       <c r="H346" t="n">
-        <v>19.9</v>
+        <v>-6.722222222222223</v>
       </c>
       <c r="I346" t="n">
         <v>102.79</v>
@@ -22262,7 +22262,7 @@
         <v>0.01016</v>
       </c>
       <c r="S346" t="n">
-        <v>398.8789730717727</v>
+        <v>63.56239225305993</v>
       </c>
     </row>
     <row r="347">
@@ -22292,7 +22292,7 @@
         <v>-1.777777777777777</v>
       </c>
       <c r="H347" t="n">
-        <v>16.1</v>
+        <v>-8.833333333333332</v>
       </c>
       <c r="I347" t="n">
         <v>102.26</v>
@@ -22325,7 +22325,7 @@
         <v>0.01016</v>
       </c>
       <c r="S347" t="n">
-        <v>340.6969034689864</v>
+        <v>58.55646923305702</v>
       </c>
     </row>
     <row r="348">
@@ -22355,7 +22355,7 @@
         <v>-0.3333333333333341</v>
       </c>
       <c r="H348" t="n">
-        <v>17.3</v>
+        <v>-8.166666666666666</v>
       </c>
       <c r="I348" t="n">
         <v>102.37</v>
@@ -22388,7 +22388,7 @@
         <v>0.01016</v>
       </c>
       <c r="S348" t="n">
-        <v>330.8021039721363</v>
+        <v>55.48974366840349</v>
       </c>
     </row>
     <row r="349">
@@ -22418,7 +22418,7 @@
         <v>-6.888888888888888</v>
       </c>
       <c r="H349" t="n">
-        <v>13.2</v>
+        <v>-10.44444444444444</v>
       </c>
       <c r="I349" t="n">
         <v>103.87</v>
@@ -22451,7 +22451,7 @@
         <v>0.01016</v>
       </c>
       <c r="S349" t="n">
-        <v>414.9897549452671</v>
+        <v>75.77310399069009</v>
       </c>
     </row>
     <row r="350">
@@ -22481,7 +22481,7 @@
         <v>-5.555555555555555</v>
       </c>
       <c r="H350" t="n">
-        <v>0.2</v>
+        <v>-17.66666666666667</v>
       </c>
       <c r="I350" t="n">
         <v>103.65</v>
@@ -22514,7 +22514,7 @@
         <v>0.01016</v>
       </c>
       <c r="S350" t="n">
-        <v>153.2748800390048</v>
+        <v>37.9181121767265</v>
       </c>
     </row>
     <row r="351">
@@ -22544,7 +22544,7 @@
         <v>-0.7222222222222227</v>
       </c>
       <c r="H351" t="n">
-        <v>-3.3</v>
+        <v>-19.61111111111111</v>
       </c>
       <c r="I351" t="n">
         <v>101.93</v>
@@ -22577,7 +22577,7 @@
         <v>0.01016</v>
       </c>
       <c r="S351" t="n">
-        <v>82.67979071505607</v>
+        <v>22.42028596816485</v>
       </c>
     </row>
     <row r="352">
@@ -22607,7 +22607,7 @@
         <v>1.055555555555555</v>
       </c>
       <c r="H352" t="n">
-        <v>6.7</v>
+        <v>-14.05555555555556</v>
       </c>
       <c r="I352" t="n">
         <v>101.63</v>
@@ -22640,7 +22640,7 @@
         <v>0.01016</v>
       </c>
       <c r="S352" t="n">
-        <v>148.722185452691</v>
+        <v>31.38890976926787</v>
       </c>
     </row>
     <row r="353">
@@ -22670,7 +22670,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="H353" t="n">
-        <v>18.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I353" t="n">
         <v>101.93</v>
@@ -22703,7 +22703,7 @@
         <v>0.01016</v>
       </c>
       <c r="S353" t="n">
-        <v>308.813847456622</v>
+        <v>50.57721660047364</v>
       </c>
     </row>
     <row r="354">
@@ -22733,7 +22733,7 @@
         <v>4.944444444444444</v>
       </c>
       <c r="H354" t="n">
-        <v>27.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I354" t="n">
         <v>100.9</v>
@@ -22766,7 +22766,7 @@
         <v>0.01016</v>
       </c>
       <c r="S354" t="n">
-        <v>422.669232875993</v>
+        <v>58.56925977848476</v>
       </c>
     </row>
     <row r="355">
@@ -22796,7 +22796,7 @@
         <v>4.722222222222222</v>
       </c>
       <c r="H355" t="n">
-        <v>31.3</v>
+        <v>-0.3888888888888885</v>
       </c>
       <c r="I355" t="n">
         <v>100.31</v>
@@ -22829,7 +22829,7 @@
         <v>0.01016</v>
       </c>
       <c r="S355" t="n">
-        <v>534.6669732008475</v>
+        <v>69.45975564629268</v>
       </c>
     </row>
     <row r="356">
@@ -22859,7 +22859,7 @@
         <v>3.555555555555555</v>
       </c>
       <c r="H356" t="n">
-        <v>30.8</v>
+        <v>-0.6666666666666663</v>
       </c>
       <c r="I356" t="n">
         <v>100.41</v>
@@ -22892,7 +22892,7 @@
         <v>0.01016</v>
       </c>
       <c r="S356" t="n">
-        <v>563.9461800307007</v>
+        <v>73.8737659642933</v>
       </c>
     </row>
     <row r="357">
@@ -22922,7 +22922,7 @@
         <v>2.277777777777779</v>
       </c>
       <c r="H357" t="n">
-        <v>22.4</v>
+        <v>-5.333333333333334</v>
       </c>
       <c r="I357" t="n">
         <v>100.66</v>
@@ -22955,7 +22955,7 @@
         <v>0.01693333333333333</v>
       </c>
       <c r="S357" t="n">
-        <v>376.1435126969702</v>
+        <v>57.15242669446424</v>
       </c>
     </row>
     <row r="358">
@@ -22985,7 +22985,7 @@
         <v>0.9999999999999984</v>
       </c>
       <c r="H358" t="n">
-        <v>19</v>
+        <v>-7.222222222222222</v>
       </c>
       <c r="I358" t="n">
         <v>101.08</v>
@@ -23018,7 +23018,7 @@
         <v>0.02370666666666667</v>
       </c>
       <c r="S358" t="n">
-        <v>334.2441372820699</v>
+        <v>54.20577138139559</v>
       </c>
     </row>
     <row r="359">
@@ -23048,7 +23048,7 @@
         <v>-1.277777777777778</v>
       </c>
       <c r="H359" t="n">
-        <v>25.6</v>
+        <v>-3.555555555555555</v>
       </c>
       <c r="I359" t="n">
         <v>101.82</v>
@@ -23081,7 +23081,7 @@
         <v>0.03048</v>
       </c>
       <c r="S359" t="n">
-        <v>589.5529493227932</v>
+        <v>84.48255811565014</v>
       </c>
     </row>
     <row r="360">
@@ -23111,7 +23111,7 @@
         <v>2.055555555555557</v>
       </c>
       <c r="H360" t="n">
-        <v>23.7</v>
+        <v>-4.611111111111112</v>
       </c>
       <c r="I360" t="n">
         <v>101.47</v>
@@ -23144,7 +23144,7 @@
         <v>0.02032</v>
       </c>
       <c r="S360" t="n">
-        <v>413.4516475493809</v>
+        <v>61.32464512720458</v>
       </c>
     </row>
     <row r="361">
@@ -23174,7 +23174,7 @@
         <v>-1.166666666666667</v>
       </c>
       <c r="H361" t="n">
-        <v>18.8</v>
+        <v>-7.333333333333333</v>
       </c>
       <c r="I361" t="n">
         <v>102.07</v>
@@ -23207,7 +23207,7 @@
         <v>0.03048</v>
       </c>
       <c r="S361" t="n">
-        <v>386.3379348724429</v>
+        <v>62.90078547226761</v>
       </c>
     </row>
     <row r="362">
@@ -23237,7 +23237,7 @@
         <v>-0.6666666666666663</v>
       </c>
       <c r="H362" t="n">
-        <v>20</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="I362" t="n">
         <v>101.97</v>
@@ -23270,7 +23270,7 @@
         <v>0.04064</v>
       </c>
       <c r="S362" t="n">
-        <v>401.3594038597129</v>
+        <v>63.8339145049102</v>
       </c>
     </row>
     <row r="363">
@@ -23300,7 +23300,7 @@
         <v>1.388888888888889</v>
       </c>
       <c r="H363" t="n">
-        <v>22.8</v>
+        <v>-5.111111111111111</v>
       </c>
       <c r="I363" t="n">
         <v>101.09</v>
@@ -23333,7 +23333,7 @@
         <v>0.0508</v>
       </c>
       <c r="S363" t="n">
-        <v>410.6822735109361</v>
+        <v>61.93626766982554</v>
       </c>
     </row>
     <row r="364">
@@ -23363,7 +23363,7 @@
         <v>4.666666666666666</v>
       </c>
       <c r="H364" t="n">
-        <v>13.5</v>
+        <v>-10.27777777777778</v>
       </c>
       <c r="I364" t="n">
         <v>101.14</v>
@@ -23396,7 +23396,7 @@
         <v>0.04402666666666667</v>
       </c>
       <c r="S364" t="n">
-        <v>181.4688750547671</v>
+        <v>32.92397961054809</v>
       </c>
     </row>
     <row r="365">
@@ -23426,7 +23426,7 @@
         <v>5.555555555555555</v>
       </c>
       <c r="H365" t="n">
-        <v>27.4</v>
+        <v>-2.555555555555556</v>
       </c>
       <c r="I365" t="n">
         <v>99.62</v>
@@ -23459,7 +23459,7 @@
         <v>0.03725333333333333</v>
       </c>
       <c r="S365" t="n">
-        <v>402.7173145976066</v>
+        <v>55.90194773030559</v>
       </c>
     </row>
     <row r="366">
@@ -23489,7 +23489,7 @@
         <v>-4.777777777777779</v>
       </c>
       <c r="H366" t="n">
-        <v>18.6</v>
+        <v>-7.444444444444444</v>
       </c>
       <c r="I366" t="n">
         <v>102.58</v>
@@ -23522,7 +23522,7 @@
         <v>0.03048</v>
       </c>
       <c r="S366" t="n">
-        <v>499.0835024923039</v>
+        <v>81.5781202125203</v>
       </c>
     </row>
     <row r="367">
@@ -23552,7 +23552,7 @@
         <v>5.277777777777778</v>
       </c>
       <c r="H367" t="n">
-        <v>13.1</v>
+        <v>-10.5</v>
       </c>
       <c r="I367" t="n">
         <v>101.32</v>
@@ -23585,7 +23585,7 @@
         <v>0.02370666666666667</v>
       </c>
       <c r="S367" t="n">
-        <v>169.4227254367941</v>
+        <v>31.00091191693155</v>
       </c>
     </row>
     <row r="368">
@@ -23615,7 +23615,7 @@
         <v>5</v>
       </c>
       <c r="H368" t="n">
-        <v>29.6</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="I368" t="n">
         <v>100.82</v>
@@ -23648,7 +23648,7 @@
         <v>0.01693333333333333</v>
       </c>
       <c r="S368" t="n">
-        <v>475.7077011666136</v>
+        <v>63.58315761496328</v>
       </c>
     </row>
     <row r="369">
@@ -23678,7 +23678,7 @@
         <v>1.777777777777779</v>
       </c>
       <c r="H369" t="n">
-        <v>32.6</v>
+        <v>0.3333333333333341</v>
       </c>
       <c r="I369" t="n">
         <v>101.82</v>
@@ -23711,7 +23711,7 @@
         <v>0.01016</v>
       </c>
       <c r="S369" t="n">
-        <v>708.7128777104585</v>
+        <v>90.13004302756902</v>
       </c>
     </row>
     <row r="370">
@@ -23741,7 +23741,7 @@
         <v>5.944444444444446</v>
       </c>
       <c r="H370" t="n">
-        <v>13.7</v>
+        <v>-10.16666666666667</v>
       </c>
       <c r="I370" t="n">
         <v>101.23</v>
@@ -23774,7 +23774,7 @@
         <v>0.01241777777777778</v>
       </c>
       <c r="S370" t="n">
-        <v>168.2229654642878</v>
+        <v>30.39183407186231</v>
       </c>
     </row>
     <row r="371">
@@ -23804,7 +23804,7 @@
         <v>11.22222222222222</v>
       </c>
       <c r="H371" t="n">
-        <v>30.5</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="I371" t="n">
         <v>100.85</v>
@@ -23837,7 +23837,7 @@
         <v>0.01467555555555556</v>
       </c>
       <c r="S371" t="n">
-        <v>328.1937836827929</v>
+        <v>43.20724693862891</v>
       </c>
     </row>
     <row r="372">
@@ -23867,7 +23867,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H372" t="n">
-        <v>28.9</v>
+        <v>-1.722222222222223</v>
       </c>
       <c r="I372" t="n">
         <v>100.15</v>
@@ -23900,7 +23900,7 @@
         <v>0.01693333333333333</v>
       </c>
       <c r="S372" t="n">
-        <v>258.5993601156792</v>
+        <v>34.97848320229894</v>
       </c>
     </row>
     <row r="373">
@@ -23930,7 +23930,7 @@
         <v>0.9999999999999984</v>
       </c>
       <c r="H373" t="n">
-        <v>22.9</v>
+        <v>-5.055555555555556</v>
       </c>
       <c r="I373" t="n">
         <v>101.83</v>
@@ -23963,7 +23963,7 @@
         <v>0.01919111111111111</v>
       </c>
       <c r="S373" t="n">
-        <v>424.8900491272933</v>
+        <v>63.95992558506835</v>
       </c>
     </row>
     <row r="374">
@@ -23993,7 +23993,7 @@
         <v>7.055555555555557</v>
       </c>
       <c r="H374" t="n">
-        <v>21.5</v>
+        <v>-5.833333333333334</v>
       </c>
       <c r="I374" t="n">
         <v>100.7</v>
@@ -24026,7 +24026,7 @@
         <v>0.02144888888888889</v>
       </c>
       <c r="S374" t="n">
-        <v>254.9820188374267</v>
+        <v>39.40503509981082</v>
       </c>
     </row>
     <row r="375">
@@ -24056,7 +24056,7 @@
         <v>4.388888888888888</v>
       </c>
       <c r="H375" t="n">
-        <v>11.7</v>
+        <v>-11.27777777777778</v>
       </c>
       <c r="I375" t="n">
         <v>101.73</v>
@@ -24089,7 +24089,7 @@
         <v>0.02370666666666667</v>
       </c>
       <c r="S375" t="n">
-        <v>164.4205519927285</v>
+        <v>31.00614231093242</v>
       </c>
     </row>
     <row r="376">
@@ -24119,7 +24119,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H376" t="n">
-        <v>30.1</v>
+        <v>-1.055555555555555</v>
       </c>
       <c r="I376" t="n">
         <v>100.69</v>
@@ -24152,7 +24152,7 @@
         <v>0.02596444444444444</v>
       </c>
       <c r="S376" t="n">
-        <v>441.2927640834895</v>
+        <v>58.48781675581821</v>
       </c>
     </row>
     <row r="377">
@@ -24182,7 +24182,7 @@
         <v>10</v>
       </c>
       <c r="H377" t="n">
-        <v>32.3</v>
+        <v>0.1666666666666651</v>
       </c>
       <c r="I377" t="n">
         <v>100.13</v>
@@ -24215,7 +24215,7 @@
         <v>0.02822222222222222</v>
       </c>
       <c r="S377" t="n">
-        <v>394.4650354268465</v>
+        <v>50.41127947676944</v>
       </c>
     </row>
     <row r="378">
@@ -24245,7 +24245,7 @@
         <v>8.055555555555555</v>
       </c>
       <c r="H378" t="n">
-        <v>37.6</v>
+        <v>3.111111111111112</v>
       </c>
       <c r="I378" t="n">
         <v>100.08</v>
@@ -24278,7 +24278,7 @@
         <v>0.03048</v>
       </c>
       <c r="S378" t="n">
-        <v>603.5733420455081</v>
+        <v>70.96873364792546</v>
       </c>
     </row>
     <row r="379">
@@ -24308,7 +24308,7 @@
         <v>3.833333333333333</v>
       </c>
       <c r="H379" t="n">
-        <v>35</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I379" t="n">
         <v>101.67</v>
@@ -24341,7 +24341,7 @@
         <v>0.02935111111111111</v>
       </c>
       <c r="S379" t="n">
-        <v>700.6127572084309</v>
+        <v>85.74959523487084</v>
       </c>
     </row>
     <row r="380">
@@ -24371,7 +24371,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="H380" t="n">
-        <v>30.1</v>
+        <v>-1.055555555555555</v>
       </c>
       <c r="I380" t="n">
         <v>102.46</v>
@@ -24404,7 +24404,7 @@
         <v>0.02822222222222222</v>
       </c>
       <c r="S380" t="n">
-        <v>537.5370583581313</v>
+        <v>71.24378989990379</v>
       </c>
     </row>
     <row r="381">
@@ -24434,7 +24434,7 @@
         <v>2.611111111111113</v>
       </c>
       <c r="H381" t="n">
-        <v>26.9</v>
+        <v>-2.833333333333334</v>
       </c>
       <c r="I381" t="n">
         <v>101.85</v>
@@ -24467,7 +24467,7 @@
         <v>0.02709333333333333</v>
       </c>
       <c r="S381" t="n">
-        <v>480.8483748409091</v>
+        <v>67.33460833615244</v>
       </c>
     </row>
     <row r="382">
@@ -24497,7 +24497,7 @@
         <v>2.611111111111113</v>
       </c>
       <c r="H382" t="n">
-        <v>35.2</v>
+        <v>1.777777777777779</v>
       </c>
       <c r="I382" t="n">
         <v>102.01</v>
@@ -24530,7 +24530,7 @@
         <v>0.02596444444444444</v>
       </c>
       <c r="S382" t="n">
-        <v>772.3468265399242</v>
+        <v>94.2332545711192</v>
       </c>
     </row>
     <row r="383">
@@ -24560,7 +24560,7 @@
         <v>10.72222222222222</v>
       </c>
       <c r="H383" t="n">
-        <v>33.2</v>
+        <v>0.6666666666666683</v>
       </c>
       <c r="I383" t="n">
         <v>101.07</v>
@@ -24593,7 +24593,7 @@
         <v>0.02483555555555556</v>
       </c>
       <c r="S383" t="n">
-        <v>395.461997135042</v>
+        <v>49.80701648249772</v>
       </c>
     </row>
     <row r="384">
@@ -24623,7 +24623,7 @@
         <v>9.555555555555557</v>
       </c>
       <c r="H384" t="n">
-        <v>35.1</v>
+        <v>1.722222222222223</v>
       </c>
       <c r="I384" t="n">
         <v>100.49</v>
@@ -24656,7 +24656,7 @@
         <v>0.02370666666666666</v>
       </c>
       <c r="S384" t="n">
-        <v>475.3874924378588</v>
+        <v>58.09251906289026</v>
       </c>
     </row>
     <row r="385">
@@ -24686,7 +24686,7 @@
         <v>10.72222222222222</v>
       </c>
       <c r="H385" t="n">
-        <v>42</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I385" t="n">
         <v>100.85</v>
@@ -24719,7 +24719,7 @@
         <v>0.02257777777777778</v>
       </c>
       <c r="S385" t="n">
-        <v>638.6456187077551</v>
+        <v>70.3910294773973</v>
       </c>
     </row>
     <row r="386">
@@ -24749,7 +24749,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H386" t="n">
-        <v>49.4</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="I386" t="n">
         <v>100.64</v>
@@ -24782,7 +24782,7 @@
         <v>0.02144888888888889</v>
       </c>
       <c r="S386" t="n">
-        <v>786.8479015155588</v>
+        <v>78.45597599465952</v>
       </c>
     </row>
     <row r="387">
@@ -24812,7 +24812,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H387" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I387" t="n">
         <v>100.78</v>
@@ -24845,7 +24845,7 @@
         <v>0.02032</v>
       </c>
       <c r="S387" t="n">
-        <v>772.6341026130881</v>
+        <v>83.37658100291127</v>
       </c>
     </row>
     <row r="388">
@@ -24875,7 +24875,7 @@
         <v>8.388888888888889</v>
       </c>
       <c r="H388" t="n">
-        <v>44.3</v>
+        <v>6.833333333333332</v>
       </c>
       <c r="I388" t="n">
         <v>101.12</v>
@@ -24908,7 +24908,7 @@
         <v>0.01919111111111111</v>
       </c>
       <c r="S388" t="n">
-        <v>842.6639167338137</v>
+        <v>89.92956021481203</v>
       </c>
     </row>
     <row r="389">
@@ -24938,7 +24938,7 @@
         <v>8.666666666666668</v>
       </c>
       <c r="H389" t="n">
-        <v>46.1</v>
+        <v>7.833333333333335</v>
       </c>
       <c r="I389" t="n">
         <v>101.08</v>
@@ -24971,7 +24971,7 @@
         <v>0.01806222222222222</v>
       </c>
       <c r="S389" t="n">
-        <v>907.4820977539579</v>
+        <v>94.49965996677035</v>
       </c>
     </row>
     <row r="390">
@@ -25001,7 +25001,7 @@
         <v>6.888888888888888</v>
       </c>
       <c r="H390" t="n">
-        <v>42.1</v>
+        <v>5.611111111111112</v>
       </c>
       <c r="I390" t="n">
         <v>101.57</v>
@@ -25034,7 +25034,7 @@
         <v>0.01693333333333333</v>
       </c>
       <c r="S390" t="n">
-        <v>831.9198814767238</v>
+        <v>91.56308862906465</v>
       </c>
     </row>
     <row r="391">
@@ -25064,7 +25064,7 @@
         <v>7.888888888888891</v>
       </c>
       <c r="H391" t="n">
-        <v>37.9</v>
+        <v>3.277777777777777</v>
       </c>
       <c r="I391" t="n">
         <v>101.44</v>
@@ -25097,7 +25097,7 @@
         <v>0.01580444444444444</v>
       </c>
       <c r="S391" t="n">
-        <v>620.4999449274194</v>
+        <v>72.62886575382329</v>
       </c>
     </row>
     <row r="392">
@@ -25127,7 +25127,7 @@
         <v>15.5</v>
       </c>
       <c r="H392" t="n">
-        <v>31.9</v>
+        <v>-0.05555555555555635</v>
       </c>
       <c r="I392" t="n">
         <v>101.02</v>
@@ -25160,7 +25160,7 @@
         <v>0.01467555555555556</v>
       </c>
       <c r="S392" t="n">
-        <v>268.9275635637042</v>
+        <v>34.59353234766356</v>
       </c>
     </row>
     <row r="393">
@@ -25190,7 +25190,7 @@
         <v>7.833333333333335</v>
       </c>
       <c r="H393" t="n">
-        <v>38.4</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="I393" t="n">
         <v>101.2</v>
@@ -25223,7 +25223,7 @@
         <v>0.01354666666666667</v>
       </c>
       <c r="S393" t="n">
-        <v>639.9746545626983</v>
+        <v>74.34743332537801</v>
       </c>
     </row>
     <row r="394">
@@ -25253,7 +25253,7 @@
         <v>13.83333333333333</v>
       </c>
       <c r="H394" t="n">
-        <v>33.7</v>
+        <v>0.9444444444444461</v>
       </c>
       <c r="I394" t="n">
         <v>100.86</v>
@@ -25286,7 +25286,7 @@
         <v>0.01241777777777778</v>
       </c>
       <c r="S394" t="n">
-        <v>331.4529548859939</v>
+        <v>41.41171026711125</v>
       </c>
     </row>
     <row r="395">
@@ -25316,7 +25316,7 @@
         <v>13</v>
       </c>
       <c r="H395" t="n">
-        <v>34.4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I395" t="n">
         <v>100.62</v>
@@ -25349,7 +25349,7 @@
         <v>0.01128888888888889</v>
       </c>
       <c r="S395" t="n">
-        <v>363.9094316976513</v>
+        <v>44.96315413881111</v>
       </c>
     </row>
     <row r="396">
@@ -25379,7 +25379,7 @@
         <v>11.61111111111111</v>
       </c>
       <c r="H396" t="n">
-        <v>39.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I396" t="n">
         <v>100.9</v>
@@ -25412,7 +25412,7 @@
         <v>0.01016</v>
       </c>
       <c r="S396" t="n">
-        <v>527.024129861055</v>
+        <v>60.23258450906462</v>
       </c>
     </row>
     <row r="397">
@@ -25442,7 +25442,7 @@
         <v>14.27777777777778</v>
       </c>
       <c r="H397" t="n">
-        <v>40.6</v>
+        <v>4.777777777777779</v>
       </c>
       <c r="I397" t="n">
         <v>100.71</v>
@@ -25475,7 +25475,7 @@
         <v>0.01031630769230769</v>
       </c>
       <c r="S397" t="n">
-        <v>469.4865632830171</v>
+        <v>52.7994749641334</v>
       </c>
     </row>
     <row r="398">
@@ -25505,7 +25505,7 @@
         <v>11.72222222222222</v>
       </c>
       <c r="H398" t="n">
-        <v>45.2</v>
+        <v>7.333333333333335</v>
       </c>
       <c r="I398" t="n">
         <v>100.38</v>
@@ -25538,7 +25538,7 @@
         <v>0.01047261538461539</v>
       </c>
       <c r="S398" t="n">
-        <v>706.3286462484526</v>
+        <v>74.45496163245191</v>
       </c>
     </row>
     <row r="399">
@@ -25568,7 +25568,7 @@
         <v>14.5</v>
       </c>
       <c r="H399" t="n">
-        <v>46.4</v>
+        <v>8</v>
       </c>
       <c r="I399" t="n">
         <v>100.25</v>
@@ -25601,7 +25601,7 @@
         <v>0.01062892307692308</v>
       </c>
       <c r="S399" t="n">
-        <v>626.5722077483495</v>
+        <v>64.9849942188763</v>
       </c>
     </row>
     <row r="400">
@@ -25631,7 +25631,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H400" t="n">
-        <v>42.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I400" t="n">
         <v>101.2</v>
@@ -25664,7 +25664,7 @@
         <v>0.01078523076923077</v>
       </c>
       <c r="S400" t="n">
-        <v>744.8261498382409</v>
+        <v>81.16871373801973</v>
       </c>
     </row>
     <row r="401">
@@ -25694,7 +25694,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H401" t="n">
-        <v>50.4</v>
+        <v>10.22222222222222</v>
       </c>
       <c r="I401" t="n">
         <v>100.11</v>
@@ -25727,7 +25727,7 @@
         <v>0.01094153846153846</v>
       </c>
       <c r="S401" t="n">
-        <v>830.1794263330045</v>
+        <v>81.72626942571168</v>
       </c>
     </row>
     <row r="402">
@@ -25757,7 +25757,7 @@
         <v>12.05555555555556</v>
       </c>
       <c r="H402" t="n">
-        <v>44.7</v>
+        <v>7.055555555555557</v>
       </c>
       <c r="I402" t="n">
         <v>100.34</v>
@@ -25790,7 +25790,7 @@
         <v>0.01109784615384615</v>
       </c>
       <c r="S402" t="n">
-        <v>673.329749101159</v>
+        <v>71.46358889552877</v>
       </c>
     </row>
     <row r="403">
@@ -25820,7 +25820,7 @@
         <v>14.61111111111111</v>
       </c>
       <c r="H403" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I403" t="n">
         <v>100.16</v>
@@ -25853,7 +25853,7 @@
         <v>0.01125415384615385</v>
       </c>
       <c r="S403" t="n">
-        <v>535.4541802566439</v>
+        <v>57.78199367918925</v>
       </c>
     </row>
     <row r="404">
@@ -25883,7 +25883,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H404" t="n">
-        <v>45.6</v>
+        <v>7.555555555555556</v>
       </c>
       <c r="I404" t="n">
         <v>100.59</v>
@@ -25916,7 +25916,7 @@
         <v>0.01141046153846154</v>
       </c>
       <c r="S404" t="n">
-        <v>651.0413340430287</v>
+        <v>68.25493184236339</v>
       </c>
     </row>
     <row r="405">
@@ -25946,7 +25946,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H405" t="n">
-        <v>47.5</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="I405" t="n">
         <v>100.61</v>
@@ -25979,7 +25979,7 @@
         <v>0.01156676923076923</v>
       </c>
       <c r="S405" t="n">
-        <v>709.7251097450254</v>
+        <v>72.53985794325102</v>
       </c>
     </row>
     <row r="406">
@@ -26009,7 +26009,7 @@
         <v>18.38888888888889</v>
       </c>
       <c r="H406" t="n">
-        <v>48.8</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="I406" t="n">
         <v>100.035</v>
@@ -26042,7 +26042,7 @@
         <v>0.01172307692307692</v>
       </c>
       <c r="S406" t="n">
-        <v>552.517132180692</v>
+        <v>55.51949487999135</v>
       </c>
     </row>
     <row r="407">
@@ -26072,7 +26072,7 @@
         <v>19.05555555555555</v>
       </c>
       <c r="H407" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I407" t="n">
         <v>99.46000000000001</v>
@@ -26105,7 +26105,7 @@
         <v>0.01187938461538462</v>
       </c>
       <c r="S407" t="n">
-        <v>688.7772958537801</v>
+        <v>64.775095088035</v>
       </c>
     </row>
     <row r="408">
@@ -26135,7 +26135,7 @@
         <v>12.33333333333334</v>
       </c>
       <c r="H408" t="n">
-        <v>51.3</v>
+        <v>10.72222222222222</v>
       </c>
       <c r="I408" t="n">
         <v>100.37</v>
@@ -26168,7 +26168,7 @@
         <v>0.01203569230769231</v>
       </c>
       <c r="S408" t="n">
-        <v>923.5216517669745</v>
+        <v>89.88999007990792</v>
       </c>
     </row>
     <row r="409">
@@ -26198,7 +26198,7 @@
         <v>6.944444444444445</v>
       </c>
       <c r="H409" t="n">
-        <v>41.2</v>
+        <v>5.111111111111112</v>
       </c>
       <c r="I409" t="n">
         <v>102.02</v>
@@ -26231,7 +26231,7 @@
         <v>0.012192</v>
       </c>
       <c r="S409" t="n">
-        <v>790.2106631849215</v>
+        <v>88.10060543958024</v>
       </c>
     </row>
     <row r="410">
@@ -26261,7 +26261,7 @@
         <v>13.83333333333333</v>
       </c>
       <c r="H410" t="n">
-        <v>40.7</v>
+        <v>4.833333333333335</v>
       </c>
       <c r="I410" t="n">
         <v>101.24</v>
@@ -26294,7 +26294,7 @@
         <v>0.01234830769230769</v>
       </c>
       <c r="S410" t="n">
-        <v>485.7997052160632</v>
+        <v>54.55481601650234</v>
       </c>
     </row>
     <row r="411">
@@ -26324,7 +26324,7 @@
         <v>13.22222222222222</v>
       </c>
       <c r="H411" t="n">
-        <v>41.3</v>
+        <v>5.166666666666665</v>
       </c>
       <c r="I411" t="n">
         <v>100.95</v>
@@ -26357,7 +26357,7 @@
         <v>0.01250461538461538</v>
       </c>
       <c r="S411" t="n">
-        <v>521.9086742142032</v>
+        <v>58.10388415281091</v>
       </c>
     </row>
     <row r="412">
@@ -26387,7 +26387,7 @@
         <v>13.38888888888889</v>
       </c>
       <c r="H412" t="n">
-        <v>44.2</v>
+        <v>6.777777777777779</v>
       </c>
       <c r="I412" t="n">
         <v>100.77</v>
@@ -26420,7 +26420,7 @@
         <v>0.01266092307692308</v>
       </c>
       <c r="S412" t="n">
-        <v>601.1850267118856</v>
+        <v>64.24747569076</v>
       </c>
     </row>
     <row r="413">
@@ -26450,7 +26450,7 @@
         <v>14.05555555555556</v>
       </c>
       <c r="H413" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I413" t="n">
         <v>100.7</v>
@@ -26483,7 +26483,7 @@
         <v>0.01281723076923077</v>
       </c>
       <c r="S413" t="n">
-        <v>631.7762527989826</v>
+        <v>65.87801540037476</v>
       </c>
     </row>
     <row r="414">
@@ -26513,7 +26513,7 @@
         <v>15.11111111111111</v>
       </c>
       <c r="H414" t="n">
-        <v>44.6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I414" t="n">
         <v>100.79</v>
@@ -26546,7 +26546,7 @@
         <v>0.01297353846153846</v>
       </c>
       <c r="S414" t="n">
-        <v>549.0153580757142</v>
+        <v>58.34961993425204</v>
       </c>
     </row>
     <row r="415">
@@ -26576,7 +26576,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H415" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I415" t="n">
         <v>100.94</v>
@@ -26609,7 +26609,7 @@
         <v>0.01312984615384616</v>
       </c>
       <c r="S415" t="n">
-        <v>440.3243369669979</v>
+        <v>50.84880086731874</v>
       </c>
     </row>
     <row r="416">
@@ -26639,7 +26639,7 @@
         <v>16.38888888888889</v>
       </c>
       <c r="H416" t="n">
-        <v>45.2</v>
+        <v>7.333333333333335</v>
       </c>
       <c r="I416" t="n">
         <v>100.67</v>
@@ -26672,7 +26672,7 @@
         <v>0.01328615384615385</v>
       </c>
       <c r="S416" t="n">
-        <v>521.8416193751347</v>
+        <v>55.00795975804916</v>
       </c>
     </row>
     <row r="417">
@@ -26702,7 +26702,7 @@
         <v>14.61111111111111</v>
       </c>
       <c r="H417" t="n">
-        <v>46.6</v>
+        <v>8.111111111111112</v>
       </c>
       <c r="I417" t="n">
         <v>100.68</v>
@@ -26735,7 +26735,7 @@
         <v>0.01344246153846154</v>
       </c>
       <c r="S417" t="n">
-        <v>628.4881620492492</v>
+        <v>65.00941984636277</v>
       </c>
     </row>
     <row r="418">
@@ -26765,7 +26765,7 @@
         <v>14.44444444444444</v>
       </c>
       <c r="H418" t="n">
-        <v>46.8</v>
+        <v>8.222222222222221</v>
       </c>
       <c r="I418" t="n">
         <v>100.7</v>
@@ -26798,7 +26798,7 @@
         <v>0.01359876923076923</v>
       </c>
       <c r="S418" t="n">
-        <v>641.8189095745427</v>
+        <v>66.21130603159995</v>
       </c>
     </row>
     <row r="419">
@@ -26828,7 +26828,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H419" t="n">
-        <v>47.8</v>
+        <v>8.777777777777777</v>
       </c>
       <c r="I419" t="n">
         <v>100.4</v>
@@ -26861,7 +26861,7 @@
         <v>0.01375507692307692</v>
       </c>
       <c r="S419" t="n">
-        <v>613.2339520245541</v>
+        <v>62.43041429978851</v>
       </c>
     </row>
     <row r="420">
@@ -26891,7 +26891,7 @@
         <v>13.61111111111111</v>
       </c>
       <c r="H420" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I420" t="n">
         <v>100.59</v>
@@ -26924,7 +26924,7 @@
         <v>0.01391138461538462</v>
       </c>
       <c r="S420" t="n">
-        <v>796.2920226791427</v>
+        <v>78.78998826131951</v>
       </c>
     </row>
     <row r="421">
@@ -26954,7 +26954,7 @@
         <v>12.11111111111111</v>
       </c>
       <c r="H421" t="n">
-        <v>41.9</v>
+        <v>5.499999999999999</v>
       </c>
       <c r="I421" t="n">
         <v>100.94</v>
@@ -26987,7 +26987,7 @@
         <v>0.01406769230769231</v>
       </c>
       <c r="S421" t="n">
-        <v>579.4659584009527</v>
+        <v>63.95943458795674</v>
       </c>
     </row>
     <row r="422">
@@ -27017,7 +27017,7 @@
         <v>13.94444444444445</v>
       </c>
       <c r="H422" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I422" t="n">
         <v>100.48</v>
@@ -27050,7 +27050,7 @@
         <v>0.014224</v>
       </c>
       <c r="S422" t="n">
-        <v>544.636634605409</v>
+        <v>59.18589411547725</v>
       </c>
     </row>
     <row r="423">
@@ -27080,7 +27080,7 @@
         <v>18.72222222222222</v>
       </c>
       <c r="H423" t="n">
-        <v>43.1</v>
+        <v>6.166666666666668</v>
       </c>
       <c r="I423" t="n">
         <v>100.22</v>
@@ -27113,7 +27113,7 @@
         <v>0.01438030769230769</v>
       </c>
       <c r="S423" t="n">
-        <v>403.769455821856</v>
+        <v>43.81621952846474</v>
       </c>
     </row>
     <row r="424">
@@ -27143,7 +27143,7 @@
         <v>17.27777777777778</v>
       </c>
       <c r="H424" t="n">
-        <v>50.6</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="I424" t="n">
         <v>100.37</v>
@@ -27176,7 +27176,7 @@
         <v>0.01453661538461539</v>
       </c>
       <c r="S424" t="n">
-        <v>648.4450039762162</v>
+        <v>63.67412356911587</v>
       </c>
     </row>
     <row r="425">
@@ -27206,7 +27206,7 @@
         <v>18.83333333333334</v>
       </c>
       <c r="H425" t="n">
-        <v>51.6</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="I425" t="n">
         <v>100.1</v>
@@ -27239,7 +27239,7 @@
         <v>0.01469292307692308</v>
       </c>
       <c r="S425" t="n">
-        <v>617.8943920385342</v>
+        <v>59.91703882746514</v>
       </c>
     </row>
     <row r="426">
@@ -27269,7 +27269,7 @@
         <v>15.83333333333333</v>
       </c>
       <c r="H426" t="n">
-        <v>52.6</v>
+        <v>11.44444444444445</v>
       </c>
       <c r="I426" t="n">
         <v>100.39</v>
@@ -27302,7 +27302,7 @@
         <v>0.01484923076923077</v>
       </c>
       <c r="S426" t="n">
-        <v>784.6930172405423</v>
+        <v>75.1549340395179</v>
       </c>
     </row>
     <row r="427">
@@ -27332,7 +27332,7 @@
         <v>11</v>
       </c>
       <c r="H427" t="n">
-        <v>48.8</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="I427" t="n">
         <v>100.83</v>
@@ -27365,7 +27365,7 @@
         <v>0.01500553846153846</v>
       </c>
       <c r="S427" t="n">
-        <v>890.2256849064157</v>
+        <v>89.45402319042465</v>
       </c>
     </row>
     <row r="428">
@@ -27395,7 +27395,7 @@
         <v>14.55555555555556</v>
       </c>
       <c r="H428" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I428" t="n">
         <v>100.4</v>
@@ -27428,7 +27428,7 @@
         <v>0.01516184615384615</v>
       </c>
       <c r="S428" t="n">
-        <v>783.315741163916</v>
+        <v>76.62713462201002</v>
       </c>
     </row>
     <row r="429">
@@ -27458,7 +27458,7 @@
         <v>17.5</v>
       </c>
       <c r="H429" t="n">
-        <v>56</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I429" t="n">
         <v>100.06</v>
@@ -27491,7 +27491,7 @@
         <v>0.01531815384615385</v>
       </c>
       <c r="S429" t="n">
-        <v>832.3945789106856</v>
+        <v>76.53334149863041</v>
       </c>
     </row>
     <row r="430">
@@ -27521,7 +27521,7 @@
         <v>11.88888888888889</v>
       </c>
       <c r="H430" t="n">
-        <v>42.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I430" t="n">
         <v>100.72</v>
@@ -27554,7 +27554,7 @@
         <v>0.01547446153846154</v>
       </c>
       <c r="S430" t="n">
-        <v>616.5536942004704</v>
+        <v>67.19000174677696</v>
       </c>
     </row>
     <row r="431">
@@ -27584,7 +27584,7 @@
         <v>21.11111111111111</v>
       </c>
       <c r="H431" t="n">
-        <v>43.7</v>
+        <v>6.500000000000002</v>
       </c>
       <c r="I431" t="n">
         <v>100.32</v>
@@ -27617,7 +27617,7 @@
         <v>0.01563076923076923</v>
       </c>
       <c r="S431" t="n">
-        <v>359.2699190998714</v>
+        <v>38.66166059139714</v>
       </c>
     </row>
     <row r="432">
@@ -27647,7 +27647,7 @@
         <v>14</v>
       </c>
       <c r="H432" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I432" t="n">
         <v>100.14</v>
@@ -27680,7 +27680,7 @@
         <v>0.01578707692307692</v>
       </c>
       <c r="S432" t="n">
-        <v>812.0066428616474</v>
+        <v>79.43379542465418</v>
       </c>
     </row>
     <row r="433">
@@ -27710,7 +27710,7 @@
         <v>10.61111111111111</v>
       </c>
       <c r="H433" t="n">
-        <v>47.2</v>
+        <v>8.444444444444446</v>
       </c>
       <c r="I433" t="n">
         <v>101.44</v>
@@ -27743,7 +27743,7 @@
         <v>0.01594338461538462</v>
       </c>
       <c r="S433" t="n">
-        <v>842.4633437513863</v>
+        <v>86.44924792575343</v>
       </c>
     </row>
     <row r="434">
@@ -27773,7 +27773,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="H434" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I434" t="n">
         <v>100.94</v>
@@ -27806,7 +27806,7 @@
         <v>0.01609969230769231</v>
       </c>
       <c r="S434" t="n">
-        <v>546.2641756338714</v>
+        <v>59.9525038724167</v>
       </c>
     </row>
     <row r="435">
@@ -27836,7 +27836,7 @@
         <v>10.88888888888889</v>
       </c>
       <c r="H435" t="n">
-        <v>43.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="I435" t="n">
         <v>101.23</v>
@@ -27869,7 +27869,7 @@
         <v>0.016256</v>
       </c>
       <c r="S435" t="n">
-        <v>679.8021301284696</v>
+        <v>73.46141218137667</v>
       </c>
     </row>
     <row r="436">
@@ -27899,7 +27899,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H436" t="n">
-        <v>41.7</v>
+        <v>5.388888888888891</v>
       </c>
       <c r="I436" t="n">
         <v>101.03</v>
@@ -27932,7 +27932,7 @@
         <v>0.01641230769230769</v>
       </c>
       <c r="S436" t="n">
-        <v>476.75208098266</v>
+        <v>52.77284221796896</v>
       </c>
     </row>
     <row r="437">
@@ -27962,7 +27962,7 @@
         <v>14.22222222222222</v>
       </c>
       <c r="H437" t="n">
-        <v>42.7</v>
+        <v>5.944444444444446</v>
       </c>
       <c r="I437" t="n">
         <v>100.84</v>
@@ -27995,7 +27995,7 @@
         <v>0.01656861538461539</v>
       </c>
       <c r="S437" t="n">
-        <v>526.5589400981394</v>
+        <v>57.46364970306579</v>
       </c>
     </row>
     <row r="438">
@@ -28025,7 +28025,7 @@
         <v>13</v>
       </c>
       <c r="H438" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I438" t="n">
         <v>100.79</v>
@@ -28058,7 +28058,7 @@
         <v>0.01672492307692308</v>
       </c>
       <c r="S438" t="n">
-        <v>585.3049200288137</v>
+        <v>63.42705417976389</v>
       </c>
     </row>
     <row r="439">
@@ -28088,7 +28088,7 @@
         <v>8.388888888888889</v>
       </c>
       <c r="H439" t="n">
-        <v>40.9</v>
+        <v>4.944444444444444</v>
       </c>
       <c r="I439" t="n">
         <v>101.29</v>
@@ -28121,7 +28121,7 @@
         <v>0.01688123076923077</v>
       </c>
       <c r="S439" t="n">
-        <v>704.7475154009679</v>
+        <v>78.91341702986981</v>
       </c>
     </row>
     <row r="440">
@@ -28151,7 +28151,7 @@
         <v>14</v>
       </c>
       <c r="H440" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I440" t="n">
         <v>100.87</v>
@@ -28184,7 +28184,7 @@
         <v>0.01703753846153847</v>
       </c>
       <c r="S440" t="n">
-        <v>488.3042348554106</v>
+        <v>54.59838786631855</v>
       </c>
     </row>
     <row r="441">
@@ -28214,7 +28214,7 @@
         <v>9.555555555555557</v>
       </c>
       <c r="H441" t="n">
-        <v>39</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="I441" t="n">
         <v>101.26</v>
@@ -28247,7 +28247,7 @@
         <v>0.01719384615384616</v>
       </c>
       <c r="S441" t="n">
-        <v>588.3587038526018</v>
+        <v>67.74199984829863</v>
       </c>
     </row>
     <row r="442">
@@ -28277,7 +28277,7 @@
         <v>9.833333333333336</v>
       </c>
       <c r="H442" t="n">
-        <v>37.3</v>
+        <v>2.944444444444443</v>
       </c>
       <c r="I442" t="n">
         <v>101.42</v>
@@ -28310,7 +28310,7 @@
         <v>0.01735015384615385</v>
       </c>
       <c r="S442" t="n">
-        <v>526.6232287677685</v>
+        <v>62.20348680557461</v>
       </c>
     </row>
     <row r="443">
@@ -28340,7 +28340,7 @@
         <v>10.61111111111111</v>
       </c>
       <c r="H443" t="n">
-        <v>41.1</v>
+        <v>5.055555555555556</v>
       </c>
       <c r="I443" t="n">
         <v>101.3</v>
@@ -28373,7 +28373,7 @@
         <v>0.01750646153846154</v>
       </c>
       <c r="S443" t="n">
-        <v>613.4458475372857</v>
+        <v>68.49178171675599</v>
       </c>
     </row>
     <row r="444">
@@ -28403,7 +28403,7 @@
         <v>11.22222222222222</v>
       </c>
       <c r="H444" t="n">
-        <v>38</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I444" t="n">
         <v>101.47</v>
@@ -28436,7 +28436,7 @@
         <v>0.01766276923076923</v>
       </c>
       <c r="S444" t="n">
-        <v>498.6883004941529</v>
+        <v>58.28301609412284</v>
       </c>
     </row>
     <row r="445">
@@ -28466,7 +28466,7 @@
         <v>10.72222222222222</v>
       </c>
       <c r="H445" t="n">
-        <v>36.8</v>
+        <v>2.666666666666665</v>
       </c>
       <c r="I445" t="n">
         <v>101.33</v>
@@ -28499,7 +28499,7 @@
         <v>0.01781907692307692</v>
       </c>
       <c r="S445" t="n">
-        <v>482.8796396343251</v>
+        <v>57.4735685086042</v>
       </c>
     </row>
     <row r="446">
@@ -28529,7 +28529,7 @@
         <v>16.33333333333333</v>
       </c>
       <c r="H446" t="n">
-        <v>43.3</v>
+        <v>6.277777777777777</v>
       </c>
       <c r="I446" t="n">
         <v>100.45</v>
@@ -28562,7 +28562,7 @@
         <v>0.01797538461538462</v>
       </c>
       <c r="S446" t="n">
-        <v>474.4568855130911</v>
+        <v>51.34295858112961</v>
       </c>
     </row>
     <row r="447">
@@ -28592,7 +28592,7 @@
         <v>11</v>
       </c>
       <c r="H447" t="n">
-        <v>48.8</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="I447" t="n">
         <v>101.08</v>
@@ -28625,7 +28625,7 @@
         <v>0.01813169230769231</v>
       </c>
       <c r="S447" t="n">
-        <v>890.2256849064157</v>
+        <v>89.45402319042465</v>
       </c>
     </row>
     <row r="448">
@@ -28655,7 +28655,7 @@
         <v>10.27777777777778</v>
       </c>
       <c r="H448" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I448" t="n">
         <v>101.06</v>
@@ -28688,7 +28688,7 @@
         <v>0.018288</v>
       </c>
       <c r="S448" t="n">
-        <v>789.5835670351458</v>
+        <v>82.89201251472474</v>
       </c>
     </row>
     <row r="449">
@@ -28718,7 +28718,7 @@
         <v>8.166666666666668</v>
       </c>
       <c r="H449" t="n">
-        <v>39.3</v>
+        <v>4.055555555555554</v>
       </c>
       <c r="I449" t="n">
         <v>101.71</v>
@@ -28751,7 +28751,7 @@
         <v>0.01844430769230769</v>
       </c>
       <c r="S449" t="n">
-        <v>656.7661359468891</v>
+        <v>75.28266866554974</v>
       </c>
     </row>
     <row r="450">
@@ -28781,7 +28781,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="H450" t="n">
-        <v>36.9</v>
+        <v>2.722222222222221</v>
       </c>
       <c r="I450" t="n">
         <v>101.65</v>
@@ -28814,7 +28814,7 @@
         <v>0.01860061538461539</v>
       </c>
       <c r="S450" t="n">
-        <v>526.8963402188743</v>
+        <v>62.61663119016748</v>
       </c>
     </row>
     <row r="451">
@@ -28844,7 +28844,7 @@
         <v>12.77777777777778</v>
       </c>
       <c r="H451" t="n">
-        <v>37.9</v>
+        <v>3.277777777777777</v>
       </c>
       <c r="I451" t="n">
         <v>101.03</v>
@@ -28877,7 +28877,7 @@
         <v>0.01875692307692308</v>
       </c>
       <c r="S451" t="n">
-        <v>447.6543545633917</v>
+        <v>52.39747124474287</v>
       </c>
     </row>
     <row r="452">
@@ -28907,7 +28907,7 @@
         <v>12.38888888888889</v>
       </c>
       <c r="H452" t="n">
-        <v>45.3</v>
+        <v>7.388888888888888</v>
       </c>
       <c r="I452" t="n">
         <v>100.75</v>
@@ -28940,7 +28940,7 @@
         <v>0.01891323076923077</v>
       </c>
       <c r="S452" t="n">
-        <v>679.4746433852731</v>
+        <v>71.52675302816118</v>
       </c>
     </row>
     <row r="453">
@@ -28970,7 +28970,7 @@
         <v>9.333333333333332</v>
       </c>
       <c r="H453" t="n">
-        <v>42.9</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="I453" t="n">
         <v>101.44</v>
@@ -29003,7 +29003,7 @@
         <v>0.01906953846153846</v>
       </c>
       <c r="S453" t="n">
-        <v>734.8607026040871</v>
+        <v>79.97001078096859</v>
       </c>
     </row>
     <row r="454">
@@ -29033,7 +29033,7 @@
         <v>8.944444444444446</v>
       </c>
       <c r="H454" t="n">
-        <v>45.2</v>
+        <v>7.333333333333335</v>
       </c>
       <c r="I454" t="n">
         <v>101.3</v>
@@ -29066,7 +29066,7 @@
         <v>0.01922584615384616</v>
       </c>
       <c r="S454" t="n">
-        <v>850.2944342382319</v>
+        <v>89.6305704345255</v>
       </c>
     </row>
     <row r="455">
@@ -29096,7 +29096,7 @@
         <v>5.055555555555556</v>
       </c>
       <c r="H455" t="n">
-        <v>34.6</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="I455" t="n">
         <v>102.13</v>
@@ -29129,7 +29129,7 @@
         <v>0.01938215384615385</v>
       </c>
       <c r="S455" t="n">
-        <v>629.0382051483945</v>
+        <v>77.47594231070424</v>
       </c>
     </row>
     <row r="456">
@@ -29159,7 +29159,7 @@
         <v>5.388888888888891</v>
       </c>
       <c r="H456" t="n">
-        <v>29.7</v>
+        <v>-1.277777777777778</v>
       </c>
       <c r="I456" t="n">
         <v>102.44</v>
@@ -29192,7 +29192,7 @@
         <v>0.01953846153846154</v>
       </c>
       <c r="S456" t="n">
-        <v>465.6882945754785</v>
+        <v>62.13875259548536</v>
       </c>
     </row>
     <row r="457">
@@ -29222,7 +29222,7 @@
         <v>6.277777777777777</v>
       </c>
       <c r="H457" t="n">
-        <v>34.7</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="I457" t="n">
         <v>101.73</v>
@@ -29255,7 +29255,7 @@
         <v>0.01969476923076923</v>
       </c>
       <c r="S457" t="n">
-        <v>581.1729742289162</v>
+        <v>71.46771172019196</v>
       </c>
     </row>
     <row r="458">
@@ -29285,7 +29285,7 @@
         <v>2.777777777777778</v>
       </c>
       <c r="H458" t="n">
-        <v>34.5</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="I458" t="n">
         <v>102.36</v>
@@ -29318,7 +29318,7 @@
         <v>0.01985107692307692</v>
       </c>
       <c r="S458" t="n">
-        <v>734.161622794087</v>
+        <v>90.56655582803985</v>
       </c>
     </row>
     <row r="459">
@@ -29348,7 +29348,7 @@
         <v>2.777777777777778</v>
       </c>
       <c r="H459" t="n">
-        <v>24.2</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="I459" t="n">
         <v>102.63</v>
@@ -29381,7 +29381,7 @@
         <v>0.02000738461538462</v>
       </c>
       <c r="S459" t="n">
-        <v>404.7348681341184</v>
+        <v>59.4845239228905</v>
       </c>
     </row>
     <row r="460">
@@ -29411,7 +29411,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H460" t="n">
-        <v>33.3</v>
+        <v>0.7222222222222207</v>
       </c>
       <c r="I460" t="n">
         <v>101.46</v>
@@ -29444,7 +29444,7 @@
         <v>0.02016369230769231</v>
       </c>
       <c r="S460" t="n">
-        <v>519.2631703459045</v>
+        <v>65.29417740619702</v>
       </c>
     </row>
     <row r="461">
@@ -29474,7 +29474,7 @@
         <v>1.888888888888888</v>
       </c>
       <c r="H461" t="n">
-        <v>31.7</v>
+        <v>-0.1666666666666671</v>
       </c>
       <c r="I461" t="n">
         <v>102.53</v>
@@ -29507,7 +29507,7 @@
         <v>0.02032</v>
       </c>
       <c r="S461" t="n">
-        <v>668.1706460444236</v>
+        <v>86.23292378406506</v>
       </c>
     </row>
     <row r="462">
@@ -29537,7 +29537,7 @@
         <v>-1.555555555555556</v>
       </c>
       <c r="H462" t="n">
-        <v>25.8</v>
+        <v>-3.444444444444444</v>
       </c>
       <c r="I462" t="n">
         <v>102.63</v>
@@ -29570,7 +29570,7 @@
         <v>0.02032</v>
       </c>
       <c r="S462" t="n">
-        <v>608.8872343499834</v>
+        <v>86.94180624563629</v>
       </c>
     </row>
     <row r="463">
@@ -29600,7 +29600,7 @@
         <v>4.388888888888888</v>
       </c>
       <c r="H463" t="n">
-        <v>31.3</v>
+        <v>-0.3888888888888885</v>
       </c>
       <c r="I463" t="n">
         <v>102.25</v>
@@ -29633,7 +29633,7 @@
         <v>0.02032</v>
       </c>
       <c r="S463" t="n">
-        <v>547.2756970120254</v>
+        <v>71.09778252813453</v>
       </c>
     </row>
     <row r="464">
@@ -29663,7 +29663,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="H464" t="n">
-        <v>34.2</v>
+        <v>1.222222222222224</v>
       </c>
       <c r="I464" t="n">
         <v>102.39</v>
@@ -29696,7 +29696,7 @@
         <v>0.02032</v>
       </c>
       <c r="S464" t="n">
-        <v>662.310280328702</v>
+        <v>82.09229348574797</v>
       </c>
     </row>
     <row r="465">
@@ -29726,7 +29726,7 @@
         <v>5.111111111111112</v>
       </c>
       <c r="H465" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I465" t="n">
         <v>102.3</v>
@@ -29759,7 +29759,7 @@
         <v>0.02032</v>
       </c>
       <c r="S465" t="n">
-        <v>488.6286202508621</v>
+        <v>64.65288300230534</v>
       </c>
     </row>
     <row r="466">
@@ -29789,7 +29789,7 @@
         <v>3.555555555555555</v>
       </c>
       <c r="H466" t="n">
-        <v>15.7</v>
+        <v>-9.055555555555557</v>
       </c>
       <c r="I466" t="n">
         <v>102.46</v>
@@ -29822,7 +29822,7 @@
         <v>0.02032</v>
       </c>
       <c r="S466" t="n">
-        <v>226.140788066329</v>
+        <v>39.18735787138628</v>
       </c>
     </row>
     <row r="467">
@@ -29852,7 +29852,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H467" t="n">
-        <v>19.1</v>
+        <v>-7.166666666666666</v>
       </c>
       <c r="I467" t="n">
         <v>102.22</v>
@@ -29885,7 +29885,7 @@
         <v>0.02032</v>
       </c>
       <c r="S467" t="n">
-        <v>323.1828933135171</v>
+        <v>52.30923778064095</v>
       </c>
     </row>
     <row r="468">
@@ -29915,7 +29915,7 @@
         <v>4.555555555555557</v>
       </c>
       <c r="H468" t="n">
-        <v>23</v>
+        <v>-5</v>
       </c>
       <c r="I468" t="n">
         <v>102.18</v>
@@ -29948,7 +29948,7 @@
         <v>0.02032</v>
       </c>
       <c r="S468" t="n">
-        <v>332.1710897751125</v>
+        <v>49.90989581979016</v>
       </c>
     </row>
     <row r="469">
@@ -29978,7 +29978,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="H469" t="n">
-        <v>25.4</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="I469" t="n">
         <v>101.87</v>
@@ -30011,7 +30011,7 @@
         <v>0.02032</v>
       </c>
       <c r="S469" t="n">
-        <v>470.6603463571515</v>
+        <v>67.68752442249573</v>
       </c>
     </row>
     <row r="470">
@@ -30041,7 +30041,7 @@
         <v>0.3333333333333341</v>
       </c>
       <c r="H470" t="n">
-        <v>5.6</v>
+        <v>-14.66666666666667</v>
       </c>
       <c r="I470" t="n">
         <v>102.37</v>
@@ -30074,7 +30074,7 @@
         <v>0.02032</v>
       </c>
       <c r="S470" t="n">
-        <v>145.2203724731305</v>
+        <v>31.45276917588093</v>
       </c>
     </row>
     <row r="471">
@@ -30104,7 +30104,7 @@
         <v>-1.944444444444445</v>
       </c>
       <c r="H471" t="n">
-        <v>7.8</v>
+        <v>-13.44444444444444</v>
       </c>
       <c r="I471" t="n">
         <v>102.21</v>
@@ -30137,7 +30137,7 @@
         <v>0.02032</v>
       </c>
       <c r="S471" t="n">
-        <v>199.5091392024185</v>
+        <v>41.04928291451276</v>
       </c>
     </row>
     <row r="472">
@@ -30167,7 +30167,7 @@
         <v>0.4999999999999992</v>
       </c>
       <c r="H472" t="n">
-        <v>10.9</v>
+        <v>-11.72222222222222</v>
       </c>
       <c r="I472" t="n">
         <v>102.365</v>
@@ -30200,7 +30200,7 @@
         <v>0.02032</v>
       </c>
       <c r="S472" t="n">
-        <v>205.6238304547883</v>
+        <v>39.46034567441263</v>
       </c>
     </row>
     <row r="473">
@@ -30230,7 +30230,7 @@
         <v>1.777777777777779</v>
       </c>
       <c r="H473" t="n">
-        <v>18.4</v>
+        <v>-7.555555555555556</v>
       </c>
       <c r="I473" t="n">
         <v>102.52</v>
@@ -30263,7 +30263,7 @@
         <v>0.02032</v>
       </c>
       <c r="S473" t="n">
-        <v>304.4534175355635</v>
+        <v>49.96177883204334</v>
       </c>
     </row>
     <row r="474">
@@ -30293,7 +30293,7 @@
         <v>-4.500000000000001</v>
       </c>
       <c r="H474" t="n">
-        <v>-0.3</v>
+        <v>-17.94444444444444</v>
       </c>
       <c r="I474" t="n">
         <v>103.68</v>
@@ -30326,7 +30326,7 @@
         <v>0.02032</v>
       </c>
       <c r="S474" t="n">
-        <v>136.4655300676746</v>
+        <v>34.19580312536402</v>
       </c>
     </row>
     <row r="475">
@@ -30356,7 +30356,7 @@
         <v>-5.833333333333334</v>
       </c>
       <c r="H475" t="n">
-        <v>-3.9</v>
+        <v>-19.94444444444444</v>
       </c>
       <c r="I475" t="n">
         <v>103.53</v>
@@ -30389,7 +30389,7 @@
         <v>0.02032</v>
       </c>
       <c r="S475" t="n">
-        <v>115.72873679847</v>
+        <v>31.89476474990711</v>
       </c>
     </row>
     <row r="476">
@@ -30419,7 +30419,7 @@
         <v>-3.166666666666667</v>
       </c>
       <c r="H476" t="n">
-        <v>7.5</v>
+        <v>-13.61111111111111</v>
       </c>
       <c r="I476" t="n">
         <v>102.43</v>
@@ -30452,7 +30452,7 @@
         <v>0.02032</v>
       </c>
       <c r="S476" t="n">
-        <v>214.0010031419775</v>
+        <v>44.33608216463173</v>
       </c>
     </row>
     <row r="477">
@@ -30482,7 +30482,7 @@
         <v>-1.777777777777777</v>
       </c>
       <c r="H477" t="n">
-        <v>8.1</v>
+        <v>-13.27777777777778</v>
       </c>
       <c r="I477" t="n">
         <v>102.19</v>
@@ -30515,7 +30515,7 @@
         <v>0.02032</v>
       </c>
       <c r="S477" t="n">
-        <v>201.1385084422117</v>
+        <v>41.1009584279749</v>
       </c>
     </row>
     <row r="478">
@@ -30545,7 +30545,7 @@
         <v>-1.222222222222222</v>
       </c>
       <c r="H478" t="n">
-        <v>-1.9</v>
+        <v>-18.83333333333333</v>
       </c>
       <c r="I478" t="n">
         <v>102.58</v>
@@ -30578,7 +30578,7 @@
         <v>0.02032</v>
       </c>
       <c r="S478" t="n">
-        <v>95.1399721952552</v>
+        <v>24.85531018036252</v>
       </c>
     </row>
     <row r="479">
@@ -30608,7 +30608,7 @@
         <v>-0.3888888888888885</v>
       </c>
       <c r="H479" t="n">
-        <v>0.9</v>
+        <v>-17.27777777777778</v>
       </c>
       <c r="I479" t="n">
         <v>102.06</v>
@@ -30641,7 +30641,7 @@
         <v>0.02032</v>
       </c>
       <c r="S479" t="n">
-        <v>109.7829553473626</v>
+        <v>26.67922401961639</v>
       </c>
     </row>
     <row r="480">
@@ -30671,7 +30671,7 @@
         <v>-6.055555555555555</v>
       </c>
       <c r="H480" t="n">
-        <v>9</v>
+        <v>-12.77777777777778</v>
       </c>
       <c r="I480" t="n">
         <v>103.46</v>
@@ -30704,7 +30704,7 @@
         <v>0.02032</v>
       </c>
       <c r="S480" t="n">
-        <v>294.603597100703</v>
+        <v>58.98098738554602</v>
       </c>
     </row>
     <row r="481">
@@ -30734,7 +30734,7 @@
         <v>-3.055555555555556</v>
       </c>
       <c r="H481" t="n">
-        <v>3.7</v>
+        <v>-15.72222222222222</v>
       </c>
       <c r="I481" t="n">
         <v>102.97</v>
@@ -30767,7 +30767,7 @@
         <v>0.02032</v>
       </c>
       <c r="S481" t="n">
-        <v>163.0729728463686</v>
+        <v>36.9682211536521</v>
       </c>
     </row>
     <row r="482">
@@ -30797,7 +30797,7 @@
         <v>-3.5</v>
       </c>
       <c r="H482" t="n">
-        <v>4.9</v>
+        <v>-15.05555555555556</v>
       </c>
       <c r="I482" t="n">
         <v>102.97</v>
@@ -30830,7 +30830,7 @@
         <v>0.02032</v>
       </c>
       <c r="S482" t="n">
-        <v>183.3543259014939</v>
+        <v>40.37949796935517</v>
       </c>
     </row>
     <row r="483">
@@ -30860,7 +30860,7 @@
         <v>-10.05555555555556</v>
       </c>
       <c r="H483" t="n">
-        <v>3.1</v>
+        <v>-16.05555555555556</v>
       </c>
       <c r="I483" t="n">
         <v>103.32</v>
@@ -30893,7 +30893,7 @@
         <v>0.02032</v>
       </c>
       <c r="S483" t="n">
-        <v>267.3154853254554</v>
+        <v>61.49498981728981</v>
       </c>
     </row>
     <row r="484">
@@ -30923,7 +30923,7 @@
         <v>-6.5</v>
       </c>
       <c r="H484" t="n">
-        <v>-1.2</v>
+        <v>-18.44444444444445</v>
       </c>
       <c r="I484" t="n">
         <v>102.91</v>
@@ -30956,7 +30956,7 @@
         <v>0.02032</v>
       </c>
       <c r="S484" t="n">
-        <v>148.7517917283789</v>
+        <v>38.15452274706973</v>
       </c>
     </row>
     <row r="485">
@@ -30986,7 +30986,7 @@
         <v>-2.555555555555556</v>
       </c>
       <c r="H485" t="n">
-        <v>-8.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I485" t="n">
         <v>103.32</v>
@@ -31019,7 +31019,7 @@
         <v>0.02032</v>
       </c>
       <c r="S485" t="n">
-        <v>63.65372143261585</v>
+        <v>19.95747080230192</v>
       </c>
     </row>
     <row r="486">
@@ -31049,7 +31049,7 @@
         <v>0.3333333333333341</v>
       </c>
       <c r="H486" t="n">
-        <v>-8.4</v>
+        <v>-22.44444444444445</v>
       </c>
       <c r="I486" t="n">
         <v>102.16</v>
@@ -31082,7 +31082,7 @@
         <v>0.02032</v>
       </c>
       <c r="S486" t="n">
-        <v>51.91846392049646</v>
+        <v>16.23103864333276</v>
       </c>
     </row>
     <row r="487">
@@ -31112,7 +31112,7 @@
         <v>-4.500000000000001</v>
       </c>
       <c r="H487" t="n">
-        <v>3.8</v>
+        <v>-15.66666666666667</v>
       </c>
       <c r="I487" t="n">
         <v>102.34</v>
@@ -31145,7 +31145,7 @@
         <v>0.02032</v>
       </c>
       <c r="S487" t="n">
-        <v>182.9815462564755</v>
+        <v>41.38067837990448</v>
       </c>
     </row>
     <row r="488">
@@ -31175,7 +31175,7 @@
         <v>1.444444444444445</v>
       </c>
       <c r="H488" t="n">
-        <v>4.3</v>
+        <v>-15.38888888888889</v>
       </c>
       <c r="I488" t="n">
         <v>100.84</v>
@@ -31208,7 +31208,7 @@
         <v>0.02032</v>
       </c>
       <c r="S488" t="n">
-        <v>122.436430798756</v>
+        <v>27.35533908203681</v>
       </c>
     </row>
     <row r="489">
@@ -31238,7 +31238,7 @@
         <v>-3.5</v>
       </c>
       <c r="H489" t="n">
-        <v>-0.7</v>
+        <v>-18.16666666666667</v>
       </c>
       <c r="I489" t="n">
         <v>102.385</v>
@@ -31271,7 +31271,7 @@
         <v>0.02032</v>
       </c>
       <c r="S489" t="n">
-        <v>122.9668150821581</v>
+        <v>31.13334040229881</v>
       </c>
     </row>
     <row r="490">
@@ -31301,7 +31301,7 @@
         <v>-11.83333333333333</v>
       </c>
       <c r="H490" t="n">
-        <v>-9.4</v>
+        <v>-23</v>
       </c>
       <c r="I490" t="n">
         <v>103.93</v>
@@ -31334,7 +31334,7 @@
         <v>0.02032</v>
       </c>
       <c r="S490" t="n">
-        <v>121.2944706731469</v>
+        <v>39.04087911520477</v>
       </c>
     </row>
     <row r="491">
@@ -31364,7 +31364,7 @@
         <v>-11.16666666666667</v>
       </c>
       <c r="H491" t="n">
-        <v>1.1</v>
+        <v>-17.16666666666667</v>
       </c>
       <c r="I491" t="n">
         <v>102.76</v>
@@ -31397,7 +31397,7 @@
         <v>0.02032</v>
       </c>
       <c r="S491" t="n">
-        <v>253.1317448931963</v>
+        <v>61.20519692173849</v>
       </c>
     </row>
     <row r="492">
@@ -31427,7 +31427,7 @@
         <v>-5.499999999999999</v>
       </c>
       <c r="H492" t="n">
-        <v>-1.2</v>
+        <v>-18.44444444444445</v>
       </c>
       <c r="I492" t="n">
         <v>102.71</v>
@@ -31460,7 +31460,7 @@
         <v>0.02032</v>
       </c>
       <c r="S492" t="n">
-        <v>137.8269858079518</v>
+        <v>35.35233293036221</v>
       </c>
     </row>
     <row r="493">
@@ -31490,7 +31490,7 @@
         <v>-7.333333333333333</v>
       </c>
       <c r="H493" t="n">
-        <v>-8</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="I493" t="n">
         <v>103.62</v>
@@ -31523,7 +31523,7 @@
         <v>0.02032</v>
       </c>
       <c r="S493" t="n">
-        <v>94.97329239899564</v>
+        <v>29.35047393494278</v>
       </c>
     </row>
     <row r="494">
@@ -31553,7 +31553,7 @@
         <v>-2.555555555555556</v>
       </c>
       <c r="H494" t="n">
-        <v>-8.5</v>
+        <v>-22.5</v>
       </c>
       <c r="I494" t="n">
         <v>103.47</v>
@@ -31586,7 +31586,7 @@
         <v>0.02032</v>
       </c>
       <c r="S494" t="n">
-        <v>63.65372143261585</v>
+        <v>19.95747080230192</v>
       </c>
     </row>
     <row r="495">
@@ -31616,7 +31616,7 @@
         <v>-7.333333333333333</v>
       </c>
       <c r="H495" t="n">
-        <v>-9</v>
+        <v>-22.77777777777778</v>
       </c>
       <c r="I495" t="n">
         <v>103.77</v>
@@ -31649,7 +31649,7 @@
         <v>0.02032</v>
       </c>
       <c r="S495" t="n">
-        <v>87.85468872965114</v>
+        <v>27.94859647524908</v>
       </c>
     </row>
     <row r="496">
@@ -31679,7 +31679,7 @@
         <v>-10.05555555555556</v>
       </c>
       <c r="H496" t="n">
-        <v>-8.4</v>
+        <v>-22.44444444444445</v>
       </c>
       <c r="I496" t="n">
         <v>103.4</v>
@@ -31712,7 +31712,7 @@
         <v>0.02032</v>
       </c>
       <c r="S496" t="n">
-        <v>113.8589890612453</v>
+        <v>35.5952297466624</v>
       </c>
     </row>
     <row r="497">
@@ -31742,7 +31742,7 @@
         <v>-4.944444444444444</v>
       </c>
       <c r="H497" t="n">
-        <v>-1.6</v>
+        <v>-18.66666666666667</v>
       </c>
       <c r="I497" t="n">
         <v>103.13</v>
@@ -31775,7 +31775,7 @@
         <v>0.02032</v>
       </c>
       <c r="S497" t="n">
-        <v>128.3209288212748</v>
+        <v>33.26037905824063</v>
       </c>
     </row>
     <row r="498">
@@ -31805,7 +31805,7 @@
         <v>-3.611111111111111</v>
       </c>
       <c r="H498" t="n">
-        <v>-8.9</v>
+        <v>-22.72222222222222</v>
       </c>
       <c r="I498" t="n">
         <v>103.13</v>
@@ -31838,7 +31838,7 @@
         <v>0.02032</v>
       </c>
       <c r="S498" t="n">
-        <v>66.74077710854084</v>
+        <v>21.16995854472105</v>
       </c>
     </row>
   </sheetData>
